--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="610" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId2"/>
     <sheet name="Student Visited In Lab" sheetId="3" r:id="rId3"/>
-    <sheet name="Purchase " sheetId="4" r:id="rId4"/>
-    <sheet name="Rate List" sheetId="5" r:id="rId5"/>
-    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId6"/>
-    <sheet name="Final Year Projects" sheetId="9" r:id="rId7"/>
+    <sheet name="Balance" sheetId="10" r:id="rId4"/>
+    <sheet name="Purchase " sheetId="4" r:id="rId5"/>
+    <sheet name="Rate List" sheetId="5" r:id="rId6"/>
+    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId7"/>
+    <sheet name="Final Year Projects" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="468">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3831,12 +3832,21 @@
   <si>
     <t>Electrician</t>
   </si>
+  <si>
+    <t>please provide reason??</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Pending Payment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4034,7 +4044,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4182,6 +4192,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4190,6 +4202,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4236,7 +4256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4268,9 +4288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4302,6 +4323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4477,14 +4499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4495,9 +4517,10 @@
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4529,36 +4552,39 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="63">
         <v>9540890120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="64">
         <v>42016</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="63" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4599,14 +4625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -4616,7 +4642,7 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4642,7 +4668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4668,7 +4694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4691,7 +4717,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4717,7 +4743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4743,7 +4769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4769,7 +4795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4792,7 +4818,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -4815,7 +4841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -4841,7 +4867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>448</v>
       </c>
@@ -4867,7 +4893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -4893,7 +4919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>455</v>
       </c>
@@ -4929,14 +4955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -4945,7 +4971,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4965,7 +4991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4985,7 +5011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5005,7 +5031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5025,7 +5051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5045,7 +5071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -5065,7 +5091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -5099,117 +5125,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="B1" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5218,19 +5152,142 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -5238,7 +5295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5246,7 +5303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5254,7 +5311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -5262,7 +5319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -5270,7 +5327,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5278,7 +5335,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -5286,7 +5343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -5294,7 +5351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -5302,7 +5359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -5310,7 +5367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -5318,7 +5375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -5326,7 +5383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -5336,8 +5393,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5345,7 +5402,7 @@
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -6055,7 +6112,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
@@ -6091,8 +6148,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -6122,7 +6179,7 @@
       </c>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+    <row r="4" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -6154,7 +6211,7 @@
       </c>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -6186,7 +6243,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -6218,7 +6275,7 @@
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -6250,7 +6307,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -6282,7 +6339,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -6312,7 +6369,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -6342,7 +6399,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -6376,7 +6433,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -6408,7 +6465,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -6440,7 +6497,7 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -6472,7 +6529,7 @@
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
+    <row r="15" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -6504,7 +6561,7 @@
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+    <row r="16" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -6536,7 +6593,7 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>15</v>
       </c>
@@ -6564,7 +6621,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="18" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>16</v>
       </c>
@@ -6596,7 +6653,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="19" spans="1:12" s="49" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:12" s="49" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>17</v>
       </c>
@@ -6630,7 +6687,7 @@
       </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="20" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -6662,7 +6719,7 @@
       </c>
       <c r="L20" s="38"/>
     </row>
-    <row r="21" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1">
+    <row r="21" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="51"/>
       <c r="C21" s="50"/>
@@ -6676,7 +6733,7 @@
       <c r="K21" s="52"/>
       <c r="L21" s="53"/>
     </row>
-    <row r="22" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1">
+    <row r="22" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
       <c r="C22" s="50"/>
@@ -6699,15 +6756,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -6715,7 +6772,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>184</v>
       </c>
@@ -6729,13 +6786,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="56"/>
       <c r="D2" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>189</v>
       </c>
@@ -6743,7 +6800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>191</v>
       </c>
@@ -6754,7 +6811,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>194</v>
       </c>
@@ -6765,7 +6822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>196</v>
       </c>
@@ -6776,7 +6833,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>199</v>
       </c>
@@ -6787,7 +6844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
         <v>202</v>
       </c>
@@ -6798,7 +6855,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
         <v>205</v>
       </c>
@@ -6809,7 +6866,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
         <v>208</v>
       </c>
@@ -6820,7 +6877,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
         <v>210</v>
       </c>
@@ -6831,7 +6888,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="56" t="s">
         <v>212</v>
       </c>
@@ -6842,12 +6899,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
         <v>215</v>
       </c>
@@ -6855,7 +6912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
         <v>216</v>
       </c>
@@ -6863,7 +6920,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="s">
         <v>218</v>
       </c>
@@ -6871,12 +6928,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="s">
         <v>220</v>
       </c>
@@ -6884,7 +6941,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>221</v>
       </c>
@@ -6892,7 +6949,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="56" t="s">
         <v>222</v>
       </c>
@@ -6900,7 +6957,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
         <v>223</v>
       </c>
@@ -6908,7 +6965,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>225</v>
       </c>
@@ -6916,7 +6973,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
         <v>227</v>
       </c>
@@ -6924,7 +6981,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="56" t="s">
         <v>229</v>
       </c>
@@ -6932,1143 +6989,1143 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="56" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15">
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15">
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15">
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15">
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15">
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15">
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15">
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15">
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15">
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" ht="16.5">
+    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="57" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15">
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15">
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15">
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15">
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15">
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15">
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15">
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15">
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15">
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15">
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
     </row>
-    <row r="79" spans="1:1" ht="16.5">
+    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15">
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15">
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15">
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15">
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15">
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15">
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15">
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15">
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15">
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15">
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15">
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15">
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15">
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15">
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15">
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
     </row>
-    <row r="109" spans="1:1" ht="16.5">
+    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="57" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="56" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15">
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15">
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15">
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15">
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15">
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15">
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="56" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15">
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15">
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="56" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="56" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15">
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="56" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15">
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15">
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15">
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="56"/>
     </row>
-    <row r="125" spans="1:1" ht="16.5">
+    <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="57" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15">
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="56" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15">
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15">
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="56" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="56" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="56" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="56" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="56" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="56" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="56" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15">
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="56" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15">
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="56" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15">
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="56" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15">
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="56" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15">
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="56" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15">
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="56" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15">
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="56" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15">
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="56" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15">
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="56" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15">
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="56" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15">
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="56" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15">
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="56" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15">
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="56" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15">
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="56" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15">
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="56" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15">
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15">
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="56" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15">
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="56" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15">
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="56" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15">
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="56" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15">
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="56"/>
     </row>
-    <row r="157" spans="1:1" ht="16.5">
+    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="57" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15">
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="56" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15">
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15">
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="56" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15">
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="56" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15">
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15">
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="56" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15">
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="16.5">
+    <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="57" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15">
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="56" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15">
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="56" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15">
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="56" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15">
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15">
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="56" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15">
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="56" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15">
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="56" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15">
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="56" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15">
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="56" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15">
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="56" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15">
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="56" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15">
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="56" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15">
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="56" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15">
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="56" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15">
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="56" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15">
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="56" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15">
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="56" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15">
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="56" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15">
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15">
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15">
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="56" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15">
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="56" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15">
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="56" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15">
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="56" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15">
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="56" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15">
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="56" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15">
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="56" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15">
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="56" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15">
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15">
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="56" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15">
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="56" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15">
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="56" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15">
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="56" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15">
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="56" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15">
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="56"/>
     </row>
-    <row r="201" spans="1:1" ht="16.5">
+    <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="57" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15">
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="56" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15">
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="56" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15">
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="56" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15">
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="56" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15">
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="56" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15">
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="56" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15">
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="56" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15">
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15">
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="56" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15">
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="56"/>
     </row>
-    <row r="212" spans="1:1" ht="16.5">
+    <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="57" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15">
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="56" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15">
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="56" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15">
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="56" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15">
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="56" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15">
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="56"/>
     </row>
-    <row r="218" spans="1:1" ht="16.5">
+    <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="57" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15">
+    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="56" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15">
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="56" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15">
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="56"/>
     </row>
-    <row r="222" spans="1:1" ht="16.5">
+    <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="57" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15">
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15">
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="56" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15">
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="56" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="56" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15">
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="56" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="56" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="56" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15">
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="56" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="56" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="56"/>
     </row>
-    <row r="233" spans="1:1" ht="16.5">
+    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="57" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15">
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="56" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15">
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="56"/>
     </row>
-    <row r="236" spans="1:1" ht="16.5">
+    <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="57" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15">
+    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="56" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15">
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="56" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="16.5">
+    <row r="240" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="57" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="58" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="58" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="58" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="58" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="58" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="16.5">
+    <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="57" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="16.5">
+    <row r="250" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="57" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="16.5">
+    <row r="252" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="57" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="61" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="61" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="61" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="61" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="61" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="62" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="61" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="61" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="61" t="s">
         <v>447</v>
       </c>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,869 @@
     <t>1800/-</t>
   </si>
   <si>
-    <r>
-      <t>1.1.</t>
+    <t>2200/-</t>
+  </si>
+  <si>
+    <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1200/-)</t>
+  </si>
+  <si>
+    <t>650/-</t>
+  </si>
+  <si>
+    <t>2800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Fan Regulator (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>3200/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based DC Motor Speed Controller with LCD Display (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>800/-</t>
+  </si>
+  <si>
+    <t>3800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Room Light and Fan control using Motion Sensor (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>975/-</t>
+  </si>
+  <si>
+    <t>4200/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Object Counter (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>468/-</t>
+  </si>
+  <si>
+    <t>4800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Display of Dialed Telephone Numbers on Seven Segment Displays (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>910/-</t>
+  </si>
+  <si>
+    <t>5200/-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speed Control of DC Motor Using Pulse Width Modulation (1200/-)</t>
+  </si>
+  <si>
+    <t>5800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Automatic Line Following Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>6200/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Bi-directional Visitor Counter (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>6800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Temperature Monitoring System (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Remote Controller for Water Pump (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Count Down Timer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>400/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Electronic Lock (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Digital Alarm Clock (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Password Based Door Lock System using 8051 Microcontroller (1200/-)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Fan Speed Controller (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Device control using Mobile Phone (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller Based Tachometer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>670/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Distance meter using Ultrasonic sensor (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>680/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Edge Avoiding Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>780/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 RF Based 4 Channel Home Appliances Control (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatic Control for Unmanned Railway Gate (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Moving Message Display On LCD (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Home Automation (Ac/Dc) Using PC Interface (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Autonomous Self-parking car (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based DC Motor Controller with Password (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Clap counter with clap count Display on LCD  (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s (3800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 based Underground Cable Fault finding System with distance Indicator (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 based IC Tester with Visual Basic  (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Temperature Indicator-CUM-Controller (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IC Tester based on Microcontroller 74XX Series (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell Phone Based DTMF Controlled Garage Door Opening System (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based 0-100°C  temperature indicator system (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Dynamic Display Using LED Strip (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatic Exhaust Fan Control Coupled To Gas Leak Detection (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller-Based Solar Charger (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller-Based School Timer (2800/- )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell phone controlled solar vehicle (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>House security system (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (2500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Digital Clock (3000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC Based Electrical Load Control (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Car Speed Checker (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ball Picker Robot (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Fan Speed Controller using Visual Basic (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Underground Cable Fault Distance Locator (2800/-)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.2.</t>
     </r>
     <r>
       <rPr>
@@ -612,873 +1473,426 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>AT89s52 Microcontroller Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <t>2200/-</t>
-  </si>
-  <si>
-    <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1200/-)</t>
-  </si>
-  <si>
-    <t>650/-</t>
-  </si>
-  <si>
-    <t>2800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Controlled Fan Regulator (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>3200/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based DC Motor Speed Controller with LCD Display (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>800/-</t>
-  </si>
-  <si>
-    <t>3800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Room Light and Fan control using Motion Sensor (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>975/-</t>
-  </si>
-  <si>
-    <t>4200/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Object Counter (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>468/-</t>
-  </si>
-  <si>
-    <t>4800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Display of Dialed Telephone Numbers on Seven Segment Displays (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>910/-</t>
-  </si>
-  <si>
-    <t>5200/-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speed Control of DC Motor Using Pulse Width Modulation (1200/-)</t>
-  </si>
-  <si>
-    <t>5800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Automatic Line Following Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>6200/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Bi-directional Visitor Counter (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>6800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Temperature Monitoring System (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Remote Controller for Water Pump (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Count Down Timer (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>400/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Electronic Lock (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Digital Alarm Clock (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Password Based Door Lock System using 8051 Microcontroller (1200/-)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Fan Speed Controller (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Device control using Mobile Phone (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller Based Tachometer (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>670/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Distance meter using Ultrasonic sensor (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>680/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Edge Avoiding Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>780/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 RF Based 4 Channel Home Appliances Control (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatic Control for Unmanned Railway Gate (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Moving Message Display On LCD (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Home Automation (Ac/Dc) Using PC Interface (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Autonomous Self-parking car (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based DC Motor Controller with Password (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Clap counter with clap count Display on LCD  (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s (3800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 based Underground Cable Fault finding System with distance Indicator (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 based IC Tester with Visual Basic  (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Temperature Indicator-CUM-Controller (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IC Tester based on Microcontroller 74XX Series (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell Phone Based DTMF Controlled Garage Door Opening System (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based 0-100°C  temperature indicator system (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Dynamic Display Using LED Strip (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatic Exhaust Fan Control Coupled To Gas Leak Detection (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller-Based Solar Charger (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller-Based School Timer (2800/- )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell phone controlled solar vehicle (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>House security system (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (2500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Digital Clock (3000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PC Based Electrical Load Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Car Speed Checker (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ball Picker Robot (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Fan Speed Controller using Visual Basic (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>Underground Cable Fault Distance Locator (2800/-)</t>
-  </si>
-  <si>
-    <r>
-      <t>1.2.</t>
+      <t>PIC Microcontroller Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Temperature Monitoring System (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Automated Line Following Robot (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based DC Motor Controller (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Edge Avoiding Robot (3700/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Count Down Timer (4000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Room Light and Fan control using Motion Sensor (4000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Bi-directional Visitor Counter (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Device control using Mobile Phone (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Display Using Dot Matrix (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Moving Message Display On LCD (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Temperature Indicator-CUM-Controller (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based 0-100°C  temperature indicator system (4600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Remote Controller for Water Pump (4700/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Tachometer (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Solar Charger (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Electronic Lock (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time-Controlled Switch Using PIC (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Programmable Industrial On-Off Timer With RF Remote (5200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Digital Clock (5500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based IR Remote based 8 Channel Home Appliances Control (6000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Propeller Message Display using Moving LED’s (6000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based School Timer (6500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.3.</t>
     </r>
     <r>
       <rPr>
@@ -1498,426 +1912,498 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>PIC Microcontroller Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Temperature Monitoring System (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Automated Line Following Robot (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based DC Motor Controller (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Edge Avoiding Robot (3700/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Count Down Timer (4000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Room Light and Fan control using Motion Sensor (4000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Bi-directional Visitor Counter (4200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Device control using Mobile Phone (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Display Using Dot Matrix (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Moving Message Display On LCD (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Temperature Indicator-CUM-Controller (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based 0-100°C  temperature indicator system (4600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Remote Controller for Water Pump (4700/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Tachometer (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Solar Charger (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Electronic Lock (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Time-Controlled Switch Using PIC (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Programmable Industrial On-Off Timer With RF Remote (5200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Digital Clock (5500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based IR Remote based 8 Channel Home Appliances Control (6000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Propeller Message Display using Moving LED’s (6000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based School Timer (6500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.3.</t>
+      <t>Arduino UNO Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Electronic Lock (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Moving Message Display On LCD (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based DC Motor Controller (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Room Light and Fan control using Motion Sensor (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino Based Tilt Detector (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Automatic Line Following Robot (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Edge Avoiding Robot (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Bi-directional Visitor Counter (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Solar Charger (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Count Down Timer (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Dynamic Display Using LED Strip (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Remote Controller for Water Pump (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Tachometer (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based School Timer (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Cell Phone Operated Land Rover Robot (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Distance meter using Ultrasonic sensor (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Temperature Indicator-CUM-Controller (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Propeller Message Display using Moving LED’s (3300/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Temperature Monitoring System (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Device control using Mobile Phone (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Time-Controlled Switch (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Fire Fighting Robot (3000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Remote based 8 Channel Home Appliances Control (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Office Attendance system using RFID (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Heart Beat monitoring System (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino Based Robotic Arm Control using RF Remote (4000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.4.</t>
     </r>
     <r>
       <rPr>
@@ -1937,498 +2423,246 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Arduino UNO Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Electronic Lock (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Moving Message Display On LCD (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based DC Motor Controller (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Room Light and Fan control using Motion Sensor (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino Based Tilt Detector (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Automatic Line Following Robot (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Edge Avoiding Robot (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Bi-directional Visitor Counter (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Solar Charger (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Count Down Timer (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Dynamic Display Using LED Strip (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Remote Controller for Water Pump (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Tachometer (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based School Timer (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Cell Phone Operated Land Rover Robot (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Distance meter using Ultrasonic sensor (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Temperature Indicator-CUM-Controller (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Propeller Message Display using Moving LED’s (3300/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Temperature Monitoring System (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Device control using Mobile Phone (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Time-Controlled Switch (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Fire Fighting Robot (3000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Remote based 8 Channel Home Appliances Control (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Office Attendance system using RFID (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Heart Beat monitoring System (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino Based Robotic Arm Control using RF Remote (4000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.4.</t>
+      <t>Robotic Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automated Line Following Robot (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IR Controlled Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Distance meter Robot using Ultrasonic sensor (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Edge Avoiding Robot (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell Phone Operated Land Rover Robot (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Robot (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Solar powered Robot (2500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Light Sensing Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obstacle Avoiding Robot using IR Module (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fire Fighting Robot (5900/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obstacle Avoiding Robot using Ultrasonic Module (1200/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Robotic Arm (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hand Gesture Controlled Robot using Accelerometer (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.5.</t>
     </r>
     <r>
       <rPr>
@@ -2448,246 +2682,207 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Robotic Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automated Line Following Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IR Controlled Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Distance meter Robot using Ultrasonic sensor (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Edge Avoiding Robot (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell Phone Operated Land Rover Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Controlled Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Solar powered Robot (2500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Light Sensing Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Obstacle Avoiding Robot using IR Module (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fire Fighting Robot (5900/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Obstacle Avoiding Robot using Ultrasonic Module (1200/)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Controlled Robotic Arm (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hand Gesture Controlled Robot using Accelerometer (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.5.</t>
+      <t>RFID Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Shopping Cart with LCD Display and Price Calculation (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Security System and Access Control (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Office/College Entry system with LCD Display using Arduino (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Train Couch Identification and Display on Platform (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Access Control and SMS system (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Automatic Vehicle Parking System (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Automatic Vehicle Parking System with SMS Alert (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>RFID Based Automatic Challan System    (3500/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Library Management System    (3500/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Local Vehicle Tracking System  (4200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Security System           (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Attendance System  (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Railway Reservation    (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Shopping Cart      (3200/-)</t>
+  </si>
+  <si>
+    <t>Automatic Toll Tax  Deduction System      (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based ATM Machine     (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energy Meter with Recharge Option        (3200/-)</t>
+  </si>
+  <si>
+    <t>Electronic Road Pricing     (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Inventory Tracking System    (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RFID Based Voting Machine  (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Ration Card   (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Banking System  (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Metro Train Prototype  (3200/-)</t>
+  </si>
+  <si>
+    <t>Platform to Display Position of Coach   (3200/-)</t>
+  </si>
+  <si>
+    <t>Animal Identification Device    (3200/-)</t>
+  </si>
+  <si>
+    <t>Telemedicine System       (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parts Tracking System for Manufacturing  (3200/-)</t>
+  </si>
+  <si>
+    <t>Event Tracking System for Sports     (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID BASED CONVEYOR BELT  (4800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Passport   (3200/-)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.6.</t>
     </r>
     <r>
       <rPr>
@@ -2707,207 +2902,120 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>RFID Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Shopping Cart with LCD Display and Price Calculation (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Security System and Access Control (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Office/College Entry system with LCD Display using Arduino (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Train Couch Identification and Display on Platform (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Access Control and SMS system (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Automatic Vehicle Parking System (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Automatic Vehicle Parking System with SMS Alert (4200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>RFID Based Automatic Challan System    (3500/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Library Management System    (3500/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Local Vehicle Tracking System  (4200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Security System           (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Attendance System  (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Railway Reservation    (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Shopping Cart      (3200/-)</t>
-  </si>
-  <si>
-    <t>Automatic Toll Tax  Deduction System      (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based ATM Machine     (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Energy Meter with Recharge Option        (3200/-)</t>
-  </si>
-  <si>
-    <t>Electronic Road Pricing     (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Inventory Tracking System    (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RFID Based Voting Machine  (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Ration Card   (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Banking System  (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Metro Train Prototype  (3200/-)</t>
-  </si>
-  <si>
-    <t>Platform to Display Position of Coach   (3200/-)</t>
-  </si>
-  <si>
-    <t>Animal Identification Device    (3200/-)</t>
-  </si>
-  <si>
-    <t>Telemedicine System       (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parts Tracking System for Manufacturing  (3200/-)</t>
-  </si>
-  <si>
-    <t>Event Tracking System for Sports     (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID BASED CONVEYOR BELT  (4800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Passport   (3200/-)</t>
-  </si>
-  <si>
-    <r>
-      <t>1.6.</t>
+      <t>Remote Control / RF Module Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control based Water Pump On/Off (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based DC Motor Direction Control (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based DC Motor Speed Control (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based Induction Motor Direction Control (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote based Multiple Device Control (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based Robotic Arm Movement (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.7.</t>
     </r>
     <r>
       <rPr>
@@ -2927,120 +3035,144 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Remote Control / RF Module Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control based Water Pump On/Off (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based DC Motor Direction Control (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based DC Motor Speed Control (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based Induction Motor Direction Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote based Multiple Device Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based Robotic Arm Movement (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.7.</t>
+      <t>GSM Module Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMS sending System to User Mobile based on Motion Detection (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMS sending System to Mobile based on Access Control (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Flash Flood Intimation over GSM Network (2800/-)</t>
+  </si>
+  <si>
+    <t>Forest fire and rainfall monitoring system using GSM technology (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM based Domestic/Industrial Energy meter monthly billing system (3800/-)</t>
+  </si>
+  <si>
+    <t>PIR + GSM based Home Security System (2800/-)</t>
+  </si>
+  <si>
+    <t>GSM Based IVRS System for Railway ticket Reservation (3200/-)</t>
+  </si>
+  <si>
+    <t>Mobile and smart card based voting system (3200/-)</t>
+  </si>
+  <si>
+    <t>Railway Level Crossing Gate Control through SMS by the Station Master or the Driver (3200/-)</t>
+  </si>
+  <si>
+    <t>Automatic Dialing to Any Telephone Using I2C Protocol on Detecting Burglary (3200/-)</t>
+  </si>
+  <si>
+    <t>Theft Intimation of Vehicle Over SMS to Owner Who Can Stop the Engine Remotely (3200/-)</t>
+  </si>
+  <si>
+    <t>Wireless load control By GSM (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM Autonomous CAR Parking (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM Advanced Wireless Earthquake Alarm System For Early Warning (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM based Remote problem solving Capability using Commands through SMS (3200/-)</t>
+  </si>
+  <si>
+    <t>GPRS and GSM Based Intelligent Patient Monitoring (3200/-)</t>
+  </si>
+  <si>
+    <t>Real time Scrolling Notice board using GSM and Arduino on LCD Display (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM Based Home Appliances Control  (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Voting Machine.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Motor Control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Home Security System        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Energy Meter Monitoring    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Controlled Wireless Robot     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Stepper Motor Control   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Vehicle Ignition System for Safety </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Generator Start/Stop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Vending Machine    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Anti Theft System for Vehicles  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Railways Reservation     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Vehicle Location Finder for Parking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based NoticeBoard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Ten Templates     </t>
+  </si>
+  <si>
+    <t>GSM Based Highway Traffic Monitoring System</t>
+  </si>
+  <si>
+    <t>GSM Based Visitor Counter For Mall</t>
+  </si>
+  <si>
+    <r>
+      <t>1.12.</t>
     </r>
     <r>
       <rPr>
@@ -3050,7 +3182,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">          </t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -3060,144 +3192,99 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>GSM Module Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SMS sending System to User Mobile based on Motion Detection (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SMS sending System to Mobile based on Access Control (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>Flash Flood Intimation over GSM Network (2800/-)</t>
-  </si>
-  <si>
-    <t>Forest fire and rainfall monitoring system using GSM technology (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM based Domestic/Industrial Energy meter monthly billing system (3800/-)</t>
-  </si>
-  <si>
-    <t>PIR + GSM based Home Security System (2800/-)</t>
-  </si>
-  <si>
-    <t>GSM Based IVRS System for Railway ticket Reservation (3200/-)</t>
-  </si>
-  <si>
-    <t>Mobile and smart card based voting system (3200/-)</t>
-  </si>
-  <si>
-    <t>Railway Level Crossing Gate Control through SMS by the Station Master or the Driver (3200/-)</t>
-  </si>
-  <si>
-    <t>Automatic Dialing to Any Telephone Using I2C Protocol on Detecting Burglary (3200/-)</t>
-  </si>
-  <si>
-    <t>Theft Intimation of Vehicle Over SMS to Owner Who Can Stop the Engine Remotely (3200/-)</t>
-  </si>
-  <si>
-    <t>Wireless load control By GSM (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM Autonomous CAR Parking (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM Advanced Wireless Earthquake Alarm System For Early Warning (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM based Remote problem solving Capability using Commands through SMS (3200/-)</t>
-  </si>
-  <si>
-    <t>GPRS and GSM Based Intelligent Patient Monitoring (3200/-)</t>
-  </si>
-  <si>
-    <t>Real time Scrolling Notice board using GSM and Arduino on LCD Display (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM Based Home Appliances Control  (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Voting Machine.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Motor Control </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Home Security System        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Energy Meter Monitoring    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Controlled Wireless Robot     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Stepper Motor Control   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Vehicle Ignition System for Safety </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Generator Start/Stop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Vending Machine    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Anti Theft System for Vehicles  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Railways Reservation     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Vehicle Location Finder for Parking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based NoticeBoard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Ten Templates     </t>
-  </si>
-  <si>
-    <t>GSM Based Highway Traffic Monitoring System</t>
-  </si>
-  <si>
-    <t>GSM Based Visitor Counter For Mall</t>
-  </si>
-  <si>
-    <r>
-      <t>1.12.</t>
+      <t>Zig Bee Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based Data transmission (4600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based Device Control using PC (4800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based DC Motor Speed Control (4900/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> ZigBee based GAS leak detection and data monitoring system</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Zigbee based health monitoring system heart beat/ blood pressure </t>
+  </si>
+  <si>
+    <t>Wireless Meter Reading System based on Zigbee Technology</t>
+  </si>
+  <si>
+    <t>zigbee based water level monitor and pump control</t>
+  </si>
+  <si>
+    <t>ZigBee-Based Power Monitoring System with Direct Load Control Capabilities</t>
+  </si>
+  <si>
+    <t>Home security and appliance control using zigbee</t>
+  </si>
+  <si>
+    <r>
+      <t>1.13.</t>
     </r>
     <r>
       <rPr>
@@ -3217,99 +3304,84 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Zig Bee Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zig Bee based Data transmission (4600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zig Bee based Device Control using PC (4800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zig Bee based DC Motor Speed Control (4900/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> ZigBee based GAS leak detection and data monitoring system</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Zigbee based health monitoring system heart beat/ blood pressure </t>
-  </si>
-  <si>
-    <t>Wireless Meter Reading System based on Zigbee Technology</t>
-  </si>
-  <si>
-    <t>zigbee based water level monitor and pump control</t>
-  </si>
-  <si>
-    <t>ZigBee-Based Power Monitoring System with Direct Load Control Capabilities</t>
-  </si>
-  <si>
-    <t>Home security and appliance control using zigbee</t>
-  </si>
-  <si>
-    <r>
-      <t>1.13.</t>
+      <t>Visual Basic Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic Based IC Tester (74XX Series) (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual basic based Device Control through PC (6500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic Based DC Motor Speed Control (8000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic based Equipment Control through PC using Remote Control (8000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.14.</t>
     </r>
     <r>
       <rPr>
@@ -3329,84 +3401,48 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Visual Basic Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual Basic Based IC Tester (74XX Series) (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual basic based Device Control through PC (6500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual Basic Based DC Motor Speed Control (8000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual Basic based Equipment Control through PC using Remote Control (8000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.14.</t>
+      <t>Mat lab Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Matlab Based Image Distortion techniques (7500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Matlab based Image Noising and De-noising Technique (7500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.15.</t>
     </r>
     <r>
       <rPr>
@@ -3426,48 +3462,54 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Mat lab Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Matlab Based Image Distortion techniques (7500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Matlab based Image Noising and De-noising Technique (7500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.15.</t>
+      <t>Mechanical Engineering Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Electricity Generator using Water Turbine (5500/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Remote Controlled Drilling Machine</t>
+  </si>
+  <si>
+    <t>Robotic Arm</t>
+  </si>
+  <si>
+    <t>Air Defense Gun</t>
+  </si>
+  <si>
+    <t>Mechanical Braking System</t>
+  </si>
+  <si>
+    <t>Vehicle Gas Detection and automatic Engine Shutdown</t>
+  </si>
+  <si>
+    <t>Vending Machine for Cold Drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart shock absorber for automobile </t>
+  </si>
+  <si>
+    <t>Object Sorting Robot based on Size</t>
+  </si>
+  <si>
+    <r>
+      <t>1.16.</t>
     </r>
     <r>
       <rPr>
@@ -3487,54 +3529,30 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Mechanical Engineering Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Electricity Generator using Water Turbine (5500/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>Remote Controlled Drilling Machine</t>
-  </si>
-  <si>
-    <t>Robotic Arm</t>
-  </si>
-  <si>
-    <t>Air Defense Gun</t>
-  </si>
-  <si>
-    <t>Mechanical Braking System</t>
-  </si>
-  <si>
-    <t>Vehicle Gas Detection and automatic Engine Shutdown</t>
-  </si>
-  <si>
-    <t>Vending Machine for Cold Drinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart shock absorber for automobile </t>
-  </si>
-  <si>
-    <t>Object Sorting Robot based on Size</t>
-  </si>
-  <si>
-    <r>
-      <t>1.16.</t>
+      <t>Android App Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Android based Students Attendance System (9000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.17.</t>
     </r>
     <r>
       <rPr>
@@ -3554,30 +3572,48 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Android App Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Android based Students Attendance System (9000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.17.</t>
+      <t>Python Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Python Based Web server and Client (6500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Python Based Facebook simulation (12000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.18.</t>
     </r>
     <r>
       <rPr>
@@ -3587,7 +3623,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t>    </t>
     </r>
     <r>
       <rPr>
@@ -3597,48 +3633,30 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Python Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Python Based Web server and Client (6500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Python Based Facebook simulation (12000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.18.</t>
+      <t xml:space="preserve"> RFID + GSM Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <t>RFID CUM GSM Attendance System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFID CUM GSM ATM Machine   </t>
+  </si>
+  <si>
+    <t>RFID CUM GSM VEHICLE Tracking System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFID CUM GSM HOME SECURITY SYSTEM </t>
+  </si>
+  <si>
+    <t>RFID CUM GSM SMART Mail Box</t>
+  </si>
+  <si>
+    <t>RFID CUM GSM  Toll Tax System</t>
+  </si>
+  <si>
+    <r>
+      <t>1.19.</t>
     </r>
     <r>
       <rPr>
@@ -3658,30 +3676,12 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> RFID + GSM Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <t>RFID CUM GSM Attendance System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFID CUM GSM ATM Machine   </t>
-  </si>
-  <si>
-    <t>RFID CUM GSM VEHICLE Tracking System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFID CUM GSM HOME SECURITY SYSTEM </t>
-  </si>
-  <si>
-    <t>RFID CUM GSM SMART Mail Box</t>
-  </si>
-  <si>
-    <t>RFID CUM GSM  Toll Tax System</t>
-  </si>
-  <si>
-    <r>
-      <t>1.19.</t>
+      <t xml:space="preserve"> GPS Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.20.</t>
     </r>
     <r>
       <rPr>
@@ -3701,12 +3701,12 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> GPS Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.20.</t>
+      <t xml:space="preserve"> GPS + GSM Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.21.</t>
     </r>
     <r>
       <rPr>
@@ -3726,31 +3726,6 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> GPS + GSM Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.21.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color indexed="62"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color indexed="62"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve"> Electrical Engineering Projects</t>
     </r>
   </si>
@@ -3840,6 +3815,9 @@
   </si>
   <si>
     <t>Pending Payment</t>
+  </si>
+  <si>
+    <t>AT89s52 Microcontroller Based Projects</t>
   </si>
 </sst>
 </file>
@@ -4044,7 +4022,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4194,6 +4172,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4502,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4581,7 +4562,7 @@
         <v>181</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4869,22 +4850,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" t="s">
         <v>449</v>
-      </c>
-      <c r="D10" t="s">
-        <v>450</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4895,25 +4876,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" t="s">
         <v>453</v>
-      </c>
-      <c r="D11" t="s">
-        <v>454</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -4921,22 +4902,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B12">
         <v>9871310918</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" t="s">
         <v>456</v>
-      </c>
-      <c r="D12" t="s">
-        <v>457</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5143,7 +5124,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5224,32 +5205,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
         <v>458</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>459</v>
-      </c>
-      <c r="C6" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" t="s">
         <v>461</v>
-      </c>
-      <c r="C7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -5257,16 +5238,16 @@
     </row>
     <row r="9" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6758,1376 +6739,1377 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+  <dimension ref="B1:E261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="84.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="56"/>
+      <c r="E2" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="58" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="D4" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="15" t="s">
+    </row>
+    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="56" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="D5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="15" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="D6" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="15" t="s">
+    </row>
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="56" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="D7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="15" t="s">
+    </row>
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="56" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="D8" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="15" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="56" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="D9" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="15" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="58" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="D10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="15" t="s">
+    </row>
+    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="E12" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="15" t="s">
+    </row>
+    <row r="13" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
+      <c r="D20" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
+      <c r="D21" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="15" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="56" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="D22" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="15" t="s">
+    </row>
+    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="56" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="D23" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="15" t="s">
+    </row>
+    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24" s="56" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="D24" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B25" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+    </row>
+    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26" s="56" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
+    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
+    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="56" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
+    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="56" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="56" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="56" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="56" t="s">
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="56" t="s">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="56" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="56" t="s">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="56" t="s">
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45" s="56" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="56" t="s">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="56" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="56" t="s">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="s">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="56" t="s">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="60"/>
+    </row>
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="56"/>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B54" s="57" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-    </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-    </row>
-    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="56" t="s">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="56" t="s">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="56" t="s">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="56" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="56" t="s">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B60" s="56" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="56" t="s">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="56" t="s">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="56" t="s">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="56" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64" s="56" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="56" t="s">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65" s="56" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66" s="56" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="56" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="56" t="s">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68" s="56" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="56" t="s">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="s">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="56" t="s">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71" s="56" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="56" t="s">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="56" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="56" t="s">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="56" t="s">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="56" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="56" t="s">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="56" t="s">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="56" t="s">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B77" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="56" t="s">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B78" s="56"/>
+    </row>
+    <row r="79" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
-    </row>
-    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="57" t="s">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B80" s="56" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="56" t="s">
+    <row r="81" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="56" t="s">
+    <row r="82" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="56" t="s">
+    <row r="83" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="56" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="56" t="s">
+    <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B84" s="56" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="56" t="s">
+    <row r="85" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B85" s="56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="56" t="s">
+    <row r="86" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B86" s="56" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="56" t="s">
+    <row r="87" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B87" s="56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="s">
+    <row r="88" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B88" s="56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="56" t="s">
+    <row r="89" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B89" s="56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="56" t="s">
+    <row r="90" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B90" s="56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="56" t="s">
+    <row r="91" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B91" s="56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="56" t="s">
+    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B92" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="56" t="s">
+    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="56" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="56" t="s">
+    <row r="94" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B94" s="56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="56" t="s">
+    <row r="95" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B95" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="56" t="s">
+    <row r="96" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B96" s="56" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="56" t="s">
+    <row r="97" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B97" s="56" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
+    <row r="98" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B98" s="56" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+    <row r="99" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B99" s="56" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="56" t="s">
+    <row r="100" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B100" s="56" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="56" t="s">
+    <row r="101" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B101" s="56" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="s">
+    <row r="102" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B102" s="56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="56" t="s">
+    <row r="103" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B103" s="56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="56" t="s">
+    <row r="104" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B104" s="56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="56" t="s">
+    <row r="105" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B105" s="56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="56" t="s">
+    <row r="106" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B106" s="56" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="56" t="s">
+    <row r="107" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B107" s="56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B108" s="56"/>
+    </row>
+    <row r="109" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B109" s="57" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="56"/>
-    </row>
-    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="57" t="s">
+    <row r="110" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B110" s="56" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="56" t="s">
+    <row r="111" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B111" s="56" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="s">
+    <row r="112" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B112" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="56" t="s">
+    <row r="113" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B113" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="56" t="s">
+    <row r="114" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B114" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="56" t="s">
+    <row r="115" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B115" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="56" t="s">
+    <row r="116" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B116" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="56" t="s">
+    <row r="117" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B117" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="56" t="s">
+    <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B118" s="56" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="56" t="s">
+    <row r="119" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B119" s="56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="56" t="s">
+    <row r="120" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B120" s="56" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="56" t="s">
+    <row r="121" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B121" s="56" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="56" t="s">
+    <row r="122" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B122" s="56" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="56" t="s">
+    <row r="123" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B123" s="56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B124" s="56"/>
+    </row>
+    <row r="125" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B125" s="57" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="56"/>
-    </row>
-    <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="57" t="s">
+    <row r="126" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B126" s="56" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="56" t="s">
+    <row r="127" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B127" s="56" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="56" t="s">
+    <row r="128" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B128" s="56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="56" t="s">
+    <row r="129" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B129" s="56" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="56" t="s">
+    <row r="130" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B130" s="56" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="56" t="s">
+    <row r="131" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B131" s="56" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="56" t="s">
+    <row r="132" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B132" s="56" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="56" t="s">
+    <row r="133" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B133" s="56" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="56" t="s">
+    <row r="134" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B134" s="56" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="56" t="s">
+    <row r="135" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B135" s="56" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="56" t="s">
+    <row r="136" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B136" s="56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="56" t="s">
+    <row r="137" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B137" s="56" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="56" t="s">
+    <row r="138" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B138" s="56" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="56" t="s">
+    <row r="139" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B139" s="56" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="56" t="s">
+    <row r="140" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B140" s="56" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="56" t="s">
+    <row r="141" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B141" s="56" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="56" t="s">
+    <row r="142" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B142" s="56" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="56" t="s">
+    <row r="143" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B143" s="56" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="56" t="s">
+    <row r="144" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B144" s="56" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="56" t="s">
+    <row r="145" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B145" s="56" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="56" t="s">
+    <row r="146" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B146" s="56" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="56" t="s">
+    <row r="147" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B147" s="56" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="56" t="s">
+    <row r="148" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B148" s="56" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="56" t="s">
+    <row r="149" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B149" s="56" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="56" t="s">
+    <row r="150" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B150" s="56" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="56" t="s">
+    <row r="151" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B151" s="56" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="56" t="s">
+    <row r="152" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B152" s="56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="56" t="s">
+    <row r="153" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B153" s="56" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="56" t="s">
+    <row r="154" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B154" s="56" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="56" t="s">
+    <row r="155" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B155" s="56" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="56" t="s">
+    <row r="156" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B156" s="56"/>
+    </row>
+    <row r="157" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B157" s="57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="56"/>
-    </row>
-    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="57" t="s">
+    <row r="158" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B158" s="56" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="56" t="s">
+    <row r="159" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B159" s="56" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="56" t="s">
+    <row r="160" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B160" s="56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="56" t="s">
+    <row r="161" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B161" s="56" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="56" t="s">
+    <row r="162" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B162" s="56" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="56" t="s">
+    <row r="163" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B163" s="56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="56" t="s">
+    <row r="164" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B164" s="56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B165" s="57" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="57" t="s">
+    <row r="166" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B166" s="56" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="56" t="s">
+    <row r="167" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B167" s="56" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="56" t="s">
+    <row r="168" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B168" s="56" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="56" t="s">
+    <row r="169" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B169" s="56" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="56" t="s">
+    <row r="170" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B170" s="56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="56" t="s">
+    <row r="171" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B171" s="56" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="56" t="s">
+    <row r="172" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B172" s="56" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="56" t="s">
+    <row r="173" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B173" s="56" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="56" t="s">
+    <row r="174" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B174" s="56" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="56" t="s">
+    <row r="175" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B175" s="56" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="56" t="s">
+    <row r="176" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B176" s="56" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="56" t="s">
+    <row r="177" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B177" s="56" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="56" t="s">
+    <row r="178" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B178" s="56" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="56" t="s">
+    <row r="179" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B179" s="56" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="56" t="s">
+    <row r="180" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B180" s="56" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="56" t="s">
+    <row r="181" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B181" s="56" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="56" t="s">
+    <row r="182" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B182" s="56" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="56" t="s">
+    <row r="183" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B183" s="56" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="56" t="s">
+    <row r="184" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B184" s="56" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="56" t="s">
+    <row r="185" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B185" s="56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="56" t="s">
+    <row r="186" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B186" s="56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="56" t="s">
+    <row r="187" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B187" s="56" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="56" t="s">
+    <row r="188" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B188" s="56" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="56" t="s">
+    <row r="189" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B189" s="56" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="56" t="s">
+    <row r="190" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B190" s="56" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="56" t="s">
+    <row r="191" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B191" s="56" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="56" t="s">
+    <row r="192" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B192" s="56" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="56" t="s">
+    <row r="193" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B193" s="56" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="56" t="s">
+    <row r="194" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B194" s="56" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="56" t="s">
+    <row r="195" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B195" s="56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="56" t="s">
+    <row r="196" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B196" s="56" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="56" t="s">
+    <row r="197" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B197" s="56" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="56" t="s">
+    <row r="198" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B198" s="56" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="56" t="s">
+    <row r="199" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B199" s="56" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="56" t="s">
+    <row r="200" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B200" s="56"/>
+    </row>
+    <row r="201" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B201" s="57" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="56"/>
-    </row>
-    <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="57" t="s">
+    <row r="202" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B202" s="56" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="56" t="s">
+    <row r="203" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B203" s="56" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="56" t="s">
+    <row r="204" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B204" s="56" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="56" t="s">
+    <row r="205" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B205" s="56" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="56" t="s">
+    <row r="206" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B206" s="56" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="56" t="s">
+    <row r="207" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B207" s="56" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="56" t="s">
+    <row r="208" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B208" s="56" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="56" t="s">
+    <row r="209" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B209" s="56" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="56" t="s">
+    <row r="210" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B210" s="56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="56" t="s">
+    <row r="211" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B211" s="56"/>
+    </row>
+    <row r="212" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B212" s="57" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="56"/>
-    </row>
-    <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="57" t="s">
+    <row r="213" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B213" s="56" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="56" t="s">
+    <row r="214" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B214" s="56" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="56" t="s">
+    <row r="215" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B215" s="56" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="56" t="s">
+    <row r="216" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B216" s="56" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="56" t="s">
+    <row r="217" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B217" s="56"/>
+    </row>
+    <row r="218" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B218" s="57" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="56"/>
-    </row>
-    <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="57" t="s">
+    <row r="219" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B219" s="56" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="56" t="s">
+    <row r="220" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B220" s="56" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="56" t="s">
+    <row r="221" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B221" s="56"/>
+    </row>
+    <row r="222" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B222" s="57" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="56"/>
-    </row>
-    <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="57" t="s">
+    <row r="223" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B223" s="56" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="56" t="s">
+    <row r="224" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B224" s="56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="56" t="s">
+    <row r="225" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B225" s="56" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="56" t="s">
+    <row r="226" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B226" s="56" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="56" t="s">
+    <row r="227" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B227" s="56" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="56" t="s">
+    <row r="228" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B228" s="56" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="56" t="s">
+    <row r="229" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B229" s="56" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="56" t="s">
+    <row r="230" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B230" s="56" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="56" t="s">
+    <row r="231" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B231" s="56" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="56" t="s">
+    <row r="232" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B232" s="56"/>
+    </row>
+    <row r="233" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B233" s="57" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="56"/>
-    </row>
-    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="57" t="s">
+    <row r="234" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B234" s="56" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A234" s="56" t="s">
+    <row r="235" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B235" s="56"/>
+    </row>
+    <row r="236" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B236" s="57" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A235" s="56"/>
-    </row>
-    <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="57" t="s">
+    <row r="237" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B237" s="56" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A237" s="56" t="s">
+    <row r="238" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B238" s="56" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A238" s="56" t="s">
+    <row r="240" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B240" s="57" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="57" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" s="58" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="58" t="s">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" s="58" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="58" t="s">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" s="58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="58" t="s">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" s="58" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="58" t="s">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" s="58" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="58" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" s="58" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="58" t="s">
+    <row r="248" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B248" s="57" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="57" t="s">
+    <row r="250" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B250" s="57" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="57" t="s">
+    <row r="252" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B252" s="57" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="57" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" s="61" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="61" t="s">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" s="61" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="61" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" s="61" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="61" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" s="61" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="61" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="61" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="61" t="s">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="62" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="62" t="s">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="61" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="61" t="s">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="61" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="61" t="s">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="61" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="61" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -591,869 +591,8 @@
     <t>1800/-</t>
   </si>
   <si>
-    <t>2200/-</t>
-  </si>
-  <si>
-    <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1200/-)</t>
-  </si>
-  <si>
-    <t>650/-</t>
-  </si>
-  <si>
-    <t>2800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Controlled Fan Regulator (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>3200/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based DC Motor Speed Controller with LCD Display (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>800/-</t>
-  </si>
-  <si>
-    <t>3800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Room Light and Fan control using Motion Sensor (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>975/-</t>
-  </si>
-  <si>
-    <t>4200/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Object Counter (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>468/-</t>
-  </si>
-  <si>
-    <t>4800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Display of Dialed Telephone Numbers on Seven Segment Displays (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>910/-</t>
-  </si>
-  <si>
-    <t>5200/-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speed Control of DC Motor Using Pulse Width Modulation (1200/-)</t>
-  </si>
-  <si>
-    <t>5800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Automatic Line Following Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>6200/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Bi-directional Visitor Counter (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>6800/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Temperature Monitoring System (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Remote Controller for Water Pump (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Count Down Timer (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>400/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Electronic Lock (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Digital Alarm Clock (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Password Based Door Lock System using 8051 Microcontroller (1200/-)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Fan Speed Controller (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Device control using Mobile Phone (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller Based Tachometer (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>670/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Distance meter using Ultrasonic sensor (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>680/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Edge Avoiding Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>780/-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 RF Based 4 Channel Home Appliances Control (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatic Control for Unmanned Railway Gate (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Moving Message Display On LCD (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Home Automation (Ac/Dc) Using PC Interface (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Autonomous Self-parking car (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based DC Motor Controller with Password (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Clap counter with clap count Display on LCD  (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s (3800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 based Underground Cable Fault finding System with distance Indicator (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 based IC Tester with Visual Basic  (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Temperature Indicator-CUM-Controller (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IC Tester based on Microcontroller 74XX Series (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell Phone Based DTMF Controlled Garage Door Opening System (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based 0-100°C  temperature indicator system (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Dynamic Display Using LED Strip (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatic Exhaust Fan Control Coupled To Gas Leak Detection (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller-Based Solar Charger (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller-Based School Timer (2800/- )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell phone controlled solar vehicle (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>House security system (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (2500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Digital Clock (3000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PC Based Electrical Load Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Car Speed Checker (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ball Picker Robot (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Fan Speed Controller using Visual Basic (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>Underground Cable Fault Distance Locator (2800/-)</t>
-  </si>
-  <si>
-    <r>
-      <t>1.2.</t>
+    <r>
+      <t>1.1.</t>
     </r>
     <r>
       <rPr>
@@ -1473,426 +612,873 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>PIC Microcontroller Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Temperature Monitoring System (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Automated Line Following Robot (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based DC Motor Controller (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Edge Avoiding Robot (3700/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Count Down Timer (4000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Room Light and Fan control using Motion Sensor (4000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Bi-directional Visitor Counter (4200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Device control using Mobile Phone (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Display Using Dot Matrix (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Moving Message Display On LCD (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Temperature Indicator-CUM-Controller (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based 0-100°C  temperature indicator system (4600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Remote Controller for Water Pump (4700/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Tachometer (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Solar Charger (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Electronic Lock (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Time-Controlled Switch Using PIC (5000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Programmable Industrial On-Off Timer With RF Remote (5200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Digital Clock (5500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based IR Remote based 8 Channel Home Appliances Control (6000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based Propeller Message Display using Moving LED’s (6000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC Microcontroller based School Timer (6500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.3.</t>
+      <t>AT89s52 Microcontroller Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <t>2200/-</t>
+  </si>
+  <si>
+    <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1200/-)</t>
+  </si>
+  <si>
+    <t>650/-</t>
+  </si>
+  <si>
+    <t>2800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Fan Regulator (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>3200/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based DC Motor Speed Controller with LCD Display (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>800/-</t>
+  </si>
+  <si>
+    <t>3800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Room Light and Fan control using Motion Sensor (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>975/-</t>
+  </si>
+  <si>
+    <t>4200/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Object Counter (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>468/-</t>
+  </si>
+  <si>
+    <t>4800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Display of Dialed Telephone Numbers on Seven Segment Displays (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>910/-</t>
+  </si>
+  <si>
+    <t>5200/-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speed Control of DC Motor Using Pulse Width Modulation (1200/-)</t>
+  </si>
+  <si>
+    <t>5800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Automatic Line Following Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>6200/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Bi-directional Visitor Counter (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>6800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Temperature Monitoring System (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Remote Controller for Water Pump (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Count Down Timer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>400/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Electronic Lock (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Digital Alarm Clock (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Password Based Door Lock System using 8051 Microcontroller (1200/-)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Fan Speed Controller (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Device control using Mobile Phone (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller Based Tachometer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>670/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Distance meter using Ultrasonic sensor (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>680/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Edge Avoiding Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>780/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 RF Based 4 Channel Home Appliances Control (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatic Control for Unmanned Railway Gate (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Moving Message Display On LCD (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Home Automation (Ac/Dc) Using PC Interface (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Autonomous Self-parking car (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based DC Motor Controller with Password (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Clap counter with clap count Display on LCD  (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s (3800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 based Underground Cable Fault finding System with distance Indicator (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 based IC Tester with Visual Basic  (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Temperature Indicator-CUM-Controller (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IC Tester based on Microcontroller 74XX Series (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell Phone Based DTMF Controlled Garage Door Opening System (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based 0-100°C  temperature indicator system (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Dynamic Display Using LED Strip (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatic Exhaust Fan Control Coupled To Gas Leak Detection (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller-Based Solar Charger (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller-Based School Timer (2800/- )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell phone controlled solar vehicle (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>House security system (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (2500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Digital Clock (3000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC Based Electrical Load Control (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Car Speed Checker (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ball Picker Robot (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Fan Speed Controller using Visual Basic (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Underground Cable Fault Distance Locator (2800/-)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.2.</t>
     </r>
     <r>
       <rPr>
@@ -1912,498 +1498,426 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Arduino UNO Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Electronic Lock (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Moving Message Display On LCD (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based DC Motor Controller (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Room Light and Fan control using Motion Sensor (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino Based Tilt Detector (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Automatic Line Following Robot (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Edge Avoiding Robot (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Bi-directional Visitor Counter (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Solar Charger (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Count Down Timer (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Dynamic Display Using LED Strip (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Remote Controller for Water Pump (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Tachometer (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based School Timer (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Cell Phone Operated Land Rover Robot (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Distance meter using Ultrasonic sensor (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Temperature Indicator-CUM-Controller (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Propeller Message Display using Moving LED’s (3300/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Temperature Monitoring System (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Device control using Mobile Phone (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Time-Controlled Switch (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Fire Fighting Robot (3000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Remote based 8 Channel Home Appliances Control (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Office Attendance system using RFID (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Heart Beat monitoring System (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino Based Robotic Arm Control using RF Remote (4000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.4.</t>
+      <t>PIC Microcontroller Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Temperature Monitoring System (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Automated Line Following Robot (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based DC Motor Controller (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Edge Avoiding Robot (3700/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Count Down Timer (4000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Room Light and Fan control using Motion Sensor (4000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Bi-directional Visitor Counter (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Device control using Mobile Phone (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Display Using Dot Matrix (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Moving Message Display On LCD (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Temperature Indicator-CUM-Controller (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based 0-100°C  temperature indicator system (4600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Remote Controller for Water Pump (4700/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Tachometer (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Solar Charger (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Electronic Lock (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time-Controlled Switch Using PIC (5000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Programmable Industrial On-Off Timer With RF Remote (5200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Digital Clock (5500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based IR Remote based 8 Channel Home Appliances Control (6000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based Propeller Message Display using Moving LED’s (6000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC Microcontroller based School Timer (6500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.3.</t>
     </r>
     <r>
       <rPr>
@@ -2423,246 +1937,498 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Robotic Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automated Line Following Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IR Controlled Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Distance meter Robot using Ultrasonic sensor (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Edge Avoiding Robot (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell Phone Operated Land Rover Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Controlled Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Solar powered Robot (2500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Light Sensing Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Obstacle Avoiding Robot using IR Module (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fire Fighting Robot (5900/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Obstacle Avoiding Robot using Ultrasonic Module (1200/)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Controlled Robotic Arm (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hand Gesture Controlled Robot using Accelerometer (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.5.</t>
+      <t>Arduino UNO Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Electronic Lock (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Moving Message Display On LCD (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based DC Motor Controller (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Room Light and Fan control using Motion Sensor (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino Based Tilt Detector (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Automatic Line Following Robot (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Edge Avoiding Robot (1600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Bi-directional Visitor Counter (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Solar Charger (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Count Down Timer (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Dynamic Display Using LED Strip (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Remote Controller for Water Pump (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Tachometer (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based School Timer (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Cell Phone Operated Land Rover Robot (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Distance meter using Ultrasonic sensor (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Temperature Indicator-CUM-Controller (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Propeller Message Display using Moving LED’s (3300/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Temperature Monitoring System (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Device control using Mobile Phone (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Time-Controlled Switch (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Fire Fighting Robot (3000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Remote based 8 Channel Home Appliances Control (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Office Attendance system using RFID (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Heart Beat monitoring System (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino Based Robotic Arm Control using RF Remote (4000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.4.</t>
     </r>
     <r>
       <rPr>
@@ -2682,207 +2448,246 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>RFID Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Shopping Cart with LCD Display and Price Calculation (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Security System and Access Control (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Office/College Entry system with LCD Display using Arduino (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Train Couch Identification and Display on Platform (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Access Control and SMS system (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Automatic Vehicle Parking System (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFID Based Automatic Vehicle Parking System with SMS Alert (4200/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>RFID Based Automatic Challan System    (3500/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Library Management System    (3500/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Local Vehicle Tracking System  (4200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Security System           (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Attendance System  (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Railway Reservation    (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Shopping Cart      (3200/-)</t>
-  </si>
-  <si>
-    <t>Automatic Toll Tax  Deduction System      (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based ATM Machine     (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Energy Meter with Recharge Option        (3200/-)</t>
-  </si>
-  <si>
-    <t>Electronic Road Pricing     (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Inventory Tracking System    (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RFID Based Voting Machine  (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Ration Card   (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Banking System  (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Metro Train Prototype  (3200/-)</t>
-  </si>
-  <si>
-    <t>Platform to Display Position of Coach   (3200/-)</t>
-  </si>
-  <si>
-    <t>Animal Identification Device    (3200/-)</t>
-  </si>
-  <si>
-    <t>Telemedicine System       (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parts Tracking System for Manufacturing  (3200/-)</t>
-  </si>
-  <si>
-    <t>Event Tracking System for Sports     (3200/-)</t>
-  </si>
-  <si>
-    <t>RFID BASED CONVEYOR BELT  (4800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Passport   (3200/-)</t>
-  </si>
-  <si>
-    <r>
-      <t>1.6.</t>
+      <t>Robotic Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automated Line Following Robot (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IR Controlled Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Distance meter Robot using Ultrasonic sensor (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Edge Avoiding Robot (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell Phone Operated Land Rover Robot (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Robot (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Solar powered Robot (2500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Light Sensing Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obstacle Avoiding Robot using IR Module (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fire Fighting Robot (5900/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obstacle Avoiding Robot using Ultrasonic Module (1200/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Robotic Arm (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hand Gesture Controlled Robot using Accelerometer (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.5.</t>
     </r>
     <r>
       <rPr>
@@ -2902,120 +2707,207 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Remote Control / RF Module Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control based Water Pump On/Off (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based DC Motor Direction Control (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based DC Motor Speed Control (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based Induction Motor Direction Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote based Multiple Device Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based Robotic Arm Movement (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.7.</t>
+      <t>RFID Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Shopping Cart with LCD Display and Price Calculation (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Security System and Access Control (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Office/College Entry system with LCD Display using Arduino (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Train Couch Identification and Display on Platform (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Access Control and SMS system (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Automatic Vehicle Parking System (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Automatic Vehicle Parking System with SMS Alert (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>RFID Based Automatic Challan System    (3500/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Library Management System    (3500/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Local Vehicle Tracking System  (4200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Security System           (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Attendance System  (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Railway Reservation    (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Shopping Cart      (3200/-)</t>
+  </si>
+  <si>
+    <t>Automatic Toll Tax  Deduction System      (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based ATM Machine     (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energy Meter with Recharge Option        (3200/-)</t>
+  </si>
+  <si>
+    <t>Electronic Road Pricing     (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Inventory Tracking System    (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RFID Based Voting Machine  (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Ration Card   (2800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Banking System  (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Metro Train Prototype  (3200/-)</t>
+  </si>
+  <si>
+    <t>Platform to Display Position of Coach   (3200/-)</t>
+  </si>
+  <si>
+    <t>Animal Identification Device    (3200/-)</t>
+  </si>
+  <si>
+    <t>Telemedicine System       (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parts Tracking System for Manufacturing  (3200/-)</t>
+  </si>
+  <si>
+    <t>Event Tracking System for Sports     (3200/-)</t>
+  </si>
+  <si>
+    <t>RFID BASED CONVEYOR BELT  (4800/-)</t>
+  </si>
+  <si>
+    <t>RFID Based Passport   (3200/-)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.6.</t>
     </r>
     <r>
       <rPr>
@@ -3035,144 +2927,120 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>GSM Module Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SMS sending System to User Mobile based on Motion Detection (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SMS sending System to Mobile based on Access Control (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>Flash Flood Intimation over GSM Network (2800/-)</t>
-  </si>
-  <si>
-    <t>Forest fire and rainfall monitoring system using GSM technology (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM based Domestic/Industrial Energy meter monthly billing system (3800/-)</t>
-  </si>
-  <si>
-    <t>PIR + GSM based Home Security System (2800/-)</t>
-  </si>
-  <si>
-    <t>GSM Based IVRS System for Railway ticket Reservation (3200/-)</t>
-  </si>
-  <si>
-    <t>Mobile and smart card based voting system (3200/-)</t>
-  </si>
-  <si>
-    <t>Railway Level Crossing Gate Control through SMS by the Station Master or the Driver (3200/-)</t>
-  </si>
-  <si>
-    <t>Automatic Dialing to Any Telephone Using I2C Protocol on Detecting Burglary (3200/-)</t>
-  </si>
-  <si>
-    <t>Theft Intimation of Vehicle Over SMS to Owner Who Can Stop the Engine Remotely (3200/-)</t>
-  </si>
-  <si>
-    <t>Wireless load control By GSM (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM Autonomous CAR Parking (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM Advanced Wireless Earthquake Alarm System For Early Warning (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM based Remote problem solving Capability using Commands through SMS (3200/-)</t>
-  </si>
-  <si>
-    <t>GPRS and GSM Based Intelligent Patient Monitoring (3200/-)</t>
-  </si>
-  <si>
-    <t>Real time Scrolling Notice board using GSM and Arduino on LCD Display (3200/-)</t>
-  </si>
-  <si>
-    <t>GSM Based Home Appliances Control  (3200/-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Voting Machine.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Motor Control </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Home Security System        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Energy Meter Monitoring    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Controlled Wireless Robot     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Stepper Motor Control   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Vehicle Ignition System for Safety </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Generator Start/Stop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Vending Machine    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Anti Theft System for Vehicles  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Railways Reservation     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Vehicle Location Finder for Parking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based NoticeBoard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Ten Templates     </t>
-  </si>
-  <si>
-    <t>GSM Based Highway Traffic Monitoring System</t>
-  </si>
-  <si>
-    <t>GSM Based Visitor Counter For Mall</t>
-  </si>
-  <si>
-    <r>
-      <t>1.12.</t>
+      <t>Remote Control / RF Module Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control based Water Pump On/Off (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based DC Motor Direction Control (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based DC Motor Speed Control (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based Induction Motor Direction Control (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote based Multiple Device Control (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based Robotic Arm Movement (3500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.7.</t>
     </r>
     <r>
       <rPr>
@@ -3182,7 +3050,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve">          </t>
     </r>
     <r>
       <rPr>
@@ -3192,99 +3060,144 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Zig Bee Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zig Bee based Data transmission (4600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zig Bee based Device Control using PC (4800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zig Bee based DC Motor Speed Control (4900/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> ZigBee based GAS leak detection and data monitoring system</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Zigbee based health monitoring system heart beat/ blood pressure </t>
-  </si>
-  <si>
-    <t>Wireless Meter Reading System based on Zigbee Technology</t>
-  </si>
-  <si>
-    <t>zigbee based water level monitor and pump control</t>
-  </si>
-  <si>
-    <t>ZigBee-Based Power Monitoring System with Direct Load Control Capabilities</t>
-  </si>
-  <si>
-    <t>Home security and appliance control using zigbee</t>
-  </si>
-  <si>
-    <r>
-      <t>1.13.</t>
+      <t>GSM Module Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMS sending System to User Mobile based on Motion Detection (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMS sending System to Mobile based on Access Control (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Flash Flood Intimation over GSM Network (2800/-)</t>
+  </si>
+  <si>
+    <t>Forest fire and rainfall monitoring system using GSM technology (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM based Domestic/Industrial Energy meter monthly billing system (3800/-)</t>
+  </si>
+  <si>
+    <t>PIR + GSM based Home Security System (2800/-)</t>
+  </si>
+  <si>
+    <t>GSM Based IVRS System for Railway ticket Reservation (3200/-)</t>
+  </si>
+  <si>
+    <t>Mobile and smart card based voting system (3200/-)</t>
+  </si>
+  <si>
+    <t>Railway Level Crossing Gate Control through SMS by the Station Master or the Driver (3200/-)</t>
+  </si>
+  <si>
+    <t>Automatic Dialing to Any Telephone Using I2C Protocol on Detecting Burglary (3200/-)</t>
+  </si>
+  <si>
+    <t>Theft Intimation of Vehicle Over SMS to Owner Who Can Stop the Engine Remotely (3200/-)</t>
+  </si>
+  <si>
+    <t>Wireless load control By GSM (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM Autonomous CAR Parking (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM Advanced Wireless Earthquake Alarm System For Early Warning (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM based Remote problem solving Capability using Commands through SMS (3200/-)</t>
+  </si>
+  <si>
+    <t>GPRS and GSM Based Intelligent Patient Monitoring (3200/-)</t>
+  </si>
+  <si>
+    <t>Real time Scrolling Notice board using GSM and Arduino on LCD Display (3200/-)</t>
+  </si>
+  <si>
+    <t>GSM Based Home Appliances Control  (3200/-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Voting Machine.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Motor Control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Home Security System        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Energy Meter Monitoring    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Controlled Wireless Robot     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Stepper Motor Control   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Vehicle Ignition System for Safety </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Generator Start/Stop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Vending Machine    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Anti Theft System for Vehicles  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Railways Reservation     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Vehicle Location Finder for Parking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based NoticeBoard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Ten Templates     </t>
+  </si>
+  <si>
+    <t>GSM Based Highway Traffic Monitoring System</t>
+  </si>
+  <si>
+    <t>GSM Based Visitor Counter For Mall</t>
+  </si>
+  <si>
+    <r>
+      <t>1.12.</t>
     </r>
     <r>
       <rPr>
@@ -3304,84 +3217,99 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Visual Basic Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual Basic Based IC Tester (74XX Series) (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual basic based Device Control through PC (6500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual Basic Based DC Motor Speed Control (8000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual Basic based Equipment Control through PC using Remote Control (8000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.14.</t>
+      <t>Zig Bee Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based Data transmission (4600/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based Device Control using PC (4800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based DC Motor Speed Control (4900/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> ZigBee based GAS leak detection and data monitoring system</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Zigbee based health monitoring system heart beat/ blood pressure </t>
+  </si>
+  <si>
+    <t>Wireless Meter Reading System based on Zigbee Technology</t>
+  </si>
+  <si>
+    <t>zigbee based water level monitor and pump control</t>
+  </si>
+  <si>
+    <t>ZigBee-Based Power Monitoring System with Direct Load Control Capabilities</t>
+  </si>
+  <si>
+    <t>Home security and appliance control using zigbee</t>
+  </si>
+  <si>
+    <r>
+      <t>1.13.</t>
     </r>
     <r>
       <rPr>
@@ -3401,48 +3329,84 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Mat lab Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Matlab Based Image Distortion techniques (7500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Matlab based Image Noising and De-noising Technique (7500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.15.</t>
+      <t>Visual Basic Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic Based IC Tester (74XX Series) (4500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual basic based Device Control through PC (6500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic Based DC Motor Speed Control (8000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic based Equipment Control through PC using Remote Control (8000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.14.</t>
     </r>
     <r>
       <rPr>
@@ -3462,54 +3426,48 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Mechanical Engineering Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Electricity Generator using Water Turbine (5500/-)</t>
-    </r>
-  </si>
-  <si>
-    <t>Remote Controlled Drilling Machine</t>
-  </si>
-  <si>
-    <t>Robotic Arm</t>
-  </si>
-  <si>
-    <t>Air Defense Gun</t>
-  </si>
-  <si>
-    <t>Mechanical Braking System</t>
-  </si>
-  <si>
-    <t>Vehicle Gas Detection and automatic Engine Shutdown</t>
-  </si>
-  <si>
-    <t>Vending Machine for Cold Drinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart shock absorber for automobile </t>
-  </si>
-  <si>
-    <t>Object Sorting Robot based on Size</t>
-  </si>
-  <si>
-    <r>
-      <t>1.16.</t>
+      <t>Mat lab Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Matlab Based Image Distortion techniques (7500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Matlab based Image Noising and De-noising Technique (7500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.15.</t>
     </r>
     <r>
       <rPr>
@@ -3529,30 +3487,54 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Android App Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Android based Students Attendance System (9000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.17.</t>
+      <t>Mechanical Engineering Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Electricity Generator using Water Turbine (5500/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Remote Controlled Drilling Machine</t>
+  </si>
+  <si>
+    <t>Robotic Arm</t>
+  </si>
+  <si>
+    <t>Air Defense Gun</t>
+  </si>
+  <si>
+    <t>Mechanical Braking System</t>
+  </si>
+  <si>
+    <t>Vehicle Gas Detection and automatic Engine Shutdown</t>
+  </si>
+  <si>
+    <t>Vending Machine for Cold Drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart shock absorber for automobile </t>
+  </si>
+  <si>
+    <t>Object Sorting Robot based on Size</t>
+  </si>
+  <si>
+    <r>
+      <t>1.16.</t>
     </r>
     <r>
       <rPr>
@@ -3572,48 +3554,30 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Python Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Python Based Web server and Client (6500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Python Based Facebook simulation (12000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.18.</t>
+      <t>Android App Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Android based Students Attendance System (9000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.17.</t>
     </r>
     <r>
       <rPr>
@@ -3623,7 +3587,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>    </t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -3633,30 +3597,48 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> RFID + GSM Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <t>RFID CUM GSM Attendance System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFID CUM GSM ATM Machine   </t>
-  </si>
-  <si>
-    <t>RFID CUM GSM VEHICLE Tracking System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFID CUM GSM HOME SECURITY SYSTEM </t>
-  </si>
-  <si>
-    <t>RFID CUM GSM SMART Mail Box</t>
-  </si>
-  <si>
-    <t>RFID CUM GSM  Toll Tax System</t>
-  </si>
-  <si>
-    <r>
-      <t>1.19.</t>
+      <t>Python Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Python Based Web server and Client (6500/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Python Based Facebook simulation (12000/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.18.</t>
     </r>
     <r>
       <rPr>
@@ -3676,12 +3658,30 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> GPS Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.20.</t>
+      <t xml:space="preserve"> RFID + GSM Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <t>RFID CUM GSM Attendance System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFID CUM GSM ATM Machine   </t>
+  </si>
+  <si>
+    <t>RFID CUM GSM VEHICLE Tracking System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFID CUM GSM HOME SECURITY SYSTEM </t>
+  </si>
+  <si>
+    <t>RFID CUM GSM SMART Mail Box</t>
+  </si>
+  <si>
+    <t>RFID CUM GSM  Toll Tax System</t>
+  </si>
+  <si>
+    <r>
+      <t>1.19.</t>
     </r>
     <r>
       <rPr>
@@ -3701,12 +3701,12 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> GPS + GSM Based Projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.21.</t>
+      <t xml:space="preserve"> GPS Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.20.</t>
     </r>
     <r>
       <rPr>
@@ -3726,6 +3726,31 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve"> GPS + GSM Based Projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.21.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color indexed="62"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color indexed="62"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve"> Electrical Engineering Projects</t>
     </r>
   </si>
@@ -3815,9 +3840,6 @@
   </si>
   <si>
     <t>Pending Payment</t>
-  </si>
-  <si>
-    <t>AT89s52 Microcontroller Based Projects</t>
   </si>
 </sst>
 </file>
@@ -4022,7 +4044,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4172,9 +4194,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4562,7 +4581,7 @@
         <v>181</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4850,22 +4869,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4876,25 +4895,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -4902,22 +4921,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B12">
         <v>9871310918</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5124,7 +5143,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5137,7 +5156,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,32 +5224,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -5238,16 +5257,16 @@
     </row>
     <row r="9" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6739,1377 +6758,1376 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E261"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="84.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="84.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>184</v>
       </c>
+      <c r="B1" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="C1" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="E2" s="15" t="s">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="D2" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
-        <v>467</v>
-      </c>
-      <c r="E3" s="15" t="s">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+      <c r="D3" s="15" t="s">
         <v>190</v>
       </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="D4" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
         <v>193</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="D5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
         <v>195</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="D6" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="15" t="s">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="15" t="s">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="15" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="15" t="s">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="56" t="s">
+      <c r="C21" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D22" s="15" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="56" t="s">
+      <c r="C22" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="15" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="56" t="s">
+      <c r="C23" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="56" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="56" t="s">
+      <c r="C24" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="56" t="s">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="s">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="56" t="s">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="56" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="56" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="56" t="s">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="56" t="s">
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="56" t="s">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="56" t="s">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="56" t="s">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="56" t="s">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="56" t="s">
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="56" t="s">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="56" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B41" s="56" t="s">
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B42" s="56" t="s">
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="56" t="s">
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="56" t="s">
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="56" t="s">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="56" t="s">
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="56" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="56" t="s">
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="56" t="s">
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="56" t="s">
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="56" t="s">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B51" s="56" t="s">
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B52" s="60"/>
-    </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="56"/>
-    </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B54" s="57" t="s">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="56" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="56" t="s">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="60"/>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="56"/>
+    </row>
+    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="57" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="56" t="s">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="56" t="s">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="56" t="s">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="56" t="s">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="56" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="56" t="s">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="56" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="56" t="s">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="56" t="s">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B63" s="56" t="s">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="56" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="56" t="s">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="56" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B65" s="56" t="s">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="56" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="56" t="s">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="56" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="56" t="s">
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="56" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="56" t="s">
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="56" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B69" s="56" t="s">
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="56" t="s">
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B71" s="56" t="s">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="56" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="56" t="s">
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="56" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="56" t="s">
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="56" t="s">
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="56" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="56" t="s">
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="56" t="s">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B77" s="56" t="s">
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="56"/>
-    </row>
-    <row r="79" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="57" t="s">
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="56" t="s">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="56"/>
+    </row>
+    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B81" s="56" t="s">
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="56" t="s">
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B83" s="56" t="s">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="56" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B84" s="56" t="s">
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="56" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B85" s="56" t="s">
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B86" s="56" t="s">
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="56" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B87" s="56" t="s">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B88" s="56" t="s">
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="56" t="s">
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B90" s="56" t="s">
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B91" s="56" t="s">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B92" s="56" t="s">
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B93" s="56" t="s">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="56" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B94" s="56" t="s">
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B95" s="56" t="s">
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="56" t="s">
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="56" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="56" t="s">
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="56" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B98" s="56" t="s">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="56" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B99" s="56" t="s">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="56" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B100" s="56" t="s">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="56" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B101" s="56" t="s">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="56" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B102" s="56" t="s">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B103" s="56" t="s">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B104" s="56" t="s">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B105" s="56" t="s">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B106" s="56" t="s">
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="56" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B107" s="56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B108" s="56"/>
-    </row>
-    <row r="109" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B109" s="57" t="s">
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="56" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B110" s="56" t="s">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="56"/>
+    </row>
+    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="57" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B111" s="56" t="s">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="56" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B112" s="56" t="s">
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B113" s="56" t="s">
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B114" s="56" t="s">
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B115" s="56" t="s">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B116" s="56" t="s">
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B117" s="56" t="s">
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B118" s="56" t="s">
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="56" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B119" s="56" t="s">
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B120" s="56" t="s">
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="56" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B121" s="56" t="s">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="56" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B122" s="56" t="s">
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="56" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B123" s="56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B124" s="56"/>
-    </row>
-    <row r="125" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B125" s="57" t="s">
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B126" s="56" t="s">
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="56"/>
+    </row>
+    <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="57" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B127" s="56" t="s">
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="56" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B128" s="56" t="s">
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B129" s="56" t="s">
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="56" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B130" s="56" t="s">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="56" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B131" s="56" t="s">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="56" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B132" s="56" t="s">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="56" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B133" s="56" t="s">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="56" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B134" s="56" t="s">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="56" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B135" s="56" t="s">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="56" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B136" s="56" t="s">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B137" s="56" t="s">
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="56" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B138" s="56" t="s">
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="56" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B139" s="56" t="s">
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="56" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B140" s="56" t="s">
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="56" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B141" s="56" t="s">
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="56" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B142" s="56" t="s">
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="56" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B143" s="56" t="s">
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="56" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B144" s="56" t="s">
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="56" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B145" s="56" t="s">
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="56" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B146" s="56" t="s">
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="56" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B147" s="56" t="s">
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="56" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B148" s="56" t="s">
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="56" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B149" s="56" t="s">
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="56" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B150" s="56" t="s">
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="56" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B151" s="56" t="s">
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="56" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B152" s="56" t="s">
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B153" s="56" t="s">
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="56" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B154" s="56" t="s">
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="56" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B155" s="56" t="s">
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="56" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B156" s="56"/>
-    </row>
-    <row r="157" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B157" s="57" t="s">
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="56" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B158" s="56" t="s">
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="56"/>
+    </row>
+    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="57" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B159" s="56" t="s">
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="56" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B160" s="56" t="s">
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B161" s="56" t="s">
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="56" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B162" s="56" t="s">
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" s="56" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B163" s="56" t="s">
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B164" s="56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B165" s="57" t="s">
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="56" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B166" s="56" t="s">
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="57" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B167" s="56" t="s">
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="56" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B168" s="56" t="s">
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="56" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B169" s="56" t="s">
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="56" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B170" s="56" t="s">
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B171" s="56" t="s">
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="56" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B172" s="56" t="s">
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="56" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B173" s="56" t="s">
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="56" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B174" s="56" t="s">
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="56" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B175" s="56" t="s">
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="56" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B176" s="56" t="s">
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="56" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B177" s="56" t="s">
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="56" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B178" s="56" t="s">
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="56" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B179" s="56" t="s">
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="56" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B180" s="56" t="s">
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="56" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B181" s="56" t="s">
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="56" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B182" s="56" t="s">
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="56" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B183" s="56" t="s">
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="56" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B184" s="56" t="s">
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="56" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B185" s="56" t="s">
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B186" s="56" t="s">
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B187" s="56" t="s">
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="56" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B188" s="56" t="s">
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="56" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B189" s="56" t="s">
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="56" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B190" s="56" t="s">
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="56" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B191" s="56" t="s">
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="56" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B192" s="56" t="s">
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="56" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B193" s="56" t="s">
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="56" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B194" s="56" t="s">
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="56" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B195" s="56" t="s">
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B196" s="56" t="s">
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="56" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B197" s="56" t="s">
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="56" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B198" s="56" t="s">
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="56" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B199" s="56" t="s">
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="56" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B200" s="56"/>
-    </row>
-    <row r="201" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B201" s="57" t="s">
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="56" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B202" s="56" t="s">
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="56"/>
+    </row>
+    <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A201" s="57" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B203" s="56" t="s">
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="56" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B204" s="56" t="s">
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="56" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B205" s="56" t="s">
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="56" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B206" s="56" t="s">
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="56" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B207" s="56" t="s">
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="56" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B208" s="56" t="s">
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="56" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B209" s="56" t="s">
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="56" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B210" s="56" t="s">
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B211" s="56"/>
-    </row>
-    <row r="212" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B212" s="57" t="s">
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="56" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B213" s="56" t="s">
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="56"/>
+    </row>
+    <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="57" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B214" s="56" t="s">
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A213" s="56" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B215" s="56" t="s">
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" s="56" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B216" s="56" t="s">
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" s="56" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B217" s="56"/>
-    </row>
-    <row r="218" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B218" s="57" t="s">
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="56" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B219" s="56" t="s">
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="56"/>
+    </row>
+    <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="57" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B220" s="56" t="s">
+    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" s="56" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B221" s="56"/>
-    </row>
-    <row r="222" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B222" s="57" t="s">
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="56" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B223" s="56" t="s">
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="56"/>
+    </row>
+    <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="57" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B224" s="56" t="s">
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B225" s="56" t="s">
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A224" s="56" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B226" s="56" t="s">
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A225" s="56" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B227" s="56" t="s">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A226" s="56" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B228" s="56" t="s">
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A227" s="56" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B229" s="56" t="s">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="56" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B230" s="56" t="s">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A229" s="56" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B231" s="56" t="s">
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A230" s="56" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B232" s="56"/>
-    </row>
-    <row r="233" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B233" s="57" t="s">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="56" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B234" s="56" t="s">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="56"/>
+    </row>
+    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="57" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B235" s="56"/>
-    </row>
-    <row r="236" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B236" s="57" t="s">
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="56" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B237" s="56" t="s">
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A235" s="56"/>
+    </row>
+    <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="57" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B238" s="56" t="s">
+    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A237" s="56" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B240" s="57" t="s">
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A238" s="56" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="58" t="s">
+    <row r="240" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="57" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B242" s="58" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="58" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" s="58" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" s="58" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="58" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="58" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="58" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="58" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="58" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B248" s="57" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="58" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B250" s="57" t="s">
+    <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="57" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B252" s="57" t="s">
+    <row r="250" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="57" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B253" s="61" t="s">
+    <row r="252" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="57" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" s="61" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="61" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B255" s="61" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="61" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B256" s="61" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="61" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B257" s="61" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="61" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" s="62" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="61" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B259" s="61" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="62" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B260" s="61" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="61" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" s="61" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="61" t="s">
         <v>446</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="61" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="477">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -1020,151 +1020,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Automatic Control for Unmanned Railway Gate (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Moving Message Display On LCD (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Home Automation (Ac/Dc) Using PC Interface (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Autonomous Self-parking car (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based DC Motor Controller with Password (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Clap counter with clap count Display on LCD  (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s (3800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>AT89S52 based Underground Cable Fault finding System with distance Indicator (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 based IC Tester with Visual Basic  (2800/-)</t>
     </r>
   </si>
   <si>
@@ -3833,20 +3689,176 @@
     <t>Electrician</t>
   </si>
   <si>
-    <t>please provide reason??</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>Pending Payment</t>
+  </si>
+  <si>
+    <t>546/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatic Control for Unmanned Railway Gate (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1820/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Home Automation (Ac/Dc) Using PC Interface (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>RFID Module</t>
+  </si>
+  <si>
+    <t>Shreya</t>
+  </si>
+  <si>
+    <t>Shreya1906@gmail.com</t>
+  </si>
+  <si>
+    <t>27th jan</t>
+  </si>
+  <si>
+    <t>Power Supply was cut down automaticaly and inverter was not working</t>
+  </si>
+  <si>
+    <t>750/-</t>
+  </si>
+  <si>
+    <t>220/-</t>
+  </si>
+  <si>
+    <t>2041/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Autonomous Self-parking car (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1040/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based DC Motor Controller with Password (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Clap counter with clap count Display on LCD  (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s(1200)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 based IC Tester with Visual Basic  (1200/-)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4044,7 +4056,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4194,6 +4206,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4256,7 +4269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4288,10 +4301,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4323,7 +4335,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4499,14 +4510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4520,7 +4531,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4552,7 +4563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="63" customFormat="1">
       <c r="A2" s="63" t="s">
         <v>6</v>
       </c>
@@ -4581,10 +4592,10 @@
         <v>181</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4625,14 +4636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -4642,7 +4653,7 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4668,7 +4679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4694,7 +4705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4717,7 +4728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4743,7 +4754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4769,7 +4780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4795,7 +4806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4818,7 +4829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -4841,7 +4852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -4867,24 +4878,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4893,50 +4904,73 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B12">
         <v>9871310918</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>451</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13">
+        <v>9582449984</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4949,20 +4983,21 @@
     <hyperlink ref="C10" r:id="rId6"/>
     <hyperlink ref="C11" r:id="rId7"/>
     <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -4971,7 +5006,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4991,7 +5026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -5011,7 +5046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5031,7 +5066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5051,7 +5086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5071,7 +5106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -5091,7 +5126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -5125,25 +5160,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -5152,22 +5187,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -5178,7 +5214,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5189,7 +5225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5200,7 +5236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -5211,7 +5247,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5222,51 +5258,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="63" customFormat="1">
       <c r="A9" s="63" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -5275,19 +5311,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -5295,7 +5331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5303,7 +5339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5311,7 +5347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -5319,7 +5355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -5327,7 +5363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5335,7 +5371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -5343,7 +5379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -5351,7 +5387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -5359,7 +5395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -5367,7 +5403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -5375,7 +5411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -5383,9 +5419,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5402,7 +5449,7 @@
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -6112,7 +6159,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
@@ -6148,8 +6195,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -6179,7 +6226,7 @@
       </c>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -6211,7 +6258,7 @@
       </c>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -6243,7 +6290,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -6275,7 +6322,7 @@
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -6307,7 +6354,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -6339,7 +6386,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -6369,7 +6416,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -6399,7 +6446,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -6433,7 +6480,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -6465,7 +6512,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -6497,7 +6544,7 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -6529,7 +6576,7 @@
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -6561,7 +6608,7 @@
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -6593,7 +6640,7 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A17" s="31">
         <v>15</v>
       </c>
@@ -6621,7 +6668,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A18" s="31">
         <v>16</v>
       </c>
@@ -6653,7 +6700,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="19" spans="1:12" s="49" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="49" customFormat="1" ht="26.25" thickBot="1">
       <c r="A19" s="44">
         <v>17</v>
       </c>
@@ -6687,7 +6734,7 @@
       </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -6719,7 +6766,7 @@
       </c>
       <c r="L20" s="38"/>
     </row>
-    <row r="21" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1">
       <c r="A21" s="50"/>
       <c r="B21" s="51"/>
       <c r="C21" s="50"/>
@@ -6733,7 +6780,7 @@
       <c r="K21" s="52"/>
       <c r="L21" s="53"/>
     </row>
-    <row r="22" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1">
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
       <c r="C22" s="50"/>
@@ -6757,14 +6804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -6772,7 +6819,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="55" t="s">
         <v>184</v>
       </c>
@@ -6786,13 +6833,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="56"/>
       <c r="D2" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="57" t="s">
         <v>189</v>
       </c>
@@ -6800,7 +6847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="58" t="s">
         <v>191</v>
       </c>
@@ -6811,7 +6858,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="56" t="s">
         <v>194</v>
       </c>
@@ -6822,7 +6869,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="56" t="s">
         <v>196</v>
       </c>
@@ -6833,7 +6880,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="56" t="s">
         <v>199</v>
       </c>
@@ -6844,7 +6891,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="56" t="s">
         <v>202</v>
       </c>
@@ -6855,7 +6902,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="56" t="s">
         <v>205</v>
       </c>
@@ -6866,7 +6913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="58" t="s">
         <v>208</v>
       </c>
@@ -6877,7 +6924,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="56" t="s">
         <v>210</v>
       </c>
@@ -6888,7 +6935,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="56" t="s">
         <v>212</v>
       </c>
@@ -6899,12 +6946,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="59" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="56" t="s">
         <v>215</v>
       </c>
@@ -6912,7 +6959,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="56" t="s">
         <v>216</v>
       </c>
@@ -6920,7 +6967,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="56" t="s">
         <v>218</v>
       </c>
@@ -6928,12 +6975,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="59" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="58" t="s">
         <v>220</v>
       </c>
@@ -6941,7 +6988,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="56" t="s">
         <v>221</v>
       </c>
@@ -6949,7 +6996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="56" t="s">
         <v>222</v>
       </c>
@@ -6957,7 +7004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="56" t="s">
         <v>223</v>
       </c>
@@ -6965,7 +7012,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="56" t="s">
         <v>225</v>
       </c>
@@ -6973,7 +7020,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="56" t="s">
         <v>227</v>
       </c>
@@ -6981,7 +7028,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="56" t="s">
         <v>229</v>
       </c>
@@ -6989,1145 +7036,1161 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="65" customFormat="1" ht="15">
+      <c r="A31" s="59" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="56" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="56" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="56" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="56" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="56" t="s">
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="56" t="s">
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="56" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="56" t="s">
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="56" t="s">
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="60"/>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="56"/>
+    </row>
+    <row r="53" spans="1:1" ht="16.5">
+      <c r="A53" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="56" t="s">
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="56" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="56" t="s">
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="s">
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="56" t="s">
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="56" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-    </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-    </row>
-    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="56" t="s">
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="56" t="s">
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="56" t="s">
+    <row r="65" spans="1:1" ht="15">
+      <c r="A65" s="56" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="56" t="s">
+    <row r="66" spans="1:1" ht="15">
+      <c r="A66" s="56" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="56" t="s">
+    <row r="67" spans="1:1" ht="15">
+      <c r="A67" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="56" t="s">
+    <row r="68" spans="1:1" ht="15">
+      <c r="A68" s="56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="56" t="s">
+    <row r="69" spans="1:1" ht="15">
+      <c r="A69" s="56" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
+    <row r="70" spans="1:1" ht="15">
+      <c r="A70" s="56" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="56" t="s">
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="56" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="56" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
+    <row r="73" spans="1:1" ht="15">
+      <c r="A73" s="56" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="56" t="s">
+    <row r="74" spans="1:1" ht="15">
+      <c r="A74" s="56" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="56" t="s">
+    <row r="75" spans="1:1" ht="15">
+      <c r="A75" s="56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="s">
+    <row r="76" spans="1:1" ht="15">
+      <c r="A76" s="56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="56" t="s">
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="56"/>
+    </row>
+    <row r="78" spans="1:1" ht="16.5">
+      <c r="A78" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="56" t="s">
+    <row r="79" spans="1:1" ht="15">
+      <c r="A79" s="56" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="56" t="s">
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="56" t="s">
+    <row r="81" spans="1:1" ht="15">
+      <c r="A81" s="56" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="56" t="s">
+    <row r="82" spans="1:1" ht="15">
+      <c r="A82" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="56" t="s">
+    <row r="83" spans="1:1" ht="15">
+      <c r="A83" s="56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="56" t="s">
+    <row r="84" spans="1:1" ht="15">
+      <c r="A84" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="56" t="s">
+    <row r="85" spans="1:1" ht="15">
+      <c r="A85" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
-    </row>
-    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="57" t="s">
+    <row r="86" spans="1:1" ht="15">
+      <c r="A86" s="56" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="56" t="s">
+    <row r="87" spans="1:1" ht="15">
+      <c r="A87" s="56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="56" t="s">
+    <row r="88" spans="1:1" ht="15">
+      <c r="A88" s="56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="56" t="s">
+    <row r="89" spans="1:1" ht="15">
+      <c r="A89" s="56" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="56" t="s">
+    <row r="90" spans="1:1" ht="15">
+      <c r="A90" s="56" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="56" t="s">
+    <row r="91" spans="1:1" ht="15">
+      <c r="A91" s="56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="56" t="s">
+    <row r="92" spans="1:1" ht="15">
+      <c r="A92" s="56" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="56" t="s">
+    <row r="93" spans="1:1" ht="15">
+      <c r="A93" s="56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="s">
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="56" t="s">
+    <row r="95" spans="1:1" ht="15">
+      <c r="A95" s="56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="56" t="s">
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="56" t="s">
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="56" t="s">
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="56" t="s">
+    <row r="99" spans="1:1" ht="15">
+      <c r="A99" s="56" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="56" t="s">
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="56" t="s">
+    <row r="101" spans="1:1" ht="15">
+      <c r="A101" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="56" t="s">
+    <row r="102" spans="1:1" ht="15">
+      <c r="A102" s="56" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="56" t="s">
+    <row r="103" spans="1:1" ht="15">
+      <c r="A103" s="56" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
+    <row r="104" spans="1:1" ht="15">
+      <c r="A104" s="56" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+    <row r="105" spans="1:1" ht="15">
+      <c r="A105" s="56" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="56" t="s">
+    <row r="106" spans="1:1" ht="15">
+      <c r="A106" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15">
+      <c r="A107" s="56"/>
+    </row>
+    <row r="108" spans="1:1" ht="16.5">
+      <c r="A108" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="56" t="s">
+    <row r="109" spans="1:1" ht="15">
+      <c r="A109" s="56" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="s">
+    <row r="110" spans="1:1" ht="15">
+      <c r="A110" s="56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="56" t="s">
+    <row r="111" spans="1:1" ht="15">
+      <c r="A111" s="56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="56" t="s">
+    <row r="112" spans="1:1" ht="15">
+      <c r="A112" s="56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="56" t="s">
+    <row r="113" spans="1:1" ht="15">
+      <c r="A113" s="56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="56" t="s">
+    <row r="114" spans="1:1" ht="15">
+      <c r="A114" s="56" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="56" t="s">
+    <row r="115" spans="1:1" ht="15">
+      <c r="A115" s="56" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="56"/>
-    </row>
-    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="57" t="s">
+    <row r="116" spans="1:1" ht="15">
+      <c r="A116" s="56" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="56" t="s">
+    <row r="117" spans="1:1" ht="15">
+      <c r="A117" s="56" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="s">
+    <row r="118" spans="1:1" ht="15">
+      <c r="A118" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="56" t="s">
+    <row r="119" spans="1:1" ht="15">
+      <c r="A119" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="56" t="s">
+    <row r="120" spans="1:1" ht="15">
+      <c r="A120" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="56" t="s">
+    <row r="121" spans="1:1" ht="15">
+      <c r="A121" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="56" t="s">
+    <row r="122" spans="1:1" ht="15">
+      <c r="A122" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15">
+      <c r="A123" s="56"/>
+    </row>
+    <row r="124" spans="1:1" ht="16.5">
+      <c r="A124" s="57" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="56" t="s">
+    <row r="125" spans="1:1" ht="15">
+      <c r="A125" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="56" t="s">
+    <row r="126" spans="1:1" ht="15">
+      <c r="A126" s="56" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="56" t="s">
+    <row r="127" spans="1:1" ht="15">
+      <c r="A127" s="56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="56" t="s">
+    <row r="128" spans="1:1" ht="15">
+      <c r="A128" s="56" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="56" t="s">
+    <row r="129" spans="1:1" ht="15">
+      <c r="A129" s="56" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="56" t="s">
+    <row r="130" spans="1:1" ht="15">
+      <c r="A130" s="56" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="56" t="s">
+    <row r="131" spans="1:1" ht="15">
+      <c r="A131" s="56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="56"/>
-    </row>
-    <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="57" t="s">
+    <row r="132" spans="1:1" ht="15">
+      <c r="A132" s="56" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="56" t="s">
+    <row r="133" spans="1:1" ht="15">
+      <c r="A133" s="56" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="56" t="s">
+    <row r="134" spans="1:1" ht="15">
+      <c r="A134" s="56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="56" t="s">
+    <row r="135" spans="1:1" ht="15">
+      <c r="A135" s="56" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="56" t="s">
+    <row r="136" spans="1:1" ht="15">
+      <c r="A136" s="56" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="56" t="s">
+    <row r="137" spans="1:1" ht="15">
+      <c r="A137" s="56" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="56" t="s">
+    <row r="138" spans="1:1" ht="15">
+      <c r="A138" s="56" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="56" t="s">
+    <row r="139" spans="1:1" ht="15">
+      <c r="A139" s="56" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="56" t="s">
+    <row r="140" spans="1:1" ht="15">
+      <c r="A140" s="56" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="56" t="s">
+    <row r="141" spans="1:1" ht="15">
+      <c r="A141" s="56" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="56" t="s">
+    <row r="142" spans="1:1" ht="15">
+      <c r="A142" s="56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="56" t="s">
+    <row r="143" spans="1:1" ht="15">
+      <c r="A143" s="56" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="56" t="s">
+    <row r="144" spans="1:1" ht="15">
+      <c r="A144" s="56" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="56" t="s">
+    <row r="145" spans="1:1" ht="15">
+      <c r="A145" s="56" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="56" t="s">
+    <row r="146" spans="1:1" ht="15">
+      <c r="A146" s="56" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="56" t="s">
+    <row r="147" spans="1:1" ht="15">
+      <c r="A147" s="56" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="56" t="s">
+    <row r="148" spans="1:1" ht="15">
+      <c r="A148" s="56" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="56" t="s">
+    <row r="149" spans="1:1" ht="15">
+      <c r="A149" s="56" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="56" t="s">
+    <row r="150" spans="1:1" ht="15">
+      <c r="A150" s="56" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="56" t="s">
+    <row r="151" spans="1:1" ht="15">
+      <c r="A151" s="56" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="56" t="s">
+    <row r="152" spans="1:1" ht="15">
+      <c r="A152" s="56" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="56" t="s">
+    <row r="153" spans="1:1" ht="15">
+      <c r="A153" s="56" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="56" t="s">
+    <row r="154" spans="1:1" ht="15">
+      <c r="A154" s="56" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="56" t="s">
+    <row r="155" spans="1:1" ht="15">
+      <c r="A155" s="56"/>
+    </row>
+    <row r="156" spans="1:1" ht="16.5">
+      <c r="A156" s="57" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="56" t="s">
+    <row r="157" spans="1:1" ht="15">
+      <c r="A157" s="56" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="56" t="s">
+    <row r="158" spans="1:1" ht="15">
+      <c r="A158" s="56" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="56" t="s">
+    <row r="159" spans="1:1" ht="15">
+      <c r="A159" s="56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="56" t="s">
+    <row r="160" spans="1:1" ht="15">
+      <c r="A160" s="56" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="56" t="s">
+    <row r="161" spans="1:1" ht="15">
+      <c r="A161" s="56" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="56" t="s">
+    <row r="162" spans="1:1" ht="15">
+      <c r="A162" s="56" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="56" t="s">
+    <row r="163" spans="1:1" ht="15">
+      <c r="A163" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16.5">
+      <c r="A164" s="57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="56"/>
-    </row>
-    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="57" t="s">
+    <row r="165" spans="1:1" ht="15">
+      <c r="A165" s="56" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="56" t="s">
+    <row r="166" spans="1:1" ht="15">
+      <c r="A166" s="56" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="56" t="s">
+    <row r="167" spans="1:1" ht="15">
+      <c r="A167" s="56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="56" t="s">
+    <row r="168" spans="1:1" ht="15">
+      <c r="A168" s="56" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="56" t="s">
+    <row r="169" spans="1:1" ht="15">
+      <c r="A169" s="56" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="56" t="s">
+    <row r="170" spans="1:1" ht="15">
+      <c r="A170" s="56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="56" t="s">
+    <row r="171" spans="1:1" ht="15">
+      <c r="A171" s="56" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="57" t="s">
+    <row r="172" spans="1:1" ht="15">
+      <c r="A172" s="56" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="56" t="s">
+    <row r="173" spans="1:1" ht="15">
+      <c r="A173" s="56" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="56" t="s">
+    <row r="174" spans="1:1" ht="15">
+      <c r="A174" s="56" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="56" t="s">
+    <row r="175" spans="1:1" ht="15">
+      <c r="A175" s="56" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="56" t="s">
+    <row r="176" spans="1:1" ht="15">
+      <c r="A176" s="56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="56" t="s">
+    <row r="177" spans="1:1" ht="15">
+      <c r="A177" s="56" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="56" t="s">
+    <row r="178" spans="1:1" ht="15">
+      <c r="A178" s="56" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="56" t="s">
+    <row r="179" spans="1:1" ht="15">
+      <c r="A179" s="56" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="56" t="s">
+    <row r="180" spans="1:1" ht="15">
+      <c r="A180" s="56" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="56" t="s">
+    <row r="181" spans="1:1" ht="15">
+      <c r="A181" s="56" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="56" t="s">
+    <row r="182" spans="1:1" ht="15">
+      <c r="A182" s="56" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="56" t="s">
+    <row r="183" spans="1:1" ht="15">
+      <c r="A183" s="56" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="56" t="s">
+    <row r="184" spans="1:1" ht="15">
+      <c r="A184" s="56" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="56" t="s">
+    <row r="185" spans="1:1" ht="15">
+      <c r="A185" s="56" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="56" t="s">
+    <row r="186" spans="1:1" ht="15">
+      <c r="A186" s="56" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="56" t="s">
+    <row r="187" spans="1:1" ht="15">
+      <c r="A187" s="56" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="56" t="s">
+    <row r="188" spans="1:1" ht="15">
+      <c r="A188" s="56" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="56" t="s">
+    <row r="189" spans="1:1" ht="15">
+      <c r="A189" s="56" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="56" t="s">
+    <row r="190" spans="1:1" ht="15">
+      <c r="A190" s="56" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="56" t="s">
+    <row r="191" spans="1:1" ht="15">
+      <c r="A191" s="56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="56" t="s">
+    <row r="192" spans="1:1" ht="15">
+      <c r="A192" s="56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="56" t="s">
+    <row r="193" spans="1:1" ht="15">
+      <c r="A193" s="56" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="56" t="s">
+    <row r="194" spans="1:1" ht="15">
+      <c r="A194" s="56" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="56" t="s">
+    <row r="195" spans="1:1" ht="15">
+      <c r="A195" s="56" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="56" t="s">
+    <row r="196" spans="1:1" ht="15">
+      <c r="A196" s="56" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="56" t="s">
+    <row r="197" spans="1:1" ht="15">
+      <c r="A197" s="56" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="56" t="s">
+    <row r="198" spans="1:1" ht="15">
+      <c r="A198" s="56" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="56" t="s">
+    <row r="199" spans="1:1" ht="15">
+      <c r="A199" s="56"/>
+    </row>
+    <row r="200" spans="1:1" ht="16.5">
+      <c r="A200" s="57" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="56" t="s">
+    <row r="201" spans="1:1" ht="15">
+      <c r="A201" s="56" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="56" t="s">
+    <row r="202" spans="1:1" ht="15">
+      <c r="A202" s="56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="56" t="s">
+    <row r="203" spans="1:1" ht="15">
+      <c r="A203" s="56" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="56" t="s">
+    <row r="204" spans="1:1" ht="15">
+      <c r="A204" s="56" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="56" t="s">
+    <row r="205" spans="1:1" ht="15">
+      <c r="A205" s="56" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="56" t="s">
+    <row r="206" spans="1:1" ht="15">
+      <c r="A206" s="56" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="56" t="s">
+    <row r="207" spans="1:1" ht="15">
+      <c r="A207" s="56" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="56"/>
-    </row>
-    <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="57" t="s">
+    <row r="208" spans="1:1" ht="15">
+      <c r="A208" s="56" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="56" t="s">
+    <row r="209" spans="1:1" ht="15">
+      <c r="A209" s="56" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="56" t="s">
+    <row r="210" spans="1:1" ht="15">
+      <c r="A210" s="56"/>
+    </row>
+    <row r="211" spans="1:1" ht="16.5">
+      <c r="A211" s="57" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="56" t="s">
+    <row r="212" spans="1:1" ht="15">
+      <c r="A212" s="56" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="56" t="s">
+    <row r="213" spans="1:1" ht="15">
+      <c r="A213" s="56" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="56" t="s">
+    <row r="214" spans="1:1" ht="15">
+      <c r="A214" s="56" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="56" t="s">
+    <row r="215" spans="1:1" ht="15">
+      <c r="A215" s="56" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="56" t="s">
+    <row r="216" spans="1:1" ht="15">
+      <c r="A216" s="56"/>
+    </row>
+    <row r="217" spans="1:1" ht="16.5">
+      <c r="A217" s="57" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="56" t="s">
+    <row r="218" spans="1:1" ht="15">
+      <c r="A218" s="56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="56" t="s">
+    <row r="219" spans="1:1" ht="15">
+      <c r="A219" s="56" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="56"/>
-    </row>
-    <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="57" t="s">
+    <row r="220" spans="1:1" ht="15">
+      <c r="A220" s="56"/>
+    </row>
+    <row r="221" spans="1:1" ht="16.5">
+      <c r="A221" s="57" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="56" t="s">
+    <row r="222" spans="1:1" ht="15">
+      <c r="A222" s="56" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="56" t="s">
+    <row r="223" spans="1:1" ht="15">
+      <c r="A223" s="56" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="56" t="s">
+    <row r="224" spans="1:1" ht="15">
+      <c r="A224" s="56" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="56" t="s">
+    <row r="225" spans="1:1" ht="15">
+      <c r="A225" s="56" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="56"/>
-    </row>
-    <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="57" t="s">
+    <row r="226" spans="1:1" ht="15">
+      <c r="A226" s="56" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="56" t="s">
+    <row r="227" spans="1:1" ht="15">
+      <c r="A227" s="56" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="56" t="s">
+    <row r="228" spans="1:1" ht="15">
+      <c r="A228" s="56" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="56"/>
-    </row>
-    <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="57" t="s">
+    <row r="229" spans="1:1" ht="15">
+      <c r="A229" s="56" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="56" t="s">
+    <row r="230" spans="1:1" ht="15">
+      <c r="A230" s="56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="56" t="s">
+    <row r="231" spans="1:1" ht="15">
+      <c r="A231" s="56"/>
+    </row>
+    <row r="232" spans="1:1" ht="16.5">
+      <c r="A232" s="57" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="56" t="s">
+    <row r="233" spans="1:1" ht="15">
+      <c r="A233" s="56" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="56" t="s">
+    <row r="234" spans="1:1" ht="15">
+      <c r="A234" s="56"/>
+    </row>
+    <row r="235" spans="1:1" ht="16.5">
+      <c r="A235" s="57" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="56" t="s">
+    <row r="236" spans="1:1" ht="15">
+      <c r="A236" s="56" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="56" t="s">
+    <row r="237" spans="1:1" ht="15">
+      <c r="A237" s="56" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="56" t="s">
+    <row r="239" spans="1:1" ht="16.5">
+      <c r="A239" s="57" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="56" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="58" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="56" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" s="58" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="56"/>
-    </row>
-    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="57" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="58" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A234" s="56" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A235" s="56"/>
-    </row>
-    <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="57" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" s="58" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A237" s="56" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" s="58" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A238" s="56" t="s">
+    <row r="247" spans="1:1" ht="16.5">
+      <c r="A247" s="57" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="57" t="s">
+    <row r="249" spans="1:1" ht="16.5">
+      <c r="A249" s="57" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="58" t="s">
+    <row r="251" spans="1:1" ht="16.5">
+      <c r="A251" s="57" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="58" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" s="61" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="58" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="61" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="58" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="61" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="58" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" s="61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="58" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" s="61" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="57" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" s="62" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="57" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" s="61" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="57" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" s="61" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="61" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" s="61" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="61" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="61" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="61" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="61" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="62" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="61" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="61" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="61" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="475">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -392,9 +392,6 @@
     <t>Shankar Kumar</t>
   </si>
   <si>
-    <t>No Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">Damping control </t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>Sushil Kumar</t>
   </si>
   <si>
-    <t>In Progress : setup for base</t>
-  </si>
-  <si>
     <t xml:space="preserve">Robotics Kits </t>
   </si>
   <si>
@@ -453,9 +447,6 @@
   </si>
   <si>
     <t>Sohan</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t xml:space="preserve">Wireless mobile charger </t>
@@ -501,15 +492,6 @@
     <t>Galgotia</t>
   </si>
   <si>
-    <t>Mobile bug and mobile jammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shyam dixit </t>
-  </si>
-  <si>
-    <t>G.L.Bajaj</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOBILE DETECTOR WITH JAMMER </t>
   </si>
   <si>
@@ -519,13 +501,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Project Report given</t>
-  </si>
-  <si>
     <t>3 students from south</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress </t>
   </si>
   <si>
     <t xml:space="preserve">Xbee Protocol Based Project </t>
@@ -3852,6 +3828,24 @@
       </rPr>
       <t>AT89S52 based IC Tester with Visual Basic  (1200/-)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">They had gone their home town they will come in feb  </t>
+  </si>
+  <si>
+    <t>They will come in feb</t>
+  </si>
+  <si>
+    <t>Course has been completed</t>
+  </si>
+  <si>
+    <t>They will come day afetr tomorrow.</t>
+  </si>
+  <si>
+    <t>PCB Design has been completed on Eagle win .</t>
+  </si>
+  <si>
+    <t>Project has been successfully delivered to the client.</t>
   </si>
 </sst>
 </file>
@@ -3923,7 +3917,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3963,6 +3957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4056,7 +4056,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4153,9 +4153,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4167,9 +4164,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
@@ -4207,6 +4201,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4563,36 +4577,36 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="63" customFormat="1">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:11" s="61" customFormat="1">
+      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="61">
         <v>9540890120</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="62">
         <v>42016</v>
       </c>
-      <c r="J2" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>458</v>
+      <c r="J2" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4624,7 +4638,7 @@
         <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4640,7 +4654,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4880,22 +4894,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4906,25 +4920,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G11" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -4932,39 +4946,39 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B12">
         <v>9871310918</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D12" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -5178,7 +5192,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +5225,7 @@
         <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5260,49 +5274,49 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="63" customFormat="1">
-      <c r="A9" s="63" t="s">
-        <v>450</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>456</v>
-      </c>
-      <c r="C9" s="63" t="s">
+    <row r="9" spans="1:4" s="61" customFormat="1">
+      <c r="A9" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>467</v>
+      <c r="D9" s="61" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5424,15 +5438,15 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -5442,11 +5456,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6164,7 +6178,7 @@
         <v>112</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>113</v>
@@ -6196,7 +6210,7 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -6222,58 +6236,58 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A4" s="64">
+        <v>2</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A4" s="23">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="66">
+        <v>41924</v>
+      </c>
+      <c r="D4" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="25">
-        <v>41924</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="28">
+      <c r="G4" s="69">
         <v>9999405538</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="64">
         <v>7000</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="64">
         <v>500</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="29"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="31">
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="33">
         <v>41947</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="36">
         <v>9650182218</v>
@@ -6286,7 +6300,7 @@
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L5" s="38"/>
     </row>
@@ -6295,13 +6309,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="25">
         <v>41947</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="28" t="s">
@@ -6318,7 +6332,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>133</v>
+        <v>470</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -6327,17 +6341,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="33">
         <v>41907</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G7" s="36">
         <v>9891085793</v>
@@ -6350,7 +6364,7 @@
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L7" s="38"/>
     </row>
@@ -6359,17 +6373,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="33">
         <v>41947</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G8" s="36">
         <v>9350215064</v>
@@ -6382,7 +6396,7 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L8" s="38"/>
     </row>
@@ -6391,13 +6405,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="33">
         <v>41952</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="36"/>
@@ -6412,7 +6426,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>144</v>
+        <v>471</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -6421,13 +6435,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="33">
         <v>41964</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="36"/>
@@ -6442,7 +6456,7 @@
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L10" s="38"/>
     </row>
@@ -6451,17 +6465,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="33">
         <v>41964</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G11" s="36">
         <v>9958911395</v>
@@ -6476,7 +6490,7 @@
         <v>41971</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L11" s="38"/>
     </row>
@@ -6485,17 +6499,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="25">
         <v>41964</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G12" s="28">
         <v>8527336673</v>
@@ -6508,22 +6522,22 @@
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C13" s="18">
         <v>41947</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="17" t="s">
@@ -6540,26 +6554,26 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>123</v>
+        <v>469</v>
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C14" s="18">
         <v>41947</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G14" s="17">
         <v>7042060502</v>
@@ -6572,231 +6586,199 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="25">
+        <v>41983</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
+        <v>8287414627</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="33">
+        <v>41980</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="18">
-        <v>41977</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="17">
-        <v>9458855376</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A16" s="23">
-        <v>14</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="25">
-        <v>41983</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28">
-        <v>8287414627</v>
-      </c>
-      <c r="H16" s="23">
-        <v>4000</v>
-      </c>
-      <c r="I16" s="23">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" s="29"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="31">
+        <v>4500</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A17" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C17" s="33">
-        <v>41980</v>
+        <v>41985</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+        <v>161</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="H17" s="31">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="I17" s="31">
-        <v>1500</v>
+        <v>5800</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A18" s="43">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="45">
+        <v>41987</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A18" s="31">
-        <v>16</v>
-      </c>
-      <c r="B18" s="36" t="s">
+      <c r="H18" s="43">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="43">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A19" s="31">
+        <v>19</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="33">
-        <v>41985</v>
-      </c>
-      <c r="D18" s="36" t="s">
+      <c r="C19" s="33">
+        <v>42020</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E19" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="36" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="H18" s="31">
-        <v>5800</v>
-      </c>
-      <c r="I18" s="31">
-        <v>5800</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="1:12" s="49" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A19" s="44">
-        <v>17</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="46">
-        <v>41987</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="44">
-        <v>4000</v>
-      </c>
-      <c r="I19" s="44">
-        <v>4000</v>
-      </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="48"/>
-    </row>
-    <row r="20" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A20" s="31">
-        <v>19</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="33">
-        <v>42020</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="31">
+      <c r="H19" s="31">
         <v>3000</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I19" s="31">
         <v>3000</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-    </row>
-    <row r="22" spans="1:12" s="54" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6807,1390 +6789,1390 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="54"/>
+      <c r="D2" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
+      <c r="A3" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="15" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="54" t="s">
         <v>186</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="56"/>
-      <c r="D2" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="56" t="s">
-        <v>194</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="56" t="s">
+      <c r="D8" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="15" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="56" t="s">
+      <c r="D9" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="56" t="s">
         <v>200</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="58" t="s">
-        <v>208</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="56" t="s">
-        <v>210</v>
+      <c r="A11" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="56" t="s">
-        <v>212</v>
+      <c r="A12" s="54" t="s">
+        <v>204</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="54" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="59" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="56" t="s">
-        <v>221</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="56" t="s">
-        <v>222</v>
+      <c r="A20" s="54" t="s">
+        <v>214</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="56" t="s">
-        <v>223</v>
+      <c r="A21" s="54" t="s">
+        <v>215</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="56" t="s">
-        <v>225</v>
+      <c r="A22" s="54" t="s">
+        <v>217</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="56" t="s">
-        <v>227</v>
+      <c r="A23" s="54" t="s">
+        <v>219</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="56" t="s">
-        <v>229</v>
+      <c r="A24" s="54" t="s">
+        <v>221</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="56" t="s">
-        <v>460</v>
+      <c r="A25" s="54" t="s">
+        <v>452</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="56" t="s">
-        <v>473</v>
+      <c r="A28" s="54" t="s">
+        <v>465</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="56" t="s">
-        <v>474</v>
+      <c r="A29" s="54" t="s">
+        <v>466</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="56" t="s">
-        <v>475</v>
+      <c r="A30" s="54" t="s">
+        <v>467</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="65" customFormat="1" ht="15">
-      <c r="A31" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A31" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15">
-      <c r="A33" s="56" t="s">
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15">
-      <c r="A34" s="56" t="s">
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15">
-      <c r="A35" s="56" t="s">
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15">
-      <c r="A36" s="56" t="s">
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15">
-      <c r="A37" s="56" t="s">
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="54" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15">
-      <c r="A38" s="56" t="s">
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15">
-      <c r="A39" s="56" t="s">
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="54" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15">
-      <c r="A40" s="56" t="s">
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="54" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15">
-      <c r="A41" s="56" t="s">
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15">
-      <c r="A42" s="56" t="s">
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="54" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15">
-      <c r="A43" s="56" t="s">
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="58"/>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="54"/>
+    </row>
+    <row r="53" spans="1:1" ht="16.5">
+      <c r="A53" s="55" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15">
-      <c r="A44" s="56" t="s">
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15">
-      <c r="A45" s="56" t="s">
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="54" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15">
-      <c r="A46" s="56" t="s">
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="54" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15">
-      <c r="A47" s="56" t="s">
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15">
-      <c r="A48" s="56" t="s">
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15">
-      <c r="A49" s="56" t="s">
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15">
-      <c r="A50" s="56" t="s">
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="54" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
-      <c r="A51" s="60"/>
-    </row>
-    <row r="52" spans="1:1" ht="15">
-      <c r="A52" s="56"/>
-    </row>
-    <row r="53" spans="1:1" ht="16.5">
-      <c r="A53" s="57" t="s">
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
-      <c r="A54" s="56" t="s">
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
-      <c r="A55" s="56" t="s">
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="54" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
-      <c r="A56" s="56" t="s">
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
-      <c r="A57" s="56" t="s">
+    <row r="65" spans="1:1" ht="15">
+      <c r="A65" s="54" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
-      <c r="A58" s="56" t="s">
+    <row r="66" spans="1:1" ht="15">
+      <c r="A66" s="54" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
-      <c r="A59" s="56" t="s">
+    <row r="67" spans="1:1" ht="15">
+      <c r="A67" s="54" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
-      <c r="A60" s="56" t="s">
+    <row r="68" spans="1:1" ht="15">
+      <c r="A68" s="54" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
-      <c r="A61" s="56" t="s">
+    <row r="69" spans="1:1" ht="15">
+      <c r="A69" s="54" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
-      <c r="A62" s="56" t="s">
+    <row r="70" spans="1:1" ht="15">
+      <c r="A70" s="54" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
-      <c r="A63" s="56" t="s">
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
-      <c r="A64" s="56" t="s">
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="54" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15">
-      <c r="A65" s="56" t="s">
+    <row r="73" spans="1:1" ht="15">
+      <c r="A73" s="54" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15">
-      <c r="A66" s="56" t="s">
+    <row r="74" spans="1:1" ht="15">
+      <c r="A74" s="54" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15">
-      <c r="A67" s="56" t="s">
+    <row r="75" spans="1:1" ht="15">
+      <c r="A75" s="54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15">
-      <c r="A68" s="56" t="s">
+    <row r="76" spans="1:1" ht="15">
+      <c r="A76" s="54" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15">
-      <c r="A69" s="56" t="s">
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="54"/>
+    </row>
+    <row r="78" spans="1:1" ht="16.5">
+      <c r="A78" s="55" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15">
-      <c r="A70" s="56" t="s">
+    <row r="79" spans="1:1" ht="15">
+      <c r="A79" s="54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15">
-      <c r="A71" s="56" t="s">
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15">
-      <c r="A72" s="56" t="s">
+    <row r="81" spans="1:1" ht="15">
+      <c r="A81" s="54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15">
-      <c r="A73" s="56" t="s">
+    <row r="82" spans="1:1" ht="15">
+      <c r="A82" s="54" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15">
-      <c r="A74" s="56" t="s">
+    <row r="83" spans="1:1" ht="15">
+      <c r="A83" s="54" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15">
-      <c r="A75" s="56" t="s">
+    <row r="84" spans="1:1" ht="15">
+      <c r="A84" s="54" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15">
-      <c r="A76" s="56" t="s">
+    <row r="85" spans="1:1" ht="15">
+      <c r="A85" s="54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15">
-      <c r="A77" s="56"/>
-    </row>
-    <row r="78" spans="1:1" ht="16.5">
-      <c r="A78" s="57" t="s">
+    <row r="86" spans="1:1" ht="15">
+      <c r="A86" s="54" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15">
-      <c r="A79" s="56" t="s">
+    <row r="87" spans="1:1" ht="15">
+      <c r="A87" s="54" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15">
-      <c r="A80" s="56" t="s">
+    <row r="88" spans="1:1" ht="15">
+      <c r="A88" s="54" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15">
-      <c r="A81" s="56" t="s">
+    <row r="89" spans="1:1" ht="15">
+      <c r="A89" s="54" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15">
-      <c r="A82" s="56" t="s">
+    <row r="90" spans="1:1" ht="15">
+      <c r="A90" s="54" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15">
-      <c r="A83" s="56" t="s">
+    <row r="91" spans="1:1" ht="15">
+      <c r="A91" s="54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15">
-      <c r="A84" s="56" t="s">
+    <row r="92" spans="1:1" ht="15">
+      <c r="A92" s="54" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15">
-      <c r="A85" s="56" t="s">
+    <row r="93" spans="1:1" ht="15">
+      <c r="A93" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15">
-      <c r="A86" s="56" t="s">
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15">
-      <c r="A87" s="56" t="s">
+    <row r="95" spans="1:1" ht="15">
+      <c r="A95" s="54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15">
-      <c r="A88" s="56" t="s">
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="54" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15">
-      <c r="A89" s="56" t="s">
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15">
-      <c r="A90" s="56" t="s">
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="54" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15">
-      <c r="A91" s="56" t="s">
+    <row r="99" spans="1:1" ht="15">
+      <c r="A99" s="54" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15">
-      <c r="A92" s="56" t="s">
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15">
-      <c r="A93" s="56" t="s">
+    <row r="101" spans="1:1" ht="15">
+      <c r="A101" s="54" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15">
-      <c r="A94" s="56" t="s">
+    <row r="102" spans="1:1" ht="15">
+      <c r="A102" s="54" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15">
-      <c r="A95" s="56" t="s">
+    <row r="103" spans="1:1" ht="15">
+      <c r="A103" s="54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15">
-      <c r="A96" s="56" t="s">
+    <row r="104" spans="1:1" ht="15">
+      <c r="A104" s="54" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15">
-      <c r="A97" s="56" t="s">
+    <row r="105" spans="1:1" ht="15">
+      <c r="A105" s="54" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15">
-      <c r="A98" s="56" t="s">
+    <row r="106" spans="1:1" ht="15">
+      <c r="A106" s="54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15">
+      <c r="A107" s="54"/>
+    </row>
+    <row r="108" spans="1:1" ht="16.5">
+      <c r="A108" s="55" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15">
-      <c r="A99" s="56" t="s">
+    <row r="109" spans="1:1" ht="15">
+      <c r="A109" s="54" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15">
-      <c r="A100" s="56" t="s">
+    <row r="110" spans="1:1" ht="15">
+      <c r="A110" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15">
-      <c r="A101" s="56" t="s">
+    <row r="111" spans="1:1" ht="15">
+      <c r="A111" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15">
-      <c r="A102" s="56" t="s">
+    <row r="112" spans="1:1" ht="15">
+      <c r="A112" s="54" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15">
-      <c r="A103" s="56" t="s">
+    <row r="113" spans="1:1" ht="15">
+      <c r="A113" s="54" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15">
-      <c r="A104" s="56" t="s">
+    <row r="114" spans="1:1" ht="15">
+      <c r="A114" s="54" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15">
-      <c r="A105" s="56" t="s">
+    <row r="115" spans="1:1" ht="15">
+      <c r="A115" s="54" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15">
-      <c r="A106" s="56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15">
-      <c r="A107" s="56"/>
-    </row>
-    <row r="108" spans="1:1" ht="16.5">
-      <c r="A108" s="57" t="s">
+    <row r="116" spans="1:1" ht="15">
+      <c r="A116" s="54" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15">
-      <c r="A109" s="56" t="s">
+    <row r="117" spans="1:1" ht="15">
+      <c r="A117" s="54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15">
-      <c r="A110" s="56" t="s">
+    <row r="118" spans="1:1" ht="15">
+      <c r="A118" s="54" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15">
-      <c r="A111" s="56" t="s">
+    <row r="119" spans="1:1" ht="15">
+      <c r="A119" s="54" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15">
-      <c r="A112" s="56" t="s">
+    <row r="120" spans="1:1" ht="15">
+      <c r="A120" s="54" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15">
-      <c r="A113" s="56" t="s">
+    <row r="121" spans="1:1" ht="15">
+      <c r="A121" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15">
-      <c r="A114" s="56" t="s">
+    <row r="122" spans="1:1" ht="15">
+      <c r="A122" s="54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15">
+      <c r="A123" s="54"/>
+    </row>
+    <row r="124" spans="1:1" ht="16.5">
+      <c r="A124" s="55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15">
-      <c r="A115" s="56" t="s">
+    <row r="125" spans="1:1" ht="15">
+      <c r="A125" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15">
-      <c r="A116" s="56" t="s">
+    <row r="126" spans="1:1" ht="15">
+      <c r="A126" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15">
-      <c r="A117" s="56" t="s">
+    <row r="127" spans="1:1" ht="15">
+      <c r="A127" s="54" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15">
-      <c r="A118" s="56" t="s">
+    <row r="128" spans="1:1" ht="15">
+      <c r="A128" s="54" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15">
-      <c r="A119" s="56" t="s">
+    <row r="129" spans="1:1" ht="15">
+      <c r="A129" s="54" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15">
-      <c r="A120" s="56" t="s">
+    <row r="130" spans="1:1" ht="15">
+      <c r="A130" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15">
-      <c r="A121" s="56" t="s">
+    <row r="131" spans="1:1" ht="15">
+      <c r="A131" s="54" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15">
-      <c r="A122" s="56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="15">
-      <c r="A123" s="56"/>
-    </row>
-    <row r="124" spans="1:1" ht="16.5">
-      <c r="A124" s="57" t="s">
+    <row r="132" spans="1:1" ht="15">
+      <c r="A132" s="54" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15">
-      <c r="A125" s="56" t="s">
+    <row r="133" spans="1:1" ht="15">
+      <c r="A133" s="54" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15">
-      <c r="A126" s="56" t="s">
+    <row r="134" spans="1:1" ht="15">
+      <c r="A134" s="54" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15">
-      <c r="A127" s="56" t="s">
+    <row r="135" spans="1:1" ht="15">
+      <c r="A135" s="54" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15">
-      <c r="A128" s="56" t="s">
+    <row r="136" spans="1:1" ht="15">
+      <c r="A136" s="54" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15">
-      <c r="A129" s="56" t="s">
+    <row r="137" spans="1:1" ht="15">
+      <c r="A137" s="54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15">
-      <c r="A130" s="56" t="s">
+    <row r="138" spans="1:1" ht="15">
+      <c r="A138" s="54" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15">
-      <c r="A131" s="56" t="s">
+    <row r="139" spans="1:1" ht="15">
+      <c r="A139" s="54" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15">
-      <c r="A132" s="56" t="s">
+    <row r="140" spans="1:1" ht="15">
+      <c r="A140" s="54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15">
-      <c r="A133" s="56" t="s">
+    <row r="141" spans="1:1" ht="15">
+      <c r="A141" s="54" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15">
-      <c r="A134" s="56" t="s">
+    <row r="142" spans="1:1" ht="15">
+      <c r="A142" s="54" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15">
-      <c r="A135" s="56" t="s">
+    <row r="143" spans="1:1" ht="15">
+      <c r="A143" s="54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15">
-      <c r="A136" s="56" t="s">
+    <row r="144" spans="1:1" ht="15">
+      <c r="A144" s="54" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15">
-      <c r="A137" s="56" t="s">
+    <row r="145" spans="1:1" ht="15">
+      <c r="A145" s="54" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15">
-      <c r="A138" s="56" t="s">
+    <row r="146" spans="1:1" ht="15">
+      <c r="A146" s="54" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15">
-      <c r="A139" s="56" t="s">
+    <row r="147" spans="1:1" ht="15">
+      <c r="A147" s="54" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15">
-      <c r="A140" s="56" t="s">
+    <row r="148" spans="1:1" ht="15">
+      <c r="A148" s="54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15">
-      <c r="A141" s="56" t="s">
+    <row r="149" spans="1:1" ht="15">
+      <c r="A149" s="54" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15">
-      <c r="A142" s="56" t="s">
+    <row r="150" spans="1:1" ht="15">
+      <c r="A150" s="54" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15">
-      <c r="A143" s="56" t="s">
+    <row r="151" spans="1:1" ht="15">
+      <c r="A151" s="54" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15">
-      <c r="A144" s="56" t="s">
+    <row r="152" spans="1:1" ht="15">
+      <c r="A152" s="54" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15">
-      <c r="A145" s="56" t="s">
+    <row r="153" spans="1:1" ht="15">
+      <c r="A153" s="54" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15">
-      <c r="A146" s="56" t="s">
+    <row r="154" spans="1:1" ht="15">
+      <c r="A154" s="54" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15">
-      <c r="A147" s="56" t="s">
+    <row r="155" spans="1:1" ht="15">
+      <c r="A155" s="54"/>
+    </row>
+    <row r="156" spans="1:1" ht="16.5">
+      <c r="A156" s="55" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15">
-      <c r="A148" s="56" t="s">
+    <row r="157" spans="1:1" ht="15">
+      <c r="A157" s="54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15">
-      <c r="A149" s="56" t="s">
+    <row r="158" spans="1:1" ht="15">
+      <c r="A158" s="54" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15">
-      <c r="A150" s="56" t="s">
+    <row r="159" spans="1:1" ht="15">
+      <c r="A159" s="54" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15">
-      <c r="A151" s="56" t="s">
+    <row r="160" spans="1:1" ht="15">
+      <c r="A160" s="54" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15">
-      <c r="A152" s="56" t="s">
+    <row r="161" spans="1:1" ht="15">
+      <c r="A161" s="54" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15">
-      <c r="A153" s="56" t="s">
+    <row r="162" spans="1:1" ht="15">
+      <c r="A162" s="54" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15">
-      <c r="A154" s="56" t="s">
+    <row r="163" spans="1:1" ht="15">
+      <c r="A163" s="54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16.5">
+      <c r="A164" s="55" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15">
-      <c r="A155" s="56"/>
-    </row>
-    <row r="156" spans="1:1" ht="16.5">
-      <c r="A156" s="57" t="s">
+    <row r="165" spans="1:1" ht="15">
+      <c r="A165" s="54" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15">
-      <c r="A157" s="56" t="s">
+    <row r="166" spans="1:1" ht="15">
+      <c r="A166" s="54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15">
-      <c r="A158" s="56" t="s">
+    <row r="167" spans="1:1" ht="15">
+      <c r="A167" s="54" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15">
-      <c r="A159" s="56" t="s">
+    <row r="168" spans="1:1" ht="15">
+      <c r="A168" s="54" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15">
-      <c r="A160" s="56" t="s">
+    <row r="169" spans="1:1" ht="15">
+      <c r="A169" s="54" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15">
-      <c r="A161" s="56" t="s">
+    <row r="170" spans="1:1" ht="15">
+      <c r="A170" s="54" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15">
-      <c r="A162" s="56" t="s">
+    <row r="171" spans="1:1" ht="15">
+      <c r="A171" s="54" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15">
-      <c r="A163" s="56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="16.5">
-      <c r="A164" s="57" t="s">
+    <row r="172" spans="1:1" ht="15">
+      <c r="A172" s="54" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15">
-      <c r="A165" s="56" t="s">
+    <row r="173" spans="1:1" ht="15">
+      <c r="A173" s="54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15">
-      <c r="A166" s="56" t="s">
+    <row r="174" spans="1:1" ht="15">
+      <c r="A174" s="54" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15">
-      <c r="A167" s="56" t="s">
+    <row r="175" spans="1:1" ht="15">
+      <c r="A175" s="54" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15">
-      <c r="A168" s="56" t="s">
+    <row r="176" spans="1:1" ht="15">
+      <c r="A176" s="54" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15">
-      <c r="A169" s="56" t="s">
+    <row r="177" spans="1:1" ht="15">
+      <c r="A177" s="54" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15">
-      <c r="A170" s="56" t="s">
+    <row r="178" spans="1:1" ht="15">
+      <c r="A178" s="54" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15">
-      <c r="A171" s="56" t="s">
+    <row r="179" spans="1:1" ht="15">
+      <c r="A179" s="54" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15">
-      <c r="A172" s="56" t="s">
+    <row r="180" spans="1:1" ht="15">
+      <c r="A180" s="54" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15">
-      <c r="A173" s="56" t="s">
+    <row r="181" spans="1:1" ht="15">
+      <c r="A181" s="54" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15">
-      <c r="A174" s="56" t="s">
+    <row r="182" spans="1:1" ht="15">
+      <c r="A182" s="54" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15">
-      <c r="A175" s="56" t="s">
+    <row r="183" spans="1:1" ht="15">
+      <c r="A183" s="54" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15">
-      <c r="A176" s="56" t="s">
+    <row r="184" spans="1:1" ht="15">
+      <c r="A184" s="54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15">
-      <c r="A177" s="56" t="s">
+    <row r="185" spans="1:1" ht="15">
+      <c r="A185" s="54" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15">
-      <c r="A178" s="56" t="s">
+    <row r="186" spans="1:1" ht="15">
+      <c r="A186" s="54" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15">
-      <c r="A179" s="56" t="s">
+    <row r="187" spans="1:1" ht="15">
+      <c r="A187" s="54" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15">
-      <c r="A180" s="56" t="s">
+    <row r="188" spans="1:1" ht="15">
+      <c r="A188" s="54" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15">
-      <c r="A181" s="56" t="s">
+    <row r="189" spans="1:1" ht="15">
+      <c r="A189" s="54" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15">
-      <c r="A182" s="56" t="s">
+    <row r="190" spans="1:1" ht="15">
+      <c r="A190" s="54" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15">
-      <c r="A183" s="56" t="s">
+    <row r="191" spans="1:1" ht="15">
+      <c r="A191" s="54" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15">
-      <c r="A184" s="56" t="s">
+    <row r="192" spans="1:1" ht="15">
+      <c r="A192" s="54" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15">
-      <c r="A185" s="56" t="s">
+    <row r="193" spans="1:1" ht="15">
+      <c r="A193" s="54" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15">
-      <c r="A186" s="56" t="s">
+    <row r="194" spans="1:1" ht="15">
+      <c r="A194" s="54" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15">
-      <c r="A187" s="56" t="s">
+    <row r="195" spans="1:1" ht="15">
+      <c r="A195" s="54" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15">
-      <c r="A188" s="56" t="s">
+    <row r="196" spans="1:1" ht="15">
+      <c r="A196" s="54" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15">
-      <c r="A189" s="56" t="s">
+    <row r="197" spans="1:1" ht="15">
+      <c r="A197" s="54" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15">
-      <c r="A190" s="56" t="s">
+    <row r="198" spans="1:1" ht="15">
+      <c r="A198" s="54" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15">
-      <c r="A191" s="56" t="s">
+    <row r="199" spans="1:1" ht="15">
+      <c r="A199" s="54"/>
+    </row>
+    <row r="200" spans="1:1" ht="16.5">
+      <c r="A200" s="55" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15">
-      <c r="A192" s="56" t="s">
+    <row r="201" spans="1:1" ht="15">
+      <c r="A201" s="54" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15">
-      <c r="A193" s="56" t="s">
+    <row r="202" spans="1:1" ht="15">
+      <c r="A202" s="54" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15">
-      <c r="A194" s="56" t="s">
+    <row r="203" spans="1:1" ht="15">
+      <c r="A203" s="54" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15">
-      <c r="A195" s="56" t="s">
+    <row r="204" spans="1:1" ht="15">
+      <c r="A204" s="54" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15">
-      <c r="A196" s="56" t="s">
+    <row r="205" spans="1:1" ht="15">
+      <c r="A205" s="54" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15">
-      <c r="A197" s="56" t="s">
+    <row r="206" spans="1:1" ht="15">
+      <c r="A206" s="54" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15">
-      <c r="A198" s="56" t="s">
+    <row r="207" spans="1:1" ht="15">
+      <c r="A207" s="54" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15">
-      <c r="A199" s="56"/>
-    </row>
-    <row r="200" spans="1:1" ht="16.5">
-      <c r="A200" s="57" t="s">
+    <row r="208" spans="1:1" ht="15">
+      <c r="A208" s="54" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15">
-      <c r="A201" s="56" t="s">
+    <row r="209" spans="1:1" ht="15">
+      <c r="A209" s="54" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15">
-      <c r="A202" s="56" t="s">
+    <row r="210" spans="1:1" ht="15">
+      <c r="A210" s="54"/>
+    </row>
+    <row r="211" spans="1:1" ht="16.5">
+      <c r="A211" s="55" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15">
-      <c r="A203" s="56" t="s">
+    <row r="212" spans="1:1" ht="15">
+      <c r="A212" s="54" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15">
-      <c r="A204" s="56" t="s">
+    <row r="213" spans="1:1" ht="15">
+      <c r="A213" s="54" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15">
-      <c r="A205" s="56" t="s">
+    <row r="214" spans="1:1" ht="15">
+      <c r="A214" s="54" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15">
-      <c r="A206" s="56" t="s">
+    <row r="215" spans="1:1" ht="15">
+      <c r="A215" s="54" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15">
-      <c r="A207" s="56" t="s">
+    <row r="216" spans="1:1" ht="15">
+      <c r="A216" s="54"/>
+    </row>
+    <row r="217" spans="1:1" ht="16.5">
+      <c r="A217" s="55" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15">
-      <c r="A208" s="56" t="s">
+    <row r="218" spans="1:1" ht="15">
+      <c r="A218" s="54" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15">
-      <c r="A209" s="56" t="s">
+    <row r="219" spans="1:1" ht="15">
+      <c r="A219" s="54" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15">
-      <c r="A210" s="56"/>
-    </row>
-    <row r="211" spans="1:1" ht="16.5">
-      <c r="A211" s="57" t="s">
+    <row r="220" spans="1:1" ht="15">
+      <c r="A220" s="54"/>
+    </row>
+    <row r="221" spans="1:1" ht="16.5">
+      <c r="A221" s="55" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15">
-      <c r="A212" s="56" t="s">
+    <row r="222" spans="1:1" ht="15">
+      <c r="A222" s="54" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15">
-      <c r="A213" s="56" t="s">
+    <row r="223" spans="1:1" ht="15">
+      <c r="A223" s="54" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15">
-      <c r="A214" s="56" t="s">
+    <row r="224" spans="1:1" ht="15">
+      <c r="A224" s="54" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15">
-      <c r="A215" s="56" t="s">
+    <row r="225" spans="1:1" ht="15">
+      <c r="A225" s="54" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15">
-      <c r="A216" s="56"/>
-    </row>
-    <row r="217" spans="1:1" ht="16.5">
-      <c r="A217" s="57" t="s">
+    <row r="226" spans="1:1" ht="15">
+      <c r="A226" s="54" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15">
-      <c r="A218" s="56" t="s">
+    <row r="227" spans="1:1" ht="15">
+      <c r="A227" s="54" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15">
-      <c r="A219" s="56" t="s">
+    <row r="228" spans="1:1" ht="15">
+      <c r="A228" s="54" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15">
-      <c r="A220" s="56"/>
-    </row>
-    <row r="221" spans="1:1" ht="16.5">
-      <c r="A221" s="57" t="s">
+    <row r="229" spans="1:1" ht="15">
+      <c r="A229" s="54" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15">
-      <c r="A222" s="56" t="s">
+    <row r="230" spans="1:1" ht="15">
+      <c r="A230" s="54" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15">
-      <c r="A223" s="56" t="s">
+    <row r="231" spans="1:1" ht="15">
+      <c r="A231" s="54"/>
+    </row>
+    <row r="232" spans="1:1" ht="16.5">
+      <c r="A232" s="55" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15">
-      <c r="A224" s="56" t="s">
+    <row r="233" spans="1:1" ht="15">
+      <c r="A233" s="54" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15">
-      <c r="A225" s="56" t="s">
+    <row r="234" spans="1:1" ht="15">
+      <c r="A234" s="54"/>
+    </row>
+    <row r="235" spans="1:1" ht="16.5">
+      <c r="A235" s="55" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15">
-      <c r="A226" s="56" t="s">
+    <row r="236" spans="1:1" ht="15">
+      <c r="A236" s="54" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15">
-      <c r="A227" s="56" t="s">
+    <row r="237" spans="1:1" ht="15">
+      <c r="A237" s="54" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15">
-      <c r="A228" s="56" t="s">
+    <row r="239" spans="1:1" ht="16.5">
+      <c r="A239" s="55" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15">
-      <c r="A229" s="56" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="56" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15">
-      <c r="A230" s="56" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" s="56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
-      <c r="A231" s="56"/>
-    </row>
-    <row r="232" spans="1:1" ht="16.5">
-      <c r="A232" s="57" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="56" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15">
-      <c r="A233" s="56" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" s="56" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15">
-      <c r="A234" s="56"/>
-    </row>
-    <row r="235" spans="1:1" ht="16.5">
-      <c r="A235" s="57" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" s="56" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15">
-      <c r="A236" s="56" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" s="56" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15">
-      <c r="A237" s="56" t="s">
+    <row r="247" spans="1:1" ht="16.5">
+      <c r="A247" s="55" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="16.5">
-      <c r="A239" s="57" t="s">
+    <row r="249" spans="1:1" ht="16.5">
+      <c r="A249" s="55" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="58" t="s">
+    <row r="251" spans="1:1" ht="16.5">
+      <c r="A251" s="55" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="58" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" s="59" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="58" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="59" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="58" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="59" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="58" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" s="59" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="58" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" s="59" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="16.5">
-      <c r="A247" s="57" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" s="60" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="16.5">
-      <c r="A249" s="57" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" s="59" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="16.5">
-      <c r="A251" s="57" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" s="59" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="61" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" s="59" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="61" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="61" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="61" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="62" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="61" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="61" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="61" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="483">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3846,6 +3846,30 @@
   </si>
   <si>
     <t>Project has been successfully delivered to the client.</t>
+  </si>
+  <si>
+    <t>Gauracv Singh</t>
+  </si>
+  <si>
+    <t>gauravsingh2212@rediffmail.com</t>
+  </si>
+  <si>
+    <t>I.E.C</t>
+  </si>
+  <si>
+    <t>Pcb Designinh</t>
+  </si>
+  <si>
+    <t>27Th Jan</t>
+  </si>
+  <si>
+    <t>Salman Ali</t>
+  </si>
+  <si>
+    <t>salmanali141199@yahoo.com</t>
+  </si>
+  <si>
+    <t>Eddy Current Project</t>
   </si>
 </sst>
 </file>
@@ -4651,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4987,6 +5011,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14">
+        <v>9811708509</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -4998,17 +5048,19 @@
     <hyperlink ref="C11" r:id="rId7"/>
     <hyperlink ref="C12" r:id="rId8"/>
     <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5160,6 +5212,26 @@
         <v>84</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8">
+        <v>9990180164</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -5168,6 +5240,7 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5458,9 +5531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6789,7 +6862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="497">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -1032,42 +1032,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>IC Tester based on Microcontroller 74XX Series (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell Phone Based DTMF Controlled Garage Door Opening System (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>AT89S52 Microcontroller based 0-100°C  temperature indicator system (2200/-)</t>
     </r>
   </si>
@@ -1104,96 +1068,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Automatic Exhaust Fan Control Coupled To Gas Leak Detection (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller-Based Solar Charger (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller-Based School Timer (2800/- )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell phone controlled solar vehicle (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>House security system (2800/-)</t>
     </r>
   </si>
@@ -1212,24 +1086,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (2500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>AT89S52 Microcontroller based Digital Clock (3000/-)</t>
     </r>
   </si>
@@ -1285,24 +1141,6 @@
         <family val="2"/>
       </rPr>
       <t>Ball Picker Robot (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Fan Speed Controller using Visual Basic (2800/-)</t>
     </r>
   </si>
   <si>
@@ -3870,6 +3708,210 @@
   </si>
   <si>
     <t>Eddy Current Project</t>
+  </si>
+  <si>
+    <t>200+100/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IC Tester based on Microcontroller 74XX Series (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>682/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell Phone Based DTMF Controlled Garage Door Opening System (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Relay Driver(one Relay)</t>
+  </si>
+  <si>
+    <t>75/-</t>
+  </si>
+  <si>
+    <t>Gas Sensor</t>
+  </si>
+  <si>
+    <t>380/-</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>1079/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatic Exhaust Fan Control Coupled To Gas Leak Detection (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Solar Panel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller-Based Solar Charger (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1235/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Programmable Industrial On-Off Timer With RF Remote (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller-Based School Timer (1200/- )</t>
+    </r>
+  </si>
+  <si>
+    <t>1365/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell phone controlled solar vehicle (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Arduino Board (atmega328)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>936/-</t>
+  </si>
+  <si>
+    <t>575/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Fan Speed Controller using Visual Basic (1200/-)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4080,7 +4122,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4245,6 +4287,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4630,7 +4673,7 @@
         <v>173</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4677,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4918,22 +4961,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4944,88 +4987,91 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G11" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:8" s="4" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="4">
         <v>9871310918</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D12" t="s">
-        <v>441</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F12" t="s">
-        <v>435</v>
+      <c r="F12" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>474</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D14" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E14" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -5060,7 +5106,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5214,22 +5260,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E8" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5265,7 +5311,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -5347,32 +5393,32 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -5380,16 +5426,16 @@
     </row>
     <row r="9" spans="1:4" s="61" customFormat="1">
       <c r="A9" s="61" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5399,10 +5445,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5511,15 +5557,55 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>485</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5531,7 +5617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
@@ -6309,7 +6395,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L3" s="21"/>
     </row>
@@ -6341,7 +6427,7 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L4" s="70"/>
     </row>
@@ -6405,7 +6491,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -6499,7 +6585,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -6627,7 +6713,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -6659,7 +6745,7 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L14" s="21"/>
     </row>
@@ -6691,7 +6777,7 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -6719,7 +6805,7 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L16" s="38"/>
     </row>
@@ -6751,7 +6837,7 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L17" s="38"/>
     </row>
@@ -6785,7 +6871,7 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L18" s="46"/>
     </row>
@@ -6862,8 +6948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7093,39 +7179,39 @@
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="54" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="54" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="54" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="54" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>96</v>
@@ -7133,7 +7219,7 @@
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="54" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>184</v>
@@ -7146,226 +7232,256 @@
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="54" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15">
-      <c r="A33" s="54" t="s">
+    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A33" s="57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A36" s="57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15">
-      <c r="A35" s="54" t="s">
+    <row r="37" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A37" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15">
-      <c r="A36" s="54" t="s">
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15">
-      <c r="A37" s="54" t="s">
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A45" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15">
-      <c r="A38" s="54" t="s">
+    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A46" s="57" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15">
-      <c r="A39" s="54" t="s">
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="54" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15">
-      <c r="A40" s="54" t="s">
+      <c r="C47" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A48" s="57" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15">
-      <c r="A41" s="54" t="s">
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A50" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15">
-      <c r="A42" s="54" t="s">
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="58"/>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" s="54"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
+      <c r="A53" s="55" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15">
-      <c r="A43" s="54" t="s">
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15">
-      <c r="A44" s="54" t="s">
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15">
-      <c r="A45" s="54" t="s">
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" s="54" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15">
-      <c r="A46" s="54" t="s">
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" s="54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15">
-      <c r="A47" s="54" t="s">
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="54" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15">
-      <c r="A48" s="54" t="s">
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" s="54" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15">
-      <c r="A49" s="54" t="s">
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15">
-      <c r="A50" s="54" t="s">
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" s="54" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
-      <c r="A51" s="58"/>
-    </row>
-    <row r="52" spans="1:1" ht="15">
-      <c r="A52" s="54"/>
-    </row>
-    <row r="53" spans="1:1" ht="16.5">
-      <c r="A53" s="55" t="s">
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="54" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
-      <c r="A54" s="54" t="s">
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
-      <c r="A55" s="54" t="s">
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="54" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15">
-      <c r="A56" s="54" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15">
-      <c r="A57" s="54" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15">
-      <c r="A58" s="54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="15">
-      <c r="A59" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15">
-      <c r="A60" s="54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15">
-      <c r="A61" s="54" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15">
-      <c r="A62" s="54" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15">
-      <c r="A63" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15">
-      <c r="A64" s="54" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15">
       <c r="A65" s="54" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15">
       <c r="A66" s="54" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15">
       <c r="A67" s="54" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15">
       <c r="A68" s="54" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15">
       <c r="A69" s="54" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15">
       <c r="A70" s="54" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15">
       <c r="A71" s="54" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15">
       <c r="A72" s="54" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15">
       <c r="A73" s="54" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15">
       <c r="A74" s="54" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15">
       <c r="A75" s="54" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15">
       <c r="A76" s="54" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15">
@@ -7373,147 +7489,147 @@
     </row>
     <row r="78" spans="1:1" ht="16.5">
       <c r="A78" s="55" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15">
       <c r="A79" s="54" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15">
       <c r="A80" s="54" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15">
       <c r="A81" s="54" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15">
       <c r="A82" s="54" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15">
       <c r="A83" s="54" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15">
       <c r="A84" s="54" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15">
       <c r="A85" s="54" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15">
       <c r="A86" s="54" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15">
       <c r="A87" s="54" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15">
       <c r="A88" s="54" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15">
       <c r="A89" s="54" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15">
       <c r="A90" s="54" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15">
       <c r="A91" s="54" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15">
       <c r="A92" s="54" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15">
       <c r="A93" s="54" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15">
       <c r="A94" s="54" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15">
       <c r="A95" s="54" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15">
       <c r="A96" s="54" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15">
       <c r="A97" s="54" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15">
       <c r="A98" s="54" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15">
       <c r="A99" s="54" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15">
       <c r="A100" s="54" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15">
       <c r="A101" s="54" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15">
       <c r="A102" s="54" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15">
       <c r="A103" s="54" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15">
       <c r="A104" s="54" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15">
       <c r="A105" s="54" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15">
       <c r="A106" s="54" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15">
@@ -7521,77 +7637,77 @@
     </row>
     <row r="108" spans="1:1" ht="16.5">
       <c r="A108" s="55" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15">
       <c r="A109" s="54" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15">
       <c r="A110" s="54" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15">
       <c r="A111" s="54" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15">
       <c r="A112" s="54" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15">
       <c r="A113" s="54" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15">
       <c r="A114" s="54" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15">
       <c r="A115" s="54" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15">
       <c r="A116" s="54" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15">
       <c r="A117" s="54" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15">
       <c r="A118" s="54" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15">
       <c r="A119" s="54" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15">
       <c r="A120" s="54" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="15">
       <c r="A121" s="54" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15">
       <c r="A122" s="54" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15">
@@ -7599,157 +7715,157 @@
     </row>
     <row r="124" spans="1:1" ht="16.5">
       <c r="A124" s="55" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15">
       <c r="A125" s="54" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15">
       <c r="A126" s="54" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15">
       <c r="A127" s="54" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15">
       <c r="A128" s="54" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15">
       <c r="A129" s="54" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15">
       <c r="A130" s="54" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15">
       <c r="A131" s="54" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15">
       <c r="A132" s="54" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15">
       <c r="A133" s="54" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15">
       <c r="A134" s="54" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15">
       <c r="A135" s="54" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15">
       <c r="A136" s="54" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15">
       <c r="A137" s="54" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15">
       <c r="A138" s="54" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15">
       <c r="A139" s="54" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15">
       <c r="A140" s="54" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15">
       <c r="A141" s="54" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15">
       <c r="A142" s="54" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15">
       <c r="A143" s="54" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15">
       <c r="A144" s="54" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15">
       <c r="A145" s="54" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15">
       <c r="A146" s="54" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15">
       <c r="A147" s="54" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15">
       <c r="A148" s="54" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15">
       <c r="A149" s="54" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15">
       <c r="A150" s="54" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15">
       <c r="A151" s="54" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15">
       <c r="A152" s="54" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="15">
       <c r="A153" s="54" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15">
       <c r="A154" s="54" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15">
@@ -7757,217 +7873,217 @@
     </row>
     <row r="156" spans="1:1" ht="16.5">
       <c r="A156" s="55" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15">
       <c r="A157" s="54" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15">
       <c r="A158" s="54" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15">
       <c r="A159" s="54" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15">
       <c r="A160" s="54" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="15">
       <c r="A161" s="54" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15">
       <c r="A162" s="54" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15">
       <c r="A163" s="54" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="16.5">
       <c r="A164" s="55" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15">
       <c r="A165" s="54" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15">
       <c r="A166" s="54" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15">
       <c r="A167" s="54" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15">
       <c r="A168" s="54" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15">
       <c r="A169" s="54" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15">
       <c r="A170" s="54" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15">
       <c r="A171" s="54" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15">
       <c r="A172" s="54" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15">
       <c r="A173" s="54" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15">
       <c r="A174" s="54" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15">
       <c r="A175" s="54" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15">
       <c r="A176" s="54" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15">
       <c r="A177" s="54" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15">
       <c r="A178" s="54" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15">
       <c r="A179" s="54" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15">
       <c r="A180" s="54" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15">
       <c r="A181" s="54" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15">
       <c r="A182" s="54" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15">
       <c r="A183" s="54" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15">
       <c r="A184" s="54" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15">
       <c r="A185" s="54" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15">
       <c r="A186" s="54" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15">
       <c r="A187" s="54" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15">
       <c r="A188" s="54" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15">
       <c r="A189" s="54" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15">
       <c r="A190" s="54" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15">
       <c r="A191" s="54" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15">
       <c r="A192" s="54" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15">
       <c r="A193" s="54" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15">
       <c r="A194" s="54" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15">
       <c r="A195" s="54" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15">
       <c r="A196" s="54" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="15">
       <c r="A197" s="54" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15">
       <c r="A198" s="54" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15">
@@ -7975,52 +8091,52 @@
     </row>
     <row r="200" spans="1:1" ht="16.5">
       <c r="A200" s="55" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15">
       <c r="A201" s="54" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15">
       <c r="A202" s="54" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15">
       <c r="A203" s="54" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15">
       <c r="A204" s="54" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15">
       <c r="A205" s="54" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15">
       <c r="A206" s="54" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15">
       <c r="A207" s="54" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="15">
       <c r="A208" s="54" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15">
       <c r="A209" s="54" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15">
@@ -8028,27 +8144,27 @@
     </row>
     <row r="211" spans="1:1" ht="16.5">
       <c r="A211" s="55" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15">
       <c r="A212" s="54" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15">
       <c r="A213" s="54" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="15">
       <c r="A214" s="54" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15">
       <c r="A215" s="54" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15">
@@ -8056,17 +8172,17 @@
     </row>
     <row r="217" spans="1:1" ht="16.5">
       <c r="A217" s="55" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15">
       <c r="A218" s="54" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15">
       <c r="A219" s="54" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15">
@@ -8074,52 +8190,52 @@
     </row>
     <row r="221" spans="1:1" ht="16.5">
       <c r="A221" s="55" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15">
       <c r="A222" s="54" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15">
       <c r="A223" s="54" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15">
       <c r="A224" s="54" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15">
       <c r="A225" s="54" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15">
       <c r="A226" s="54" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15">
       <c r="A227" s="54" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15">
       <c r="A228" s="54" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15">
       <c r="A229" s="54" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15">
       <c r="A230" s="54" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15">
@@ -8127,12 +8243,12 @@
     </row>
     <row r="232" spans="1:1" ht="16.5">
       <c r="A232" s="55" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15">
       <c r="A233" s="54" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15">
@@ -8140,112 +8256,112 @@
     </row>
     <row r="235" spans="1:1" ht="16.5">
       <c r="A235" s="55" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15">
       <c r="A236" s="54" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="15">
       <c r="A237" s="54" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="16.5">
       <c r="A239" s="55" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="56" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="56" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="56" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="56" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="56" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="56" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="16.5">
       <c r="A247" s="55" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="16.5">
       <c r="A249" s="55" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="16.5">
       <c r="A251" s="55" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="59" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="59" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="59" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="59" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="59" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="60" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="59" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="59" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="59" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="497">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -1144,9 +1144,6 @@
     </r>
   </si>
   <si>
-    <t>Underground Cable Fault Distance Locator (2800/-)</t>
-  </si>
-  <si>
     <r>
       <t>1.2.</t>
     </r>
@@ -3650,24 +3647,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 based IC Tester with Visual Basic  (1200/-)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">They had gone their home town they will come in feb  </t>
   </si>
   <si>
@@ -3912,13 +3891,19 @@
       </rPr>
       <t>Microcontroller based Fan Speed Controller using Visual Basic (1200/-)</t>
     </r>
+  </si>
+  <si>
+    <t>Unpaid</t>
+  </si>
+  <si>
+    <t>Reason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4122,7 +4107,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4287,7 +4272,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4350,7 +4339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4382,9 +4371,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4416,6 +4406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4591,14 +4582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4612,7 +4603,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4644,7 +4635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="61" customFormat="1">
+    <row r="2" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
@@ -4673,10 +4664,10 @@
         <v>173</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4717,14 +4708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -4734,7 +4725,7 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4786,7 +4777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4809,7 +4800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4835,7 +4826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4861,7 +4852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4887,7 +4878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4910,7 +4901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -4933,7 +4924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -4959,24 +4950,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" t="s">
         <v>424</v>
-      </c>
-      <c r="D10" t="s">
-        <v>425</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4985,93 +4976,96 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" t="s">
         <v>428</v>
-      </c>
-      <c r="D11" t="s">
-        <v>429</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="72">
+        <v>9871310918</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="B12" s="4">
-        <v>9871310918</v>
-      </c>
-      <c r="C12" s="72" t="s">
+      <c r="D12" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="72" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -5102,14 +5096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5118,7 +5112,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5138,7 +5132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -5158,7 +5152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5198,7 +5192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5218,7 +5212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -5238,7 +5232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -5258,24 +5252,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8" t="s">
         <v>467</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>468</v>
-      </c>
-      <c r="E8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F8" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5293,25 +5287,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5320,14 +5314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -5336,7 +5330,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -5346,8 +5340,11 @@
       <c r="C1" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5358,7 +5355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5369,7 +5366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5391,51 +5388,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" t="s">
         <v>433</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>434</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>436</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B8" t="s">
-        <v>438</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="61" customFormat="1">
-      <c r="A9" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="61" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>450</v>
+      <c r="D9" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5444,19 +5441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -5464,7 +5461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5472,7 +5469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5480,7 +5477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -5488,7 +5485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -5496,7 +5493,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5504,7 +5501,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -5512,7 +5509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -5520,7 +5517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -5528,7 +5525,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -5536,7 +5533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -5544,7 +5541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -5552,57 +5549,57 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>478</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>480</v>
-      </c>
-      <c r="B16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>482</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
@@ -5614,15 +5611,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -6332,7 +6329,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
@@ -6368,8 +6365,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -6395,11 +6392,11 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
+    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64">
         <v>2</v>
       </c>
@@ -6427,11 +6424,11 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -6463,7 +6460,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -6491,11 +6488,11 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -6527,7 +6524,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -6559,7 +6556,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -6585,11 +6582,11 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -6619,7 +6616,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -6653,7 +6650,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -6685,7 +6682,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -6713,11 +6710,11 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -6745,11 +6742,11 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -6777,11 +6774,11 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -6805,11 +6802,11 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -6837,11 +6834,11 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>17</v>
       </c>
@@ -6871,11 +6868,11 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -6907,7 +6904,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -6921,7 +6918,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="48"/>
@@ -6945,14 +6942,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D260"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
+    <sheetView topLeftCell="A35" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -6960,7 +6955,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>176</v>
       </c>
@@ -6974,13 +6969,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="D2" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>181</v>
       </c>
@@ -6988,7 +6983,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>183</v>
       </c>
@@ -6999,7 +6994,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>186</v>
       </c>
@@ -7010,7 +7005,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>188</v>
       </c>
@@ -7021,7 +7016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>191</v>
       </c>
@@ -7032,7 +7027,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>194</v>
       </c>
@@ -7043,7 +7038,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>197</v>
       </c>
@@ -7054,7 +7049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
         <v>200</v>
       </c>
@@ -7065,7 +7060,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>202</v>
       </c>
@@ -7076,7 +7071,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>204</v>
       </c>
@@ -7087,12 +7082,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>207</v>
       </c>
@@ -7100,7 +7095,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>208</v>
       </c>
@@ -7108,7 +7103,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>210</v>
       </c>
@@ -7116,12 +7111,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>212</v>
       </c>
@@ -7129,7 +7124,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>213</v>
       </c>
@@ -7137,7 +7132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>214</v>
       </c>
@@ -7145,7 +7140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>215</v>
       </c>
@@ -7153,7 +7148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>217</v>
       </c>
@@ -7161,7 +7156,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>219</v>
       </c>
@@ -7169,7 +7164,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>221</v>
       </c>
@@ -7177,1191 +7172,1178 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="54" t="s">
+    </row>
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="54" t="s">
+    </row>
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="74" t="s">
         <v>456</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="54" t="s">
+      <c r="C29" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="74" t="s">
         <v>457</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="31" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="54" t="s">
-        <v>459</v>
-      </c>
-      <c r="C32" s="15" t="s">
+    <row r="32" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
-      <c r="A33" s="57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>475</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15">
-      <c r="A35" s="54" t="s">
-        <v>477</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="63" customFormat="1" ht="15">
-      <c r="A37" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>484</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
         <v>486</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
         <v>489</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="54" t="s">
+      <c r="C43" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="63" customFormat="1" ht="15">
-      <c r="A45" s="57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
-      <c r="A46" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="63" customFormat="1" ht="15">
-      <c r="A48" s="57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="63" customFormat="1" ht="15">
-      <c r="A50" s="57" t="s">
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="58"/>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="54"/>
+    </row>
+    <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="55" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="58"/>
-    </row>
-    <row r="52" spans="1:3" ht="15">
-      <c r="A52" s="54"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5">
-      <c r="A53" s="55" t="s">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15">
-      <c r="A75" s="54" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15">
-      <c r="A76" s="54" t="s">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="54"/>
+    </row>
+    <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="55" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15">
-      <c r="A77" s="54"/>
-    </row>
-    <row r="78" spans="1:1" ht="16.5">
-      <c r="A78" s="55" t="s">
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="54" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="54" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="54" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="54" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="54" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15">
-      <c r="A105" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="54"/>
+    </row>
+    <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="55" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15">
-      <c r="A106" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15">
-      <c r="A107" s="54"/>
-    </row>
-    <row r="108" spans="1:1" ht="16.5">
-      <c r="A108" s="55" t="s">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="54" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="54" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="54" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="54" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="54" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="54" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="15">
-      <c r="A121" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="54"/>
+    </row>
+    <row r="122" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15">
-      <c r="A122" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="15">
-      <c r="A123" s="54"/>
-    </row>
-    <row r="124" spans="1:1" ht="16.5">
-      <c r="A124" s="55" t="s">
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="54" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15">
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="54" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="54" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="54" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="54" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="54" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="54" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="54" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="54" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="54" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="54" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="54" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="54" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="54" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="54" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="54" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="15">
-      <c r="A153" s="54" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15">
-      <c r="A154" s="54" t="s">
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="54"/>
+    </row>
+    <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="55" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15">
-      <c r="A155" s="54"/>
-    </row>
-    <row r="156" spans="1:1" ht="16.5">
-      <c r="A156" s="55" t="s">
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="54" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15">
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="54" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="54" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="54" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="15">
-      <c r="A162" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="55" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15">
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="16.5">
-      <c r="A164" s="55" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15">
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="54" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="54" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="54" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="54" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="54" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="54" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="54" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="54" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="54" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="54" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="54" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="54" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="54" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="54" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="54" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="54" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="54" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="54" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="54" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="54" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="54" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="54" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="54" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="15">
-      <c r="A197" s="54" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15">
-      <c r="A198" s="54" t="s">
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="54"/>
+    </row>
+    <row r="198" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A198" s="55" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15">
-      <c r="A199" s="54"/>
-    </row>
-    <row r="200" spans="1:1" ht="16.5">
-      <c r="A200" s="55" t="s">
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="54" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15">
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="54" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="54" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="54" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="54" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="54" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="54" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="15">
-      <c r="A208" s="54" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15">
-      <c r="A209" s="54" t="s">
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="54"/>
+    </row>
+    <row r="209" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="55" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15">
-      <c r="A210" s="54"/>
-    </row>
-    <row r="211" spans="1:1" ht="16.5">
-      <c r="A211" s="55" t="s">
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="54" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15">
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="54" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" ht="15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="54" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="15">
-      <c r="A214" s="54" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15">
-      <c r="A215" s="54" t="s">
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" s="54"/>
+    </row>
+    <row r="215" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="55" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15">
-      <c r="A216" s="54"/>
-    </row>
-    <row r="217" spans="1:1" ht="16.5">
-      <c r="A217" s="55" t="s">
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="54" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15">
-      <c r="A218" s="54" t="s">
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="54" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15">
-      <c r="A219" s="54" t="s">
+    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" s="54"/>
+    </row>
+    <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="55" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15">
-      <c r="A220" s="54"/>
-    </row>
-    <row r="221" spans="1:1" ht="16.5">
-      <c r="A221" s="55" t="s">
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="54" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15">
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="54" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="54" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="54" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="54" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="54" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" ht="15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="54" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="54" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="15">
-      <c r="A229" s="54" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15">
-      <c r="A230" s="54" t="s">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A229" s="54"/>
+    </row>
+    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="55" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
-      <c r="A231" s="54"/>
-    </row>
-    <row r="232" spans="1:1" ht="16.5">
-      <c r="A232" s="55" t="s">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="54" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15">
-      <c r="A233" s="54" t="s">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="54"/>
+    </row>
+    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="55" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15">
-      <c r="A234" s="54"/>
-    </row>
-    <row r="235" spans="1:1" ht="16.5">
-      <c r="A235" s="55" t="s">
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="54" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15">
-      <c r="A236" s="54" t="s">
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A235" s="54" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15">
-      <c r="A237" s="54" t="s">
+    <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="55" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="16.5">
-      <c r="A239" s="55" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="56" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="56" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="56" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="56" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="56" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="56" t="s">
+    <row r="245" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="55" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="16.5">
+    <row r="247" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="55" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="16.5">
+    <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="55" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="16.5">
-      <c r="A251" s="55" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="59" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="59" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="59" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="59" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="59" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="60" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="59" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="59" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="59" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="500">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -1068,43 +1068,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>House security system (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>AT89S52 Microcontroller based Digital Clock (3000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PC Based Electrical Load Control (2200/-)</t>
     </r>
   </si>
   <si>
@@ -3509,24 +3473,6 @@
     <t>546/-</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatic Control for Unmanned Railway Gate (1200/-)</t>
-    </r>
-  </si>
-  <si>
     <t>1820/-</t>
   </si>
   <si>
@@ -3629,24 +3575,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s(1200)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">They had gone their home town they will come in feb  </t>
   </si>
   <si>
@@ -3851,24 +3779,6 @@
     <t>Arduino Board (atmega328)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (1800/-)</t>
-    </r>
-  </si>
-  <si>
     <t>936/-</t>
   </si>
   <si>
@@ -3897,13 +3807,97 @@
   </si>
   <si>
     <t>Reason</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatic Control for Unmanned Railway Gate (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1950/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Propeller Message Display using Moving LED’s(2200)</t>
+    </r>
+  </si>
+  <si>
+    <t>Stepper motor</t>
+  </si>
+  <si>
+    <t>2365/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based  Sun/Solar Tracking System (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>665/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC Based Electrical Load Control (1200/-)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4339,7 +4333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4371,10 +4365,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4406,7 +4399,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4582,14 +4574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4603,7 +4595,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4635,7 +4627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="61" customFormat="1">
       <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
@@ -4664,10 +4656,10 @@
         <v>173</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4708,14 +4700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -4725,7 +4717,7 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4777,7 +4769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4800,7 +4792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4826,7 +4818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4852,7 +4844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4878,7 +4870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4901,7 +4893,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -4924,7 +4916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -4950,24 +4942,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4976,96 +4968,96 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="72" customFormat="1">
       <c r="A12" s="72" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B12" s="72">
         <v>9871310918</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>109</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -5096,14 +5088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5112,7 +5104,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5132,7 +5124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -5152,7 +5144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5172,7 +5164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5192,7 +5184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5212,7 +5204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -5232,7 +5224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -5252,24 +5244,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5287,25 +5279,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5314,14 +5306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -5330,7 +5322,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -5341,10 +5333,10 @@
         <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5355,7 +5347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5366,7 +5358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -5377,7 +5369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5388,51 +5380,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" t="s">
         <v>432</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" t="s">
         <v>433</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" t="s">
         <v>435</v>
-      </c>
-      <c r="C7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B8" t="s">
-        <v>437</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -5441,19 +5433,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -5461,7 +5453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5469,7 +5461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5477,7 +5469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -5485,7 +5477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -5493,7 +5485,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5501,7 +5493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -5509,7 +5501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -5517,7 +5509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -5525,7 +5517,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -5533,7 +5525,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -5541,7 +5533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -5549,60 +5541,68 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>476</v>
-      </c>
-      <c r="B15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>478</v>
-      </c>
-      <c r="B16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>480</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5611,7 +5611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5619,7 +5619,7 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -6329,7 +6329,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
@@ -6365,8 +6365,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -6392,11 +6392,11 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
       <c r="A4" s="64">
         <v>2</v>
       </c>
@@ -6424,11 +6424,11 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -6488,11 +6488,11 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -6582,11 +6582,11 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -6710,11 +6710,11 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -6742,11 +6742,11 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -6774,11 +6774,11 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -6802,11 +6802,11 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -6834,11 +6834,11 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
       <c r="A18" s="43">
         <v>17</v>
       </c>
@@ -6868,11 +6868,11 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -6918,7 +6918,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="48"/>
@@ -6942,12 +6942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -6955,7 +6957,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="53" t="s">
         <v>176</v>
       </c>
@@ -6969,13 +6971,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="54"/>
       <c r="D2" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="55" t="s">
         <v>181</v>
       </c>
@@ -6983,7 +6985,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
         <v>183</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="54" t="s">
         <v>186</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="54" t="s">
         <v>188</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="54" t="s">
         <v>191</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="54" t="s">
         <v>194</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="54" t="s">
         <v>197</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
         <v>200</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="54" t="s">
         <v>202</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="54" t="s">
         <v>204</v>
       </c>
@@ -7082,12 +7084,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="57" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="54" t="s">
         <v>207</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="54" t="s">
         <v>208</v>
       </c>
@@ -7103,7 +7105,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="54" t="s">
         <v>210</v>
       </c>
@@ -7111,12 +7113,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="57" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="56" t="s">
         <v>212</v>
       </c>
@@ -7124,7 +7126,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="54" t="s">
         <v>213</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="54" t="s">
         <v>214</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="54" t="s">
         <v>215</v>
       </c>
@@ -7148,7 +7150,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="54" t="s">
         <v>217</v>
       </c>
@@ -7156,7 +7158,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="54" t="s">
         <v>219</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="54" t="s">
         <v>221</v>
       </c>
@@ -7172,1178 +7174,1176 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="74" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="54" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
-        <v>444</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A28" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A29" s="74" t="s">
         <v>453</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="74" t="s">
-        <v>455</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
-        <v>456</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="74" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A31" s="57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A32" s="57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
-        <v>473</v>
-      </c>
-      <c r="C33" s="15" t="s">
+    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A33" s="57" t="s">
+        <v>469</v>
+      </c>
+      <c r="C33" s="63" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A35" s="57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A36" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A42" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A43" s="57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A44" s="74" t="s">
+        <v>499</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A46" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="74" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="74" t="s">
-        <v>491</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="58"/>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="54"/>
+    </row>
+    <row r="50" spans="1:1" ht="16.5">
+      <c r="A50" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-    </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-    </row>
-    <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="55" t="s">
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="54" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="54" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="54" t="s">
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="54" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="s">
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="54" t="s">
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="54" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="s">
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="54" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="54" t="s">
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="54" t="s">
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="54" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="54" t="s">
+    <row r="65" spans="1:1" ht="15">
+      <c r="A65" s="54" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="s">
+    <row r="66" spans="1:1" ht="15">
+      <c r="A66" s="54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="54" t="s">
+    <row r="67" spans="1:1" ht="15">
+      <c r="A67" s="54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="s">
+    <row r="68" spans="1:1" ht="15">
+      <c r="A68" s="54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="s">
+    <row r="69" spans="1:1" ht="15">
+      <c r="A69" s="54" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="54" t="s">
+    <row r="70" spans="1:1" ht="15">
+      <c r="A70" s="54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="54" t="s">
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="54" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="54" t="s">
+    <row r="73" spans="1:1" ht="15">
+      <c r="A73" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="54" t="s">
+    <row r="74" spans="1:1" ht="15">
+      <c r="A74" s="54"/>
+    </row>
+    <row r="75" spans="1:1" ht="16.5">
+      <c r="A75" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="54" t="s">
+    <row r="76" spans="1:1" ht="15">
+      <c r="A76" s="54" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
-    </row>
-    <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="55" t="s">
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="54" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="54" t="s">
+    <row r="78" spans="1:1" ht="15">
+      <c r="A78" s="54" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="54" t="s">
+    <row r="79" spans="1:1" ht="15">
+      <c r="A79" s="54" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="54" t="s">
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="54" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="54" t="s">
+    <row r="81" spans="1:1" ht="15">
+      <c r="A81" s="54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="54" t="s">
+    <row r="82" spans="1:1" ht="15">
+      <c r="A82" s="54" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="54" t="s">
+    <row r="83" spans="1:1" ht="15">
+      <c r="A83" s="54" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="54" t="s">
+    <row r="84" spans="1:1" ht="15">
+      <c r="A84" s="54" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="54" t="s">
+    <row r="85" spans="1:1" ht="15">
+      <c r="A85" s="54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="54" t="s">
+    <row r="86" spans="1:1" ht="15">
+      <c r="A86" s="54" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="54" t="s">
+    <row r="87" spans="1:1" ht="15">
+      <c r="A87" s="54" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
+    <row r="88" spans="1:1" ht="15">
+      <c r="A88" s="54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+    <row r="89" spans="1:1" ht="15">
+      <c r="A89" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="54" t="s">
+    <row r="90" spans="1:1" ht="15">
+      <c r="A90" s="54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
+    <row r="91" spans="1:1" ht="15">
+      <c r="A91" s="54" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="54" t="s">
+    <row r="92" spans="1:1" ht="15">
+      <c r="A92" s="54" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
+    <row r="93" spans="1:1" ht="15">
+      <c r="A93" s="54" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="54" t="s">
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="54" t="s">
+    <row r="95" spans="1:1" ht="15">
+      <c r="A95" s="54" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="54" t="s">
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="54" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="54" t="s">
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="54" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="54" t="s">
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="54" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="54" t="s">
+    <row r="99" spans="1:1" ht="15">
+      <c r="A99" s="54" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="54" t="s">
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="54" t="s">
+    <row r="101" spans="1:1" ht="15">
+      <c r="A101" s="54" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
+    <row r="102" spans="1:1" ht="15">
+      <c r="A102" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="54" t="s">
+    <row r="103" spans="1:1" ht="15">
+      <c r="A103" s="54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15">
+      <c r="A104" s="54"/>
+    </row>
+    <row r="105" spans="1:1" ht="16.5">
+      <c r="A105" s="55" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="54" t="s">
+    <row r="106" spans="1:1" ht="15">
+      <c r="A106" s="54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="54"/>
-    </row>
-    <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="55" t="s">
+    <row r="107" spans="1:1" ht="15">
+      <c r="A107" s="54" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="54" t="s">
+    <row r="108" spans="1:1" ht="15">
+      <c r="A108" s="54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="54" t="s">
+    <row r="109" spans="1:1" ht="15">
+      <c r="A109" s="54" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="54" t="s">
+    <row r="110" spans="1:1" ht="15">
+      <c r="A110" s="54" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="54" t="s">
+    <row r="111" spans="1:1" ht="15">
+      <c r="A111" s="54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
+    <row r="112" spans="1:1" ht="15">
+      <c r="A112" s="54" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="54" t="s">
+    <row r="113" spans="1:1" ht="15">
+      <c r="A113" s="54" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="54" t="s">
+    <row r="114" spans="1:1" ht="15">
+      <c r="A114" s="54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="54" t="s">
+    <row r="115" spans="1:1" ht="15">
+      <c r="A115" s="54" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="54" t="s">
+    <row r="116" spans="1:1" ht="15">
+      <c r="A116" s="54" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="54" t="s">
+    <row r="117" spans="1:1" ht="15">
+      <c r="A117" s="54" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="54" t="s">
+    <row r="118" spans="1:1" ht="15">
+      <c r="A118" s="54" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="54" t="s">
+    <row r="119" spans="1:1" ht="15">
+      <c r="A119" s="54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15">
+      <c r="A120" s="54"/>
+    </row>
+    <row r="121" spans="1:1" ht="16.5">
+      <c r="A121" s="55" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="54" t="s">
+    <row r="122" spans="1:1" ht="15">
+      <c r="A122" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
-    </row>
-    <row r="122" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="55" t="s">
+    <row r="123" spans="1:1" ht="15">
+      <c r="A123" s="54" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="54" t="s">
+    <row r="124" spans="1:1" ht="15">
+      <c r="A124" s="54" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="54" t="s">
+    <row r="125" spans="1:1" ht="15">
+      <c r="A125" s="54" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="54" t="s">
+    <row r="126" spans="1:1" ht="15">
+      <c r="A126" s="54" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="54" t="s">
+    <row r="127" spans="1:1" ht="15">
+      <c r="A127" s="54" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="54" t="s">
+    <row r="128" spans="1:1" ht="15">
+      <c r="A128" s="54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="54" t="s">
+    <row r="129" spans="1:1" ht="15">
+      <c r="A129" s="54" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="54" t="s">
+    <row r="130" spans="1:1" ht="15">
+      <c r="A130" s="54" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="54" t="s">
+    <row r="131" spans="1:1" ht="15">
+      <c r="A131" s="54" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="54" t="s">
+    <row r="132" spans="1:1" ht="15">
+      <c r="A132" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="54" t="s">
+    <row r="133" spans="1:1" ht="15">
+      <c r="A133" s="54" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="54" t="s">
+    <row r="134" spans="1:1" ht="15">
+      <c r="A134" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="54" t="s">
+    <row r="135" spans="1:1" ht="15">
+      <c r="A135" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="54" t="s">
+    <row r="136" spans="1:1" ht="15">
+      <c r="A136" s="54" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="54" t="s">
+    <row r="137" spans="1:1" ht="15">
+      <c r="A137" s="54" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="54" t="s">
+    <row r="138" spans="1:1" ht="15">
+      <c r="A138" s="54" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="54" t="s">
+    <row r="139" spans="1:1" ht="15">
+      <c r="A139" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="54" t="s">
+    <row r="140" spans="1:1" ht="15">
+      <c r="A140" s="54" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="54" t="s">
+    <row r="141" spans="1:1" ht="15">
+      <c r="A141" s="54" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="54" t="s">
+    <row r="142" spans="1:1" ht="15">
+      <c r="A142" s="54" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="54" t="s">
+    <row r="143" spans="1:1" ht="15">
+      <c r="A143" s="54" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="54" t="s">
+    <row r="144" spans="1:1" ht="15">
+      <c r="A144" s="54" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="54" t="s">
+    <row r="145" spans="1:1" ht="15">
+      <c r="A145" s="54" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="54" t="s">
+    <row r="146" spans="1:1" ht="15">
+      <c r="A146" s="54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="54" t="s">
+    <row r="147" spans="1:1" ht="15">
+      <c r="A147" s="54" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="54" t="s">
+    <row r="148" spans="1:1" ht="15">
+      <c r="A148" s="54" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="54" t="s">
+    <row r="149" spans="1:1" ht="15">
+      <c r="A149" s="54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="54" t="s">
+    <row r="150" spans="1:1" ht="15">
+      <c r="A150" s="54" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="54" t="s">
+    <row r="151" spans="1:1" ht="15">
+      <c r="A151" s="54" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="54" t="s">
+    <row r="152" spans="1:1" ht="15">
+      <c r="A152" s="54"/>
+    </row>
+    <row r="153" spans="1:1" ht="16.5">
+      <c r="A153" s="55" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="54" t="s">
+    <row r="154" spans="1:1" ht="15">
+      <c r="A154" s="54" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="54"/>
-    </row>
-    <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="55" t="s">
+    <row r="155" spans="1:1" ht="15">
+      <c r="A155" s="54" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="54" t="s">
+    <row r="156" spans="1:1" ht="15">
+      <c r="A156" s="54" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="54" t="s">
+    <row r="157" spans="1:1" ht="15">
+      <c r="A157" s="54" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="54" t="s">
+    <row r="158" spans="1:1" ht="15">
+      <c r="A158" s="54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="54" t="s">
+    <row r="159" spans="1:1" ht="15">
+      <c r="A159" s="54" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="54" t="s">
+    <row r="160" spans="1:1" ht="15">
+      <c r="A160" s="54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16.5">
+      <c r="A161" s="55" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="54" t="s">
+    <row r="162" spans="1:1" ht="15">
+      <c r="A162" s="54" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="55" t="s">
+    <row r="163" spans="1:1" ht="15">
+      <c r="A163" s="54" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="54" t="s">
+    <row r="164" spans="1:1" ht="15">
+      <c r="A164" s="54" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="54" t="s">
+    <row r="165" spans="1:1" ht="15">
+      <c r="A165" s="54" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="54" t="s">
+    <row r="166" spans="1:1" ht="15">
+      <c r="A166" s="54" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="54" t="s">
+    <row r="167" spans="1:1" ht="15">
+      <c r="A167" s="54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="54" t="s">
+    <row r="168" spans="1:1" ht="15">
+      <c r="A168" s="54" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="54" t="s">
+    <row r="169" spans="1:1" ht="15">
+      <c r="A169" s="54" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="54" t="s">
+    <row r="170" spans="1:1" ht="15">
+      <c r="A170" s="54" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="54" t="s">
+    <row r="171" spans="1:1" ht="15">
+      <c r="A171" s="54" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="54" t="s">
+    <row r="172" spans="1:1" ht="15">
+      <c r="A172" s="54" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="54" t="s">
+    <row r="173" spans="1:1" ht="15">
+      <c r="A173" s="54" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="54" t="s">
+    <row r="174" spans="1:1" ht="15">
+      <c r="A174" s="54" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="54" t="s">
+    <row r="175" spans="1:1" ht="15">
+      <c r="A175" s="54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="54" t="s">
+    <row r="176" spans="1:1" ht="15">
+      <c r="A176" s="54" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="54" t="s">
+    <row r="177" spans="1:1" ht="15">
+      <c r="A177" s="54" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="54" t="s">
+    <row r="178" spans="1:1" ht="15">
+      <c r="A178" s="54" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="54" t="s">
+    <row r="179" spans="1:1" ht="15">
+      <c r="A179" s="54" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="54" t="s">
+    <row r="180" spans="1:1" ht="15">
+      <c r="A180" s="54" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="54" t="s">
+    <row r="181" spans="1:1" ht="15">
+      <c r="A181" s="54" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="54" t="s">
+    <row r="182" spans="1:1" ht="15">
+      <c r="A182" s="54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="54" t="s">
+    <row r="183" spans="1:1" ht="15">
+      <c r="A183" s="54" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="54" t="s">
+    <row r="184" spans="1:1" ht="15">
+      <c r="A184" s="54" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="54" t="s">
+    <row r="185" spans="1:1" ht="15">
+      <c r="A185" s="54" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="54" t="s">
+    <row r="186" spans="1:1" ht="15">
+      <c r="A186" s="54" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="54" t="s">
+    <row r="187" spans="1:1" ht="15">
+      <c r="A187" s="54" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="54" t="s">
+    <row r="188" spans="1:1" ht="15">
+      <c r="A188" s="54" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="54" t="s">
+    <row r="189" spans="1:1" ht="15">
+      <c r="A189" s="54" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="54" t="s">
+    <row r="190" spans="1:1" ht="15">
+      <c r="A190" s="54" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="54" t="s">
+    <row r="191" spans="1:1" ht="15">
+      <c r="A191" s="54" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="54" t="s">
+    <row r="192" spans="1:1" ht="15">
+      <c r="A192" s="54" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="54" t="s">
+    <row r="193" spans="1:1" ht="15">
+      <c r="A193" s="54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="54" t="s">
+    <row r="194" spans="1:1" ht="15">
+      <c r="A194" s="54" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="54" t="s">
+    <row r="195" spans="1:1" ht="15">
+      <c r="A195" s="54" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="54" t="s">
+    <row r="196" spans="1:1" ht="15">
+      <c r="A196" s="54"/>
+    </row>
+    <row r="197" spans="1:1" ht="16.5">
+      <c r="A197" s="55" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="54" t="s">
+    <row r="198" spans="1:1" ht="15">
+      <c r="A198" s="54" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="54"/>
-    </row>
-    <row r="198" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="55" t="s">
+    <row r="199" spans="1:1" ht="15">
+      <c r="A199" s="54" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="54" t="s">
+    <row r="200" spans="1:1" ht="15">
+      <c r="A200" s="54" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="54" t="s">
+    <row r="201" spans="1:1" ht="15">
+      <c r="A201" s="54" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="54" t="s">
+    <row r="202" spans="1:1" ht="15">
+      <c r="A202" s="54" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="54" t="s">
+    <row r="203" spans="1:1" ht="15">
+      <c r="A203" s="54" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="54" t="s">
+    <row r="204" spans="1:1" ht="15">
+      <c r="A204" s="54" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="54" t="s">
+    <row r="205" spans="1:1" ht="15">
+      <c r="A205" s="54" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="54" t="s">
+    <row r="206" spans="1:1" ht="15">
+      <c r="A206" s="54" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="54" t="s">
+    <row r="207" spans="1:1" ht="15">
+      <c r="A207" s="54"/>
+    </row>
+    <row r="208" spans="1:1" ht="16.5">
+      <c r="A208" s="55" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="54" t="s">
+    <row r="209" spans="1:1" ht="15">
+      <c r="A209" s="54" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="54"/>
-    </row>
-    <row r="209" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="55" t="s">
+    <row r="210" spans="1:1" ht="15">
+      <c r="A210" s="54" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="54" t="s">
+    <row r="211" spans="1:1" ht="15">
+      <c r="A211" s="54" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="54" t="s">
+    <row r="212" spans="1:1" ht="15">
+      <c r="A212" s="54" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A212" s="54" t="s">
+    <row r="213" spans="1:1" ht="15">
+      <c r="A213" s="54"/>
+    </row>
+    <row r="214" spans="1:1" ht="16.5">
+      <c r="A214" s="55" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="54" t="s">
+    <row r="215" spans="1:1" ht="15">
+      <c r="A215" s="54" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="54"/>
-    </row>
-    <row r="215" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="55" t="s">
+    <row r="216" spans="1:1" ht="15">
+      <c r="A216" s="54" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="54" t="s">
+    <row r="217" spans="1:1" ht="15">
+      <c r="A217" s="54"/>
+    </row>
+    <row r="218" spans="1:1" ht="16.5">
+      <c r="A218" s="55" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="54" t="s">
+    <row r="219" spans="1:1" ht="15">
+      <c r="A219" s="54" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A218" s="54"/>
-    </row>
-    <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="55" t="s">
+    <row r="220" spans="1:1" ht="15">
+      <c r="A220" s="54" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="54" t="s">
+    <row r="221" spans="1:1" ht="15">
+      <c r="A221" s="54" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="54" t="s">
+    <row r="222" spans="1:1" ht="15">
+      <c r="A222" s="54" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="54" t="s">
+    <row r="223" spans="1:1" ht="15">
+      <c r="A223" s="54" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="54" t="s">
+    <row r="224" spans="1:1" ht="15">
+      <c r="A224" s="54" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="54" t="s">
+    <row r="225" spans="1:1" ht="15">
+      <c r="A225" s="54" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="54" t="s">
+    <row r="226" spans="1:1" ht="15">
+      <c r="A226" s="54" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="54" t="s">
+    <row r="227" spans="1:1" ht="15">
+      <c r="A227" s="54" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="54" t="s">
+    <row r="228" spans="1:1" ht="15">
+      <c r="A228" s="54"/>
+    </row>
+    <row r="229" spans="1:1" ht="16.5">
+      <c r="A229" s="55" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="54" t="s">
+    <row r="230" spans="1:1" ht="15">
+      <c r="A230" s="54" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="54"/>
-    </row>
-    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="55" t="s">
+    <row r="231" spans="1:1" ht="15">
+      <c r="A231" s="54"/>
+    </row>
+    <row r="232" spans="1:1" ht="16.5">
+      <c r="A232" s="55" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="54" t="s">
+    <row r="233" spans="1:1" ht="15">
+      <c r="A233" s="54" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="54"/>
-    </row>
-    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="55" t="s">
+    <row r="234" spans="1:1" ht="15">
+      <c r="A234" s="54" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A234" s="54" t="s">
+    <row r="236" spans="1:1" ht="16.5">
+      <c r="A236" s="55" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A235" s="54" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="56" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="55" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" s="56" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="56" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" s="56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="56" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="56" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="56" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" s="56" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="56" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="56" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="56" t="s">
+    <row r="244" spans="1:1" ht="16.5">
+      <c r="A244" s="55" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="56" t="s">
+    <row r="246" spans="1:1" ht="16.5">
+      <c r="A246" s="55" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="55" t="s">
+    <row r="248" spans="1:1" ht="16.5">
+      <c r="A248" s="55" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="55" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" s="59" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="55" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="59" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="59" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="59" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="59" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" s="59" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="59" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="59" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="59" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="60" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="59" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" s="59" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="60" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" s="59" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="59" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" s="59" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="59" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="59" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="526">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -1604,42 +1604,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Arduino based Moving Message Display On LCD (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based DC Motor Controller (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Arduino based Room Light and Fan control using Motion Sensor (1800/-)</t>
     </r>
   </si>
@@ -1658,24 +1622,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Arduino Based Tilt Detector (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Arduino based Automatic Line Following Robot (1800/-)</t>
     </r>
   </si>
@@ -1694,42 +1640,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Arduino based Edge Avoiding Robot (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Bi-directional Visitor Counter (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Arduino based Solar Charger (2200/-)</t>
     </r>
   </si>
@@ -1748,24 +1658,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Arduino based Count Down Timer (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Arduino based Dynamic Display Using LED Strip (2200/-)</t>
     </r>
   </si>
@@ -1802,114 +1694,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Arduino based Tachometer (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based School Timer (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Cell Phone Operated Land Rover Robot (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Programmable Industrial On-Off Timer With RF Remote (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Distance meter using Ultrasonic sensor (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Temperature Indicator-CUM-Controller (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Arduino based Propeller Message Display using Moving LED’s (3300/-)</t>
     </r>
   </si>
@@ -1928,60 +1712,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Arduino based Temperature Monitoring System (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Device control using Mobile Phone (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino based Time-Controlled Switch (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Arduino based Fire Fighting Robot (3000/-)</t>
     </r>
   </si>
@@ -2018,43 +1748,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Arduino based Office Attendance system using RFID (2800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Arduino based Heart Beat monitoring System (3500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arduino Based Robotic Arm Control using RF Remote (4000/-)</t>
     </r>
   </si>
   <si>
@@ -2097,79 +1791,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Automated Line Following Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>IR Controlled Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Distance meter Robot using Ultrasonic sensor (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Edge Avoiding Robot (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cell Phone Operated Land Rover Robot (2200/-)</t>
     </r>
   </si>
   <si>
@@ -3890,6 +3512,462 @@
         <family val="2"/>
       </rPr>
       <t>PC Based Electrical Load Control (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fevistick</t>
+  </si>
+  <si>
+    <t>50/-</t>
+  </si>
+  <si>
+    <t>Stator</t>
+  </si>
+  <si>
+    <t>30/-</t>
+  </si>
+  <si>
+    <t>Arduino uno bord self Design</t>
+  </si>
+  <si>
+    <t>Arduino uno with lcd</t>
+  </si>
+  <si>
+    <t>600/-</t>
+  </si>
+  <si>
+    <t>Arduino uno with ,lcd and Keypad</t>
+  </si>
+  <si>
+    <t>1274/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Moving Message Display On LCD (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based DC Motor Controller (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>230/-</t>
+  </si>
+  <si>
+    <t>1066/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino Based Tilt Detector (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1196/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Edge Avoiding Robot (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Bi-directional Visitor Counter (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Count Down Timer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1430/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Tachometer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based School Timer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Cell Phone Operated Land Rover Robot (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Programmable Industrial On-Off Timer With RF Remote (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Distance meter using Ultrasonic sensor (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Temperature Indicator-CUM-Controller (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Temperature Monitoring System (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Device control using Mobile Phone (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1065/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Time-Controlled Switch (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>1700/-</t>
+  </si>
+  <si>
+    <t>3475/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino based Office Attendance system using RFID (3800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>3035/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arduino Based Robotic Arm Control using RF Remote (3800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Abhishek maurya</t>
+  </si>
+  <si>
+    <t>ab.maurya11@gmail.com</t>
+  </si>
+  <si>
+    <t>Amity</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>28th jan</t>
+  </si>
+  <si>
+    <t>hrawat0308@gmail.com</t>
+  </si>
+  <si>
+    <t>Water Level indicator</t>
+  </si>
+  <si>
+    <t>350/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automated Line Following Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Distance meter Robot using Ultrasonic sensor (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Edge Avoiding Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>675/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell Phone Operated Land Rover Robot (1800/-)</t>
     </r>
   </si>
 </sst>
@@ -4101,7 +4179,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4271,6 +4349,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4656,7 +4735,7 @@
         <v>173</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4701,10 +4780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4944,22 +5023,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -4970,25 +5049,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G11" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -4996,48 +5075,48 @@
     </row>
     <row r="12" spans="1:8" s="72" customFormat="1">
       <c r="A12" s="72" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B12" s="72">
         <v>9871310918</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>109</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -5045,19 +5124,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -5067,6 +5146,29 @@
       </c>
       <c r="H14" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>9711022937</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E15" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" t="s">
+        <v>520</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5081,18 +5183,19 @@
     <hyperlink ref="C12" r:id="rId8"/>
     <hyperlink ref="C13" r:id="rId9"/>
     <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5246,22 +5349,42 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9">
+        <v>9411889405</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5273,6 +5396,7 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5297,7 +5421,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -5307,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5333,7 +5457,7 @@
         <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5382,32 +5506,32 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -5415,16 +5539,38 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -5434,10 +5580,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5446,10 +5592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="75" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5546,36 +5692,36 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -5583,7 +5729,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -5591,7 +5737,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
@@ -5599,10 +5745,42 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>484</v>
+      </c>
+      <c r="B22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5614,9 +5792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6392,7 +6570,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L3" s="21"/>
     </row>
@@ -6424,7 +6602,7 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L4" s="70"/>
     </row>
@@ -6488,7 +6666,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -6582,7 +6760,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -6710,7 +6888,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -6742,7 +6920,7 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="L14" s="21"/>
     </row>
@@ -6774,7 +6952,7 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -6802,7 +6980,7 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="L16" s="38"/>
     </row>
@@ -6834,7 +7012,7 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="L17" s="38"/>
     </row>
@@ -6868,7 +7046,7 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="L18" s="46"/>
     </row>
@@ -6945,8 +7123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7176,39 +7354,39 @@
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="74" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="74" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="74" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="74" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>96</v>
@@ -7216,10 +7394,10 @@
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="74" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7234,7 +7412,7 @@
     </row>
     <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C33" s="63" t="s">
         <v>184</v>
@@ -7242,10 +7420,10 @@
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7260,15 +7438,15 @@
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>220</v>
@@ -7276,15 +7454,15 @@
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>94</v>
@@ -7292,18 +7470,18 @@
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="74" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7313,10 +7491,10 @@
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="74" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
@@ -7324,7 +7502,7 @@
         <v>227</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7334,10 +7512,10 @@
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="54" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
@@ -7421,270 +7599,351 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15">
+    <row r="65" spans="1:3" ht="15">
       <c r="A65" s="54" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15">
+    <row r="66" spans="1:3" ht="15">
       <c r="A66" s="54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15">
+    <row r="67" spans="1:3" ht="15">
       <c r="A67" s="54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15">
+    <row r="68" spans="1:3" ht="15">
       <c r="A68" s="54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15">
+    <row r="69" spans="1:3" ht="15">
       <c r="A69" s="54" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15">
+    <row r="70" spans="1:3" ht="15">
       <c r="A70" s="54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15">
+    <row r="71" spans="1:3" ht="15">
       <c r="A71" s="54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15">
+    <row r="72" spans="1:3" ht="15">
       <c r="A72" s="54" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15">
+    <row r="73" spans="1:3" ht="15">
       <c r="A73" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15">
+    <row r="74" spans="1:3" ht="15">
       <c r="A74" s="54"/>
     </row>
-    <row r="75" spans="1:1" ht="16.5">
+    <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15">
+    <row r="76" spans="1:3" ht="15">
       <c r="A76" s="54" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15">
+      <c r="C76" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
       <c r="A77" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="54" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15">
-      <c r="A78" s="54" t="s">
+      <c r="C79" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="54" t="s">
+        <v>492</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="54" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15">
-      <c r="A79" s="54" t="s">
+      <c r="C81" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A84" s="57" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15">
-      <c r="A80" s="54" t="s">
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A86" s="57" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15">
-      <c r="A81" s="54" t="s">
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" s="54" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15">
-      <c r="A82" s="54" t="s">
+      <c r="C87" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A94" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15">
-      <c r="A83" s="54" t="s">
+    <row r="95" spans="1:3" ht="15">
+      <c r="A95" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A98" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15">
-      <c r="A84" s="54" t="s">
+    <row r="99" spans="1:3" ht="15">
+      <c r="A99" s="54" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15">
-      <c r="A85" s="54" t="s">
+      <c r="C99" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A101" s="57" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15">
-      <c r="A86" s="54" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15">
-      <c r="A87" s="54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="15">
-      <c r="A88" s="54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="15">
-      <c r="A89" s="54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="15">
-      <c r="A90" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15">
-      <c r="A91" s="54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15">
-      <c r="A92" s="54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="15">
-      <c r="A93" s="54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15">
-      <c r="A94" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15">
-      <c r="A95" s="54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="15">
-      <c r="A96" s="54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15">
-      <c r="A97" s="54" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15">
-      <c r="A98" s="54" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15">
-      <c r="A99" s="54" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="15">
-      <c r="A100" s="54" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="15">
-      <c r="A101" s="54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15">
+    <row r="102" spans="1:3" ht="15">
       <c r="A102" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15">
+        <v>512</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
       <c r="A103" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15">
+    <row r="104" spans="1:3" ht="15">
       <c r="A104" s="54"/>
     </row>
-    <row r="105" spans="1:1" ht="16.5">
+    <row r="105" spans="1:3" ht="16.5">
       <c r="A105" s="55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
       <c r="A106" s="54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15">
+        <v>521</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
       <c r="A107" s="54" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15">
+        <v>265</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15">
       <c r="A108" s="54" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="15">
+        <v>522</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
       <c r="A109" s="54" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="15">
+        <v>523</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15">
       <c r="A110" s="54" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="15">
+        <v>525</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
       <c r="A111" s="54" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
       <c r="A112" s="54" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15">
       <c r="A113" s="54" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15">
       <c r="A114" s="54" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15">
       <c r="A115" s="54" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15">
       <c r="A116" s="54" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15">
       <c r="A117" s="54" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15">
       <c r="A118" s="54" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15">
@@ -7697,157 +7956,157 @@
     </row>
     <row r="121" spans="1:1" ht="16.5">
       <c r="A121" s="55" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15">
       <c r="A122" s="54" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15">
       <c r="A123" s="54" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15">
       <c r="A124" s="54" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15">
       <c r="A125" s="54" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15">
       <c r="A126" s="54" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15">
       <c r="A127" s="54" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15">
       <c r="A128" s="54" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15">
       <c r="A129" s="54" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15">
       <c r="A130" s="54" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15">
       <c r="A131" s="54" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15">
       <c r="A132" s="54" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15">
       <c r="A133" s="54" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15">
       <c r="A134" s="54" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15">
       <c r="A135" s="54" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15">
       <c r="A136" s="54" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15">
       <c r="A137" s="54" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15">
       <c r="A138" s="54" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15">
       <c r="A139" s="54" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15">
       <c r="A140" s="54" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15">
       <c r="A141" s="54" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15">
       <c r="A142" s="54" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15">
       <c r="A143" s="54" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15">
       <c r="A144" s="54" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15">
       <c r="A145" s="54" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15">
       <c r="A146" s="54" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15">
       <c r="A147" s="54" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15">
       <c r="A148" s="54" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15">
       <c r="A149" s="54" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15">
       <c r="A150" s="54" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15">
       <c r="A151" s="54" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15">
@@ -7855,37 +8114,37 @@
     </row>
     <row r="153" spans="1:1" ht="16.5">
       <c r="A153" s="55" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15">
       <c r="A154" s="54" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15">
       <c r="A155" s="54" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15">
       <c r="A156" s="54" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15">
       <c r="A157" s="54" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15">
       <c r="A158" s="54" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15">
       <c r="A159" s="54" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15">
@@ -7895,177 +8154,177 @@
     </row>
     <row r="161" spans="1:1" ht="16.5">
       <c r="A161" s="55" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15">
       <c r="A162" s="54" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15">
       <c r="A163" s="54" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15">
       <c r="A164" s="54" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15">
       <c r="A165" s="54" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15">
       <c r="A166" s="54" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15">
       <c r="A167" s="54" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15">
       <c r="A168" s="54" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15">
       <c r="A169" s="54" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15">
       <c r="A170" s="54" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15">
       <c r="A171" s="54" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15">
       <c r="A172" s="54" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15">
       <c r="A173" s="54" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15">
       <c r="A174" s="54" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15">
       <c r="A175" s="54" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15">
       <c r="A176" s="54" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15">
       <c r="A177" s="54" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15">
       <c r="A178" s="54" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15">
       <c r="A179" s="54" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15">
       <c r="A180" s="54" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15">
       <c r="A181" s="54" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15">
       <c r="A182" s="54" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15">
       <c r="A183" s="54" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15">
       <c r="A184" s="54" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15">
       <c r="A185" s="54" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15">
       <c r="A186" s="54" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15">
       <c r="A187" s="54" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15">
       <c r="A188" s="54" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15">
       <c r="A189" s="54" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15">
       <c r="A190" s="54" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15">
       <c r="A191" s="54" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15">
       <c r="A192" s="54" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15">
       <c r="A193" s="54" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15">
       <c r="A194" s="54" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15">
       <c r="A195" s="54" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15">
@@ -8073,52 +8332,52 @@
     </row>
     <row r="197" spans="1:1" ht="16.5">
       <c r="A197" s="55" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15">
       <c r="A198" s="54" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15">
       <c r="A199" s="54" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15">
       <c r="A200" s="54" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15">
       <c r="A201" s="54" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15">
       <c r="A202" s="54" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15">
       <c r="A203" s="54" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15">
       <c r="A204" s="54" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15">
       <c r="A205" s="54" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15">
       <c r="A206" s="54" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15">
@@ -8126,27 +8385,27 @@
     </row>
     <row r="208" spans="1:1" ht="16.5">
       <c r="A208" s="55" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15">
       <c r="A209" s="54" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15">
       <c r="A210" s="54" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15">
       <c r="A211" s="54" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15">
       <c r="A212" s="54" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15">
@@ -8154,17 +8413,17 @@
     </row>
     <row r="214" spans="1:1" ht="16.5">
       <c r="A214" s="55" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15">
       <c r="A215" s="54" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15">
       <c r="A216" s="54" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15">
@@ -8172,52 +8431,52 @@
     </row>
     <row r="218" spans="1:1" ht="16.5">
       <c r="A218" s="55" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15">
       <c r="A219" s="54" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15">
       <c r="A220" s="54" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15">
       <c r="A221" s="54" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15">
       <c r="A222" s="54" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15">
       <c r="A223" s="54" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15">
       <c r="A224" s="54" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15">
       <c r="A225" s="54" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15">
       <c r="A226" s="54" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15">
       <c r="A227" s="54" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15">
@@ -8225,12 +8484,12 @@
     </row>
     <row r="229" spans="1:1" ht="16.5">
       <c r="A229" s="55" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15">
       <c r="A230" s="54" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15">
@@ -8238,112 +8497,112 @@
     </row>
     <row r="232" spans="1:1" ht="16.5">
       <c r="A232" s="55" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15">
       <c r="A233" s="54" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15">
       <c r="A234" s="54" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="16.5">
       <c r="A236" s="55" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="56" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="56" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="56" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="56" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="56" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="56" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="55" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="55" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16.5">
       <c r="A248" s="55" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="59" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="59" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="59" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="59" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="59" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="60" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="59" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="59" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="59" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="533">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -1809,24 +1809,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Remote Controlled Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Solar powered Robot (2500/-)</t>
     </r>
   </si>
@@ -3969,6 +3951,45 @@
       </rPr>
       <t>Cell Phone Operated Land Rover Robot (1800/-)</t>
     </r>
+  </si>
+  <si>
+    <t>29th jan</t>
+  </si>
+  <si>
+    <t>1500/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gaurav Singh</t>
+  </si>
+  <si>
+    <t>Gauravsingh2212@rediffmail.com</t>
+  </si>
+  <si>
+    <t>pcb design</t>
+  </si>
+  <si>
+    <t>29th Jan</t>
+  </si>
+  <si>
+    <t>200/-Paid at shop</t>
   </si>
 </sst>
 </file>
@@ -4179,7 +4200,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4350,6 +4371,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4735,7 +4758,7 @@
         <v>173</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4780,10 +4803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4794,9 +4817,10 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4822,7 +4846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4848,7 +4872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4871,7 +4895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4897,7 +4921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4923,7 +4947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4949,7 +4973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4972,7 +4996,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -4995,7 +5019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -5021,24 +5045,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" t="s">
         <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>401</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -5047,96 +5071,96 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" t="s">
         <v>404</v>
-      </c>
-      <c r="D11" t="s">
-        <v>405</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="72" customFormat="1">
+    <row r="12" spans="1:9" s="72" customFormat="1">
       <c r="A12" s="72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B12" s="72">
         <v>9871310918</v>
       </c>
       <c r="C12" s="73" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="72" t="s">
         <v>407</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>408</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>109</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" t="s">
         <v>445</v>
       </c>
-      <c r="D14" t="s">
-        <v>446</v>
-      </c>
       <c r="E14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -5148,27 +5172,53 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" s="76" customFormat="1">
+      <c r="A15" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="76">
         <v>9711022937</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="77" t="s">
+        <v>517</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>518</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" s="76" t="s">
         <v>519</v>
       </c>
-      <c r="E15" t="s">
-        <v>517</v>
-      </c>
-      <c r="F15" t="s">
-        <v>520</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15" s="76" t="s">
         <v>33</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16">
+        <v>9990180164</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D16" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" t="s">
+        <v>531</v>
+      </c>
+      <c r="F16" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5184,9 +5234,10 @@
     <hyperlink ref="C13" r:id="rId9"/>
     <hyperlink ref="C14" r:id="rId10"/>
     <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -5194,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5349,42 +5400,42 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" t="s">
         <v>440</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>441</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>442</v>
-      </c>
-      <c r="F8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D9" t="s">
         <v>514</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>515</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>516</v>
-      </c>
-      <c r="F9" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5421,7 +5472,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5431,10 +5482,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5457,7 +5508,7 @@
         <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5506,32 +5557,32 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
         <v>409</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>410</v>
-      </c>
-      <c r="C6" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" t="s">
         <v>412</v>
-      </c>
-      <c r="C7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -5539,38 +5590,49 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" t="s">
         <v>479</v>
-      </c>
-      <c r="C10" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" t="s">
         <v>481</v>
       </c>
-      <c r="C11" t="s">
-        <v>482</v>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -5582,7 +5644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5692,36 +5754,36 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" t="s">
         <v>451</v>
-      </c>
-      <c r="B15" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B16" t="s">
         <v>453</v>
-      </c>
-      <c r="B16" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -5729,7 +5791,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -5737,7 +5799,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
@@ -5745,7 +5807,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -5753,7 +5815,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s">
         <v>94</v>
@@ -5761,15 +5823,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22" t="s">
         <v>484</v>
-      </c>
-      <c r="B22" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
         <v>189</v>
@@ -5780,7 +5842,7 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5792,8 +5854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -6570,7 +6632,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L3" s="21"/>
     </row>
@@ -6602,7 +6664,7 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L4" s="70"/>
     </row>
@@ -6666,7 +6728,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -6760,7 +6822,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -6888,7 +6950,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -6920,7 +6982,7 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L14" s="21"/>
     </row>
@@ -6952,7 +7014,7 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -6980,7 +7042,7 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L16" s="38"/>
     </row>
@@ -7012,7 +7074,7 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L17" s="38"/>
     </row>
@@ -7046,7 +7108,7 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L18" s="46"/>
     </row>
@@ -7123,8 +7185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7354,39 +7416,39 @@
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="74" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>96</v>
@@ -7394,10 +7456,10 @@
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7412,7 +7474,7 @@
     </row>
     <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C33" s="63" t="s">
         <v>184</v>
@@ -7420,10 +7482,10 @@
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7438,15 +7500,15 @@
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>220</v>
@@ -7454,15 +7516,15 @@
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>94</v>
@@ -7470,18 +7532,18 @@
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="74" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7491,10 +7553,10 @@
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
@@ -7502,7 +7564,7 @@
         <v>227</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7512,10 +7574,10 @@
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
@@ -7657,12 +7719,12 @@
         <v>254</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" s="54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>220</v>
@@ -7670,7 +7732,7 @@
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>198</v>
@@ -7681,15 +7743,15 @@
         <v>255</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" s="54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
@@ -7697,23 +7759,23 @@
         <v>256</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" s="54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" s="54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7723,7 +7785,7 @@
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>192</v>
@@ -7739,20 +7801,20 @@
         <v>259</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>192</v>
@@ -7760,31 +7822,31 @@
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" s="54" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" s="54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>198</v>
@@ -7797,7 +7859,7 @@
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>96</v>
@@ -7805,18 +7867,18 @@
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7829,15 +7891,15 @@
         <v>262</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="54" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
@@ -7847,10 +7909,10 @@
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" s="54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
@@ -7868,7 +7930,7 @@
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" s="54" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>192</v>
@@ -7879,12 +7941,12 @@
         <v>265</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" s="54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>192</v>
@@ -7892,15 +7954,15 @@
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>523</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>192</v>
@@ -7908,42 +7970,45 @@
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" s="54" t="s">
-        <v>266</v>
+        <v>527</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15">
       <c r="A113" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15">
       <c r="A114" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15">
       <c r="A115" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15">
       <c r="A116" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15">
       <c r="A117" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15">
       <c r="A118" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15">
@@ -7956,157 +8021,157 @@
     </row>
     <row r="121" spans="1:1" ht="16.5">
       <c r="A121" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15">
       <c r="A122" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15">
       <c r="A123" s="54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15">
       <c r="A124" s="54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15">
       <c r="A125" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15">
       <c r="A126" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15">
       <c r="A127" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15">
       <c r="A128" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15">
       <c r="A129" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15">
       <c r="A130" s="54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15">
       <c r="A131" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15">
       <c r="A132" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15">
       <c r="A133" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15">
       <c r="A134" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15">
       <c r="A135" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15">
       <c r="A136" s="54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15">
       <c r="A137" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15">
       <c r="A138" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15">
       <c r="A139" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15">
       <c r="A140" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15">
       <c r="A141" s="54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15">
       <c r="A142" s="54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15">
       <c r="A143" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15">
       <c r="A144" s="54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15">
       <c r="A145" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15">
       <c r="A146" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15">
       <c r="A147" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15">
       <c r="A148" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15">
       <c r="A149" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15">
       <c r="A150" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15">
       <c r="A151" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15">
@@ -8114,37 +8179,37 @@
     </row>
     <row r="153" spans="1:1" ht="16.5">
       <c r="A153" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15">
       <c r="A154" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15">
       <c r="A155" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15">
       <c r="A156" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15">
       <c r="A157" s="54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15">
       <c r="A158" s="54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15">
       <c r="A159" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15">
@@ -8154,177 +8219,177 @@
     </row>
     <row r="161" spans="1:1" ht="16.5">
       <c r="A161" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15">
       <c r="A162" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15">
       <c r="A163" s="54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15">
       <c r="A164" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15">
       <c r="A165" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15">
       <c r="A166" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15">
       <c r="A167" s="54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15">
       <c r="A168" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15">
       <c r="A169" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15">
       <c r="A170" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15">
       <c r="A171" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15">
       <c r="A172" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15">
       <c r="A173" s="54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15">
       <c r="A174" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15">
       <c r="A175" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15">
       <c r="A176" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15">
       <c r="A177" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15">
       <c r="A178" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15">
       <c r="A179" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15">
       <c r="A180" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15">
       <c r="A181" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15">
       <c r="A182" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15">
       <c r="A183" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15">
       <c r="A184" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15">
       <c r="A185" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15">
       <c r="A186" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15">
       <c r="A187" s="54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15">
       <c r="A188" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15">
       <c r="A189" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15">
       <c r="A190" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15">
       <c r="A191" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15">
       <c r="A192" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15">
       <c r="A193" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15">
       <c r="A194" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15">
       <c r="A195" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15">
@@ -8332,52 +8397,52 @@
     </row>
     <row r="197" spans="1:1" ht="16.5">
       <c r="A197" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15">
       <c r="A198" s="54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15">
       <c r="A199" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15">
       <c r="A200" s="54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15">
       <c r="A201" s="54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15">
       <c r="A202" s="54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15">
       <c r="A203" s="54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15">
       <c r="A204" s="54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15">
       <c r="A205" s="54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15">
       <c r="A206" s="54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15">
@@ -8385,27 +8450,27 @@
     </row>
     <row r="208" spans="1:1" ht="16.5">
       <c r="A208" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15">
       <c r="A209" s="54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15">
       <c r="A210" s="54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15">
       <c r="A211" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15">
       <c r="A212" s="54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15">
@@ -8413,17 +8478,17 @@
     </row>
     <row r="214" spans="1:1" ht="16.5">
       <c r="A214" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15">
       <c r="A215" s="54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15">
       <c r="A216" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15">
@@ -8431,52 +8496,52 @@
     </row>
     <row r="218" spans="1:1" ht="16.5">
       <c r="A218" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15">
       <c r="A219" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15">
       <c r="A220" s="54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15">
       <c r="A221" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15">
       <c r="A222" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15">
       <c r="A223" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15">
       <c r="A224" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15">
       <c r="A225" s="54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15">
       <c r="A226" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15">
       <c r="A227" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15">
@@ -8484,12 +8549,12 @@
     </row>
     <row r="229" spans="1:1" ht="16.5">
       <c r="A229" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15">
       <c r="A230" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15">
@@ -8497,112 +8562,112 @@
     </row>
     <row r="232" spans="1:1" ht="16.5">
       <c r="A232" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15">
       <c r="A233" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15">
       <c r="A234" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="16.5">
       <c r="A236" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16.5">
       <c r="A248" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="537">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3989,7 +3989,19 @@
     <t>29th Jan</t>
   </si>
   <si>
-    <t>200/-Paid at shop</t>
+    <t>100+250/-</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Smd can't be design</t>
+  </si>
+  <si>
+    <t>30th jan</t>
+  </si>
+  <si>
+    <t>32.768 khz  oscillator</t>
   </si>
 </sst>
 </file>
@@ -4061,7 +4073,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4107,6 +4119,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4200,7 +4224,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4371,8 +4395,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4805,7 +4831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5192,33 +5218,39 @@
         <v>519</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="76" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="H15" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1">
+      <c r="A16" s="78" t="s">
         <v>528</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="78">
         <v>9990180164</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="78" t="s">
         <v>531</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="78" t="s">
         <v>526</v>
       </c>
-      <c r="G16" t="s">
-        <v>94</v>
+      <c r="G16" s="78" t="s">
+        <v>533</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>533</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -5482,10 +5514,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5635,6 +5667,17 @@
         <v>526</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5644,8 +5687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5855,8 +5898,8 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7185,7 +7228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="541">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4002,6 +4002,18 @@
   </si>
   <si>
     <t>32.768 khz  oscillator</t>
+  </si>
+  <si>
+    <t>Ikrima</t>
+  </si>
+  <si>
+    <t>Automatic Street Light</t>
+  </si>
+  <si>
+    <t>31st jan</t>
+  </si>
+  <si>
+    <t>naazikrima@yahoo.in</t>
   </si>
 </sst>
 </file>
@@ -4829,10 +4841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5253,6 +5265,32 @@
         <v>534</v>
       </c>
     </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17">
+        <v>9210036786</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" t="s">
+        <v>538</v>
+      </c>
+      <c r="E17" t="s">
+        <v>539</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -5267,9 +5305,10 @@
     <hyperlink ref="C14" r:id="rId10"/>
     <hyperlink ref="C15" r:id="rId11"/>
     <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -4019,8 +4019,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4473,7 +4473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4505,9 +4505,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4539,6 +4540,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4714,14 +4716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4735,7 +4737,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="61" customFormat="1">
+    <row r="2" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
@@ -4799,7 +4801,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4840,14 +4842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -4858,7 +4860,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4933,7 +4935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -5109,7 +5111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>402</v>
       </c>
@@ -5135,7 +5137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="72" customFormat="1">
+    <row r="12" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>405</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>421</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>443</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="76" customFormat="1">
+    <row r="15" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>40</v>
       </c>
@@ -5236,7 +5238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="78" customFormat="1">
+    <row r="16" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>528</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>537</v>
       </c>
@@ -5313,14 +5315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5329,7 +5331,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>512</v>
       </c>
@@ -5525,20 +5527,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5552,14 +5554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -5568,7 +5570,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5593,7 +5595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -5615,7 +5617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5626,7 +5628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>408</v>
       </c>
@@ -5637,7 +5639,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -5648,7 +5650,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>408</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>408</v>
       </c>
@@ -5673,7 +5675,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>423</v>
       </c>
@@ -5684,7 +5686,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>423</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>525</v>
       </c>
@@ -5706,7 +5708,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>535</v>
       </c>
@@ -5723,19 +5725,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -5767,7 +5769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -5799,15 +5801,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -5839,7 +5841,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>452</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>457</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>464</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>473</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>482</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>483</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>485</v>
       </c>
@@ -5919,11 +5921,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="61" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5933,15 +5935,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -6651,7 +6653,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
@@ -6687,8 +6689,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -6718,7 +6720,7 @@
       </c>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
+    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64">
         <v>2</v>
       </c>
@@ -6750,7 +6752,7 @@
       </c>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -6782,7 +6784,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -6814,7 +6816,7 @@
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -6846,7 +6848,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -6878,7 +6880,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -6908,7 +6910,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -6938,7 +6940,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -6972,7 +6974,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -7004,7 +7006,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -7036,7 +7038,7 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -7068,7 +7070,7 @@
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -7100,7 +7102,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -7128,7 +7130,7 @@
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -7160,7 +7162,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>17</v>
       </c>
@@ -7194,7 +7196,7 @@
       </c>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -7226,7 +7228,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -7240,7 +7242,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="48"/>
@@ -7264,14 +7266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -7279,7 +7281,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>176</v>
       </c>
@@ -7293,13 +7295,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="D2" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>181</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>183</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>186</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>188</v>
       </c>
@@ -7340,7 +7342,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>191</v>
       </c>
@@ -7351,7 +7353,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>194</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>197</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
         <v>200</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>202</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>204</v>
       </c>
@@ -7406,12 +7408,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>207</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>208</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>210</v>
       </c>
@@ -7435,12 +7437,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>212</v>
       </c>
@@ -7448,7 +7450,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>213</v>
       </c>
@@ -7456,7 +7458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>214</v>
       </c>
@@ -7464,7 +7466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>215</v>
       </c>
@@ -7472,7 +7474,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>217</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>219</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>221</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
         <v>470</v>
       </c>
@@ -7504,7 +7506,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>419</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="s">
         <v>428</v>
       </c>
@@ -7520,7 +7522,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="74" t="s">
         <v>430</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="74" t="s">
         <v>431</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="74" t="s">
         <v>472</v>
       </c>
@@ -7544,17 +7546,17 @@
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="31" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="32" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="33" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="57" t="s">
         <v>447</v>
       </c>
@@ -7562,7 +7564,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>449</v>
       </c>
@@ -7570,17 +7572,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="35" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="36" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>456</v>
       </c>
@@ -7588,7 +7590,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>458</v>
       </c>
@@ -7596,7 +7598,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
         <v>460</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
         <v>461</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
         <v>463</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="74" t="s">
         <v>475</v>
       </c>
@@ -7628,12 +7630,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="43" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="74" t="s">
         <v>477</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
         <v>227</v>
       </c>
@@ -7649,12 +7651,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="46" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="57" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
         <v>467</v>
       </c>
@@ -7662,141 +7664,141 @@
         <v>466</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
     </row>
-    <row r="50" spans="1:1" ht="16.5">
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="55" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="54"/>
     </row>
-    <row r="75" spans="1:3" ht="16.5">
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="54" t="s">
         <v>254</v>
       </c>
@@ -7804,7 +7806,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="54" t="s">
         <v>487</v>
       </c>
@@ -7812,7 +7814,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="54" t="s">
         <v>488</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="54" t="s">
         <v>255</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="54" t="s">
         <v>491</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="54" t="s">
         <v>256</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>493</v>
       </c>
@@ -7852,7 +7854,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="54" t="s">
         <v>494</v>
       </c>
@@ -7860,12 +7862,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="84" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="57" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="54" t="s">
         <v>495</v>
       </c>
@@ -7873,12 +7875,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="86" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="57" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="54" t="s">
         <v>259</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="54" t="s">
         <v>497</v>
       </c>
@@ -7894,7 +7896,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
         <v>498</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
         <v>499</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="54" t="s">
         <v>500</v>
       </c>
@@ -7918,7 +7920,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="54" t="s">
         <v>501</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="54" t="s">
         <v>502</v>
       </c>
@@ -7934,12 +7936,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="94" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="54" t="s">
         <v>503</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="54" t="s">
         <v>504</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="54" t="s">
         <v>506</v>
       </c>
@@ -7963,12 +7965,12 @@
         <v>505</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="98" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
         <v>262</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
         <v>509</v>
       </c>
@@ -7984,12 +7986,12 @@
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="101" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="57" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
         <v>511</v>
       </c>
@@ -7997,20 +7999,20 @@
         <v>510</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="54"/>
     </row>
-    <row r="105" spans="1:3" ht="16.5">
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="54" t="s">
         <v>520</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
         <v>265</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="54" t="s">
         <v>521</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
         <v>522</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
         <v>524</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
         <v>527</v>
       </c>
@@ -8058,696 +8060,696 @@
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15">
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15">
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="54" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15">
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="54" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15">
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="54" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15">
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15">
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="54"/>
     </row>
-    <row r="121" spans="1:1" ht="16.5">
+    <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="55" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15">
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="54" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15">
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="54" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15">
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="54" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15">
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="54" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15">
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15">
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="54" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15">
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="54" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="54" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="54" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15">
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="54" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15">
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="54" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15">
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15">
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="54" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15">
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="54" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15">
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="54" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15">
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="54" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15">
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15">
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15">
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="54" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15">
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="54" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15">
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="54" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15">
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="54" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15">
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="54" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15">
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15">
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="54" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15">
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="54"/>
     </row>
-    <row r="153" spans="1:1" ht="16.5">
+    <row r="153" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="55" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15">
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="54" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15">
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15">
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="54" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15">
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15">
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15">
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="54" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15">
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16.5">
+    <row r="161" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="55" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15">
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="54" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15">
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15">
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="54" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15">
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="54" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15">
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="54" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15">
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="54" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15">
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="54" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15">
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="54" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15">
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15">
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="54" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15">
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="54" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15">
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15">
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="54" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15">
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="54" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15">
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15">
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="54" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15">
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="54" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15">
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="54" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15">
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="54" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15">
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15">
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="54" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15">
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="54" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15">
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="54" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15">
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="54" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15">
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="54" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15">
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="54" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15">
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="54" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15">
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15">
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="54" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15">
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="54" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15">
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="54" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15">
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="54" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15">
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="54" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15">
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="54" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15">
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="54"/>
     </row>
-    <row r="197" spans="1:1" ht="16.5">
+    <row r="197" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="55" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15">
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15">
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="54" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15">
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="54" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15">
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="54" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15">
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="54" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15">
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="54" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15">
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="54" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15">
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15">
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="54" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15">
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="54"/>
     </row>
-    <row r="208" spans="1:1" ht="16.5">
+    <row r="208" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="55" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15">
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="54" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15">
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="54" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15">
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="54" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15">
+    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="54" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15">
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="54"/>
     </row>
-    <row r="214" spans="1:1" ht="16.5">
+    <row r="214" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="55" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15">
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="54" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15">
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="54" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15">
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="54"/>
     </row>
-    <row r="218" spans="1:1" ht="16.5">
+    <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="55" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15">
+    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15">
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="54" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15">
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="54" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15">
+    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="54" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15">
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="54" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15">
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="54" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15">
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="54" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="54" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15">
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="54" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="54"/>
     </row>
-    <row r="229" spans="1:1" ht="16.5">
+    <row r="229" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="55" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15">
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="54" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="54"/>
     </row>
-    <row r="232" spans="1:1" ht="16.5">
+    <row r="232" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="55" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15">
+    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="54" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15">
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="54" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="16.5">
+    <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="55" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="56" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="56" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="56" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="56" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5">
+    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="55" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5">
+    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="55" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="16.5">
+    <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="55" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="59" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="59" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="59" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="59" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="59" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="60" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="59" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="59" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="59" t="s">
         <v>397</v>
       </c>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -4085,18 +4085,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4236,26 +4230,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4267,10 +4259,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,6 +4289,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
@@ -4302,8 +4314,62 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4322,95 +4388,22 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4719,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,74 +4723,75 @@
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" style="58" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="58"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="58">
         <v>9540890120</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="59">
         <v>42016</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="58" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4808,7 +4802,7 @@
       <c r="B3">
         <v>8287842670</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
@@ -4817,13 +4811,13 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>42025</v>
       </c>
       <c r="I3" t="s">
@@ -4846,7 +4840,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,33 +4850,34 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="58"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="76" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4893,7 +4888,7 @@
       <c r="B2">
         <v>9675253719</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
@@ -4902,10 +4897,10 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
@@ -4925,10 +4920,10 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H3" t="s">
@@ -4942,7 +4937,7 @@
       <c r="B4">
         <v>9958268426</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
@@ -4951,10 +4946,10 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H4" t="s">
@@ -4968,7 +4963,7 @@
       <c r="B5">
         <v>9958268426</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
@@ -4977,10 +4972,10 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H5" t="s">
@@ -4994,7 +4989,7 @@
       <c r="B6">
         <v>9810791696</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
@@ -5003,10 +4998,10 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H6" t="s">
@@ -5026,10 +5021,10 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H7" t="s">
@@ -5049,10 +5044,10 @@
       <c r="E8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="58" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
@@ -5066,7 +5061,7 @@
       <c r="B9">
         <v>9540364146</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D9" t="s">
@@ -5075,10 +5070,10 @@
       <c r="E9" t="s">
         <v>109</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H9" t="s">
@@ -5092,7 +5087,7 @@
       <c r="B10">
         <v>8800934802</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>399</v>
       </c>
       <c r="D10" t="s">
@@ -5101,10 +5096,10 @@
       <c r="E10" t="s">
         <v>109</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H10" t="s">
@@ -5118,7 +5113,7 @@
       <c r="B11">
         <v>9971564923</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D11" t="s">
@@ -5127,36 +5122,37 @@
       <c r="E11" t="s">
         <v>109</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="58" t="s">
         <v>401</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="69">
         <v>9871310918</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="69" t="s">
         <v>407</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="G12" s="58"/>
+      <c r="H12" s="69" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5167,7 +5163,7 @@
       <c r="B13">
         <v>9582449984</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>422</v>
       </c>
       <c r="D13" t="s">
@@ -5176,10 +5172,10 @@
       <c r="E13" t="s">
         <v>423</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="58" t="s">
         <v>446</v>
       </c>
       <c r="H13" t="s">
@@ -5193,7 +5189,7 @@
       <c r="B14">
         <v>9811708509</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D14" t="s">
@@ -5202,68 +5198,68 @@
       <c r="E14" t="s">
         <v>423</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="58" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+    <row r="15" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="72">
         <v>9711022937</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="73" t="s">
         <v>517</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="72" t="s">
         <v>516</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="58" t="s">
         <v>532</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="74">
         <v>9990180164</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="75" t="s">
         <v>529</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="74" t="s">
         <v>530</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="74" t="s">
         <v>531</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="74" t="s">
         <v>533</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="74" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5274,7 +5270,7 @@
       <c r="B17">
         <v>9210036786</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D17" t="s">
@@ -5283,13 +5279,13 @@
       <c r="E17" t="s">
         <v>539</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="72" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5319,7 +5315,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5331,23 +5327,23 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="76" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5358,7 +5354,7 @@
       <c r="B2">
         <v>8826948120</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
@@ -5378,7 +5374,7 @@
       <c r="B3">
         <v>7532986428</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
@@ -5398,7 +5394,7 @@
       <c r="B4">
         <v>8471015910</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D4" t="s">
@@ -5418,7 +5414,7 @@
       <c r="B5">
         <v>8010669503</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
@@ -5438,7 +5434,7 @@
       <c r="B6">
         <v>9716414833</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D6" t="s">
@@ -5458,7 +5454,7 @@
       <c r="B7">
         <v>9999407484</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D7" t="s">
@@ -5478,7 +5474,7 @@
       <c r="B8">
         <v>9990180164</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D8" t="s">
@@ -5498,7 +5494,7 @@
       <c r="B9">
         <v>9411889405</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>513</v>
       </c>
       <c r="D9" t="s">
@@ -5531,7 +5527,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,11 +5536,11 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="76" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5557,30 +5553,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="58" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="76" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5591,7 +5587,7 @@
       <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="58" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5602,7 +5598,7 @@
       <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="58" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5613,7 +5609,7 @@
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="58" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5624,7 +5620,7 @@
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5635,7 +5631,7 @@
       <c r="B6" t="s">
         <v>409</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="58" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5646,7 +5642,7 @@
       <c r="B7" t="s">
         <v>411</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="58" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5657,7 +5653,7 @@
       <c r="B8" t="s">
         <v>413</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="58" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5668,7 +5664,7 @@
       <c r="B9" t="s">
         <v>414</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="58" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
@@ -5682,7 +5678,7 @@
       <c r="B10" t="s">
         <v>478</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="58" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5693,7 +5689,7 @@
       <c r="B11" t="s">
         <v>480</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="58" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5704,7 +5700,7 @@
       <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="58" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5715,7 +5711,7 @@
       <c r="B13" t="s">
         <v>536</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="58" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5728,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5737,11 +5733,11 @@
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5801,11 +5797,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5921,11 +5917,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="58" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5939,1322 +5935,1322 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="14"/>
-    <col min="13" max="257" width="9.140625" style="15"/>
-    <col min="258" max="258" width="27.7109375" style="15" customWidth="1"/>
-    <col min="259" max="259" width="15.28515625" style="15" customWidth="1"/>
-    <col min="260" max="260" width="15.140625" style="15" customWidth="1"/>
-    <col min="261" max="261" width="17.85546875" style="15" customWidth="1"/>
-    <col min="262" max="262" width="19.85546875" style="15" customWidth="1"/>
-    <col min="263" max="263" width="14.85546875" style="15" customWidth="1"/>
-    <col min="264" max="264" width="14.140625" style="15" customWidth="1"/>
-    <col min="265" max="265" width="14.85546875" style="15" customWidth="1"/>
-    <col min="266" max="266" width="16.140625" style="15" customWidth="1"/>
-    <col min="267" max="267" width="26.42578125" style="15" customWidth="1"/>
-    <col min="268" max="513" width="9.140625" style="15"/>
-    <col min="514" max="514" width="27.7109375" style="15" customWidth="1"/>
-    <col min="515" max="515" width="15.28515625" style="15" customWidth="1"/>
-    <col min="516" max="516" width="15.140625" style="15" customWidth="1"/>
-    <col min="517" max="517" width="17.85546875" style="15" customWidth="1"/>
-    <col min="518" max="518" width="19.85546875" style="15" customWidth="1"/>
-    <col min="519" max="519" width="14.85546875" style="15" customWidth="1"/>
-    <col min="520" max="520" width="14.140625" style="15" customWidth="1"/>
-    <col min="521" max="521" width="14.85546875" style="15" customWidth="1"/>
-    <col min="522" max="522" width="16.140625" style="15" customWidth="1"/>
-    <col min="523" max="523" width="26.42578125" style="15" customWidth="1"/>
-    <col min="524" max="769" width="9.140625" style="15"/>
-    <col min="770" max="770" width="27.7109375" style="15" customWidth="1"/>
-    <col min="771" max="771" width="15.28515625" style="15" customWidth="1"/>
-    <col min="772" max="772" width="15.140625" style="15" customWidth="1"/>
-    <col min="773" max="773" width="17.85546875" style="15" customWidth="1"/>
-    <col min="774" max="774" width="19.85546875" style="15" customWidth="1"/>
-    <col min="775" max="775" width="14.85546875" style="15" customWidth="1"/>
-    <col min="776" max="776" width="14.140625" style="15" customWidth="1"/>
-    <col min="777" max="777" width="14.85546875" style="15" customWidth="1"/>
-    <col min="778" max="778" width="16.140625" style="15" customWidth="1"/>
-    <col min="779" max="779" width="26.42578125" style="15" customWidth="1"/>
-    <col min="780" max="1025" width="9.140625" style="15"/>
-    <col min="1026" max="1026" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1027" max="1027" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1028" max="1028" width="15.140625" style="15" customWidth="1"/>
-    <col min="1029" max="1029" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1030" max="1030" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1031" max="1031" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1032" max="1032" width="14.140625" style="15" customWidth="1"/>
-    <col min="1033" max="1033" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1034" max="1034" width="16.140625" style="15" customWidth="1"/>
-    <col min="1035" max="1035" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1036" max="1281" width="9.140625" style="15"/>
-    <col min="1282" max="1282" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1283" max="1283" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1284" max="1284" width="15.140625" style="15" customWidth="1"/>
-    <col min="1285" max="1285" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1286" max="1286" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1287" max="1287" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1288" max="1288" width="14.140625" style="15" customWidth="1"/>
-    <col min="1289" max="1289" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1290" max="1290" width="16.140625" style="15" customWidth="1"/>
-    <col min="1291" max="1291" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1292" max="1537" width="9.140625" style="15"/>
-    <col min="1538" max="1538" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1539" max="1539" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1540" max="1540" width="15.140625" style="15" customWidth="1"/>
-    <col min="1541" max="1541" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1542" max="1542" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1543" max="1543" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1544" max="1544" width="14.140625" style="15" customWidth="1"/>
-    <col min="1545" max="1545" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1546" max="1546" width="16.140625" style="15" customWidth="1"/>
-    <col min="1547" max="1547" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1548" max="1793" width="9.140625" style="15"/>
-    <col min="1794" max="1794" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1795" max="1795" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1796" max="1796" width="15.140625" style="15" customWidth="1"/>
-    <col min="1797" max="1797" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1798" max="1798" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1799" max="1799" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1800" max="1800" width="14.140625" style="15" customWidth="1"/>
-    <col min="1801" max="1801" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1802" max="1802" width="16.140625" style="15" customWidth="1"/>
-    <col min="1803" max="1803" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1804" max="2049" width="9.140625" style="15"/>
-    <col min="2050" max="2050" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2051" max="2051" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2052" max="2052" width="15.140625" style="15" customWidth="1"/>
-    <col min="2053" max="2053" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2054" max="2054" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2055" max="2055" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2056" max="2056" width="14.140625" style="15" customWidth="1"/>
-    <col min="2057" max="2057" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2058" max="2058" width="16.140625" style="15" customWidth="1"/>
-    <col min="2059" max="2059" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2060" max="2305" width="9.140625" style="15"/>
-    <col min="2306" max="2306" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2307" max="2307" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2308" max="2308" width="15.140625" style="15" customWidth="1"/>
-    <col min="2309" max="2309" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2310" max="2310" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2311" max="2311" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2312" max="2312" width="14.140625" style="15" customWidth="1"/>
-    <col min="2313" max="2313" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2314" max="2314" width="16.140625" style="15" customWidth="1"/>
-    <col min="2315" max="2315" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2316" max="2561" width="9.140625" style="15"/>
-    <col min="2562" max="2562" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2563" max="2563" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2564" max="2564" width="15.140625" style="15" customWidth="1"/>
-    <col min="2565" max="2565" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2566" max="2566" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2567" max="2567" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2568" max="2568" width="14.140625" style="15" customWidth="1"/>
-    <col min="2569" max="2569" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2570" max="2570" width="16.140625" style="15" customWidth="1"/>
-    <col min="2571" max="2571" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2572" max="2817" width="9.140625" style="15"/>
-    <col min="2818" max="2818" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2819" max="2819" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2820" max="2820" width="15.140625" style="15" customWidth="1"/>
-    <col min="2821" max="2821" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2822" max="2822" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2823" max="2823" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2824" max="2824" width="14.140625" style="15" customWidth="1"/>
-    <col min="2825" max="2825" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2826" max="2826" width="16.140625" style="15" customWidth="1"/>
-    <col min="2827" max="2827" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2828" max="3073" width="9.140625" style="15"/>
-    <col min="3074" max="3074" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3075" max="3075" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3076" max="3076" width="15.140625" style="15" customWidth="1"/>
-    <col min="3077" max="3077" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3078" max="3078" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3079" max="3079" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3080" max="3080" width="14.140625" style="15" customWidth="1"/>
-    <col min="3081" max="3081" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3082" max="3082" width="16.140625" style="15" customWidth="1"/>
-    <col min="3083" max="3083" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3084" max="3329" width="9.140625" style="15"/>
-    <col min="3330" max="3330" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3331" max="3331" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3332" max="3332" width="15.140625" style="15" customWidth="1"/>
-    <col min="3333" max="3333" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3334" max="3334" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3335" max="3335" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3336" max="3336" width="14.140625" style="15" customWidth="1"/>
-    <col min="3337" max="3337" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3338" max="3338" width="16.140625" style="15" customWidth="1"/>
-    <col min="3339" max="3339" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3340" max="3585" width="9.140625" style="15"/>
-    <col min="3586" max="3586" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3587" max="3587" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3588" max="3588" width="15.140625" style="15" customWidth="1"/>
-    <col min="3589" max="3589" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3590" max="3590" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3591" max="3591" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3592" max="3592" width="14.140625" style="15" customWidth="1"/>
-    <col min="3593" max="3593" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3594" max="3594" width="16.140625" style="15" customWidth="1"/>
-    <col min="3595" max="3595" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3596" max="3841" width="9.140625" style="15"/>
-    <col min="3842" max="3842" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3843" max="3843" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3844" max="3844" width="15.140625" style="15" customWidth="1"/>
-    <col min="3845" max="3845" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3846" max="3846" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3847" max="3847" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3848" max="3848" width="14.140625" style="15" customWidth="1"/>
-    <col min="3849" max="3849" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3850" max="3850" width="16.140625" style="15" customWidth="1"/>
-    <col min="3851" max="3851" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3852" max="4097" width="9.140625" style="15"/>
-    <col min="4098" max="4098" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4099" max="4099" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4100" max="4100" width="15.140625" style="15" customWidth="1"/>
-    <col min="4101" max="4101" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4102" max="4102" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4103" max="4103" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4104" max="4104" width="14.140625" style="15" customWidth="1"/>
-    <col min="4105" max="4105" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4106" max="4106" width="16.140625" style="15" customWidth="1"/>
-    <col min="4107" max="4107" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4108" max="4353" width="9.140625" style="15"/>
-    <col min="4354" max="4354" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4355" max="4355" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4356" max="4356" width="15.140625" style="15" customWidth="1"/>
-    <col min="4357" max="4357" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4358" max="4358" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4359" max="4359" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4360" max="4360" width="14.140625" style="15" customWidth="1"/>
-    <col min="4361" max="4361" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4362" max="4362" width="16.140625" style="15" customWidth="1"/>
-    <col min="4363" max="4363" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4364" max="4609" width="9.140625" style="15"/>
-    <col min="4610" max="4610" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4611" max="4611" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4612" max="4612" width="15.140625" style="15" customWidth="1"/>
-    <col min="4613" max="4613" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4614" max="4614" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4615" max="4615" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4616" max="4616" width="14.140625" style="15" customWidth="1"/>
-    <col min="4617" max="4617" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4618" max="4618" width="16.140625" style="15" customWidth="1"/>
-    <col min="4619" max="4619" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4620" max="4865" width="9.140625" style="15"/>
-    <col min="4866" max="4866" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4867" max="4867" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4868" max="4868" width="15.140625" style="15" customWidth="1"/>
-    <col min="4869" max="4869" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4870" max="4870" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4871" max="4871" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4872" max="4872" width="14.140625" style="15" customWidth="1"/>
-    <col min="4873" max="4873" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4874" max="4874" width="16.140625" style="15" customWidth="1"/>
-    <col min="4875" max="4875" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4876" max="5121" width="9.140625" style="15"/>
-    <col min="5122" max="5122" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5123" max="5123" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5124" max="5124" width="15.140625" style="15" customWidth="1"/>
-    <col min="5125" max="5125" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5126" max="5126" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5127" max="5127" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5128" max="5128" width="14.140625" style="15" customWidth="1"/>
-    <col min="5129" max="5129" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5130" max="5130" width="16.140625" style="15" customWidth="1"/>
-    <col min="5131" max="5131" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5132" max="5377" width="9.140625" style="15"/>
-    <col min="5378" max="5378" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5379" max="5379" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5380" max="5380" width="15.140625" style="15" customWidth="1"/>
-    <col min="5381" max="5381" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5382" max="5382" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5383" max="5383" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5384" max="5384" width="14.140625" style="15" customWidth="1"/>
-    <col min="5385" max="5385" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5386" max="5386" width="16.140625" style="15" customWidth="1"/>
-    <col min="5387" max="5387" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5388" max="5633" width="9.140625" style="15"/>
-    <col min="5634" max="5634" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5635" max="5635" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5636" max="5636" width="15.140625" style="15" customWidth="1"/>
-    <col min="5637" max="5637" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5638" max="5638" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5639" max="5639" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5640" max="5640" width="14.140625" style="15" customWidth="1"/>
-    <col min="5641" max="5641" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5642" max="5642" width="16.140625" style="15" customWidth="1"/>
-    <col min="5643" max="5643" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5644" max="5889" width="9.140625" style="15"/>
-    <col min="5890" max="5890" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5891" max="5891" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5892" max="5892" width="15.140625" style="15" customWidth="1"/>
-    <col min="5893" max="5893" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5894" max="5894" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5895" max="5895" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5896" max="5896" width="14.140625" style="15" customWidth="1"/>
-    <col min="5897" max="5897" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5898" max="5898" width="16.140625" style="15" customWidth="1"/>
-    <col min="5899" max="5899" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5900" max="6145" width="9.140625" style="15"/>
-    <col min="6146" max="6146" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6147" max="6147" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6148" max="6148" width="15.140625" style="15" customWidth="1"/>
-    <col min="6149" max="6149" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6150" max="6150" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6151" max="6151" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6152" max="6152" width="14.140625" style="15" customWidth="1"/>
-    <col min="6153" max="6153" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6154" max="6154" width="16.140625" style="15" customWidth="1"/>
-    <col min="6155" max="6155" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6156" max="6401" width="9.140625" style="15"/>
-    <col min="6402" max="6402" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6403" max="6403" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6404" max="6404" width="15.140625" style="15" customWidth="1"/>
-    <col min="6405" max="6405" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6406" max="6406" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6407" max="6407" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6408" max="6408" width="14.140625" style="15" customWidth="1"/>
-    <col min="6409" max="6409" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6410" max="6410" width="16.140625" style="15" customWidth="1"/>
-    <col min="6411" max="6411" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6412" max="6657" width="9.140625" style="15"/>
-    <col min="6658" max="6658" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6659" max="6659" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6660" max="6660" width="15.140625" style="15" customWidth="1"/>
-    <col min="6661" max="6661" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6662" max="6662" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6663" max="6663" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6664" max="6664" width="14.140625" style="15" customWidth="1"/>
-    <col min="6665" max="6665" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6666" max="6666" width="16.140625" style="15" customWidth="1"/>
-    <col min="6667" max="6667" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6668" max="6913" width="9.140625" style="15"/>
-    <col min="6914" max="6914" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6915" max="6915" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6916" max="6916" width="15.140625" style="15" customWidth="1"/>
-    <col min="6917" max="6917" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6918" max="6918" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6919" max="6919" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6920" max="6920" width="14.140625" style="15" customWidth="1"/>
-    <col min="6921" max="6921" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6922" max="6922" width="16.140625" style="15" customWidth="1"/>
-    <col min="6923" max="6923" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6924" max="7169" width="9.140625" style="15"/>
-    <col min="7170" max="7170" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7171" max="7171" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7172" max="7172" width="15.140625" style="15" customWidth="1"/>
-    <col min="7173" max="7173" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7174" max="7174" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7175" max="7175" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7176" max="7176" width="14.140625" style="15" customWidth="1"/>
-    <col min="7177" max="7177" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7178" max="7178" width="16.140625" style="15" customWidth="1"/>
-    <col min="7179" max="7179" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7180" max="7425" width="9.140625" style="15"/>
-    <col min="7426" max="7426" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7427" max="7427" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7428" max="7428" width="15.140625" style="15" customWidth="1"/>
-    <col min="7429" max="7429" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7430" max="7430" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7431" max="7431" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7432" max="7432" width="14.140625" style="15" customWidth="1"/>
-    <col min="7433" max="7433" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7434" max="7434" width="16.140625" style="15" customWidth="1"/>
-    <col min="7435" max="7435" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7436" max="7681" width="9.140625" style="15"/>
-    <col min="7682" max="7682" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7683" max="7683" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7684" max="7684" width="15.140625" style="15" customWidth="1"/>
-    <col min="7685" max="7685" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7686" max="7686" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7687" max="7687" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7688" max="7688" width="14.140625" style="15" customWidth="1"/>
-    <col min="7689" max="7689" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7690" max="7690" width="16.140625" style="15" customWidth="1"/>
-    <col min="7691" max="7691" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7692" max="7937" width="9.140625" style="15"/>
-    <col min="7938" max="7938" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7939" max="7939" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7940" max="7940" width="15.140625" style="15" customWidth="1"/>
-    <col min="7941" max="7941" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7942" max="7942" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7943" max="7943" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7944" max="7944" width="14.140625" style="15" customWidth="1"/>
-    <col min="7945" max="7945" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7946" max="7946" width="16.140625" style="15" customWidth="1"/>
-    <col min="7947" max="7947" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7948" max="8193" width="9.140625" style="15"/>
-    <col min="8194" max="8194" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8195" max="8195" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8196" max="8196" width="15.140625" style="15" customWidth="1"/>
-    <col min="8197" max="8197" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8198" max="8198" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8199" max="8199" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8200" max="8200" width="14.140625" style="15" customWidth="1"/>
-    <col min="8201" max="8201" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8202" max="8202" width="16.140625" style="15" customWidth="1"/>
-    <col min="8203" max="8203" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8204" max="8449" width="9.140625" style="15"/>
-    <col min="8450" max="8450" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8451" max="8451" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8452" max="8452" width="15.140625" style="15" customWidth="1"/>
-    <col min="8453" max="8453" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8454" max="8454" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8455" max="8455" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8456" max="8456" width="14.140625" style="15" customWidth="1"/>
-    <col min="8457" max="8457" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8458" max="8458" width="16.140625" style="15" customWidth="1"/>
-    <col min="8459" max="8459" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8460" max="8705" width="9.140625" style="15"/>
-    <col min="8706" max="8706" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8707" max="8707" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8708" max="8708" width="15.140625" style="15" customWidth="1"/>
-    <col min="8709" max="8709" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8710" max="8710" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8711" max="8711" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8712" max="8712" width="14.140625" style="15" customWidth="1"/>
-    <col min="8713" max="8713" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8714" max="8714" width="16.140625" style="15" customWidth="1"/>
-    <col min="8715" max="8715" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8716" max="8961" width="9.140625" style="15"/>
-    <col min="8962" max="8962" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8963" max="8963" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8964" max="8964" width="15.140625" style="15" customWidth="1"/>
-    <col min="8965" max="8965" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8966" max="8966" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8967" max="8967" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8968" max="8968" width="14.140625" style="15" customWidth="1"/>
-    <col min="8969" max="8969" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8970" max="8970" width="16.140625" style="15" customWidth="1"/>
-    <col min="8971" max="8971" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8972" max="9217" width="9.140625" style="15"/>
-    <col min="9218" max="9218" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9219" max="9219" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9220" max="9220" width="15.140625" style="15" customWidth="1"/>
-    <col min="9221" max="9221" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9222" max="9222" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9223" max="9223" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9224" max="9224" width="14.140625" style="15" customWidth="1"/>
-    <col min="9225" max="9225" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9226" max="9226" width="16.140625" style="15" customWidth="1"/>
-    <col min="9227" max="9227" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9228" max="9473" width="9.140625" style="15"/>
-    <col min="9474" max="9474" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9475" max="9475" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9476" max="9476" width="15.140625" style="15" customWidth="1"/>
-    <col min="9477" max="9477" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9478" max="9478" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9479" max="9479" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9480" max="9480" width="14.140625" style="15" customWidth="1"/>
-    <col min="9481" max="9481" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9482" max="9482" width="16.140625" style="15" customWidth="1"/>
-    <col min="9483" max="9483" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9484" max="9729" width="9.140625" style="15"/>
-    <col min="9730" max="9730" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9731" max="9731" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9732" max="9732" width="15.140625" style="15" customWidth="1"/>
-    <col min="9733" max="9733" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9734" max="9734" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9735" max="9735" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9736" max="9736" width="14.140625" style="15" customWidth="1"/>
-    <col min="9737" max="9737" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9738" max="9738" width="16.140625" style="15" customWidth="1"/>
-    <col min="9739" max="9739" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9740" max="9985" width="9.140625" style="15"/>
-    <col min="9986" max="9986" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9987" max="9987" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9988" max="9988" width="15.140625" style="15" customWidth="1"/>
-    <col min="9989" max="9989" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9990" max="9990" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9991" max="9991" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9992" max="9992" width="14.140625" style="15" customWidth="1"/>
-    <col min="9993" max="9993" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9994" max="9994" width="16.140625" style="15" customWidth="1"/>
-    <col min="9995" max="9995" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9996" max="10241" width="9.140625" style="15"/>
-    <col min="10242" max="10242" width="27.7109375" style="15" customWidth="1"/>
-    <col min="10243" max="10243" width="15.28515625" style="15" customWidth="1"/>
-    <col min="10244" max="10244" width="15.140625" style="15" customWidth="1"/>
-    <col min="10245" max="10245" width="17.85546875" style="15" customWidth="1"/>
-    <col min="10246" max="10246" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10247" max="10247" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10248" max="10248" width="14.140625" style="15" customWidth="1"/>
-    <col min="10249" max="10249" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10250" max="10250" width="16.140625" style="15" customWidth="1"/>
-    <col min="10251" max="10251" width="26.42578125" style="15" customWidth="1"/>
-    <col min="10252" max="10497" width="9.140625" style="15"/>
-    <col min="10498" max="10498" width="27.7109375" style="15" customWidth="1"/>
-    <col min="10499" max="10499" width="15.28515625" style="15" customWidth="1"/>
-    <col min="10500" max="10500" width="15.140625" style="15" customWidth="1"/>
-    <col min="10501" max="10501" width="17.85546875" style="15" customWidth="1"/>
-    <col min="10502" max="10502" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10503" max="10503" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10504" max="10504" width="14.140625" style="15" customWidth="1"/>
-    <col min="10505" max="10505" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10506" max="10506" width="16.140625" style="15" customWidth="1"/>
-    <col min="10507" max="10507" width="26.42578125" style="15" customWidth="1"/>
-    <col min="10508" max="10753" width="9.140625" style="15"/>
-    <col min="10754" max="10754" width="27.7109375" style="15" customWidth="1"/>
-    <col min="10755" max="10755" width="15.28515625" style="15" customWidth="1"/>
-    <col min="10756" max="10756" width="15.140625" style="15" customWidth="1"/>
-    <col min="10757" max="10757" width="17.85546875" style="15" customWidth="1"/>
-    <col min="10758" max="10758" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10759" max="10759" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10760" max="10760" width="14.140625" style="15" customWidth="1"/>
-    <col min="10761" max="10761" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10762" max="10762" width="16.140625" style="15" customWidth="1"/>
-    <col min="10763" max="10763" width="26.42578125" style="15" customWidth="1"/>
-    <col min="10764" max="11009" width="9.140625" style="15"/>
-    <col min="11010" max="11010" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11011" max="11011" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11012" max="11012" width="15.140625" style="15" customWidth="1"/>
-    <col min="11013" max="11013" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11014" max="11014" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11015" max="11015" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11016" max="11016" width="14.140625" style="15" customWidth="1"/>
-    <col min="11017" max="11017" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11018" max="11018" width="16.140625" style="15" customWidth="1"/>
-    <col min="11019" max="11019" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11020" max="11265" width="9.140625" style="15"/>
-    <col min="11266" max="11266" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11267" max="11267" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11268" max="11268" width="15.140625" style="15" customWidth="1"/>
-    <col min="11269" max="11269" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11270" max="11270" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11271" max="11271" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11272" max="11272" width="14.140625" style="15" customWidth="1"/>
-    <col min="11273" max="11273" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11274" max="11274" width="16.140625" style="15" customWidth="1"/>
-    <col min="11275" max="11275" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11276" max="11521" width="9.140625" style="15"/>
-    <col min="11522" max="11522" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11523" max="11523" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11524" max="11524" width="15.140625" style="15" customWidth="1"/>
-    <col min="11525" max="11525" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11526" max="11526" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11527" max="11527" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11528" max="11528" width="14.140625" style="15" customWidth="1"/>
-    <col min="11529" max="11529" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11530" max="11530" width="16.140625" style="15" customWidth="1"/>
-    <col min="11531" max="11531" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11532" max="11777" width="9.140625" style="15"/>
-    <col min="11778" max="11778" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11779" max="11779" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11780" max="11780" width="15.140625" style="15" customWidth="1"/>
-    <col min="11781" max="11781" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11782" max="11782" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11783" max="11783" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11784" max="11784" width="14.140625" style="15" customWidth="1"/>
-    <col min="11785" max="11785" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11786" max="11786" width="16.140625" style="15" customWidth="1"/>
-    <col min="11787" max="11787" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11788" max="12033" width="9.140625" style="15"/>
-    <col min="12034" max="12034" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12035" max="12035" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12036" max="12036" width="15.140625" style="15" customWidth="1"/>
-    <col min="12037" max="12037" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12038" max="12038" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12039" max="12039" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12040" max="12040" width="14.140625" style="15" customWidth="1"/>
-    <col min="12041" max="12041" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12042" max="12042" width="16.140625" style="15" customWidth="1"/>
-    <col min="12043" max="12043" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12044" max="12289" width="9.140625" style="15"/>
-    <col min="12290" max="12290" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12291" max="12291" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12292" max="12292" width="15.140625" style="15" customWidth="1"/>
-    <col min="12293" max="12293" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12294" max="12294" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12295" max="12295" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12296" max="12296" width="14.140625" style="15" customWidth="1"/>
-    <col min="12297" max="12297" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12298" max="12298" width="16.140625" style="15" customWidth="1"/>
-    <col min="12299" max="12299" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12300" max="12545" width="9.140625" style="15"/>
-    <col min="12546" max="12546" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12547" max="12547" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12548" max="12548" width="15.140625" style="15" customWidth="1"/>
-    <col min="12549" max="12549" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12550" max="12550" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12551" max="12551" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12552" max="12552" width="14.140625" style="15" customWidth="1"/>
-    <col min="12553" max="12553" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12554" max="12554" width="16.140625" style="15" customWidth="1"/>
-    <col min="12555" max="12555" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12556" max="12801" width="9.140625" style="15"/>
-    <col min="12802" max="12802" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12803" max="12803" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12804" max="12804" width="15.140625" style="15" customWidth="1"/>
-    <col min="12805" max="12805" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12806" max="12806" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12807" max="12807" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12808" max="12808" width="14.140625" style="15" customWidth="1"/>
-    <col min="12809" max="12809" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12810" max="12810" width="16.140625" style="15" customWidth="1"/>
-    <col min="12811" max="12811" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12812" max="13057" width="9.140625" style="15"/>
-    <col min="13058" max="13058" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13059" max="13059" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13060" max="13060" width="15.140625" style="15" customWidth="1"/>
-    <col min="13061" max="13061" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13062" max="13062" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13063" max="13063" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13064" max="13064" width="14.140625" style="15" customWidth="1"/>
-    <col min="13065" max="13065" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13066" max="13066" width="16.140625" style="15" customWidth="1"/>
-    <col min="13067" max="13067" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13068" max="13313" width="9.140625" style="15"/>
-    <col min="13314" max="13314" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13315" max="13315" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13316" max="13316" width="15.140625" style="15" customWidth="1"/>
-    <col min="13317" max="13317" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13318" max="13318" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13319" max="13319" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13320" max="13320" width="14.140625" style="15" customWidth="1"/>
-    <col min="13321" max="13321" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13322" max="13322" width="16.140625" style="15" customWidth="1"/>
-    <col min="13323" max="13323" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13324" max="13569" width="9.140625" style="15"/>
-    <col min="13570" max="13570" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13571" max="13571" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13572" max="13572" width="15.140625" style="15" customWidth="1"/>
-    <col min="13573" max="13573" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13574" max="13574" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13575" max="13575" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13576" max="13576" width="14.140625" style="15" customWidth="1"/>
-    <col min="13577" max="13577" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13578" max="13578" width="16.140625" style="15" customWidth="1"/>
-    <col min="13579" max="13579" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13580" max="13825" width="9.140625" style="15"/>
-    <col min="13826" max="13826" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13827" max="13827" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13828" max="13828" width="15.140625" style="15" customWidth="1"/>
-    <col min="13829" max="13829" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13830" max="13830" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13831" max="13831" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13832" max="13832" width="14.140625" style="15" customWidth="1"/>
-    <col min="13833" max="13833" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13834" max="13834" width="16.140625" style="15" customWidth="1"/>
-    <col min="13835" max="13835" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13836" max="14081" width="9.140625" style="15"/>
-    <col min="14082" max="14082" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14083" max="14083" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14084" max="14084" width="15.140625" style="15" customWidth="1"/>
-    <col min="14085" max="14085" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14086" max="14086" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14087" max="14087" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14088" max="14088" width="14.140625" style="15" customWidth="1"/>
-    <col min="14089" max="14089" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14090" max="14090" width="16.140625" style="15" customWidth="1"/>
-    <col min="14091" max="14091" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14092" max="14337" width="9.140625" style="15"/>
-    <col min="14338" max="14338" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14339" max="14339" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14340" max="14340" width="15.140625" style="15" customWidth="1"/>
-    <col min="14341" max="14341" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14342" max="14342" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14343" max="14343" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14344" max="14344" width="14.140625" style="15" customWidth="1"/>
-    <col min="14345" max="14345" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14346" max="14346" width="16.140625" style="15" customWidth="1"/>
-    <col min="14347" max="14347" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14348" max="14593" width="9.140625" style="15"/>
-    <col min="14594" max="14594" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14595" max="14595" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14596" max="14596" width="15.140625" style="15" customWidth="1"/>
-    <col min="14597" max="14597" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14598" max="14598" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14599" max="14599" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14600" max="14600" width="14.140625" style="15" customWidth="1"/>
-    <col min="14601" max="14601" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14602" max="14602" width="16.140625" style="15" customWidth="1"/>
-    <col min="14603" max="14603" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14604" max="14849" width="9.140625" style="15"/>
-    <col min="14850" max="14850" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14851" max="14851" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14852" max="14852" width="15.140625" style="15" customWidth="1"/>
-    <col min="14853" max="14853" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14854" max="14854" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14855" max="14855" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14856" max="14856" width="14.140625" style="15" customWidth="1"/>
-    <col min="14857" max="14857" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14858" max="14858" width="16.140625" style="15" customWidth="1"/>
-    <col min="14859" max="14859" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14860" max="15105" width="9.140625" style="15"/>
-    <col min="15106" max="15106" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15107" max="15107" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15108" max="15108" width="15.140625" style="15" customWidth="1"/>
-    <col min="15109" max="15109" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15110" max="15110" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15111" max="15111" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15112" max="15112" width="14.140625" style="15" customWidth="1"/>
-    <col min="15113" max="15113" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15114" max="15114" width="16.140625" style="15" customWidth="1"/>
-    <col min="15115" max="15115" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15116" max="15361" width="9.140625" style="15"/>
-    <col min="15362" max="15362" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15363" max="15363" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15364" max="15364" width="15.140625" style="15" customWidth="1"/>
-    <col min="15365" max="15365" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15366" max="15366" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15367" max="15367" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15368" max="15368" width="14.140625" style="15" customWidth="1"/>
-    <col min="15369" max="15369" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15370" max="15370" width="16.140625" style="15" customWidth="1"/>
-    <col min="15371" max="15371" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15372" max="15617" width="9.140625" style="15"/>
-    <col min="15618" max="15618" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15619" max="15619" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15620" max="15620" width="15.140625" style="15" customWidth="1"/>
-    <col min="15621" max="15621" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15622" max="15622" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15623" max="15623" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15624" max="15624" width="14.140625" style="15" customWidth="1"/>
-    <col min="15625" max="15625" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15626" max="15626" width="16.140625" style="15" customWidth="1"/>
-    <col min="15627" max="15627" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15628" max="15873" width="9.140625" style="15"/>
-    <col min="15874" max="15874" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15875" max="15875" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15876" max="15876" width="15.140625" style="15" customWidth="1"/>
-    <col min="15877" max="15877" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15878" max="15878" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15879" max="15879" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15880" max="15880" width="14.140625" style="15" customWidth="1"/>
-    <col min="15881" max="15881" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15882" max="15882" width="16.140625" style="15" customWidth="1"/>
-    <col min="15883" max="15883" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15884" max="16129" width="9.140625" style="15"/>
-    <col min="16130" max="16130" width="27.7109375" style="15" customWidth="1"/>
-    <col min="16131" max="16131" width="15.28515625" style="15" customWidth="1"/>
-    <col min="16132" max="16132" width="15.140625" style="15" customWidth="1"/>
-    <col min="16133" max="16133" width="17.85546875" style="15" customWidth="1"/>
-    <col min="16134" max="16134" width="19.85546875" style="15" customWidth="1"/>
-    <col min="16135" max="16135" width="14.85546875" style="15" customWidth="1"/>
-    <col min="16136" max="16136" width="14.140625" style="15" customWidth="1"/>
-    <col min="16137" max="16137" width="14.85546875" style="15" customWidth="1"/>
-    <col min="16138" max="16138" width="16.140625" style="15" customWidth="1"/>
-    <col min="16139" max="16139" width="26.42578125" style="15" customWidth="1"/>
-    <col min="16140" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="27.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="12"/>
+    <col min="13" max="257" width="9.140625" style="13"/>
+    <col min="258" max="258" width="27.7109375" style="13" customWidth="1"/>
+    <col min="259" max="259" width="15.28515625" style="13" customWidth="1"/>
+    <col min="260" max="260" width="15.140625" style="13" customWidth="1"/>
+    <col min="261" max="261" width="17.85546875" style="13" customWidth="1"/>
+    <col min="262" max="262" width="19.85546875" style="13" customWidth="1"/>
+    <col min="263" max="263" width="14.85546875" style="13" customWidth="1"/>
+    <col min="264" max="264" width="14.140625" style="13" customWidth="1"/>
+    <col min="265" max="265" width="14.85546875" style="13" customWidth="1"/>
+    <col min="266" max="266" width="16.140625" style="13" customWidth="1"/>
+    <col min="267" max="267" width="26.42578125" style="13" customWidth="1"/>
+    <col min="268" max="513" width="9.140625" style="13"/>
+    <col min="514" max="514" width="27.7109375" style="13" customWidth="1"/>
+    <col min="515" max="515" width="15.28515625" style="13" customWidth="1"/>
+    <col min="516" max="516" width="15.140625" style="13" customWidth="1"/>
+    <col min="517" max="517" width="17.85546875" style="13" customWidth="1"/>
+    <col min="518" max="518" width="19.85546875" style="13" customWidth="1"/>
+    <col min="519" max="519" width="14.85546875" style="13" customWidth="1"/>
+    <col min="520" max="520" width="14.140625" style="13" customWidth="1"/>
+    <col min="521" max="521" width="14.85546875" style="13" customWidth="1"/>
+    <col min="522" max="522" width="16.140625" style="13" customWidth="1"/>
+    <col min="523" max="523" width="26.42578125" style="13" customWidth="1"/>
+    <col min="524" max="769" width="9.140625" style="13"/>
+    <col min="770" max="770" width="27.7109375" style="13" customWidth="1"/>
+    <col min="771" max="771" width="15.28515625" style="13" customWidth="1"/>
+    <col min="772" max="772" width="15.140625" style="13" customWidth="1"/>
+    <col min="773" max="773" width="17.85546875" style="13" customWidth="1"/>
+    <col min="774" max="774" width="19.85546875" style="13" customWidth="1"/>
+    <col min="775" max="775" width="14.85546875" style="13" customWidth="1"/>
+    <col min="776" max="776" width="14.140625" style="13" customWidth="1"/>
+    <col min="777" max="777" width="14.85546875" style="13" customWidth="1"/>
+    <col min="778" max="778" width="16.140625" style="13" customWidth="1"/>
+    <col min="779" max="779" width="26.42578125" style="13" customWidth="1"/>
+    <col min="780" max="1025" width="9.140625" style="13"/>
+    <col min="1026" max="1026" width="27.7109375" style="13" customWidth="1"/>
+    <col min="1027" max="1027" width="15.28515625" style="13" customWidth="1"/>
+    <col min="1028" max="1028" width="15.140625" style="13" customWidth="1"/>
+    <col min="1029" max="1029" width="17.85546875" style="13" customWidth="1"/>
+    <col min="1030" max="1030" width="19.85546875" style="13" customWidth="1"/>
+    <col min="1031" max="1031" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1032" max="1032" width="14.140625" style="13" customWidth="1"/>
+    <col min="1033" max="1033" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1034" max="1034" width="16.140625" style="13" customWidth="1"/>
+    <col min="1035" max="1035" width="26.42578125" style="13" customWidth="1"/>
+    <col min="1036" max="1281" width="9.140625" style="13"/>
+    <col min="1282" max="1282" width="27.7109375" style="13" customWidth="1"/>
+    <col min="1283" max="1283" width="15.28515625" style="13" customWidth="1"/>
+    <col min="1284" max="1284" width="15.140625" style="13" customWidth="1"/>
+    <col min="1285" max="1285" width="17.85546875" style="13" customWidth="1"/>
+    <col min="1286" max="1286" width="19.85546875" style="13" customWidth="1"/>
+    <col min="1287" max="1287" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1288" max="1288" width="14.140625" style="13" customWidth="1"/>
+    <col min="1289" max="1289" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1290" max="1290" width="16.140625" style="13" customWidth="1"/>
+    <col min="1291" max="1291" width="26.42578125" style="13" customWidth="1"/>
+    <col min="1292" max="1537" width="9.140625" style="13"/>
+    <col min="1538" max="1538" width="27.7109375" style="13" customWidth="1"/>
+    <col min="1539" max="1539" width="15.28515625" style="13" customWidth="1"/>
+    <col min="1540" max="1540" width="15.140625" style="13" customWidth="1"/>
+    <col min="1541" max="1541" width="17.85546875" style="13" customWidth="1"/>
+    <col min="1542" max="1542" width="19.85546875" style="13" customWidth="1"/>
+    <col min="1543" max="1543" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1544" max="1544" width="14.140625" style="13" customWidth="1"/>
+    <col min="1545" max="1545" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1546" max="1546" width="16.140625" style="13" customWidth="1"/>
+    <col min="1547" max="1547" width="26.42578125" style="13" customWidth="1"/>
+    <col min="1548" max="1793" width="9.140625" style="13"/>
+    <col min="1794" max="1794" width="27.7109375" style="13" customWidth="1"/>
+    <col min="1795" max="1795" width="15.28515625" style="13" customWidth="1"/>
+    <col min="1796" max="1796" width="15.140625" style="13" customWidth="1"/>
+    <col min="1797" max="1797" width="17.85546875" style="13" customWidth="1"/>
+    <col min="1798" max="1798" width="19.85546875" style="13" customWidth="1"/>
+    <col min="1799" max="1799" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1800" max="1800" width="14.140625" style="13" customWidth="1"/>
+    <col min="1801" max="1801" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1802" max="1802" width="16.140625" style="13" customWidth="1"/>
+    <col min="1803" max="1803" width="26.42578125" style="13" customWidth="1"/>
+    <col min="1804" max="2049" width="9.140625" style="13"/>
+    <col min="2050" max="2050" width="27.7109375" style="13" customWidth="1"/>
+    <col min="2051" max="2051" width="15.28515625" style="13" customWidth="1"/>
+    <col min="2052" max="2052" width="15.140625" style="13" customWidth="1"/>
+    <col min="2053" max="2053" width="17.85546875" style="13" customWidth="1"/>
+    <col min="2054" max="2054" width="19.85546875" style="13" customWidth="1"/>
+    <col min="2055" max="2055" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2056" max="2056" width="14.140625" style="13" customWidth="1"/>
+    <col min="2057" max="2057" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2058" max="2058" width="16.140625" style="13" customWidth="1"/>
+    <col min="2059" max="2059" width="26.42578125" style="13" customWidth="1"/>
+    <col min="2060" max="2305" width="9.140625" style="13"/>
+    <col min="2306" max="2306" width="27.7109375" style="13" customWidth="1"/>
+    <col min="2307" max="2307" width="15.28515625" style="13" customWidth="1"/>
+    <col min="2308" max="2308" width="15.140625" style="13" customWidth="1"/>
+    <col min="2309" max="2309" width="17.85546875" style="13" customWidth="1"/>
+    <col min="2310" max="2310" width="19.85546875" style="13" customWidth="1"/>
+    <col min="2311" max="2311" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2312" max="2312" width="14.140625" style="13" customWidth="1"/>
+    <col min="2313" max="2313" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2314" max="2314" width="16.140625" style="13" customWidth="1"/>
+    <col min="2315" max="2315" width="26.42578125" style="13" customWidth="1"/>
+    <col min="2316" max="2561" width="9.140625" style="13"/>
+    <col min="2562" max="2562" width="27.7109375" style="13" customWidth="1"/>
+    <col min="2563" max="2563" width="15.28515625" style="13" customWidth="1"/>
+    <col min="2564" max="2564" width="15.140625" style="13" customWidth="1"/>
+    <col min="2565" max="2565" width="17.85546875" style="13" customWidth="1"/>
+    <col min="2566" max="2566" width="19.85546875" style="13" customWidth="1"/>
+    <col min="2567" max="2567" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2568" max="2568" width="14.140625" style="13" customWidth="1"/>
+    <col min="2569" max="2569" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2570" max="2570" width="16.140625" style="13" customWidth="1"/>
+    <col min="2571" max="2571" width="26.42578125" style="13" customWidth="1"/>
+    <col min="2572" max="2817" width="9.140625" style="13"/>
+    <col min="2818" max="2818" width="27.7109375" style="13" customWidth="1"/>
+    <col min="2819" max="2819" width="15.28515625" style="13" customWidth="1"/>
+    <col min="2820" max="2820" width="15.140625" style="13" customWidth="1"/>
+    <col min="2821" max="2821" width="17.85546875" style="13" customWidth="1"/>
+    <col min="2822" max="2822" width="19.85546875" style="13" customWidth="1"/>
+    <col min="2823" max="2823" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2824" max="2824" width="14.140625" style="13" customWidth="1"/>
+    <col min="2825" max="2825" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2826" max="2826" width="16.140625" style="13" customWidth="1"/>
+    <col min="2827" max="2827" width="26.42578125" style="13" customWidth="1"/>
+    <col min="2828" max="3073" width="9.140625" style="13"/>
+    <col min="3074" max="3074" width="27.7109375" style="13" customWidth="1"/>
+    <col min="3075" max="3075" width="15.28515625" style="13" customWidth="1"/>
+    <col min="3076" max="3076" width="15.140625" style="13" customWidth="1"/>
+    <col min="3077" max="3077" width="17.85546875" style="13" customWidth="1"/>
+    <col min="3078" max="3078" width="19.85546875" style="13" customWidth="1"/>
+    <col min="3079" max="3079" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3080" max="3080" width="14.140625" style="13" customWidth="1"/>
+    <col min="3081" max="3081" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3082" max="3082" width="16.140625" style="13" customWidth="1"/>
+    <col min="3083" max="3083" width="26.42578125" style="13" customWidth="1"/>
+    <col min="3084" max="3329" width="9.140625" style="13"/>
+    <col min="3330" max="3330" width="27.7109375" style="13" customWidth="1"/>
+    <col min="3331" max="3331" width="15.28515625" style="13" customWidth="1"/>
+    <col min="3332" max="3332" width="15.140625" style="13" customWidth="1"/>
+    <col min="3333" max="3333" width="17.85546875" style="13" customWidth="1"/>
+    <col min="3334" max="3334" width="19.85546875" style="13" customWidth="1"/>
+    <col min="3335" max="3335" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3336" max="3336" width="14.140625" style="13" customWidth="1"/>
+    <col min="3337" max="3337" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3338" max="3338" width="16.140625" style="13" customWidth="1"/>
+    <col min="3339" max="3339" width="26.42578125" style="13" customWidth="1"/>
+    <col min="3340" max="3585" width="9.140625" style="13"/>
+    <col min="3586" max="3586" width="27.7109375" style="13" customWidth="1"/>
+    <col min="3587" max="3587" width="15.28515625" style="13" customWidth="1"/>
+    <col min="3588" max="3588" width="15.140625" style="13" customWidth="1"/>
+    <col min="3589" max="3589" width="17.85546875" style="13" customWidth="1"/>
+    <col min="3590" max="3590" width="19.85546875" style="13" customWidth="1"/>
+    <col min="3591" max="3591" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3592" max="3592" width="14.140625" style="13" customWidth="1"/>
+    <col min="3593" max="3593" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3594" max="3594" width="16.140625" style="13" customWidth="1"/>
+    <col min="3595" max="3595" width="26.42578125" style="13" customWidth="1"/>
+    <col min="3596" max="3841" width="9.140625" style="13"/>
+    <col min="3842" max="3842" width="27.7109375" style="13" customWidth="1"/>
+    <col min="3843" max="3843" width="15.28515625" style="13" customWidth="1"/>
+    <col min="3844" max="3844" width="15.140625" style="13" customWidth="1"/>
+    <col min="3845" max="3845" width="17.85546875" style="13" customWidth="1"/>
+    <col min="3846" max="3846" width="19.85546875" style="13" customWidth="1"/>
+    <col min="3847" max="3847" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3848" max="3848" width="14.140625" style="13" customWidth="1"/>
+    <col min="3849" max="3849" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3850" max="3850" width="16.140625" style="13" customWidth="1"/>
+    <col min="3851" max="3851" width="26.42578125" style="13" customWidth="1"/>
+    <col min="3852" max="4097" width="9.140625" style="13"/>
+    <col min="4098" max="4098" width="27.7109375" style="13" customWidth="1"/>
+    <col min="4099" max="4099" width="15.28515625" style="13" customWidth="1"/>
+    <col min="4100" max="4100" width="15.140625" style="13" customWidth="1"/>
+    <col min="4101" max="4101" width="17.85546875" style="13" customWidth="1"/>
+    <col min="4102" max="4102" width="19.85546875" style="13" customWidth="1"/>
+    <col min="4103" max="4103" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4104" max="4104" width="14.140625" style="13" customWidth="1"/>
+    <col min="4105" max="4105" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4106" max="4106" width="16.140625" style="13" customWidth="1"/>
+    <col min="4107" max="4107" width="26.42578125" style="13" customWidth="1"/>
+    <col min="4108" max="4353" width="9.140625" style="13"/>
+    <col min="4354" max="4354" width="27.7109375" style="13" customWidth="1"/>
+    <col min="4355" max="4355" width="15.28515625" style="13" customWidth="1"/>
+    <col min="4356" max="4356" width="15.140625" style="13" customWidth="1"/>
+    <col min="4357" max="4357" width="17.85546875" style="13" customWidth="1"/>
+    <col min="4358" max="4358" width="19.85546875" style="13" customWidth="1"/>
+    <col min="4359" max="4359" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4360" max="4360" width="14.140625" style="13" customWidth="1"/>
+    <col min="4361" max="4361" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4362" max="4362" width="16.140625" style="13" customWidth="1"/>
+    <col min="4363" max="4363" width="26.42578125" style="13" customWidth="1"/>
+    <col min="4364" max="4609" width="9.140625" style="13"/>
+    <col min="4610" max="4610" width="27.7109375" style="13" customWidth="1"/>
+    <col min="4611" max="4611" width="15.28515625" style="13" customWidth="1"/>
+    <col min="4612" max="4612" width="15.140625" style="13" customWidth="1"/>
+    <col min="4613" max="4613" width="17.85546875" style="13" customWidth="1"/>
+    <col min="4614" max="4614" width="19.85546875" style="13" customWidth="1"/>
+    <col min="4615" max="4615" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4616" max="4616" width="14.140625" style="13" customWidth="1"/>
+    <col min="4617" max="4617" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4618" max="4618" width="16.140625" style="13" customWidth="1"/>
+    <col min="4619" max="4619" width="26.42578125" style="13" customWidth="1"/>
+    <col min="4620" max="4865" width="9.140625" style="13"/>
+    <col min="4866" max="4866" width="27.7109375" style="13" customWidth="1"/>
+    <col min="4867" max="4867" width="15.28515625" style="13" customWidth="1"/>
+    <col min="4868" max="4868" width="15.140625" style="13" customWidth="1"/>
+    <col min="4869" max="4869" width="17.85546875" style="13" customWidth="1"/>
+    <col min="4870" max="4870" width="19.85546875" style="13" customWidth="1"/>
+    <col min="4871" max="4871" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4872" max="4872" width="14.140625" style="13" customWidth="1"/>
+    <col min="4873" max="4873" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4874" max="4874" width="16.140625" style="13" customWidth="1"/>
+    <col min="4875" max="4875" width="26.42578125" style="13" customWidth="1"/>
+    <col min="4876" max="5121" width="9.140625" style="13"/>
+    <col min="5122" max="5122" width="27.7109375" style="13" customWidth="1"/>
+    <col min="5123" max="5123" width="15.28515625" style="13" customWidth="1"/>
+    <col min="5124" max="5124" width="15.140625" style="13" customWidth="1"/>
+    <col min="5125" max="5125" width="17.85546875" style="13" customWidth="1"/>
+    <col min="5126" max="5126" width="19.85546875" style="13" customWidth="1"/>
+    <col min="5127" max="5127" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5128" max="5128" width="14.140625" style="13" customWidth="1"/>
+    <col min="5129" max="5129" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5130" max="5130" width="16.140625" style="13" customWidth="1"/>
+    <col min="5131" max="5131" width="26.42578125" style="13" customWidth="1"/>
+    <col min="5132" max="5377" width="9.140625" style="13"/>
+    <col min="5378" max="5378" width="27.7109375" style="13" customWidth="1"/>
+    <col min="5379" max="5379" width="15.28515625" style="13" customWidth="1"/>
+    <col min="5380" max="5380" width="15.140625" style="13" customWidth="1"/>
+    <col min="5381" max="5381" width="17.85546875" style="13" customWidth="1"/>
+    <col min="5382" max="5382" width="19.85546875" style="13" customWidth="1"/>
+    <col min="5383" max="5383" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5384" max="5384" width="14.140625" style="13" customWidth="1"/>
+    <col min="5385" max="5385" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5386" max="5386" width="16.140625" style="13" customWidth="1"/>
+    <col min="5387" max="5387" width="26.42578125" style="13" customWidth="1"/>
+    <col min="5388" max="5633" width="9.140625" style="13"/>
+    <col min="5634" max="5634" width="27.7109375" style="13" customWidth="1"/>
+    <col min="5635" max="5635" width="15.28515625" style="13" customWidth="1"/>
+    <col min="5636" max="5636" width="15.140625" style="13" customWidth="1"/>
+    <col min="5637" max="5637" width="17.85546875" style="13" customWidth="1"/>
+    <col min="5638" max="5638" width="19.85546875" style="13" customWidth="1"/>
+    <col min="5639" max="5639" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5640" max="5640" width="14.140625" style="13" customWidth="1"/>
+    <col min="5641" max="5641" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5642" max="5642" width="16.140625" style="13" customWidth="1"/>
+    <col min="5643" max="5643" width="26.42578125" style="13" customWidth="1"/>
+    <col min="5644" max="5889" width="9.140625" style="13"/>
+    <col min="5890" max="5890" width="27.7109375" style="13" customWidth="1"/>
+    <col min="5891" max="5891" width="15.28515625" style="13" customWidth="1"/>
+    <col min="5892" max="5892" width="15.140625" style="13" customWidth="1"/>
+    <col min="5893" max="5893" width="17.85546875" style="13" customWidth="1"/>
+    <col min="5894" max="5894" width="19.85546875" style="13" customWidth="1"/>
+    <col min="5895" max="5895" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5896" max="5896" width="14.140625" style="13" customWidth="1"/>
+    <col min="5897" max="5897" width="14.85546875" style="13" customWidth="1"/>
+    <col min="5898" max="5898" width="16.140625" style="13" customWidth="1"/>
+    <col min="5899" max="5899" width="26.42578125" style="13" customWidth="1"/>
+    <col min="5900" max="6145" width="9.140625" style="13"/>
+    <col min="6146" max="6146" width="27.7109375" style="13" customWidth="1"/>
+    <col min="6147" max="6147" width="15.28515625" style="13" customWidth="1"/>
+    <col min="6148" max="6148" width="15.140625" style="13" customWidth="1"/>
+    <col min="6149" max="6149" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6150" max="6150" width="19.85546875" style="13" customWidth="1"/>
+    <col min="6151" max="6151" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6152" max="6152" width="14.140625" style="13" customWidth="1"/>
+    <col min="6153" max="6153" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6154" max="6154" width="16.140625" style="13" customWidth="1"/>
+    <col min="6155" max="6155" width="26.42578125" style="13" customWidth="1"/>
+    <col min="6156" max="6401" width="9.140625" style="13"/>
+    <col min="6402" max="6402" width="27.7109375" style="13" customWidth="1"/>
+    <col min="6403" max="6403" width="15.28515625" style="13" customWidth="1"/>
+    <col min="6404" max="6404" width="15.140625" style="13" customWidth="1"/>
+    <col min="6405" max="6405" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6406" max="6406" width="19.85546875" style="13" customWidth="1"/>
+    <col min="6407" max="6407" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6408" max="6408" width="14.140625" style="13" customWidth="1"/>
+    <col min="6409" max="6409" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6410" max="6410" width="16.140625" style="13" customWidth="1"/>
+    <col min="6411" max="6411" width="26.42578125" style="13" customWidth="1"/>
+    <col min="6412" max="6657" width="9.140625" style="13"/>
+    <col min="6658" max="6658" width="27.7109375" style="13" customWidth="1"/>
+    <col min="6659" max="6659" width="15.28515625" style="13" customWidth="1"/>
+    <col min="6660" max="6660" width="15.140625" style="13" customWidth="1"/>
+    <col min="6661" max="6661" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6662" max="6662" width="19.85546875" style="13" customWidth="1"/>
+    <col min="6663" max="6663" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6664" max="6664" width="14.140625" style="13" customWidth="1"/>
+    <col min="6665" max="6665" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6666" max="6666" width="16.140625" style="13" customWidth="1"/>
+    <col min="6667" max="6667" width="26.42578125" style="13" customWidth="1"/>
+    <col min="6668" max="6913" width="9.140625" style="13"/>
+    <col min="6914" max="6914" width="27.7109375" style="13" customWidth="1"/>
+    <col min="6915" max="6915" width="15.28515625" style="13" customWidth="1"/>
+    <col min="6916" max="6916" width="15.140625" style="13" customWidth="1"/>
+    <col min="6917" max="6917" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6918" max="6918" width="19.85546875" style="13" customWidth="1"/>
+    <col min="6919" max="6919" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6920" max="6920" width="14.140625" style="13" customWidth="1"/>
+    <col min="6921" max="6921" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6922" max="6922" width="16.140625" style="13" customWidth="1"/>
+    <col min="6923" max="6923" width="26.42578125" style="13" customWidth="1"/>
+    <col min="6924" max="7169" width="9.140625" style="13"/>
+    <col min="7170" max="7170" width="27.7109375" style="13" customWidth="1"/>
+    <col min="7171" max="7171" width="15.28515625" style="13" customWidth="1"/>
+    <col min="7172" max="7172" width="15.140625" style="13" customWidth="1"/>
+    <col min="7173" max="7173" width="17.85546875" style="13" customWidth="1"/>
+    <col min="7174" max="7174" width="19.85546875" style="13" customWidth="1"/>
+    <col min="7175" max="7175" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7176" max="7176" width="14.140625" style="13" customWidth="1"/>
+    <col min="7177" max="7177" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7178" max="7178" width="16.140625" style="13" customWidth="1"/>
+    <col min="7179" max="7179" width="26.42578125" style="13" customWidth="1"/>
+    <col min="7180" max="7425" width="9.140625" style="13"/>
+    <col min="7426" max="7426" width="27.7109375" style="13" customWidth="1"/>
+    <col min="7427" max="7427" width="15.28515625" style="13" customWidth="1"/>
+    <col min="7428" max="7428" width="15.140625" style="13" customWidth="1"/>
+    <col min="7429" max="7429" width="17.85546875" style="13" customWidth="1"/>
+    <col min="7430" max="7430" width="19.85546875" style="13" customWidth="1"/>
+    <col min="7431" max="7431" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7432" max="7432" width="14.140625" style="13" customWidth="1"/>
+    <col min="7433" max="7433" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7434" max="7434" width="16.140625" style="13" customWidth="1"/>
+    <col min="7435" max="7435" width="26.42578125" style="13" customWidth="1"/>
+    <col min="7436" max="7681" width="9.140625" style="13"/>
+    <col min="7682" max="7682" width="27.7109375" style="13" customWidth="1"/>
+    <col min="7683" max="7683" width="15.28515625" style="13" customWidth="1"/>
+    <col min="7684" max="7684" width="15.140625" style="13" customWidth="1"/>
+    <col min="7685" max="7685" width="17.85546875" style="13" customWidth="1"/>
+    <col min="7686" max="7686" width="19.85546875" style="13" customWidth="1"/>
+    <col min="7687" max="7687" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7688" max="7688" width="14.140625" style="13" customWidth="1"/>
+    <col min="7689" max="7689" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7690" max="7690" width="16.140625" style="13" customWidth="1"/>
+    <col min="7691" max="7691" width="26.42578125" style="13" customWidth="1"/>
+    <col min="7692" max="7937" width="9.140625" style="13"/>
+    <col min="7938" max="7938" width="27.7109375" style="13" customWidth="1"/>
+    <col min="7939" max="7939" width="15.28515625" style="13" customWidth="1"/>
+    <col min="7940" max="7940" width="15.140625" style="13" customWidth="1"/>
+    <col min="7941" max="7941" width="17.85546875" style="13" customWidth="1"/>
+    <col min="7942" max="7942" width="19.85546875" style="13" customWidth="1"/>
+    <col min="7943" max="7943" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7944" max="7944" width="14.140625" style="13" customWidth="1"/>
+    <col min="7945" max="7945" width="14.85546875" style="13" customWidth="1"/>
+    <col min="7946" max="7946" width="16.140625" style="13" customWidth="1"/>
+    <col min="7947" max="7947" width="26.42578125" style="13" customWidth="1"/>
+    <col min="7948" max="8193" width="9.140625" style="13"/>
+    <col min="8194" max="8194" width="27.7109375" style="13" customWidth="1"/>
+    <col min="8195" max="8195" width="15.28515625" style="13" customWidth="1"/>
+    <col min="8196" max="8196" width="15.140625" style="13" customWidth="1"/>
+    <col min="8197" max="8197" width="17.85546875" style="13" customWidth="1"/>
+    <col min="8198" max="8198" width="19.85546875" style="13" customWidth="1"/>
+    <col min="8199" max="8199" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8200" max="8200" width="14.140625" style="13" customWidth="1"/>
+    <col min="8201" max="8201" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8202" max="8202" width="16.140625" style="13" customWidth="1"/>
+    <col min="8203" max="8203" width="26.42578125" style="13" customWidth="1"/>
+    <col min="8204" max="8449" width="9.140625" style="13"/>
+    <col min="8450" max="8450" width="27.7109375" style="13" customWidth="1"/>
+    <col min="8451" max="8451" width="15.28515625" style="13" customWidth="1"/>
+    <col min="8452" max="8452" width="15.140625" style="13" customWidth="1"/>
+    <col min="8453" max="8453" width="17.85546875" style="13" customWidth="1"/>
+    <col min="8454" max="8454" width="19.85546875" style="13" customWidth="1"/>
+    <col min="8455" max="8455" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8456" max="8456" width="14.140625" style="13" customWidth="1"/>
+    <col min="8457" max="8457" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8458" max="8458" width="16.140625" style="13" customWidth="1"/>
+    <col min="8459" max="8459" width="26.42578125" style="13" customWidth="1"/>
+    <col min="8460" max="8705" width="9.140625" style="13"/>
+    <col min="8706" max="8706" width="27.7109375" style="13" customWidth="1"/>
+    <col min="8707" max="8707" width="15.28515625" style="13" customWidth="1"/>
+    <col min="8708" max="8708" width="15.140625" style="13" customWidth="1"/>
+    <col min="8709" max="8709" width="17.85546875" style="13" customWidth="1"/>
+    <col min="8710" max="8710" width="19.85546875" style="13" customWidth="1"/>
+    <col min="8711" max="8711" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8712" max="8712" width="14.140625" style="13" customWidth="1"/>
+    <col min="8713" max="8713" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8714" max="8714" width="16.140625" style="13" customWidth="1"/>
+    <col min="8715" max="8715" width="26.42578125" style="13" customWidth="1"/>
+    <col min="8716" max="8961" width="9.140625" style="13"/>
+    <col min="8962" max="8962" width="27.7109375" style="13" customWidth="1"/>
+    <col min="8963" max="8963" width="15.28515625" style="13" customWidth="1"/>
+    <col min="8964" max="8964" width="15.140625" style="13" customWidth="1"/>
+    <col min="8965" max="8965" width="17.85546875" style="13" customWidth="1"/>
+    <col min="8966" max="8966" width="19.85546875" style="13" customWidth="1"/>
+    <col min="8967" max="8967" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8968" max="8968" width="14.140625" style="13" customWidth="1"/>
+    <col min="8969" max="8969" width="14.85546875" style="13" customWidth="1"/>
+    <col min="8970" max="8970" width="16.140625" style="13" customWidth="1"/>
+    <col min="8971" max="8971" width="26.42578125" style="13" customWidth="1"/>
+    <col min="8972" max="9217" width="9.140625" style="13"/>
+    <col min="9218" max="9218" width="27.7109375" style="13" customWidth="1"/>
+    <col min="9219" max="9219" width="15.28515625" style="13" customWidth="1"/>
+    <col min="9220" max="9220" width="15.140625" style="13" customWidth="1"/>
+    <col min="9221" max="9221" width="17.85546875" style="13" customWidth="1"/>
+    <col min="9222" max="9222" width="19.85546875" style="13" customWidth="1"/>
+    <col min="9223" max="9223" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9224" max="9224" width="14.140625" style="13" customWidth="1"/>
+    <col min="9225" max="9225" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9226" max="9226" width="16.140625" style="13" customWidth="1"/>
+    <col min="9227" max="9227" width="26.42578125" style="13" customWidth="1"/>
+    <col min="9228" max="9473" width="9.140625" style="13"/>
+    <col min="9474" max="9474" width="27.7109375" style="13" customWidth="1"/>
+    <col min="9475" max="9475" width="15.28515625" style="13" customWidth="1"/>
+    <col min="9476" max="9476" width="15.140625" style="13" customWidth="1"/>
+    <col min="9477" max="9477" width="17.85546875" style="13" customWidth="1"/>
+    <col min="9478" max="9478" width="19.85546875" style="13" customWidth="1"/>
+    <col min="9479" max="9479" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9480" max="9480" width="14.140625" style="13" customWidth="1"/>
+    <col min="9481" max="9481" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9482" max="9482" width="16.140625" style="13" customWidth="1"/>
+    <col min="9483" max="9483" width="26.42578125" style="13" customWidth="1"/>
+    <col min="9484" max="9729" width="9.140625" style="13"/>
+    <col min="9730" max="9730" width="27.7109375" style="13" customWidth="1"/>
+    <col min="9731" max="9731" width="15.28515625" style="13" customWidth="1"/>
+    <col min="9732" max="9732" width="15.140625" style="13" customWidth="1"/>
+    <col min="9733" max="9733" width="17.85546875" style="13" customWidth="1"/>
+    <col min="9734" max="9734" width="19.85546875" style="13" customWidth="1"/>
+    <col min="9735" max="9735" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9736" max="9736" width="14.140625" style="13" customWidth="1"/>
+    <col min="9737" max="9737" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9738" max="9738" width="16.140625" style="13" customWidth="1"/>
+    <col min="9739" max="9739" width="26.42578125" style="13" customWidth="1"/>
+    <col min="9740" max="9985" width="9.140625" style="13"/>
+    <col min="9986" max="9986" width="27.7109375" style="13" customWidth="1"/>
+    <col min="9987" max="9987" width="15.28515625" style="13" customWidth="1"/>
+    <col min="9988" max="9988" width="15.140625" style="13" customWidth="1"/>
+    <col min="9989" max="9989" width="17.85546875" style="13" customWidth="1"/>
+    <col min="9990" max="9990" width="19.85546875" style="13" customWidth="1"/>
+    <col min="9991" max="9991" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9992" max="9992" width="14.140625" style="13" customWidth="1"/>
+    <col min="9993" max="9993" width="14.85546875" style="13" customWidth="1"/>
+    <col min="9994" max="9994" width="16.140625" style="13" customWidth="1"/>
+    <col min="9995" max="9995" width="26.42578125" style="13" customWidth="1"/>
+    <col min="9996" max="10241" width="9.140625" style="13"/>
+    <col min="10242" max="10242" width="27.7109375" style="13" customWidth="1"/>
+    <col min="10243" max="10243" width="15.28515625" style="13" customWidth="1"/>
+    <col min="10244" max="10244" width="15.140625" style="13" customWidth="1"/>
+    <col min="10245" max="10245" width="17.85546875" style="13" customWidth="1"/>
+    <col min="10246" max="10246" width="19.85546875" style="13" customWidth="1"/>
+    <col min="10247" max="10247" width="14.85546875" style="13" customWidth="1"/>
+    <col min="10248" max="10248" width="14.140625" style="13" customWidth="1"/>
+    <col min="10249" max="10249" width="14.85546875" style="13" customWidth="1"/>
+    <col min="10250" max="10250" width="16.140625" style="13" customWidth="1"/>
+    <col min="10251" max="10251" width="26.42578125" style="13" customWidth="1"/>
+    <col min="10252" max="10497" width="9.140625" style="13"/>
+    <col min="10498" max="10498" width="27.7109375" style="13" customWidth="1"/>
+    <col min="10499" max="10499" width="15.28515625" style="13" customWidth="1"/>
+    <col min="10500" max="10500" width="15.140625" style="13" customWidth="1"/>
+    <col min="10501" max="10501" width="17.85546875" style="13" customWidth="1"/>
+    <col min="10502" max="10502" width="19.85546875" style="13" customWidth="1"/>
+    <col min="10503" max="10503" width="14.85546875" style="13" customWidth="1"/>
+    <col min="10504" max="10504" width="14.140625" style="13" customWidth="1"/>
+    <col min="10505" max="10505" width="14.85546875" style="13" customWidth="1"/>
+    <col min="10506" max="10506" width="16.140625" style="13" customWidth="1"/>
+    <col min="10507" max="10507" width="26.42578125" style="13" customWidth="1"/>
+    <col min="10508" max="10753" width="9.140625" style="13"/>
+    <col min="10754" max="10754" width="27.7109375" style="13" customWidth="1"/>
+    <col min="10755" max="10755" width="15.28515625" style="13" customWidth="1"/>
+    <col min="10756" max="10756" width="15.140625" style="13" customWidth="1"/>
+    <col min="10757" max="10757" width="17.85546875" style="13" customWidth="1"/>
+    <col min="10758" max="10758" width="19.85546875" style="13" customWidth="1"/>
+    <col min="10759" max="10759" width="14.85546875" style="13" customWidth="1"/>
+    <col min="10760" max="10760" width="14.140625" style="13" customWidth="1"/>
+    <col min="10761" max="10761" width="14.85546875" style="13" customWidth="1"/>
+    <col min="10762" max="10762" width="16.140625" style="13" customWidth="1"/>
+    <col min="10763" max="10763" width="26.42578125" style="13" customWidth="1"/>
+    <col min="10764" max="11009" width="9.140625" style="13"/>
+    <col min="11010" max="11010" width="27.7109375" style="13" customWidth="1"/>
+    <col min="11011" max="11011" width="15.28515625" style="13" customWidth="1"/>
+    <col min="11012" max="11012" width="15.140625" style="13" customWidth="1"/>
+    <col min="11013" max="11013" width="17.85546875" style="13" customWidth="1"/>
+    <col min="11014" max="11014" width="19.85546875" style="13" customWidth="1"/>
+    <col min="11015" max="11015" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11016" max="11016" width="14.140625" style="13" customWidth="1"/>
+    <col min="11017" max="11017" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11018" max="11018" width="16.140625" style="13" customWidth="1"/>
+    <col min="11019" max="11019" width="26.42578125" style="13" customWidth="1"/>
+    <col min="11020" max="11265" width="9.140625" style="13"/>
+    <col min="11266" max="11266" width="27.7109375" style="13" customWidth="1"/>
+    <col min="11267" max="11267" width="15.28515625" style="13" customWidth="1"/>
+    <col min="11268" max="11268" width="15.140625" style="13" customWidth="1"/>
+    <col min="11269" max="11269" width="17.85546875" style="13" customWidth="1"/>
+    <col min="11270" max="11270" width="19.85546875" style="13" customWidth="1"/>
+    <col min="11271" max="11271" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11272" max="11272" width="14.140625" style="13" customWidth="1"/>
+    <col min="11273" max="11273" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11274" max="11274" width="16.140625" style="13" customWidth="1"/>
+    <col min="11275" max="11275" width="26.42578125" style="13" customWidth="1"/>
+    <col min="11276" max="11521" width="9.140625" style="13"/>
+    <col min="11522" max="11522" width="27.7109375" style="13" customWidth="1"/>
+    <col min="11523" max="11523" width="15.28515625" style="13" customWidth="1"/>
+    <col min="11524" max="11524" width="15.140625" style="13" customWidth="1"/>
+    <col min="11525" max="11525" width="17.85546875" style="13" customWidth="1"/>
+    <col min="11526" max="11526" width="19.85546875" style="13" customWidth="1"/>
+    <col min="11527" max="11527" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11528" max="11528" width="14.140625" style="13" customWidth="1"/>
+    <col min="11529" max="11529" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11530" max="11530" width="16.140625" style="13" customWidth="1"/>
+    <col min="11531" max="11531" width="26.42578125" style="13" customWidth="1"/>
+    <col min="11532" max="11777" width="9.140625" style="13"/>
+    <col min="11778" max="11778" width="27.7109375" style="13" customWidth="1"/>
+    <col min="11779" max="11779" width="15.28515625" style="13" customWidth="1"/>
+    <col min="11780" max="11780" width="15.140625" style="13" customWidth="1"/>
+    <col min="11781" max="11781" width="17.85546875" style="13" customWidth="1"/>
+    <col min="11782" max="11782" width="19.85546875" style="13" customWidth="1"/>
+    <col min="11783" max="11783" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11784" max="11784" width="14.140625" style="13" customWidth="1"/>
+    <col min="11785" max="11785" width="14.85546875" style="13" customWidth="1"/>
+    <col min="11786" max="11786" width="16.140625" style="13" customWidth="1"/>
+    <col min="11787" max="11787" width="26.42578125" style="13" customWidth="1"/>
+    <col min="11788" max="12033" width="9.140625" style="13"/>
+    <col min="12034" max="12034" width="27.7109375" style="13" customWidth="1"/>
+    <col min="12035" max="12035" width="15.28515625" style="13" customWidth="1"/>
+    <col min="12036" max="12036" width="15.140625" style="13" customWidth="1"/>
+    <col min="12037" max="12037" width="17.85546875" style="13" customWidth="1"/>
+    <col min="12038" max="12038" width="19.85546875" style="13" customWidth="1"/>
+    <col min="12039" max="12039" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12040" max="12040" width="14.140625" style="13" customWidth="1"/>
+    <col min="12041" max="12041" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12042" max="12042" width="16.140625" style="13" customWidth="1"/>
+    <col min="12043" max="12043" width="26.42578125" style="13" customWidth="1"/>
+    <col min="12044" max="12289" width="9.140625" style="13"/>
+    <col min="12290" max="12290" width="27.7109375" style="13" customWidth="1"/>
+    <col min="12291" max="12291" width="15.28515625" style="13" customWidth="1"/>
+    <col min="12292" max="12292" width="15.140625" style="13" customWidth="1"/>
+    <col min="12293" max="12293" width="17.85546875" style="13" customWidth="1"/>
+    <col min="12294" max="12294" width="19.85546875" style="13" customWidth="1"/>
+    <col min="12295" max="12295" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12296" max="12296" width="14.140625" style="13" customWidth="1"/>
+    <col min="12297" max="12297" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12298" max="12298" width="16.140625" style="13" customWidth="1"/>
+    <col min="12299" max="12299" width="26.42578125" style="13" customWidth="1"/>
+    <col min="12300" max="12545" width="9.140625" style="13"/>
+    <col min="12546" max="12546" width="27.7109375" style="13" customWidth="1"/>
+    <col min="12547" max="12547" width="15.28515625" style="13" customWidth="1"/>
+    <col min="12548" max="12548" width="15.140625" style="13" customWidth="1"/>
+    <col min="12549" max="12549" width="17.85546875" style="13" customWidth="1"/>
+    <col min="12550" max="12550" width="19.85546875" style="13" customWidth="1"/>
+    <col min="12551" max="12551" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12552" max="12552" width="14.140625" style="13" customWidth="1"/>
+    <col min="12553" max="12553" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12554" max="12554" width="16.140625" style="13" customWidth="1"/>
+    <col min="12555" max="12555" width="26.42578125" style="13" customWidth="1"/>
+    <col min="12556" max="12801" width="9.140625" style="13"/>
+    <col min="12802" max="12802" width="27.7109375" style="13" customWidth="1"/>
+    <col min="12803" max="12803" width="15.28515625" style="13" customWidth="1"/>
+    <col min="12804" max="12804" width="15.140625" style="13" customWidth="1"/>
+    <col min="12805" max="12805" width="17.85546875" style="13" customWidth="1"/>
+    <col min="12806" max="12806" width="19.85546875" style="13" customWidth="1"/>
+    <col min="12807" max="12807" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12808" max="12808" width="14.140625" style="13" customWidth="1"/>
+    <col min="12809" max="12809" width="14.85546875" style="13" customWidth="1"/>
+    <col min="12810" max="12810" width="16.140625" style="13" customWidth="1"/>
+    <col min="12811" max="12811" width="26.42578125" style="13" customWidth="1"/>
+    <col min="12812" max="13057" width="9.140625" style="13"/>
+    <col min="13058" max="13058" width="27.7109375" style="13" customWidth="1"/>
+    <col min="13059" max="13059" width="15.28515625" style="13" customWidth="1"/>
+    <col min="13060" max="13060" width="15.140625" style="13" customWidth="1"/>
+    <col min="13061" max="13061" width="17.85546875" style="13" customWidth="1"/>
+    <col min="13062" max="13062" width="19.85546875" style="13" customWidth="1"/>
+    <col min="13063" max="13063" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13064" max="13064" width="14.140625" style="13" customWidth="1"/>
+    <col min="13065" max="13065" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13066" max="13066" width="16.140625" style="13" customWidth="1"/>
+    <col min="13067" max="13067" width="26.42578125" style="13" customWidth="1"/>
+    <col min="13068" max="13313" width="9.140625" style="13"/>
+    <col min="13314" max="13314" width="27.7109375" style="13" customWidth="1"/>
+    <col min="13315" max="13315" width="15.28515625" style="13" customWidth="1"/>
+    <col min="13316" max="13316" width="15.140625" style="13" customWidth="1"/>
+    <col min="13317" max="13317" width="17.85546875" style="13" customWidth="1"/>
+    <col min="13318" max="13318" width="19.85546875" style="13" customWidth="1"/>
+    <col min="13319" max="13319" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13320" max="13320" width="14.140625" style="13" customWidth="1"/>
+    <col min="13321" max="13321" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13322" max="13322" width="16.140625" style="13" customWidth="1"/>
+    <col min="13323" max="13323" width="26.42578125" style="13" customWidth="1"/>
+    <col min="13324" max="13569" width="9.140625" style="13"/>
+    <col min="13570" max="13570" width="27.7109375" style="13" customWidth="1"/>
+    <col min="13571" max="13571" width="15.28515625" style="13" customWidth="1"/>
+    <col min="13572" max="13572" width="15.140625" style="13" customWidth="1"/>
+    <col min="13573" max="13573" width="17.85546875" style="13" customWidth="1"/>
+    <col min="13574" max="13574" width="19.85546875" style="13" customWidth="1"/>
+    <col min="13575" max="13575" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13576" max="13576" width="14.140625" style="13" customWidth="1"/>
+    <col min="13577" max="13577" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13578" max="13578" width="16.140625" style="13" customWidth="1"/>
+    <col min="13579" max="13579" width="26.42578125" style="13" customWidth="1"/>
+    <col min="13580" max="13825" width="9.140625" style="13"/>
+    <col min="13826" max="13826" width="27.7109375" style="13" customWidth="1"/>
+    <col min="13827" max="13827" width="15.28515625" style="13" customWidth="1"/>
+    <col min="13828" max="13828" width="15.140625" style="13" customWidth="1"/>
+    <col min="13829" max="13829" width="17.85546875" style="13" customWidth="1"/>
+    <col min="13830" max="13830" width="19.85546875" style="13" customWidth="1"/>
+    <col min="13831" max="13831" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13832" max="13832" width="14.140625" style="13" customWidth="1"/>
+    <col min="13833" max="13833" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13834" max="13834" width="16.140625" style="13" customWidth="1"/>
+    <col min="13835" max="13835" width="26.42578125" style="13" customWidth="1"/>
+    <col min="13836" max="14081" width="9.140625" style="13"/>
+    <col min="14082" max="14082" width="27.7109375" style="13" customWidth="1"/>
+    <col min="14083" max="14083" width="15.28515625" style="13" customWidth="1"/>
+    <col min="14084" max="14084" width="15.140625" style="13" customWidth="1"/>
+    <col min="14085" max="14085" width="17.85546875" style="13" customWidth="1"/>
+    <col min="14086" max="14086" width="19.85546875" style="13" customWidth="1"/>
+    <col min="14087" max="14087" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14088" max="14088" width="14.140625" style="13" customWidth="1"/>
+    <col min="14089" max="14089" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14090" max="14090" width="16.140625" style="13" customWidth="1"/>
+    <col min="14091" max="14091" width="26.42578125" style="13" customWidth="1"/>
+    <col min="14092" max="14337" width="9.140625" style="13"/>
+    <col min="14338" max="14338" width="27.7109375" style="13" customWidth="1"/>
+    <col min="14339" max="14339" width="15.28515625" style="13" customWidth="1"/>
+    <col min="14340" max="14340" width="15.140625" style="13" customWidth="1"/>
+    <col min="14341" max="14341" width="17.85546875" style="13" customWidth="1"/>
+    <col min="14342" max="14342" width="19.85546875" style="13" customWidth="1"/>
+    <col min="14343" max="14343" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14344" max="14344" width="14.140625" style="13" customWidth="1"/>
+    <col min="14345" max="14345" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14346" max="14346" width="16.140625" style="13" customWidth="1"/>
+    <col min="14347" max="14347" width="26.42578125" style="13" customWidth="1"/>
+    <col min="14348" max="14593" width="9.140625" style="13"/>
+    <col min="14594" max="14594" width="27.7109375" style="13" customWidth="1"/>
+    <col min="14595" max="14595" width="15.28515625" style="13" customWidth="1"/>
+    <col min="14596" max="14596" width="15.140625" style="13" customWidth="1"/>
+    <col min="14597" max="14597" width="17.85546875" style="13" customWidth="1"/>
+    <col min="14598" max="14598" width="19.85546875" style="13" customWidth="1"/>
+    <col min="14599" max="14599" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14600" max="14600" width="14.140625" style="13" customWidth="1"/>
+    <col min="14601" max="14601" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14602" max="14602" width="16.140625" style="13" customWidth="1"/>
+    <col min="14603" max="14603" width="26.42578125" style="13" customWidth="1"/>
+    <col min="14604" max="14849" width="9.140625" style="13"/>
+    <col min="14850" max="14850" width="27.7109375" style="13" customWidth="1"/>
+    <col min="14851" max="14851" width="15.28515625" style="13" customWidth="1"/>
+    <col min="14852" max="14852" width="15.140625" style="13" customWidth="1"/>
+    <col min="14853" max="14853" width="17.85546875" style="13" customWidth="1"/>
+    <col min="14854" max="14854" width="19.85546875" style="13" customWidth="1"/>
+    <col min="14855" max="14855" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14856" max="14856" width="14.140625" style="13" customWidth="1"/>
+    <col min="14857" max="14857" width="14.85546875" style="13" customWidth="1"/>
+    <col min="14858" max="14858" width="16.140625" style="13" customWidth="1"/>
+    <col min="14859" max="14859" width="26.42578125" style="13" customWidth="1"/>
+    <col min="14860" max="15105" width="9.140625" style="13"/>
+    <col min="15106" max="15106" width="27.7109375" style="13" customWidth="1"/>
+    <col min="15107" max="15107" width="15.28515625" style="13" customWidth="1"/>
+    <col min="15108" max="15108" width="15.140625" style="13" customWidth="1"/>
+    <col min="15109" max="15109" width="17.85546875" style="13" customWidth="1"/>
+    <col min="15110" max="15110" width="19.85546875" style="13" customWidth="1"/>
+    <col min="15111" max="15111" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15112" max="15112" width="14.140625" style="13" customWidth="1"/>
+    <col min="15113" max="15113" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15114" max="15114" width="16.140625" style="13" customWidth="1"/>
+    <col min="15115" max="15115" width="26.42578125" style="13" customWidth="1"/>
+    <col min="15116" max="15361" width="9.140625" style="13"/>
+    <col min="15362" max="15362" width="27.7109375" style="13" customWidth="1"/>
+    <col min="15363" max="15363" width="15.28515625" style="13" customWidth="1"/>
+    <col min="15364" max="15364" width="15.140625" style="13" customWidth="1"/>
+    <col min="15365" max="15365" width="17.85546875" style="13" customWidth="1"/>
+    <col min="15366" max="15366" width="19.85546875" style="13" customWidth="1"/>
+    <col min="15367" max="15367" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15368" max="15368" width="14.140625" style="13" customWidth="1"/>
+    <col min="15369" max="15369" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15370" max="15370" width="16.140625" style="13" customWidth="1"/>
+    <col min="15371" max="15371" width="26.42578125" style="13" customWidth="1"/>
+    <col min="15372" max="15617" width="9.140625" style="13"/>
+    <col min="15618" max="15618" width="27.7109375" style="13" customWidth="1"/>
+    <col min="15619" max="15619" width="15.28515625" style="13" customWidth="1"/>
+    <col min="15620" max="15620" width="15.140625" style="13" customWidth="1"/>
+    <col min="15621" max="15621" width="17.85546875" style="13" customWidth="1"/>
+    <col min="15622" max="15622" width="19.85546875" style="13" customWidth="1"/>
+    <col min="15623" max="15623" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15624" max="15624" width="14.140625" style="13" customWidth="1"/>
+    <col min="15625" max="15625" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15626" max="15626" width="16.140625" style="13" customWidth="1"/>
+    <col min="15627" max="15627" width="26.42578125" style="13" customWidth="1"/>
+    <col min="15628" max="15873" width="9.140625" style="13"/>
+    <col min="15874" max="15874" width="27.7109375" style="13" customWidth="1"/>
+    <col min="15875" max="15875" width="15.28515625" style="13" customWidth="1"/>
+    <col min="15876" max="15876" width="15.140625" style="13" customWidth="1"/>
+    <col min="15877" max="15877" width="17.85546875" style="13" customWidth="1"/>
+    <col min="15878" max="15878" width="19.85546875" style="13" customWidth="1"/>
+    <col min="15879" max="15879" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15880" max="15880" width="14.140625" style="13" customWidth="1"/>
+    <col min="15881" max="15881" width="14.85546875" style="13" customWidth="1"/>
+    <col min="15882" max="15882" width="16.140625" style="13" customWidth="1"/>
+    <col min="15883" max="15883" width="26.42578125" style="13" customWidth="1"/>
+    <col min="15884" max="16129" width="9.140625" style="13"/>
+    <col min="16130" max="16130" width="27.7109375" style="13" customWidth="1"/>
+    <col min="16131" max="16131" width="15.28515625" style="13" customWidth="1"/>
+    <col min="16132" max="16132" width="15.140625" style="13" customWidth="1"/>
+    <col min="16133" max="16133" width="17.85546875" style="13" customWidth="1"/>
+    <col min="16134" max="16134" width="19.85546875" style="13" customWidth="1"/>
+    <col min="16135" max="16135" width="14.85546875" style="13" customWidth="1"/>
+    <col min="16136" max="16136" width="14.140625" style="13" customWidth="1"/>
+    <col min="16137" max="16137" width="14.85546875" style="13" customWidth="1"/>
+    <col min="16138" max="16138" width="16.140625" style="13" customWidth="1"/>
+    <col min="16139" max="16139" width="26.42578125" style="13" customWidth="1"/>
+    <col min="16140" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="9"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:12" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>41907</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17">
+      <c r="E3" s="18"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <v>9555382729</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>6000</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>100</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64">
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" s="68" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="63">
         <v>41924</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="66">
         <v>9999405538</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="61">
         <v>7000</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="61">
         <v>500</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="65" t="s">
         <v>432</v>
       </c>
-      <c r="L4" s="70"/>
-    </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="L4" s="67"/>
+    </row>
+    <row r="5" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="31">
         <v>41947</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>9650182218</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="29">
         <v>5500</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="29">
         <v>5500</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" s="28" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>41947</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>9716027793</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <v>5500</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>1500</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="31">
         <v>41907</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>9891085793</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="29">
         <v>4000</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="29">
         <v>1000</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="31">
         <v>41947</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>9350215064</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>9000</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="29">
         <v>1000</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="31">
         <v>41952</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36">
+      <c r="E9" s="30"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34">
         <v>9136791828</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="29">
         <v>1000</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="29">
         <v>1000</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="31">
         <v>41964</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36">
+      <c r="E10" s="30"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34">
         <v>8800556120</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="29">
         <v>850</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="29">
         <v>850</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="29"/>
+      <c r="K10" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" s="37" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="31">
         <v>41964</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>9958911395</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="29">
         <v>3000</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="29">
         <v>3000</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="31">
         <v>41971</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="1:12" s="28" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>41964</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <v>8527336673</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>7500</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>3000</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="41" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>41947</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>8287222934</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>8000</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>100</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>41947</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>7042060502</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>10000</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>0</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="20" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" s="28" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <v>41983</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28">
+      <c r="F15" s="26"/>
+      <c r="G15" s="26">
         <v>8287414627</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="21">
         <v>4000</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>1000</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="68" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="65" t="s">
         <v>432</v>
       </c>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="31">
         <v>41980</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="31">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="29">
         <v>4500</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="29">
         <v>1500</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="37" t="s">
+      <c r="J16" s="29"/>
+      <c r="K16" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <v>41985</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="29">
         <v>5800</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="29">
         <v>5800</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="37" t="s">
+      <c r="J17" s="29"/>
+      <c r="K17" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" s="45" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="43">
         <v>41987</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="41">
         <v>4000</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="41">
         <v>4000</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="37" t="s">
+      <c r="J18" s="41"/>
+      <c r="K18" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="L18" s="44"/>
+    </row>
+    <row r="19" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <v>19</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="31">
         <v>42020</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="29">
         <v>3000</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="29">
         <v>3000</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="37" t="s">
+      <c r="J19" s="29"/>
+      <c r="K19" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-    </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="1:12" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="1:12" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7269,1490 +7265,1644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="84.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" s="77" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="77" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="51"/>
+      <c r="D2" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="54" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="54" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="74" t="s">
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="71" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="71" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="71" t="s">
         <v>472</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="60" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+    <row r="36" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="74" t="s">
+    <row r="42" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="71" t="s">
         <v>475</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="74" t="s">
+    <row r="44" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="71" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="57" t="s">
+    <row r="46" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="54" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="55"/>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="51"/>
     </row>
     <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="52" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="51" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="51" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="51" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="51" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="51" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="51" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="51" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="51" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="51" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="51" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="51" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="51" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="51" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="51" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="51" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="51" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="51" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="51" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="51" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="51" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="51" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="51"/>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="52" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="51" t="s">
         <v>488</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="13" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="57" t="s">
+    <row r="84" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="54" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="51" t="s">
         <v>495</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="57" t="s">
+    <row r="86" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="54" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="51" t="s">
         <v>497</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="13" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="13" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="13" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="51" t="s">
         <v>501</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="13" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="57" t="s">
+    <row r="94" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="54" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="13" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="13" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="57" t="s">
+    <row r="98" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="54" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="13" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="57" t="s">
+    <row r="101" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="54" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="13" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="51" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
+      <c r="A104" s="51"/>
     </row>
     <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="52" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="54" t="s">
+      <c r="A107" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="13" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="13" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="51" t="s">
         <v>527</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="13" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="51" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="54" t="s">
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="51" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="54" t="s">
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="51" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="54" t="s">
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="51" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="54" t="s">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="51" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="54" t="s">
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="51" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="54" t="s">
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="51" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="54" t="s">
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="51" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
-    </row>
-    <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="55" t="s">
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="51"/>
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="52" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="54" t="s">
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="51" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="54" t="s">
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="51" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="54" t="s">
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="51" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="54" t="s">
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="51" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="54" t="s">
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="51" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="54" t="s">
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="51" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="54" t="s">
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="51" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="54" t="s">
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="51" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="54" t="s">
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="51" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="54" t="s">
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="51" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="54" t="s">
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="51" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="54" t="s">
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="51" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="54" t="s">
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="51" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="54" t="s">
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="51" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="54" t="s">
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="51" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="54" t="s">
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="51" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="54" t="s">
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="51" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="54" t="s">
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="51" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="54" t="s">
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="51" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="54" t="s">
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="51" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="54" t="s">
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="51" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="54" t="s">
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="51" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="54" t="s">
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="51" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="54" t="s">
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="51" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="54" t="s">
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="51" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="54" t="s">
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="51" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="54" t="s">
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="51" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="54" t="s">
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="51" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="54" t="s">
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="51" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="54" t="s">
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="51" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="54"/>
-    </row>
-    <row r="153" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="55" t="s">
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="51"/>
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="52" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="54" t="s">
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="51" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="54" t="s">
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="51" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="54" t="s">
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="51" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="54" t="s">
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="51" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="54" t="s">
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="51" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="54" t="s">
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="51" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="54" t="s">
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="51" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="55" t="s">
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="52" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="54" t="s">
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="51" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="54" t="s">
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="51" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="54" t="s">
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="51" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="54" t="s">
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="51" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="54" t="s">
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="51" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="54" t="s">
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="51" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="54" t="s">
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="51" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="54" t="s">
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="51" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="54" t="s">
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="51" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="54" t="s">
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="51" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="54" t="s">
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="51" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="54" t="s">
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="51" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="54" t="s">
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="51" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="54" t="s">
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="51" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="54" t="s">
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="51" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="54" t="s">
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="51" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="54" t="s">
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="51" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="54" t="s">
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="51" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="54" t="s">
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="51" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="54" t="s">
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="51" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="54" t="s">
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="51" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="54" t="s">
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="51" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="54" t="s">
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="51" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="54" t="s">
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="51" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="54" t="s">
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="51" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="54" t="s">
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="51" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="54" t="s">
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="51" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="54" t="s">
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="51" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="54" t="s">
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="51" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="54" t="s">
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="51" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="54" t="s">
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="51" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="54" t="s">
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="51" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="54" t="s">
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="51" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="54" t="s">
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="51" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="54"/>
-    </row>
-    <row r="197" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="55" t="s">
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="51"/>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A197" s="52" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="54" t="s">
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="51" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="54" t="s">
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="51" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="54" t="s">
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="51" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="54" t="s">
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="54" t="s">
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="54" t="s">
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="51" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="54" t="s">
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="51" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="54" t="s">
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="51" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="54" t="s">
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="51" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="54"/>
-    </row>
-    <row r="208" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="55" t="s">
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="51"/>
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="52" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="54" t="s">
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="51" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="54" t="s">
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="51" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="54" t="s">
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="51" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A212" s="54" t="s">
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A212" s="51" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="54"/>
-    </row>
-    <row r="214" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="55" t="s">
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A213" s="51"/>
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="52" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="54" t="s">
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" s="51" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="54" t="s">
+      <c r="C215" s="8"/>
+    </row>
+    <row r="216" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="51" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="54"/>
-    </row>
-    <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="55" t="s">
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="51"/>
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="52" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="54" t="s">
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" s="51" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="54" t="s">
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="51" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="54" t="s">
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="51" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="54" t="s">
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" s="51" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="54" t="s">
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="51" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="54" t="s">
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A224" s="51" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="54" t="s">
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A225" s="51" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="54" t="s">
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A226" s="51" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="54" t="s">
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A227" s="51" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="54"/>
-    </row>
-    <row r="229" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="55" t="s">
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="51"/>
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="52" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="54" t="s">
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A230" s="51" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="54"/>
-    </row>
-    <row r="232" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="55" t="s">
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="51"/>
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="52" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A233" s="54" t="s">
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A233" s="51" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A234" s="54" t="s">
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="51" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="55" t="s">
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="52" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="56" t="s">
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="53" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="56" t="s">
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="53" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="56" t="s">
+      <c r="C238" s="8"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="53" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="56" t="s">
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="53" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="56" t="s">
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="53" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="56" t="s">
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="53" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="55" t="s">
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="52" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="55" t="s">
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="52" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="55" t="s">
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="52" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="59" t="s">
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="56" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="59" t="s">
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="56" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="59" t="s">
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="56" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="59" t="s">
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="56" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="59" t="s">
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="56" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="60" t="s">
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="57" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="59" t="s">
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="56" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="59" t="s">
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="56" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="59" t="s">
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="56" t="s">
         <v>397</v>
       </c>
+      <c r="C257" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="541">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -47,12 +47,6 @@
     <t>Embedded Training</t>
   </si>
   <si>
-    <t>1300/-</t>
-  </si>
-  <si>
-    <t>5000/-</t>
-  </si>
-  <si>
     <t>College Name</t>
   </si>
   <si>
@@ -251,13 +245,7 @@
     <t>20/-</t>
   </si>
   <si>
-    <t>200+1000/-</t>
-  </si>
-  <si>
     <t>Payment Date</t>
-  </si>
-  <si>
-    <t>21st Jan, 24th Jan</t>
   </si>
   <si>
     <t>Given to Sachin</t>
@@ -4015,12 +4003,24 @@
   <si>
     <t>naazikrima@yahoo.in</t>
   </si>
+  <si>
+    <t>200+1000+1000</t>
+  </si>
+  <si>
+    <t>21st Jan, 24th Jan, 3Feb</t>
+  </si>
+  <si>
+    <t>amar</t>
+  </si>
+  <si>
+    <t>SOLDERING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4085,12 +4085,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4230,24 +4236,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4259,27 +4267,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4289,9 +4280,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
@@ -4314,62 +4302,8 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4388,22 +4322,96 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4466,7 +4474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4498,10 +4506,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4533,7 +4540,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4709,122 +4715,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12" style="58" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="58"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="61" customFormat="1">
+      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="61">
         <v>9540890120</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="61">
+        <v>1300</v>
+      </c>
+      <c r="G2" s="61">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="62">
+        <v>42016</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="59">
-        <v>42016</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3">
         <v>8287842670</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="2">
         <v>42025</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4836,457 +4841,472 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="58"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2">
         <v>9675253719</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
       </c>
       <c r="B3">
         <v>8377051116</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>9958268426</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
       </c>
       <c r="B5">
         <v>9958268426</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
       </c>
       <c r="B6">
         <v>9810791696</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
       </c>
       <c r="B7">
         <v>9711022937</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>9711307409</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>9540364146</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>108</v>
+      <c r="C9" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>26</v>
+      <c r="G9" t="s">
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>399</v>
+      <c r="C10" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>41</v>
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="72" customFormat="1">
+      <c r="A12" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="72">
+        <v>9871310918</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" s="72" t="s">
         <v>403</v>
       </c>
-      <c r="D11" t="s">
-        <v>404</v>
-      </c>
-      <c r="E11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>405</v>
-      </c>
-      <c r="B12" s="69">
-        <v>9871310918</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="69" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>422</v>
+      <c r="C13" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>423</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>446</v>
+        <v>419</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>442</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>444</v>
+      <c r="C14" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>33</v>
+        <v>419</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="72">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="76" customFormat="1">
+      <c r="A15" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="76">
         <v>9711022937</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>517</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>518</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>516</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>519</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>532</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="C15" s="77" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="G15" s="76" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="74">
+      <c r="H15" s="76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1">
+      <c r="A16" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="B16" s="78">
         <v>9990180164</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>527</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" s="78" t="s">
         <v>529</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="H16" s="78" t="s">
+        <v>529</v>
+      </c>
+      <c r="I16" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>526</v>
-      </c>
-      <c r="G16" s="58" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>533</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>533</v>
-      </c>
-      <c r="I16" s="74" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>537</v>
       </c>
       <c r="B17">
         <v>9210036786</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D17" t="s">
+        <v>534</v>
+      </c>
+      <c r="E17" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" t="s">
         <v>540</v>
       </c>
-      <c r="D17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E17" t="s">
-        <v>539</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>44</v>
+      <c r="E18" s="80">
+        <v>42038</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5311,14 +5331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5327,184 +5347,184 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
       </c>
       <c r="B2">
         <v>8826948120</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>7532986428</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
       </c>
       <c r="B4">
         <v>8471015910</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>8010669503</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>9716414833</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>9999407484</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>82</v>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>439</v>
+      <c r="C8" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>513</v>
+      <c r="C9" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="D9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5523,25 +5543,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>415</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5550,169 +5570,169 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" t="s">
         <v>408</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" s="58" t="s">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>75</v>
+        <v>532</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5721,208 +5741,208 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>450</v>
-      </c>
-      <c r="B15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>452</v>
-      </c>
-      <c r="B16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>457</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>464</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>473</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>482</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>483</v>
-      </c>
-      <c r="B22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
         <v>485</v>
-      </c>
-      <c r="B23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5931,1326 +5951,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="27.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="12"/>
-    <col min="13" max="257" width="9.140625" style="13"/>
-    <col min="258" max="258" width="27.7109375" style="13" customWidth="1"/>
-    <col min="259" max="259" width="15.28515625" style="13" customWidth="1"/>
-    <col min="260" max="260" width="15.140625" style="13" customWidth="1"/>
-    <col min="261" max="261" width="17.85546875" style="13" customWidth="1"/>
-    <col min="262" max="262" width="19.85546875" style="13" customWidth="1"/>
-    <col min="263" max="263" width="14.85546875" style="13" customWidth="1"/>
-    <col min="264" max="264" width="14.140625" style="13" customWidth="1"/>
-    <col min="265" max="265" width="14.85546875" style="13" customWidth="1"/>
-    <col min="266" max="266" width="16.140625" style="13" customWidth="1"/>
-    <col min="267" max="267" width="26.42578125" style="13" customWidth="1"/>
-    <col min="268" max="513" width="9.140625" style="13"/>
-    <col min="514" max="514" width="27.7109375" style="13" customWidth="1"/>
-    <col min="515" max="515" width="15.28515625" style="13" customWidth="1"/>
-    <col min="516" max="516" width="15.140625" style="13" customWidth="1"/>
-    <col min="517" max="517" width="17.85546875" style="13" customWidth="1"/>
-    <col min="518" max="518" width="19.85546875" style="13" customWidth="1"/>
-    <col min="519" max="519" width="14.85546875" style="13" customWidth="1"/>
-    <col min="520" max="520" width="14.140625" style="13" customWidth="1"/>
-    <col min="521" max="521" width="14.85546875" style="13" customWidth="1"/>
-    <col min="522" max="522" width="16.140625" style="13" customWidth="1"/>
-    <col min="523" max="523" width="26.42578125" style="13" customWidth="1"/>
-    <col min="524" max="769" width="9.140625" style="13"/>
-    <col min="770" max="770" width="27.7109375" style="13" customWidth="1"/>
-    <col min="771" max="771" width="15.28515625" style="13" customWidth="1"/>
-    <col min="772" max="772" width="15.140625" style="13" customWidth="1"/>
-    <col min="773" max="773" width="17.85546875" style="13" customWidth="1"/>
-    <col min="774" max="774" width="19.85546875" style="13" customWidth="1"/>
-    <col min="775" max="775" width="14.85546875" style="13" customWidth="1"/>
-    <col min="776" max="776" width="14.140625" style="13" customWidth="1"/>
-    <col min="777" max="777" width="14.85546875" style="13" customWidth="1"/>
-    <col min="778" max="778" width="16.140625" style="13" customWidth="1"/>
-    <col min="779" max="779" width="26.42578125" style="13" customWidth="1"/>
-    <col min="780" max="1025" width="9.140625" style="13"/>
-    <col min="1026" max="1026" width="27.7109375" style="13" customWidth="1"/>
-    <col min="1027" max="1027" width="15.28515625" style="13" customWidth="1"/>
-    <col min="1028" max="1028" width="15.140625" style="13" customWidth="1"/>
-    <col min="1029" max="1029" width="17.85546875" style="13" customWidth="1"/>
-    <col min="1030" max="1030" width="19.85546875" style="13" customWidth="1"/>
-    <col min="1031" max="1031" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1032" max="1032" width="14.140625" style="13" customWidth="1"/>
-    <col min="1033" max="1033" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1034" max="1034" width="16.140625" style="13" customWidth="1"/>
-    <col min="1035" max="1035" width="26.42578125" style="13" customWidth="1"/>
-    <col min="1036" max="1281" width="9.140625" style="13"/>
-    <col min="1282" max="1282" width="27.7109375" style="13" customWidth="1"/>
-    <col min="1283" max="1283" width="15.28515625" style="13" customWidth="1"/>
-    <col min="1284" max="1284" width="15.140625" style="13" customWidth="1"/>
-    <col min="1285" max="1285" width="17.85546875" style="13" customWidth="1"/>
-    <col min="1286" max="1286" width="19.85546875" style="13" customWidth="1"/>
-    <col min="1287" max="1287" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1288" max="1288" width="14.140625" style="13" customWidth="1"/>
-    <col min="1289" max="1289" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1290" max="1290" width="16.140625" style="13" customWidth="1"/>
-    <col min="1291" max="1291" width="26.42578125" style="13" customWidth="1"/>
-    <col min="1292" max="1537" width="9.140625" style="13"/>
-    <col min="1538" max="1538" width="27.7109375" style="13" customWidth="1"/>
-    <col min="1539" max="1539" width="15.28515625" style="13" customWidth="1"/>
-    <col min="1540" max="1540" width="15.140625" style="13" customWidth="1"/>
-    <col min="1541" max="1541" width="17.85546875" style="13" customWidth="1"/>
-    <col min="1542" max="1542" width="19.85546875" style="13" customWidth="1"/>
-    <col min="1543" max="1543" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1544" max="1544" width="14.140625" style="13" customWidth="1"/>
-    <col min="1545" max="1545" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1546" max="1546" width="16.140625" style="13" customWidth="1"/>
-    <col min="1547" max="1547" width="26.42578125" style="13" customWidth="1"/>
-    <col min="1548" max="1793" width="9.140625" style="13"/>
-    <col min="1794" max="1794" width="27.7109375" style="13" customWidth="1"/>
-    <col min="1795" max="1795" width="15.28515625" style="13" customWidth="1"/>
-    <col min="1796" max="1796" width="15.140625" style="13" customWidth="1"/>
-    <col min="1797" max="1797" width="17.85546875" style="13" customWidth="1"/>
-    <col min="1798" max="1798" width="19.85546875" style="13" customWidth="1"/>
-    <col min="1799" max="1799" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1800" max="1800" width="14.140625" style="13" customWidth="1"/>
-    <col min="1801" max="1801" width="14.85546875" style="13" customWidth="1"/>
-    <col min="1802" max="1802" width="16.140625" style="13" customWidth="1"/>
-    <col min="1803" max="1803" width="26.42578125" style="13" customWidth="1"/>
-    <col min="1804" max="2049" width="9.140625" style="13"/>
-    <col min="2050" max="2050" width="27.7109375" style="13" customWidth="1"/>
-    <col min="2051" max="2051" width="15.28515625" style="13" customWidth="1"/>
-    <col min="2052" max="2052" width="15.140625" style="13" customWidth="1"/>
-    <col min="2053" max="2053" width="17.85546875" style="13" customWidth="1"/>
-    <col min="2054" max="2054" width="19.85546875" style="13" customWidth="1"/>
-    <col min="2055" max="2055" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2056" max="2056" width="14.140625" style="13" customWidth="1"/>
-    <col min="2057" max="2057" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2058" max="2058" width="16.140625" style="13" customWidth="1"/>
-    <col min="2059" max="2059" width="26.42578125" style="13" customWidth="1"/>
-    <col min="2060" max="2305" width="9.140625" style="13"/>
-    <col min="2306" max="2306" width="27.7109375" style="13" customWidth="1"/>
-    <col min="2307" max="2307" width="15.28515625" style="13" customWidth="1"/>
-    <col min="2308" max="2308" width="15.140625" style="13" customWidth="1"/>
-    <col min="2309" max="2309" width="17.85546875" style="13" customWidth="1"/>
-    <col min="2310" max="2310" width="19.85546875" style="13" customWidth="1"/>
-    <col min="2311" max="2311" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2312" max="2312" width="14.140625" style="13" customWidth="1"/>
-    <col min="2313" max="2313" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2314" max="2314" width="16.140625" style="13" customWidth="1"/>
-    <col min="2315" max="2315" width="26.42578125" style="13" customWidth="1"/>
-    <col min="2316" max="2561" width="9.140625" style="13"/>
-    <col min="2562" max="2562" width="27.7109375" style="13" customWidth="1"/>
-    <col min="2563" max="2563" width="15.28515625" style="13" customWidth="1"/>
-    <col min="2564" max="2564" width="15.140625" style="13" customWidth="1"/>
-    <col min="2565" max="2565" width="17.85546875" style="13" customWidth="1"/>
-    <col min="2566" max="2566" width="19.85546875" style="13" customWidth="1"/>
-    <col min="2567" max="2567" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2568" max="2568" width="14.140625" style="13" customWidth="1"/>
-    <col min="2569" max="2569" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2570" max="2570" width="16.140625" style="13" customWidth="1"/>
-    <col min="2571" max="2571" width="26.42578125" style="13" customWidth="1"/>
-    <col min="2572" max="2817" width="9.140625" style="13"/>
-    <col min="2818" max="2818" width="27.7109375" style="13" customWidth="1"/>
-    <col min="2819" max="2819" width="15.28515625" style="13" customWidth="1"/>
-    <col min="2820" max="2820" width="15.140625" style="13" customWidth="1"/>
-    <col min="2821" max="2821" width="17.85546875" style="13" customWidth="1"/>
-    <col min="2822" max="2822" width="19.85546875" style="13" customWidth="1"/>
-    <col min="2823" max="2823" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2824" max="2824" width="14.140625" style="13" customWidth="1"/>
-    <col min="2825" max="2825" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2826" max="2826" width="16.140625" style="13" customWidth="1"/>
-    <col min="2827" max="2827" width="26.42578125" style="13" customWidth="1"/>
-    <col min="2828" max="3073" width="9.140625" style="13"/>
-    <col min="3074" max="3074" width="27.7109375" style="13" customWidth="1"/>
-    <col min="3075" max="3075" width="15.28515625" style="13" customWidth="1"/>
-    <col min="3076" max="3076" width="15.140625" style="13" customWidth="1"/>
-    <col min="3077" max="3077" width="17.85546875" style="13" customWidth="1"/>
-    <col min="3078" max="3078" width="19.85546875" style="13" customWidth="1"/>
-    <col min="3079" max="3079" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3080" max="3080" width="14.140625" style="13" customWidth="1"/>
-    <col min="3081" max="3081" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3082" max="3082" width="16.140625" style="13" customWidth="1"/>
-    <col min="3083" max="3083" width="26.42578125" style="13" customWidth="1"/>
-    <col min="3084" max="3329" width="9.140625" style="13"/>
-    <col min="3330" max="3330" width="27.7109375" style="13" customWidth="1"/>
-    <col min="3331" max="3331" width="15.28515625" style="13" customWidth="1"/>
-    <col min="3332" max="3332" width="15.140625" style="13" customWidth="1"/>
-    <col min="3333" max="3333" width="17.85546875" style="13" customWidth="1"/>
-    <col min="3334" max="3334" width="19.85546875" style="13" customWidth="1"/>
-    <col min="3335" max="3335" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3336" max="3336" width="14.140625" style="13" customWidth="1"/>
-    <col min="3337" max="3337" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3338" max="3338" width="16.140625" style="13" customWidth="1"/>
-    <col min="3339" max="3339" width="26.42578125" style="13" customWidth="1"/>
-    <col min="3340" max="3585" width="9.140625" style="13"/>
-    <col min="3586" max="3586" width="27.7109375" style="13" customWidth="1"/>
-    <col min="3587" max="3587" width="15.28515625" style="13" customWidth="1"/>
-    <col min="3588" max="3588" width="15.140625" style="13" customWidth="1"/>
-    <col min="3589" max="3589" width="17.85546875" style="13" customWidth="1"/>
-    <col min="3590" max="3590" width="19.85546875" style="13" customWidth="1"/>
-    <col min="3591" max="3591" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3592" max="3592" width="14.140625" style="13" customWidth="1"/>
-    <col min="3593" max="3593" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3594" max="3594" width="16.140625" style="13" customWidth="1"/>
-    <col min="3595" max="3595" width="26.42578125" style="13" customWidth="1"/>
-    <col min="3596" max="3841" width="9.140625" style="13"/>
-    <col min="3842" max="3842" width="27.7109375" style="13" customWidth="1"/>
-    <col min="3843" max="3843" width="15.28515625" style="13" customWidth="1"/>
-    <col min="3844" max="3844" width="15.140625" style="13" customWidth="1"/>
-    <col min="3845" max="3845" width="17.85546875" style="13" customWidth="1"/>
-    <col min="3846" max="3846" width="19.85546875" style="13" customWidth="1"/>
-    <col min="3847" max="3847" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3848" max="3848" width="14.140625" style="13" customWidth="1"/>
-    <col min="3849" max="3849" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3850" max="3850" width="16.140625" style="13" customWidth="1"/>
-    <col min="3851" max="3851" width="26.42578125" style="13" customWidth="1"/>
-    <col min="3852" max="4097" width="9.140625" style="13"/>
-    <col min="4098" max="4098" width="27.7109375" style="13" customWidth="1"/>
-    <col min="4099" max="4099" width="15.28515625" style="13" customWidth="1"/>
-    <col min="4100" max="4100" width="15.140625" style="13" customWidth="1"/>
-    <col min="4101" max="4101" width="17.85546875" style="13" customWidth="1"/>
-    <col min="4102" max="4102" width="19.85546875" style="13" customWidth="1"/>
-    <col min="4103" max="4103" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4104" max="4104" width="14.140625" style="13" customWidth="1"/>
-    <col min="4105" max="4105" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4106" max="4106" width="16.140625" style="13" customWidth="1"/>
-    <col min="4107" max="4107" width="26.42578125" style="13" customWidth="1"/>
-    <col min="4108" max="4353" width="9.140625" style="13"/>
-    <col min="4354" max="4354" width="27.7109375" style="13" customWidth="1"/>
-    <col min="4355" max="4355" width="15.28515625" style="13" customWidth="1"/>
-    <col min="4356" max="4356" width="15.140625" style="13" customWidth="1"/>
-    <col min="4357" max="4357" width="17.85546875" style="13" customWidth="1"/>
-    <col min="4358" max="4358" width="19.85546875" style="13" customWidth="1"/>
-    <col min="4359" max="4359" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4360" max="4360" width="14.140625" style="13" customWidth="1"/>
-    <col min="4361" max="4361" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4362" max="4362" width="16.140625" style="13" customWidth="1"/>
-    <col min="4363" max="4363" width="26.42578125" style="13" customWidth="1"/>
-    <col min="4364" max="4609" width="9.140625" style="13"/>
-    <col min="4610" max="4610" width="27.7109375" style="13" customWidth="1"/>
-    <col min="4611" max="4611" width="15.28515625" style="13" customWidth="1"/>
-    <col min="4612" max="4612" width="15.140625" style="13" customWidth="1"/>
-    <col min="4613" max="4613" width="17.85546875" style="13" customWidth="1"/>
-    <col min="4614" max="4614" width="19.85546875" style="13" customWidth="1"/>
-    <col min="4615" max="4615" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4616" max="4616" width="14.140625" style="13" customWidth="1"/>
-    <col min="4617" max="4617" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4618" max="4618" width="16.140625" style="13" customWidth="1"/>
-    <col min="4619" max="4619" width="26.42578125" style="13" customWidth="1"/>
-    <col min="4620" max="4865" width="9.140625" style="13"/>
-    <col min="4866" max="4866" width="27.7109375" style="13" customWidth="1"/>
-    <col min="4867" max="4867" width="15.28515625" style="13" customWidth="1"/>
-    <col min="4868" max="4868" width="15.140625" style="13" customWidth="1"/>
-    <col min="4869" max="4869" width="17.85546875" style="13" customWidth="1"/>
-    <col min="4870" max="4870" width="19.85546875" style="13" customWidth="1"/>
-    <col min="4871" max="4871" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4872" max="4872" width="14.140625" style="13" customWidth="1"/>
-    <col min="4873" max="4873" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4874" max="4874" width="16.140625" style="13" customWidth="1"/>
-    <col min="4875" max="4875" width="26.42578125" style="13" customWidth="1"/>
-    <col min="4876" max="5121" width="9.140625" style="13"/>
-    <col min="5122" max="5122" width="27.7109375" style="13" customWidth="1"/>
-    <col min="5123" max="5123" width="15.28515625" style="13" customWidth="1"/>
-    <col min="5124" max="5124" width="15.140625" style="13" customWidth="1"/>
-    <col min="5125" max="5125" width="17.85546875" style="13" customWidth="1"/>
-    <col min="5126" max="5126" width="19.85546875" style="13" customWidth="1"/>
-    <col min="5127" max="5127" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5128" max="5128" width="14.140625" style="13" customWidth="1"/>
-    <col min="5129" max="5129" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5130" max="5130" width="16.140625" style="13" customWidth="1"/>
-    <col min="5131" max="5131" width="26.42578125" style="13" customWidth="1"/>
-    <col min="5132" max="5377" width="9.140625" style="13"/>
-    <col min="5378" max="5378" width="27.7109375" style="13" customWidth="1"/>
-    <col min="5379" max="5379" width="15.28515625" style="13" customWidth="1"/>
-    <col min="5380" max="5380" width="15.140625" style="13" customWidth="1"/>
-    <col min="5381" max="5381" width="17.85546875" style="13" customWidth="1"/>
-    <col min="5382" max="5382" width="19.85546875" style="13" customWidth="1"/>
-    <col min="5383" max="5383" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5384" max="5384" width="14.140625" style="13" customWidth="1"/>
-    <col min="5385" max="5385" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5386" max="5386" width="16.140625" style="13" customWidth="1"/>
-    <col min="5387" max="5387" width="26.42578125" style="13" customWidth="1"/>
-    <col min="5388" max="5633" width="9.140625" style="13"/>
-    <col min="5634" max="5634" width="27.7109375" style="13" customWidth="1"/>
-    <col min="5635" max="5635" width="15.28515625" style="13" customWidth="1"/>
-    <col min="5636" max="5636" width="15.140625" style="13" customWidth="1"/>
-    <col min="5637" max="5637" width="17.85546875" style="13" customWidth="1"/>
-    <col min="5638" max="5638" width="19.85546875" style="13" customWidth="1"/>
-    <col min="5639" max="5639" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5640" max="5640" width="14.140625" style="13" customWidth="1"/>
-    <col min="5641" max="5641" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5642" max="5642" width="16.140625" style="13" customWidth="1"/>
-    <col min="5643" max="5643" width="26.42578125" style="13" customWidth="1"/>
-    <col min="5644" max="5889" width="9.140625" style="13"/>
-    <col min="5890" max="5890" width="27.7109375" style="13" customWidth="1"/>
-    <col min="5891" max="5891" width="15.28515625" style="13" customWidth="1"/>
-    <col min="5892" max="5892" width="15.140625" style="13" customWidth="1"/>
-    <col min="5893" max="5893" width="17.85546875" style="13" customWidth="1"/>
-    <col min="5894" max="5894" width="19.85546875" style="13" customWidth="1"/>
-    <col min="5895" max="5895" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5896" max="5896" width="14.140625" style="13" customWidth="1"/>
-    <col min="5897" max="5897" width="14.85546875" style="13" customWidth="1"/>
-    <col min="5898" max="5898" width="16.140625" style="13" customWidth="1"/>
-    <col min="5899" max="5899" width="26.42578125" style="13" customWidth="1"/>
-    <col min="5900" max="6145" width="9.140625" style="13"/>
-    <col min="6146" max="6146" width="27.7109375" style="13" customWidth="1"/>
-    <col min="6147" max="6147" width="15.28515625" style="13" customWidth="1"/>
-    <col min="6148" max="6148" width="15.140625" style="13" customWidth="1"/>
-    <col min="6149" max="6149" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6150" max="6150" width="19.85546875" style="13" customWidth="1"/>
-    <col min="6151" max="6151" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6152" max="6152" width="14.140625" style="13" customWidth="1"/>
-    <col min="6153" max="6153" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6154" max="6154" width="16.140625" style="13" customWidth="1"/>
-    <col min="6155" max="6155" width="26.42578125" style="13" customWidth="1"/>
-    <col min="6156" max="6401" width="9.140625" style="13"/>
-    <col min="6402" max="6402" width="27.7109375" style="13" customWidth="1"/>
-    <col min="6403" max="6403" width="15.28515625" style="13" customWidth="1"/>
-    <col min="6404" max="6404" width="15.140625" style="13" customWidth="1"/>
-    <col min="6405" max="6405" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6406" max="6406" width="19.85546875" style="13" customWidth="1"/>
-    <col min="6407" max="6407" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6408" max="6408" width="14.140625" style="13" customWidth="1"/>
-    <col min="6409" max="6409" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6410" max="6410" width="16.140625" style="13" customWidth="1"/>
-    <col min="6411" max="6411" width="26.42578125" style="13" customWidth="1"/>
-    <col min="6412" max="6657" width="9.140625" style="13"/>
-    <col min="6658" max="6658" width="27.7109375" style="13" customWidth="1"/>
-    <col min="6659" max="6659" width="15.28515625" style="13" customWidth="1"/>
-    <col min="6660" max="6660" width="15.140625" style="13" customWidth="1"/>
-    <col min="6661" max="6661" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6662" max="6662" width="19.85546875" style="13" customWidth="1"/>
-    <col min="6663" max="6663" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6664" max="6664" width="14.140625" style="13" customWidth="1"/>
-    <col min="6665" max="6665" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6666" max="6666" width="16.140625" style="13" customWidth="1"/>
-    <col min="6667" max="6667" width="26.42578125" style="13" customWidth="1"/>
-    <col min="6668" max="6913" width="9.140625" style="13"/>
-    <col min="6914" max="6914" width="27.7109375" style="13" customWidth="1"/>
-    <col min="6915" max="6915" width="15.28515625" style="13" customWidth="1"/>
-    <col min="6916" max="6916" width="15.140625" style="13" customWidth="1"/>
-    <col min="6917" max="6917" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6918" max="6918" width="19.85546875" style="13" customWidth="1"/>
-    <col min="6919" max="6919" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6920" max="6920" width="14.140625" style="13" customWidth="1"/>
-    <col min="6921" max="6921" width="14.85546875" style="13" customWidth="1"/>
-    <col min="6922" max="6922" width="16.140625" style="13" customWidth="1"/>
-    <col min="6923" max="6923" width="26.42578125" style="13" customWidth="1"/>
-    <col min="6924" max="7169" width="9.140625" style="13"/>
-    <col min="7170" max="7170" width="27.7109375" style="13" customWidth="1"/>
-    <col min="7171" max="7171" width="15.28515625" style="13" customWidth="1"/>
-    <col min="7172" max="7172" width="15.140625" style="13" customWidth="1"/>
-    <col min="7173" max="7173" width="17.85546875" style="13" customWidth="1"/>
-    <col min="7174" max="7174" width="19.85546875" style="13" customWidth="1"/>
-    <col min="7175" max="7175" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7176" max="7176" width="14.140625" style="13" customWidth="1"/>
-    <col min="7177" max="7177" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7178" max="7178" width="16.140625" style="13" customWidth="1"/>
-    <col min="7179" max="7179" width="26.42578125" style="13" customWidth="1"/>
-    <col min="7180" max="7425" width="9.140625" style="13"/>
-    <col min="7426" max="7426" width="27.7109375" style="13" customWidth="1"/>
-    <col min="7427" max="7427" width="15.28515625" style="13" customWidth="1"/>
-    <col min="7428" max="7428" width="15.140625" style="13" customWidth="1"/>
-    <col min="7429" max="7429" width="17.85546875" style="13" customWidth="1"/>
-    <col min="7430" max="7430" width="19.85546875" style="13" customWidth="1"/>
-    <col min="7431" max="7431" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7432" max="7432" width="14.140625" style="13" customWidth="1"/>
-    <col min="7433" max="7433" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7434" max="7434" width="16.140625" style="13" customWidth="1"/>
-    <col min="7435" max="7435" width="26.42578125" style="13" customWidth="1"/>
-    <col min="7436" max="7681" width="9.140625" style="13"/>
-    <col min="7682" max="7682" width="27.7109375" style="13" customWidth="1"/>
-    <col min="7683" max="7683" width="15.28515625" style="13" customWidth="1"/>
-    <col min="7684" max="7684" width="15.140625" style="13" customWidth="1"/>
-    <col min="7685" max="7685" width="17.85546875" style="13" customWidth="1"/>
-    <col min="7686" max="7686" width="19.85546875" style="13" customWidth="1"/>
-    <col min="7687" max="7687" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7688" max="7688" width="14.140625" style="13" customWidth="1"/>
-    <col min="7689" max="7689" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7690" max="7690" width="16.140625" style="13" customWidth="1"/>
-    <col min="7691" max="7691" width="26.42578125" style="13" customWidth="1"/>
-    <col min="7692" max="7937" width="9.140625" style="13"/>
-    <col min="7938" max="7938" width="27.7109375" style="13" customWidth="1"/>
-    <col min="7939" max="7939" width="15.28515625" style="13" customWidth="1"/>
-    <col min="7940" max="7940" width="15.140625" style="13" customWidth="1"/>
-    <col min="7941" max="7941" width="17.85546875" style="13" customWidth="1"/>
-    <col min="7942" max="7942" width="19.85546875" style="13" customWidth="1"/>
-    <col min="7943" max="7943" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7944" max="7944" width="14.140625" style="13" customWidth="1"/>
-    <col min="7945" max="7945" width="14.85546875" style="13" customWidth="1"/>
-    <col min="7946" max="7946" width="16.140625" style="13" customWidth="1"/>
-    <col min="7947" max="7947" width="26.42578125" style="13" customWidth="1"/>
-    <col min="7948" max="8193" width="9.140625" style="13"/>
-    <col min="8194" max="8194" width="27.7109375" style="13" customWidth="1"/>
-    <col min="8195" max="8195" width="15.28515625" style="13" customWidth="1"/>
-    <col min="8196" max="8196" width="15.140625" style="13" customWidth="1"/>
-    <col min="8197" max="8197" width="17.85546875" style="13" customWidth="1"/>
-    <col min="8198" max="8198" width="19.85546875" style="13" customWidth="1"/>
-    <col min="8199" max="8199" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8200" max="8200" width="14.140625" style="13" customWidth="1"/>
-    <col min="8201" max="8201" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8202" max="8202" width="16.140625" style="13" customWidth="1"/>
-    <col min="8203" max="8203" width="26.42578125" style="13" customWidth="1"/>
-    <col min="8204" max="8449" width="9.140625" style="13"/>
-    <col min="8450" max="8450" width="27.7109375" style="13" customWidth="1"/>
-    <col min="8451" max="8451" width="15.28515625" style="13" customWidth="1"/>
-    <col min="8452" max="8452" width="15.140625" style="13" customWidth="1"/>
-    <col min="8453" max="8453" width="17.85546875" style="13" customWidth="1"/>
-    <col min="8454" max="8454" width="19.85546875" style="13" customWidth="1"/>
-    <col min="8455" max="8455" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8456" max="8456" width="14.140625" style="13" customWidth="1"/>
-    <col min="8457" max="8457" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8458" max="8458" width="16.140625" style="13" customWidth="1"/>
-    <col min="8459" max="8459" width="26.42578125" style="13" customWidth="1"/>
-    <col min="8460" max="8705" width="9.140625" style="13"/>
-    <col min="8706" max="8706" width="27.7109375" style="13" customWidth="1"/>
-    <col min="8707" max="8707" width="15.28515625" style="13" customWidth="1"/>
-    <col min="8708" max="8708" width="15.140625" style="13" customWidth="1"/>
-    <col min="8709" max="8709" width="17.85546875" style="13" customWidth="1"/>
-    <col min="8710" max="8710" width="19.85546875" style="13" customWidth="1"/>
-    <col min="8711" max="8711" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8712" max="8712" width="14.140625" style="13" customWidth="1"/>
-    <col min="8713" max="8713" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8714" max="8714" width="16.140625" style="13" customWidth="1"/>
-    <col min="8715" max="8715" width="26.42578125" style="13" customWidth="1"/>
-    <col min="8716" max="8961" width="9.140625" style="13"/>
-    <col min="8962" max="8962" width="27.7109375" style="13" customWidth="1"/>
-    <col min="8963" max="8963" width="15.28515625" style="13" customWidth="1"/>
-    <col min="8964" max="8964" width="15.140625" style="13" customWidth="1"/>
-    <col min="8965" max="8965" width="17.85546875" style="13" customWidth="1"/>
-    <col min="8966" max="8966" width="19.85546875" style="13" customWidth="1"/>
-    <col min="8967" max="8967" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8968" max="8968" width="14.140625" style="13" customWidth="1"/>
-    <col min="8969" max="8969" width="14.85546875" style="13" customWidth="1"/>
-    <col min="8970" max="8970" width="16.140625" style="13" customWidth="1"/>
-    <col min="8971" max="8971" width="26.42578125" style="13" customWidth="1"/>
-    <col min="8972" max="9217" width="9.140625" style="13"/>
-    <col min="9218" max="9218" width="27.7109375" style="13" customWidth="1"/>
-    <col min="9219" max="9219" width="15.28515625" style="13" customWidth="1"/>
-    <col min="9220" max="9220" width="15.140625" style="13" customWidth="1"/>
-    <col min="9221" max="9221" width="17.85546875" style="13" customWidth="1"/>
-    <col min="9222" max="9222" width="19.85546875" style="13" customWidth="1"/>
-    <col min="9223" max="9223" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9224" max="9224" width="14.140625" style="13" customWidth="1"/>
-    <col min="9225" max="9225" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9226" max="9226" width="16.140625" style="13" customWidth="1"/>
-    <col min="9227" max="9227" width="26.42578125" style="13" customWidth="1"/>
-    <col min="9228" max="9473" width="9.140625" style="13"/>
-    <col min="9474" max="9474" width="27.7109375" style="13" customWidth="1"/>
-    <col min="9475" max="9475" width="15.28515625" style="13" customWidth="1"/>
-    <col min="9476" max="9476" width="15.140625" style="13" customWidth="1"/>
-    <col min="9477" max="9477" width="17.85546875" style="13" customWidth="1"/>
-    <col min="9478" max="9478" width="19.85546875" style="13" customWidth="1"/>
-    <col min="9479" max="9479" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9480" max="9480" width="14.140625" style="13" customWidth="1"/>
-    <col min="9481" max="9481" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9482" max="9482" width="16.140625" style="13" customWidth="1"/>
-    <col min="9483" max="9483" width="26.42578125" style="13" customWidth="1"/>
-    <col min="9484" max="9729" width="9.140625" style="13"/>
-    <col min="9730" max="9730" width="27.7109375" style="13" customWidth="1"/>
-    <col min="9731" max="9731" width="15.28515625" style="13" customWidth="1"/>
-    <col min="9732" max="9732" width="15.140625" style="13" customWidth="1"/>
-    <col min="9733" max="9733" width="17.85546875" style="13" customWidth="1"/>
-    <col min="9734" max="9734" width="19.85546875" style="13" customWidth="1"/>
-    <col min="9735" max="9735" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9736" max="9736" width="14.140625" style="13" customWidth="1"/>
-    <col min="9737" max="9737" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9738" max="9738" width="16.140625" style="13" customWidth="1"/>
-    <col min="9739" max="9739" width="26.42578125" style="13" customWidth="1"/>
-    <col min="9740" max="9985" width="9.140625" style="13"/>
-    <col min="9986" max="9986" width="27.7109375" style="13" customWidth="1"/>
-    <col min="9987" max="9987" width="15.28515625" style="13" customWidth="1"/>
-    <col min="9988" max="9988" width="15.140625" style="13" customWidth="1"/>
-    <col min="9989" max="9989" width="17.85546875" style="13" customWidth="1"/>
-    <col min="9990" max="9990" width="19.85546875" style="13" customWidth="1"/>
-    <col min="9991" max="9991" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9992" max="9992" width="14.140625" style="13" customWidth="1"/>
-    <col min="9993" max="9993" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9994" max="9994" width="16.140625" style="13" customWidth="1"/>
-    <col min="9995" max="9995" width="26.42578125" style="13" customWidth="1"/>
-    <col min="9996" max="10241" width="9.140625" style="13"/>
-    <col min="10242" max="10242" width="27.7109375" style="13" customWidth="1"/>
-    <col min="10243" max="10243" width="15.28515625" style="13" customWidth="1"/>
-    <col min="10244" max="10244" width="15.140625" style="13" customWidth="1"/>
-    <col min="10245" max="10245" width="17.85546875" style="13" customWidth="1"/>
-    <col min="10246" max="10246" width="19.85546875" style="13" customWidth="1"/>
-    <col min="10247" max="10247" width="14.85546875" style="13" customWidth="1"/>
-    <col min="10248" max="10248" width="14.140625" style="13" customWidth="1"/>
-    <col min="10249" max="10249" width="14.85546875" style="13" customWidth="1"/>
-    <col min="10250" max="10250" width="16.140625" style="13" customWidth="1"/>
-    <col min="10251" max="10251" width="26.42578125" style="13" customWidth="1"/>
-    <col min="10252" max="10497" width="9.140625" style="13"/>
-    <col min="10498" max="10498" width="27.7109375" style="13" customWidth="1"/>
-    <col min="10499" max="10499" width="15.28515625" style="13" customWidth="1"/>
-    <col min="10500" max="10500" width="15.140625" style="13" customWidth="1"/>
-    <col min="10501" max="10501" width="17.85546875" style="13" customWidth="1"/>
-    <col min="10502" max="10502" width="19.85546875" style="13" customWidth="1"/>
-    <col min="10503" max="10503" width="14.85546875" style="13" customWidth="1"/>
-    <col min="10504" max="10504" width="14.140625" style="13" customWidth="1"/>
-    <col min="10505" max="10505" width="14.85546875" style="13" customWidth="1"/>
-    <col min="10506" max="10506" width="16.140625" style="13" customWidth="1"/>
-    <col min="10507" max="10507" width="26.42578125" style="13" customWidth="1"/>
-    <col min="10508" max="10753" width="9.140625" style="13"/>
-    <col min="10754" max="10754" width="27.7109375" style="13" customWidth="1"/>
-    <col min="10755" max="10755" width="15.28515625" style="13" customWidth="1"/>
-    <col min="10756" max="10756" width="15.140625" style="13" customWidth="1"/>
-    <col min="10757" max="10757" width="17.85546875" style="13" customWidth="1"/>
-    <col min="10758" max="10758" width="19.85546875" style="13" customWidth="1"/>
-    <col min="10759" max="10759" width="14.85546875" style="13" customWidth="1"/>
-    <col min="10760" max="10760" width="14.140625" style="13" customWidth="1"/>
-    <col min="10761" max="10761" width="14.85546875" style="13" customWidth="1"/>
-    <col min="10762" max="10762" width="16.140625" style="13" customWidth="1"/>
-    <col min="10763" max="10763" width="26.42578125" style="13" customWidth="1"/>
-    <col min="10764" max="11009" width="9.140625" style="13"/>
-    <col min="11010" max="11010" width="27.7109375" style="13" customWidth="1"/>
-    <col min="11011" max="11011" width="15.28515625" style="13" customWidth="1"/>
-    <col min="11012" max="11012" width="15.140625" style="13" customWidth="1"/>
-    <col min="11013" max="11013" width="17.85546875" style="13" customWidth="1"/>
-    <col min="11014" max="11014" width="19.85546875" style="13" customWidth="1"/>
-    <col min="11015" max="11015" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11016" max="11016" width="14.140625" style="13" customWidth="1"/>
-    <col min="11017" max="11017" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11018" max="11018" width="16.140625" style="13" customWidth="1"/>
-    <col min="11019" max="11019" width="26.42578125" style="13" customWidth="1"/>
-    <col min="11020" max="11265" width="9.140625" style="13"/>
-    <col min="11266" max="11266" width="27.7109375" style="13" customWidth="1"/>
-    <col min="11267" max="11267" width="15.28515625" style="13" customWidth="1"/>
-    <col min="11268" max="11268" width="15.140625" style="13" customWidth="1"/>
-    <col min="11269" max="11269" width="17.85546875" style="13" customWidth="1"/>
-    <col min="11270" max="11270" width="19.85546875" style="13" customWidth="1"/>
-    <col min="11271" max="11271" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11272" max="11272" width="14.140625" style="13" customWidth="1"/>
-    <col min="11273" max="11273" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11274" max="11274" width="16.140625" style="13" customWidth="1"/>
-    <col min="11275" max="11275" width="26.42578125" style="13" customWidth="1"/>
-    <col min="11276" max="11521" width="9.140625" style="13"/>
-    <col min="11522" max="11522" width="27.7109375" style="13" customWidth="1"/>
-    <col min="11523" max="11523" width="15.28515625" style="13" customWidth="1"/>
-    <col min="11524" max="11524" width="15.140625" style="13" customWidth="1"/>
-    <col min="11525" max="11525" width="17.85546875" style="13" customWidth="1"/>
-    <col min="11526" max="11526" width="19.85546875" style="13" customWidth="1"/>
-    <col min="11527" max="11527" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11528" max="11528" width="14.140625" style="13" customWidth="1"/>
-    <col min="11529" max="11529" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11530" max="11530" width="16.140625" style="13" customWidth="1"/>
-    <col min="11531" max="11531" width="26.42578125" style="13" customWidth="1"/>
-    <col min="11532" max="11777" width="9.140625" style="13"/>
-    <col min="11778" max="11778" width="27.7109375" style="13" customWidth="1"/>
-    <col min="11779" max="11779" width="15.28515625" style="13" customWidth="1"/>
-    <col min="11780" max="11780" width="15.140625" style="13" customWidth="1"/>
-    <col min="11781" max="11781" width="17.85546875" style="13" customWidth="1"/>
-    <col min="11782" max="11782" width="19.85546875" style="13" customWidth="1"/>
-    <col min="11783" max="11783" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11784" max="11784" width="14.140625" style="13" customWidth="1"/>
-    <col min="11785" max="11785" width="14.85546875" style="13" customWidth="1"/>
-    <col min="11786" max="11786" width="16.140625" style="13" customWidth="1"/>
-    <col min="11787" max="11787" width="26.42578125" style="13" customWidth="1"/>
-    <col min="11788" max="12033" width="9.140625" style="13"/>
-    <col min="12034" max="12034" width="27.7109375" style="13" customWidth="1"/>
-    <col min="12035" max="12035" width="15.28515625" style="13" customWidth="1"/>
-    <col min="12036" max="12036" width="15.140625" style="13" customWidth="1"/>
-    <col min="12037" max="12037" width="17.85546875" style="13" customWidth="1"/>
-    <col min="12038" max="12038" width="19.85546875" style="13" customWidth="1"/>
-    <col min="12039" max="12039" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12040" max="12040" width="14.140625" style="13" customWidth="1"/>
-    <col min="12041" max="12041" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12042" max="12042" width="16.140625" style="13" customWidth="1"/>
-    <col min="12043" max="12043" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12044" max="12289" width="9.140625" style="13"/>
-    <col min="12290" max="12290" width="27.7109375" style="13" customWidth="1"/>
-    <col min="12291" max="12291" width="15.28515625" style="13" customWidth="1"/>
-    <col min="12292" max="12292" width="15.140625" style="13" customWidth="1"/>
-    <col min="12293" max="12293" width="17.85546875" style="13" customWidth="1"/>
-    <col min="12294" max="12294" width="19.85546875" style="13" customWidth="1"/>
-    <col min="12295" max="12295" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12296" max="12296" width="14.140625" style="13" customWidth="1"/>
-    <col min="12297" max="12297" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12298" max="12298" width="16.140625" style="13" customWidth="1"/>
-    <col min="12299" max="12299" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12300" max="12545" width="9.140625" style="13"/>
-    <col min="12546" max="12546" width="27.7109375" style="13" customWidth="1"/>
-    <col min="12547" max="12547" width="15.28515625" style="13" customWidth="1"/>
-    <col min="12548" max="12548" width="15.140625" style="13" customWidth="1"/>
-    <col min="12549" max="12549" width="17.85546875" style="13" customWidth="1"/>
-    <col min="12550" max="12550" width="19.85546875" style="13" customWidth="1"/>
-    <col min="12551" max="12551" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12552" max="12552" width="14.140625" style="13" customWidth="1"/>
-    <col min="12553" max="12553" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12554" max="12554" width="16.140625" style="13" customWidth="1"/>
-    <col min="12555" max="12555" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12556" max="12801" width="9.140625" style="13"/>
-    <col min="12802" max="12802" width="27.7109375" style="13" customWidth="1"/>
-    <col min="12803" max="12803" width="15.28515625" style="13" customWidth="1"/>
-    <col min="12804" max="12804" width="15.140625" style="13" customWidth="1"/>
-    <col min="12805" max="12805" width="17.85546875" style="13" customWidth="1"/>
-    <col min="12806" max="12806" width="19.85546875" style="13" customWidth="1"/>
-    <col min="12807" max="12807" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12808" max="12808" width="14.140625" style="13" customWidth="1"/>
-    <col min="12809" max="12809" width="14.85546875" style="13" customWidth="1"/>
-    <col min="12810" max="12810" width="16.140625" style="13" customWidth="1"/>
-    <col min="12811" max="12811" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12812" max="13057" width="9.140625" style="13"/>
-    <col min="13058" max="13058" width="27.7109375" style="13" customWidth="1"/>
-    <col min="13059" max="13059" width="15.28515625" style="13" customWidth="1"/>
-    <col min="13060" max="13060" width="15.140625" style="13" customWidth="1"/>
-    <col min="13061" max="13061" width="17.85546875" style="13" customWidth="1"/>
-    <col min="13062" max="13062" width="19.85546875" style="13" customWidth="1"/>
-    <col min="13063" max="13063" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13064" max="13064" width="14.140625" style="13" customWidth="1"/>
-    <col min="13065" max="13065" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13066" max="13066" width="16.140625" style="13" customWidth="1"/>
-    <col min="13067" max="13067" width="26.42578125" style="13" customWidth="1"/>
-    <col min="13068" max="13313" width="9.140625" style="13"/>
-    <col min="13314" max="13314" width="27.7109375" style="13" customWidth="1"/>
-    <col min="13315" max="13315" width="15.28515625" style="13" customWidth="1"/>
-    <col min="13316" max="13316" width="15.140625" style="13" customWidth="1"/>
-    <col min="13317" max="13317" width="17.85546875" style="13" customWidth="1"/>
-    <col min="13318" max="13318" width="19.85546875" style="13" customWidth="1"/>
-    <col min="13319" max="13319" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13320" max="13320" width="14.140625" style="13" customWidth="1"/>
-    <col min="13321" max="13321" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13322" max="13322" width="16.140625" style="13" customWidth="1"/>
-    <col min="13323" max="13323" width="26.42578125" style="13" customWidth="1"/>
-    <col min="13324" max="13569" width="9.140625" style="13"/>
-    <col min="13570" max="13570" width="27.7109375" style="13" customWidth="1"/>
-    <col min="13571" max="13571" width="15.28515625" style="13" customWidth="1"/>
-    <col min="13572" max="13572" width="15.140625" style="13" customWidth="1"/>
-    <col min="13573" max="13573" width="17.85546875" style="13" customWidth="1"/>
-    <col min="13574" max="13574" width="19.85546875" style="13" customWidth="1"/>
-    <col min="13575" max="13575" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13576" max="13576" width="14.140625" style="13" customWidth="1"/>
-    <col min="13577" max="13577" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13578" max="13578" width="16.140625" style="13" customWidth="1"/>
-    <col min="13579" max="13579" width="26.42578125" style="13" customWidth="1"/>
-    <col min="13580" max="13825" width="9.140625" style="13"/>
-    <col min="13826" max="13826" width="27.7109375" style="13" customWidth="1"/>
-    <col min="13827" max="13827" width="15.28515625" style="13" customWidth="1"/>
-    <col min="13828" max="13828" width="15.140625" style="13" customWidth="1"/>
-    <col min="13829" max="13829" width="17.85546875" style="13" customWidth="1"/>
-    <col min="13830" max="13830" width="19.85546875" style="13" customWidth="1"/>
-    <col min="13831" max="13831" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13832" max="13832" width="14.140625" style="13" customWidth="1"/>
-    <col min="13833" max="13833" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13834" max="13834" width="16.140625" style="13" customWidth="1"/>
-    <col min="13835" max="13835" width="26.42578125" style="13" customWidth="1"/>
-    <col min="13836" max="14081" width="9.140625" style="13"/>
-    <col min="14082" max="14082" width="27.7109375" style="13" customWidth="1"/>
-    <col min="14083" max="14083" width="15.28515625" style="13" customWidth="1"/>
-    <col min="14084" max="14084" width="15.140625" style="13" customWidth="1"/>
-    <col min="14085" max="14085" width="17.85546875" style="13" customWidth="1"/>
-    <col min="14086" max="14086" width="19.85546875" style="13" customWidth="1"/>
-    <col min="14087" max="14087" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14088" max="14088" width="14.140625" style="13" customWidth="1"/>
-    <col min="14089" max="14089" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14090" max="14090" width="16.140625" style="13" customWidth="1"/>
-    <col min="14091" max="14091" width="26.42578125" style="13" customWidth="1"/>
-    <col min="14092" max="14337" width="9.140625" style="13"/>
-    <col min="14338" max="14338" width="27.7109375" style="13" customWidth="1"/>
-    <col min="14339" max="14339" width="15.28515625" style="13" customWidth="1"/>
-    <col min="14340" max="14340" width="15.140625" style="13" customWidth="1"/>
-    <col min="14341" max="14341" width="17.85546875" style="13" customWidth="1"/>
-    <col min="14342" max="14342" width="19.85546875" style="13" customWidth="1"/>
-    <col min="14343" max="14343" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14344" max="14344" width="14.140625" style="13" customWidth="1"/>
-    <col min="14345" max="14345" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14346" max="14346" width="16.140625" style="13" customWidth="1"/>
-    <col min="14347" max="14347" width="26.42578125" style="13" customWidth="1"/>
-    <col min="14348" max="14593" width="9.140625" style="13"/>
-    <col min="14594" max="14594" width="27.7109375" style="13" customWidth="1"/>
-    <col min="14595" max="14595" width="15.28515625" style="13" customWidth="1"/>
-    <col min="14596" max="14596" width="15.140625" style="13" customWidth="1"/>
-    <col min="14597" max="14597" width="17.85546875" style="13" customWidth="1"/>
-    <col min="14598" max="14598" width="19.85546875" style="13" customWidth="1"/>
-    <col min="14599" max="14599" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14600" max="14600" width="14.140625" style="13" customWidth="1"/>
-    <col min="14601" max="14601" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14602" max="14602" width="16.140625" style="13" customWidth="1"/>
-    <col min="14603" max="14603" width="26.42578125" style="13" customWidth="1"/>
-    <col min="14604" max="14849" width="9.140625" style="13"/>
-    <col min="14850" max="14850" width="27.7109375" style="13" customWidth="1"/>
-    <col min="14851" max="14851" width="15.28515625" style="13" customWidth="1"/>
-    <col min="14852" max="14852" width="15.140625" style="13" customWidth="1"/>
-    <col min="14853" max="14853" width="17.85546875" style="13" customWidth="1"/>
-    <col min="14854" max="14854" width="19.85546875" style="13" customWidth="1"/>
-    <col min="14855" max="14855" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14856" max="14856" width="14.140625" style="13" customWidth="1"/>
-    <col min="14857" max="14857" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14858" max="14858" width="16.140625" style="13" customWidth="1"/>
-    <col min="14859" max="14859" width="26.42578125" style="13" customWidth="1"/>
-    <col min="14860" max="15105" width="9.140625" style="13"/>
-    <col min="15106" max="15106" width="27.7109375" style="13" customWidth="1"/>
-    <col min="15107" max="15107" width="15.28515625" style="13" customWidth="1"/>
-    <col min="15108" max="15108" width="15.140625" style="13" customWidth="1"/>
-    <col min="15109" max="15109" width="17.85546875" style="13" customWidth="1"/>
-    <col min="15110" max="15110" width="19.85546875" style="13" customWidth="1"/>
-    <col min="15111" max="15111" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15112" max="15112" width="14.140625" style="13" customWidth="1"/>
-    <col min="15113" max="15113" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15114" max="15114" width="16.140625" style="13" customWidth="1"/>
-    <col min="15115" max="15115" width="26.42578125" style="13" customWidth="1"/>
-    <col min="15116" max="15361" width="9.140625" style="13"/>
-    <col min="15362" max="15362" width="27.7109375" style="13" customWidth="1"/>
-    <col min="15363" max="15363" width="15.28515625" style="13" customWidth="1"/>
-    <col min="15364" max="15364" width="15.140625" style="13" customWidth="1"/>
-    <col min="15365" max="15365" width="17.85546875" style="13" customWidth="1"/>
-    <col min="15366" max="15366" width="19.85546875" style="13" customWidth="1"/>
-    <col min="15367" max="15367" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15368" max="15368" width="14.140625" style="13" customWidth="1"/>
-    <col min="15369" max="15369" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15370" max="15370" width="16.140625" style="13" customWidth="1"/>
-    <col min="15371" max="15371" width="26.42578125" style="13" customWidth="1"/>
-    <col min="15372" max="15617" width="9.140625" style="13"/>
-    <col min="15618" max="15618" width="27.7109375" style="13" customWidth="1"/>
-    <col min="15619" max="15619" width="15.28515625" style="13" customWidth="1"/>
-    <col min="15620" max="15620" width="15.140625" style="13" customWidth="1"/>
-    <col min="15621" max="15621" width="17.85546875" style="13" customWidth="1"/>
-    <col min="15622" max="15622" width="19.85546875" style="13" customWidth="1"/>
-    <col min="15623" max="15623" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15624" max="15624" width="14.140625" style="13" customWidth="1"/>
-    <col min="15625" max="15625" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15626" max="15626" width="16.140625" style="13" customWidth="1"/>
-    <col min="15627" max="15627" width="26.42578125" style="13" customWidth="1"/>
-    <col min="15628" max="15873" width="9.140625" style="13"/>
-    <col min="15874" max="15874" width="27.7109375" style="13" customWidth="1"/>
-    <col min="15875" max="15875" width="15.28515625" style="13" customWidth="1"/>
-    <col min="15876" max="15876" width="15.140625" style="13" customWidth="1"/>
-    <col min="15877" max="15877" width="17.85546875" style="13" customWidth="1"/>
-    <col min="15878" max="15878" width="19.85546875" style="13" customWidth="1"/>
-    <col min="15879" max="15879" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15880" max="15880" width="14.140625" style="13" customWidth="1"/>
-    <col min="15881" max="15881" width="14.85546875" style="13" customWidth="1"/>
-    <col min="15882" max="15882" width="16.140625" style="13" customWidth="1"/>
-    <col min="15883" max="15883" width="26.42578125" style="13" customWidth="1"/>
-    <col min="15884" max="16129" width="9.140625" style="13"/>
-    <col min="16130" max="16130" width="27.7109375" style="13" customWidth="1"/>
-    <col min="16131" max="16131" width="15.28515625" style="13" customWidth="1"/>
-    <col min="16132" max="16132" width="15.140625" style="13" customWidth="1"/>
-    <col min="16133" max="16133" width="17.85546875" style="13" customWidth="1"/>
-    <col min="16134" max="16134" width="19.85546875" style="13" customWidth="1"/>
-    <col min="16135" max="16135" width="14.85546875" style="13" customWidth="1"/>
-    <col min="16136" max="16136" width="14.140625" style="13" customWidth="1"/>
-    <col min="16137" max="16137" width="14.85546875" style="13" customWidth="1"/>
-    <col min="16138" max="16138" width="16.140625" style="13" customWidth="1"/>
-    <col min="16139" max="16139" width="26.42578125" style="13" customWidth="1"/>
-    <col min="16140" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="13" max="257" width="9.140625" style="15"/>
+    <col min="258" max="258" width="27.7109375" style="15" customWidth="1"/>
+    <col min="259" max="259" width="15.28515625" style="15" customWidth="1"/>
+    <col min="260" max="260" width="15.140625" style="15" customWidth="1"/>
+    <col min="261" max="261" width="17.85546875" style="15" customWidth="1"/>
+    <col min="262" max="262" width="19.85546875" style="15" customWidth="1"/>
+    <col min="263" max="263" width="14.85546875" style="15" customWidth="1"/>
+    <col min="264" max="264" width="14.140625" style="15" customWidth="1"/>
+    <col min="265" max="265" width="14.85546875" style="15" customWidth="1"/>
+    <col min="266" max="266" width="16.140625" style="15" customWidth="1"/>
+    <col min="267" max="267" width="26.42578125" style="15" customWidth="1"/>
+    <col min="268" max="513" width="9.140625" style="15"/>
+    <col min="514" max="514" width="27.7109375" style="15" customWidth="1"/>
+    <col min="515" max="515" width="15.28515625" style="15" customWidth="1"/>
+    <col min="516" max="516" width="15.140625" style="15" customWidth="1"/>
+    <col min="517" max="517" width="17.85546875" style="15" customWidth="1"/>
+    <col min="518" max="518" width="19.85546875" style="15" customWidth="1"/>
+    <col min="519" max="519" width="14.85546875" style="15" customWidth="1"/>
+    <col min="520" max="520" width="14.140625" style="15" customWidth="1"/>
+    <col min="521" max="521" width="14.85546875" style="15" customWidth="1"/>
+    <col min="522" max="522" width="16.140625" style="15" customWidth="1"/>
+    <col min="523" max="523" width="26.42578125" style="15" customWidth="1"/>
+    <col min="524" max="769" width="9.140625" style="15"/>
+    <col min="770" max="770" width="27.7109375" style="15" customWidth="1"/>
+    <col min="771" max="771" width="15.28515625" style="15" customWidth="1"/>
+    <col min="772" max="772" width="15.140625" style="15" customWidth="1"/>
+    <col min="773" max="773" width="17.85546875" style="15" customWidth="1"/>
+    <col min="774" max="774" width="19.85546875" style="15" customWidth="1"/>
+    <col min="775" max="775" width="14.85546875" style="15" customWidth="1"/>
+    <col min="776" max="776" width="14.140625" style="15" customWidth="1"/>
+    <col min="777" max="777" width="14.85546875" style="15" customWidth="1"/>
+    <col min="778" max="778" width="16.140625" style="15" customWidth="1"/>
+    <col min="779" max="779" width="26.42578125" style="15" customWidth="1"/>
+    <col min="780" max="1025" width="9.140625" style="15"/>
+    <col min="1026" max="1026" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1027" max="1027" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="15.140625" style="15" customWidth="1"/>
+    <col min="1029" max="1029" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1030" max="1030" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1031" max="1031" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1032" max="1032" width="14.140625" style="15" customWidth="1"/>
+    <col min="1033" max="1033" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1034" max="1034" width="16.140625" style="15" customWidth="1"/>
+    <col min="1035" max="1035" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1036" max="1281" width="9.140625" style="15"/>
+    <col min="1282" max="1282" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1283" max="1283" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="15.140625" style="15" customWidth="1"/>
+    <col min="1285" max="1285" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1286" max="1286" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1287" max="1287" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1288" max="1288" width="14.140625" style="15" customWidth="1"/>
+    <col min="1289" max="1289" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1290" max="1290" width="16.140625" style="15" customWidth="1"/>
+    <col min="1291" max="1291" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1292" max="1537" width="9.140625" style="15"/>
+    <col min="1538" max="1538" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1539" max="1539" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="15.140625" style="15" customWidth="1"/>
+    <col min="1541" max="1541" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1542" max="1542" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1543" max="1543" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1544" max="1544" width="14.140625" style="15" customWidth="1"/>
+    <col min="1545" max="1545" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1546" max="1546" width="16.140625" style="15" customWidth="1"/>
+    <col min="1547" max="1547" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1548" max="1793" width="9.140625" style="15"/>
+    <col min="1794" max="1794" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1795" max="1795" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="15.140625" style="15" customWidth="1"/>
+    <col min="1797" max="1797" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1798" max="1798" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1799" max="1799" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1800" max="1800" width="14.140625" style="15" customWidth="1"/>
+    <col min="1801" max="1801" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1802" max="1802" width="16.140625" style="15" customWidth="1"/>
+    <col min="1803" max="1803" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1804" max="2049" width="9.140625" style="15"/>
+    <col min="2050" max="2050" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2051" max="2051" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="15.140625" style="15" customWidth="1"/>
+    <col min="2053" max="2053" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2054" max="2054" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2055" max="2055" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2056" max="2056" width="14.140625" style="15" customWidth="1"/>
+    <col min="2057" max="2057" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2058" max="2058" width="16.140625" style="15" customWidth="1"/>
+    <col min="2059" max="2059" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2060" max="2305" width="9.140625" style="15"/>
+    <col min="2306" max="2306" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2307" max="2307" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="15.140625" style="15" customWidth="1"/>
+    <col min="2309" max="2309" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2310" max="2310" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2311" max="2311" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2312" max="2312" width="14.140625" style="15" customWidth="1"/>
+    <col min="2313" max="2313" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2314" max="2314" width="16.140625" style="15" customWidth="1"/>
+    <col min="2315" max="2315" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2316" max="2561" width="9.140625" style="15"/>
+    <col min="2562" max="2562" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2563" max="2563" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="15.140625" style="15" customWidth="1"/>
+    <col min="2565" max="2565" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2566" max="2566" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2567" max="2567" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2568" max="2568" width="14.140625" style="15" customWidth="1"/>
+    <col min="2569" max="2569" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2570" max="2570" width="16.140625" style="15" customWidth="1"/>
+    <col min="2571" max="2571" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2572" max="2817" width="9.140625" style="15"/>
+    <col min="2818" max="2818" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2819" max="2819" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="15.140625" style="15" customWidth="1"/>
+    <col min="2821" max="2821" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2822" max="2822" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2823" max="2823" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2824" max="2824" width="14.140625" style="15" customWidth="1"/>
+    <col min="2825" max="2825" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2826" max="2826" width="16.140625" style="15" customWidth="1"/>
+    <col min="2827" max="2827" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2828" max="3073" width="9.140625" style="15"/>
+    <col min="3074" max="3074" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3075" max="3075" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="15.140625" style="15" customWidth="1"/>
+    <col min="3077" max="3077" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3078" max="3078" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3079" max="3079" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3080" max="3080" width="14.140625" style="15" customWidth="1"/>
+    <col min="3081" max="3081" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3082" max="3082" width="16.140625" style="15" customWidth="1"/>
+    <col min="3083" max="3083" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3084" max="3329" width="9.140625" style="15"/>
+    <col min="3330" max="3330" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3331" max="3331" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="15.140625" style="15" customWidth="1"/>
+    <col min="3333" max="3333" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3334" max="3334" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3335" max="3335" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3336" max="3336" width="14.140625" style="15" customWidth="1"/>
+    <col min="3337" max="3337" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3338" max="3338" width="16.140625" style="15" customWidth="1"/>
+    <col min="3339" max="3339" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3340" max="3585" width="9.140625" style="15"/>
+    <col min="3586" max="3586" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3587" max="3587" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="15.140625" style="15" customWidth="1"/>
+    <col min="3589" max="3589" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3590" max="3590" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3591" max="3591" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3592" max="3592" width="14.140625" style="15" customWidth="1"/>
+    <col min="3593" max="3593" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3594" max="3594" width="16.140625" style="15" customWidth="1"/>
+    <col min="3595" max="3595" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3596" max="3841" width="9.140625" style="15"/>
+    <col min="3842" max="3842" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3843" max="3843" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="15.140625" style="15" customWidth="1"/>
+    <col min="3845" max="3845" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3846" max="3846" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3847" max="3847" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3848" max="3848" width="14.140625" style="15" customWidth="1"/>
+    <col min="3849" max="3849" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3850" max="3850" width="16.140625" style="15" customWidth="1"/>
+    <col min="3851" max="3851" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3852" max="4097" width="9.140625" style="15"/>
+    <col min="4098" max="4098" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4099" max="4099" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="15.140625" style="15" customWidth="1"/>
+    <col min="4101" max="4101" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4102" max="4102" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4103" max="4103" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4104" max="4104" width="14.140625" style="15" customWidth="1"/>
+    <col min="4105" max="4105" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4106" max="4106" width="16.140625" style="15" customWidth="1"/>
+    <col min="4107" max="4107" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4108" max="4353" width="9.140625" style="15"/>
+    <col min="4354" max="4354" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4355" max="4355" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="15.140625" style="15" customWidth="1"/>
+    <col min="4357" max="4357" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4358" max="4358" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4359" max="4359" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4360" max="4360" width="14.140625" style="15" customWidth="1"/>
+    <col min="4361" max="4361" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4362" max="4362" width="16.140625" style="15" customWidth="1"/>
+    <col min="4363" max="4363" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4364" max="4609" width="9.140625" style="15"/>
+    <col min="4610" max="4610" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4611" max="4611" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="15.140625" style="15" customWidth="1"/>
+    <col min="4613" max="4613" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4614" max="4614" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4615" max="4615" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4616" max="4616" width="14.140625" style="15" customWidth="1"/>
+    <col min="4617" max="4617" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4618" max="4618" width="16.140625" style="15" customWidth="1"/>
+    <col min="4619" max="4619" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4620" max="4865" width="9.140625" style="15"/>
+    <col min="4866" max="4866" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4867" max="4867" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="15.140625" style="15" customWidth="1"/>
+    <col min="4869" max="4869" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4870" max="4870" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4871" max="4871" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4872" max="4872" width="14.140625" style="15" customWidth="1"/>
+    <col min="4873" max="4873" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4874" max="4874" width="16.140625" style="15" customWidth="1"/>
+    <col min="4875" max="4875" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4876" max="5121" width="9.140625" style="15"/>
+    <col min="5122" max="5122" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5123" max="5123" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="15.140625" style="15" customWidth="1"/>
+    <col min="5125" max="5125" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5126" max="5126" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5127" max="5127" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5128" max="5128" width="14.140625" style="15" customWidth="1"/>
+    <col min="5129" max="5129" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5130" max="5130" width="16.140625" style="15" customWidth="1"/>
+    <col min="5131" max="5131" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5132" max="5377" width="9.140625" style="15"/>
+    <col min="5378" max="5378" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5379" max="5379" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="15.140625" style="15" customWidth="1"/>
+    <col min="5381" max="5381" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5382" max="5382" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5383" max="5383" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5384" max="5384" width="14.140625" style="15" customWidth="1"/>
+    <col min="5385" max="5385" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5386" max="5386" width="16.140625" style="15" customWidth="1"/>
+    <col min="5387" max="5387" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5388" max="5633" width="9.140625" style="15"/>
+    <col min="5634" max="5634" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5635" max="5635" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="15.140625" style="15" customWidth="1"/>
+    <col min="5637" max="5637" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5638" max="5638" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5639" max="5639" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5640" max="5640" width="14.140625" style="15" customWidth="1"/>
+    <col min="5641" max="5641" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5642" max="5642" width="16.140625" style="15" customWidth="1"/>
+    <col min="5643" max="5643" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5644" max="5889" width="9.140625" style="15"/>
+    <col min="5890" max="5890" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5891" max="5891" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="15.140625" style="15" customWidth="1"/>
+    <col min="5893" max="5893" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5894" max="5894" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5895" max="5895" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5896" max="5896" width="14.140625" style="15" customWidth="1"/>
+    <col min="5897" max="5897" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5898" max="5898" width="16.140625" style="15" customWidth="1"/>
+    <col min="5899" max="5899" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5900" max="6145" width="9.140625" style="15"/>
+    <col min="6146" max="6146" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6147" max="6147" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="15.140625" style="15" customWidth="1"/>
+    <col min="6149" max="6149" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6150" max="6150" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6151" max="6151" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6152" max="6152" width="14.140625" style="15" customWidth="1"/>
+    <col min="6153" max="6153" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6154" max="6154" width="16.140625" style="15" customWidth="1"/>
+    <col min="6155" max="6155" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6156" max="6401" width="9.140625" style="15"/>
+    <col min="6402" max="6402" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6403" max="6403" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="15.140625" style="15" customWidth="1"/>
+    <col min="6405" max="6405" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6406" max="6406" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6407" max="6407" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6408" max="6408" width="14.140625" style="15" customWidth="1"/>
+    <col min="6409" max="6409" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6410" max="6410" width="16.140625" style="15" customWidth="1"/>
+    <col min="6411" max="6411" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6412" max="6657" width="9.140625" style="15"/>
+    <col min="6658" max="6658" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6659" max="6659" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="15.140625" style="15" customWidth="1"/>
+    <col min="6661" max="6661" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6662" max="6662" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6663" max="6663" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6664" max="6664" width="14.140625" style="15" customWidth="1"/>
+    <col min="6665" max="6665" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6666" max="6666" width="16.140625" style="15" customWidth="1"/>
+    <col min="6667" max="6667" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6668" max="6913" width="9.140625" style="15"/>
+    <col min="6914" max="6914" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6915" max="6915" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="15.140625" style="15" customWidth="1"/>
+    <col min="6917" max="6917" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6918" max="6918" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6919" max="6919" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6920" max="6920" width="14.140625" style="15" customWidth="1"/>
+    <col min="6921" max="6921" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6922" max="6922" width="16.140625" style="15" customWidth="1"/>
+    <col min="6923" max="6923" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6924" max="7169" width="9.140625" style="15"/>
+    <col min="7170" max="7170" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7171" max="7171" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="15.140625" style="15" customWidth="1"/>
+    <col min="7173" max="7173" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7174" max="7174" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7175" max="7175" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7176" max="7176" width="14.140625" style="15" customWidth="1"/>
+    <col min="7177" max="7177" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7178" max="7178" width="16.140625" style="15" customWidth="1"/>
+    <col min="7179" max="7179" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7180" max="7425" width="9.140625" style="15"/>
+    <col min="7426" max="7426" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7427" max="7427" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="15.140625" style="15" customWidth="1"/>
+    <col min="7429" max="7429" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7430" max="7430" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7431" max="7431" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7432" max="7432" width="14.140625" style="15" customWidth="1"/>
+    <col min="7433" max="7433" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7434" max="7434" width="16.140625" style="15" customWidth="1"/>
+    <col min="7435" max="7435" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7436" max="7681" width="9.140625" style="15"/>
+    <col min="7682" max="7682" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7683" max="7683" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="15.140625" style="15" customWidth="1"/>
+    <col min="7685" max="7685" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7686" max="7686" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7687" max="7687" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7688" max="7688" width="14.140625" style="15" customWidth="1"/>
+    <col min="7689" max="7689" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7690" max="7690" width="16.140625" style="15" customWidth="1"/>
+    <col min="7691" max="7691" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7692" max="7937" width="9.140625" style="15"/>
+    <col min="7938" max="7938" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7939" max="7939" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="15.140625" style="15" customWidth="1"/>
+    <col min="7941" max="7941" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7942" max="7942" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7943" max="7943" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7944" max="7944" width="14.140625" style="15" customWidth="1"/>
+    <col min="7945" max="7945" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7946" max="7946" width="16.140625" style="15" customWidth="1"/>
+    <col min="7947" max="7947" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7948" max="8193" width="9.140625" style="15"/>
+    <col min="8194" max="8194" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8195" max="8195" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="15.140625" style="15" customWidth="1"/>
+    <col min="8197" max="8197" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8198" max="8198" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8199" max="8199" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8200" max="8200" width="14.140625" style="15" customWidth="1"/>
+    <col min="8201" max="8201" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8202" max="8202" width="16.140625" style="15" customWidth="1"/>
+    <col min="8203" max="8203" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8204" max="8449" width="9.140625" style="15"/>
+    <col min="8450" max="8450" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8451" max="8451" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="15.140625" style="15" customWidth="1"/>
+    <col min="8453" max="8453" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8454" max="8454" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8455" max="8455" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8456" max="8456" width="14.140625" style="15" customWidth="1"/>
+    <col min="8457" max="8457" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8458" max="8458" width="16.140625" style="15" customWidth="1"/>
+    <col min="8459" max="8459" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8460" max="8705" width="9.140625" style="15"/>
+    <col min="8706" max="8706" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8707" max="8707" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="15.140625" style="15" customWidth="1"/>
+    <col min="8709" max="8709" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8710" max="8710" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8711" max="8711" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8712" max="8712" width="14.140625" style="15" customWidth="1"/>
+    <col min="8713" max="8713" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8714" max="8714" width="16.140625" style="15" customWidth="1"/>
+    <col min="8715" max="8715" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8716" max="8961" width="9.140625" style="15"/>
+    <col min="8962" max="8962" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8963" max="8963" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="15.140625" style="15" customWidth="1"/>
+    <col min="8965" max="8965" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8966" max="8966" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8967" max="8967" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8968" max="8968" width="14.140625" style="15" customWidth="1"/>
+    <col min="8969" max="8969" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8970" max="8970" width="16.140625" style="15" customWidth="1"/>
+    <col min="8971" max="8971" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8972" max="9217" width="9.140625" style="15"/>
+    <col min="9218" max="9218" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9219" max="9219" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="15.140625" style="15" customWidth="1"/>
+    <col min="9221" max="9221" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9222" max="9222" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9223" max="9223" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9224" max="9224" width="14.140625" style="15" customWidth="1"/>
+    <col min="9225" max="9225" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9226" max="9226" width="16.140625" style="15" customWidth="1"/>
+    <col min="9227" max="9227" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9228" max="9473" width="9.140625" style="15"/>
+    <col min="9474" max="9474" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9475" max="9475" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="15.140625" style="15" customWidth="1"/>
+    <col min="9477" max="9477" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9478" max="9478" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9479" max="9479" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9480" max="9480" width="14.140625" style="15" customWidth="1"/>
+    <col min="9481" max="9481" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9482" max="9482" width="16.140625" style="15" customWidth="1"/>
+    <col min="9483" max="9483" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9484" max="9729" width="9.140625" style="15"/>
+    <col min="9730" max="9730" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9731" max="9731" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="15.140625" style="15" customWidth="1"/>
+    <col min="9733" max="9733" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9734" max="9734" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9735" max="9735" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9736" max="9736" width="14.140625" style="15" customWidth="1"/>
+    <col min="9737" max="9737" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9738" max="9738" width="16.140625" style="15" customWidth="1"/>
+    <col min="9739" max="9739" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9740" max="9985" width="9.140625" style="15"/>
+    <col min="9986" max="9986" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9987" max="9987" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="15.140625" style="15" customWidth="1"/>
+    <col min="9989" max="9989" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9990" max="9990" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9991" max="9991" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9992" max="9992" width="14.140625" style="15" customWidth="1"/>
+    <col min="9993" max="9993" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9994" max="9994" width="16.140625" style="15" customWidth="1"/>
+    <col min="9995" max="9995" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9996" max="10241" width="9.140625" style="15"/>
+    <col min="10242" max="10242" width="27.7109375" style="15" customWidth="1"/>
+    <col min="10243" max="10243" width="15.28515625" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="15.140625" style="15" customWidth="1"/>
+    <col min="10245" max="10245" width="17.85546875" style="15" customWidth="1"/>
+    <col min="10246" max="10246" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10247" max="10247" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10248" max="10248" width="14.140625" style="15" customWidth="1"/>
+    <col min="10249" max="10249" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10250" max="10250" width="16.140625" style="15" customWidth="1"/>
+    <col min="10251" max="10251" width="26.42578125" style="15" customWidth="1"/>
+    <col min="10252" max="10497" width="9.140625" style="15"/>
+    <col min="10498" max="10498" width="27.7109375" style="15" customWidth="1"/>
+    <col min="10499" max="10499" width="15.28515625" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="15.140625" style="15" customWidth="1"/>
+    <col min="10501" max="10501" width="17.85546875" style="15" customWidth="1"/>
+    <col min="10502" max="10502" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10503" max="10503" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10504" max="10504" width="14.140625" style="15" customWidth="1"/>
+    <col min="10505" max="10505" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10506" max="10506" width="16.140625" style="15" customWidth="1"/>
+    <col min="10507" max="10507" width="26.42578125" style="15" customWidth="1"/>
+    <col min="10508" max="10753" width="9.140625" style="15"/>
+    <col min="10754" max="10754" width="27.7109375" style="15" customWidth="1"/>
+    <col min="10755" max="10755" width="15.28515625" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="15.140625" style="15" customWidth="1"/>
+    <col min="10757" max="10757" width="17.85546875" style="15" customWidth="1"/>
+    <col min="10758" max="10758" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10759" max="10759" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10760" max="10760" width="14.140625" style="15" customWidth="1"/>
+    <col min="10761" max="10761" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10762" max="10762" width="16.140625" style="15" customWidth="1"/>
+    <col min="10763" max="10763" width="26.42578125" style="15" customWidth="1"/>
+    <col min="10764" max="11009" width="9.140625" style="15"/>
+    <col min="11010" max="11010" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11011" max="11011" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="15.140625" style="15" customWidth="1"/>
+    <col min="11013" max="11013" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11014" max="11014" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11015" max="11015" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11016" max="11016" width="14.140625" style="15" customWidth="1"/>
+    <col min="11017" max="11017" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11018" max="11018" width="16.140625" style="15" customWidth="1"/>
+    <col min="11019" max="11019" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11020" max="11265" width="9.140625" style="15"/>
+    <col min="11266" max="11266" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11267" max="11267" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="15.140625" style="15" customWidth="1"/>
+    <col min="11269" max="11269" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11270" max="11270" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11271" max="11271" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11272" max="11272" width="14.140625" style="15" customWidth="1"/>
+    <col min="11273" max="11273" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11274" max="11274" width="16.140625" style="15" customWidth="1"/>
+    <col min="11275" max="11275" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11276" max="11521" width="9.140625" style="15"/>
+    <col min="11522" max="11522" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11523" max="11523" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="15.140625" style="15" customWidth="1"/>
+    <col min="11525" max="11525" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11526" max="11526" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11527" max="11527" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11528" max="11528" width="14.140625" style="15" customWidth="1"/>
+    <col min="11529" max="11529" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11530" max="11530" width="16.140625" style="15" customWidth="1"/>
+    <col min="11531" max="11531" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11532" max="11777" width="9.140625" style="15"/>
+    <col min="11778" max="11778" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11779" max="11779" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="15.140625" style="15" customWidth="1"/>
+    <col min="11781" max="11781" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11782" max="11782" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11783" max="11783" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11784" max="11784" width="14.140625" style="15" customWidth="1"/>
+    <col min="11785" max="11785" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11786" max="11786" width="16.140625" style="15" customWidth="1"/>
+    <col min="11787" max="11787" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11788" max="12033" width="9.140625" style="15"/>
+    <col min="12034" max="12034" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12035" max="12035" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="15.140625" style="15" customWidth="1"/>
+    <col min="12037" max="12037" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12038" max="12038" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12039" max="12039" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12040" max="12040" width="14.140625" style="15" customWidth="1"/>
+    <col min="12041" max="12041" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12042" max="12042" width="16.140625" style="15" customWidth="1"/>
+    <col min="12043" max="12043" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12044" max="12289" width="9.140625" style="15"/>
+    <col min="12290" max="12290" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12291" max="12291" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="15.140625" style="15" customWidth="1"/>
+    <col min="12293" max="12293" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12294" max="12294" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12295" max="12295" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12296" max="12296" width="14.140625" style="15" customWidth="1"/>
+    <col min="12297" max="12297" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12298" max="12298" width="16.140625" style="15" customWidth="1"/>
+    <col min="12299" max="12299" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12300" max="12545" width="9.140625" style="15"/>
+    <col min="12546" max="12546" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12547" max="12547" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="15.140625" style="15" customWidth="1"/>
+    <col min="12549" max="12549" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12550" max="12550" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12551" max="12551" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12552" max="12552" width="14.140625" style="15" customWidth="1"/>
+    <col min="12553" max="12553" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12554" max="12554" width="16.140625" style="15" customWidth="1"/>
+    <col min="12555" max="12555" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12556" max="12801" width="9.140625" style="15"/>
+    <col min="12802" max="12802" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12803" max="12803" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="15.140625" style="15" customWidth="1"/>
+    <col min="12805" max="12805" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12806" max="12806" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12807" max="12807" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12808" max="12808" width="14.140625" style="15" customWidth="1"/>
+    <col min="12809" max="12809" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12810" max="12810" width="16.140625" style="15" customWidth="1"/>
+    <col min="12811" max="12811" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12812" max="13057" width="9.140625" style="15"/>
+    <col min="13058" max="13058" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13059" max="13059" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="15.140625" style="15" customWidth="1"/>
+    <col min="13061" max="13061" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13062" max="13062" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13063" max="13063" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13064" max="13064" width="14.140625" style="15" customWidth="1"/>
+    <col min="13065" max="13065" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13066" max="13066" width="16.140625" style="15" customWidth="1"/>
+    <col min="13067" max="13067" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13068" max="13313" width="9.140625" style="15"/>
+    <col min="13314" max="13314" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13315" max="13315" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="15.140625" style="15" customWidth="1"/>
+    <col min="13317" max="13317" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13318" max="13318" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13319" max="13319" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13320" max="13320" width="14.140625" style="15" customWidth="1"/>
+    <col min="13321" max="13321" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13322" max="13322" width="16.140625" style="15" customWidth="1"/>
+    <col min="13323" max="13323" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13324" max="13569" width="9.140625" style="15"/>
+    <col min="13570" max="13570" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13571" max="13571" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="15.140625" style="15" customWidth="1"/>
+    <col min="13573" max="13573" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13574" max="13574" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13575" max="13575" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13576" max="13576" width="14.140625" style="15" customWidth="1"/>
+    <col min="13577" max="13577" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13578" max="13578" width="16.140625" style="15" customWidth="1"/>
+    <col min="13579" max="13579" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13580" max="13825" width="9.140625" style="15"/>
+    <col min="13826" max="13826" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13827" max="13827" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="15.140625" style="15" customWidth="1"/>
+    <col min="13829" max="13829" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13830" max="13830" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13831" max="13831" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13832" max="13832" width="14.140625" style="15" customWidth="1"/>
+    <col min="13833" max="13833" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13834" max="13834" width="16.140625" style="15" customWidth="1"/>
+    <col min="13835" max="13835" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13836" max="14081" width="9.140625" style="15"/>
+    <col min="14082" max="14082" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14083" max="14083" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="15.140625" style="15" customWidth="1"/>
+    <col min="14085" max="14085" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14086" max="14086" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14087" max="14087" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14088" max="14088" width="14.140625" style="15" customWidth="1"/>
+    <col min="14089" max="14089" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14090" max="14090" width="16.140625" style="15" customWidth="1"/>
+    <col min="14091" max="14091" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14092" max="14337" width="9.140625" style="15"/>
+    <col min="14338" max="14338" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14339" max="14339" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="15.140625" style="15" customWidth="1"/>
+    <col min="14341" max="14341" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14342" max="14342" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14343" max="14343" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14344" max="14344" width="14.140625" style="15" customWidth="1"/>
+    <col min="14345" max="14345" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14346" max="14346" width="16.140625" style="15" customWidth="1"/>
+    <col min="14347" max="14347" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14348" max="14593" width="9.140625" style="15"/>
+    <col min="14594" max="14594" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14595" max="14595" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="15.140625" style="15" customWidth="1"/>
+    <col min="14597" max="14597" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14598" max="14598" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14599" max="14599" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14600" max="14600" width="14.140625" style="15" customWidth="1"/>
+    <col min="14601" max="14601" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14602" max="14602" width="16.140625" style="15" customWidth="1"/>
+    <col min="14603" max="14603" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14604" max="14849" width="9.140625" style="15"/>
+    <col min="14850" max="14850" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14851" max="14851" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="15.140625" style="15" customWidth="1"/>
+    <col min="14853" max="14853" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14854" max="14854" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14855" max="14855" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14856" max="14856" width="14.140625" style="15" customWidth="1"/>
+    <col min="14857" max="14857" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14858" max="14858" width="16.140625" style="15" customWidth="1"/>
+    <col min="14859" max="14859" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14860" max="15105" width="9.140625" style="15"/>
+    <col min="15106" max="15106" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15107" max="15107" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="15.140625" style="15" customWidth="1"/>
+    <col min="15109" max="15109" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15110" max="15110" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15111" max="15111" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15112" max="15112" width="14.140625" style="15" customWidth="1"/>
+    <col min="15113" max="15113" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15114" max="15114" width="16.140625" style="15" customWidth="1"/>
+    <col min="15115" max="15115" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15116" max="15361" width="9.140625" style="15"/>
+    <col min="15362" max="15362" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15363" max="15363" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="15.140625" style="15" customWidth="1"/>
+    <col min="15365" max="15365" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15366" max="15366" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15367" max="15367" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15368" max="15368" width="14.140625" style="15" customWidth="1"/>
+    <col min="15369" max="15369" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15370" max="15370" width="16.140625" style="15" customWidth="1"/>
+    <col min="15371" max="15371" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15372" max="15617" width="9.140625" style="15"/>
+    <col min="15618" max="15618" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15619" max="15619" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="15.140625" style="15" customWidth="1"/>
+    <col min="15621" max="15621" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15622" max="15622" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15623" max="15623" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15624" max="15624" width="14.140625" style="15" customWidth="1"/>
+    <col min="15625" max="15625" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15626" max="15626" width="16.140625" style="15" customWidth="1"/>
+    <col min="15627" max="15627" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15628" max="15873" width="9.140625" style="15"/>
+    <col min="15874" max="15874" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15875" max="15875" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="15.140625" style="15" customWidth="1"/>
+    <col min="15877" max="15877" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15878" max="15878" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15879" max="15879" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15880" max="15880" width="14.140625" style="15" customWidth="1"/>
+    <col min="15881" max="15881" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15882" max="15882" width="16.140625" style="15" customWidth="1"/>
+    <col min="15883" max="15883" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15884" max="16129" width="9.140625" style="15"/>
+    <col min="16130" max="16130" width="27.7109375" style="15" customWidth="1"/>
+    <col min="16131" max="16131" width="15.28515625" style="15" customWidth="1"/>
+    <col min="16132" max="16132" width="15.140625" style="15" customWidth="1"/>
+    <col min="16133" max="16133" width="17.85546875" style="15" customWidth="1"/>
+    <col min="16134" max="16134" width="19.85546875" style="15" customWidth="1"/>
+    <col min="16135" max="16135" width="14.85546875" style="15" customWidth="1"/>
+    <col min="16136" max="16136" width="14.140625" style="15" customWidth="1"/>
+    <col min="16137" max="16137" width="14.85546875" style="15" customWidth="1"/>
+    <col min="16138" max="16138" width="16.140625" style="15" customWidth="1"/>
+    <col min="16139" max="16139" width="26.42578125" style="15" customWidth="1"/>
+    <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C3" s="18">
+        <v>41907</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17">
+        <v>9555382729</v>
+      </c>
+      <c r="H3" s="16">
+        <v>6000</v>
+      </c>
+      <c r="I3" s="16">
+        <v>100</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A4" s="64">
+        <v>2</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C4" s="66">
+        <v>41924</v>
+      </c>
+      <c r="D4" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="16">
+      <c r="G4" s="69">
+        <v>9999405538</v>
+      </c>
+      <c r="H4" s="64">
+        <v>7000</v>
+      </c>
+      <c r="I4" s="64">
+        <v>500</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="L4" s="70"/>
+    </row>
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="33">
+        <v>41947</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="36">
+        <v>9650182218</v>
+      </c>
+      <c r="H5" s="31">
+        <v>5500</v>
+      </c>
+      <c r="I5" s="31">
+        <v>5500</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="25">
+        <v>41947</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="28">
+        <v>9716027793</v>
+      </c>
+      <c r="H6" s="23">
+        <v>5500</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="33">
         <v>41907</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15">
-        <v>9555382729</v>
-      </c>
-      <c r="H3" s="14">
-        <v>6000</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="D7" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="36">
+        <v>9891085793</v>
+      </c>
+      <c r="H7" s="31">
+        <v>4000</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A8" s="31">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="33">
+        <v>41947</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="36">
+        <v>9350215064</v>
+      </c>
+      <c r="H8" s="40">
+        <v>9000</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="33">
+        <v>41952</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36">
+        <v>9136791828</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A10" s="31">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="33">
+        <v>41964</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36">
+        <v>8800556120</v>
+      </c>
+      <c r="H10" s="31">
+        <v>850</v>
+      </c>
+      <c r="I10" s="31">
+        <v>850</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
+      <c r="A11" s="31">
+        <v>9</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="33">
+        <v>41964</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="36">
+        <v>9958911395</v>
+      </c>
+      <c r="H11" s="31">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="31">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="33">
+        <v>41971</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="25">
+        <v>41964</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="28">
+        <v>8527336673</v>
+      </c>
+      <c r="H12" s="23">
+        <v>7500</v>
+      </c>
+      <c r="I12" s="23">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="18">
+        <v>41947</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17">
+        <v>8287222934</v>
+      </c>
+      <c r="H13" s="16">
+        <v>8000</v>
+      </c>
+      <c r="I13" s="16">
         <v>100</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="18" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="18">
+        <v>41947</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="17">
+        <v>7042060502</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="25">
+        <v>41983</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
+        <v>8287414627</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="33">
+        <v>41980</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="31">
+        <v>4500</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" s="68" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
-        <v>2</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="63">
-        <v>41924</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66" t="s">
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="33">
+        <v>41985</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="31">
+        <v>5800</v>
+      </c>
+      <c r="I17" s="31">
+        <v>5800</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A18" s="43">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="45">
+        <v>41987</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="43">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="43">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A19" s="31">
+        <v>19</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="33">
+        <v>42020</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="31">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="31">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="66">
-        <v>9999405538</v>
-      </c>
-      <c r="H4" s="61">
-        <v>7000</v>
-      </c>
-      <c r="I4" s="61">
-        <v>500</v>
-      </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="L4" s="67"/>
-    </row>
-    <row r="5" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="31">
-        <v>41947</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="34">
-        <v>9650182218</v>
-      </c>
-      <c r="H5" s="29">
-        <v>5500</v>
-      </c>
-      <c r="I5" s="29">
-        <v>5500</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="23">
-        <v>41947</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="26">
-        <v>9716027793</v>
-      </c>
-      <c r="H6" s="21">
-        <v>5500</v>
-      </c>
-      <c r="I6" s="21">
-        <v>1500</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="31">
-        <v>41907</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="34">
-        <v>9891085793</v>
-      </c>
-      <c r="H7" s="29">
-        <v>4000</v>
-      </c>
-      <c r="I7" s="29">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>6</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="31">
-        <v>41947</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="34">
-        <v>9350215064</v>
-      </c>
-      <c r="H8" s="38">
-        <v>9000</v>
-      </c>
-      <c r="I8" s="29">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="31">
-        <v>41952</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34">
-        <v>9136791828</v>
-      </c>
-      <c r="H9" s="29">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="29">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>8</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="31">
-        <v>41964</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34">
-        <v>8800556120</v>
-      </c>
-      <c r="H10" s="29">
-        <v>850</v>
-      </c>
-      <c r="I10" s="29">
-        <v>850</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" s="37" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <v>9</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="31">
-        <v>41964</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="34">
-        <v>9958911395</v>
-      </c>
-      <c r="H11" s="29">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="29">
-        <v>3000</v>
-      </c>
-      <c r="J11" s="31">
-        <v>41971</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" s="28" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>10</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="23">
-        <v>41964</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="26">
-        <v>8527336673</v>
-      </c>
-      <c r="H12" s="21">
-        <v>7500</v>
-      </c>
-      <c r="I12" s="21">
-        <v>3000</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="16">
-        <v>41947</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="15">
-        <v>8287222934</v>
-      </c>
-      <c r="H13" s="14">
-        <v>8000</v>
-      </c>
-      <c r="I13" s="14">
-        <v>100</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="16">
-        <v>41947</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="15">
-        <v>7042060502</v>
-      </c>
-      <c r="H14" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" s="28" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="23">
-        <v>41983</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26">
-        <v>8287414627</v>
-      </c>
-      <c r="H15" s="21">
-        <v>4000</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
-        <v>15</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="31">
-        <v>41980</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="29">
-        <v>4500</v>
-      </c>
-      <c r="I16" s="29">
-        <v>1500</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="31">
-        <v>41985</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="29">
-        <v>5800</v>
-      </c>
-      <c r="I17" s="29">
-        <v>5800</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" s="45" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
-        <v>17</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="43">
-        <v>41987</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="41">
-        <v>4000</v>
-      </c>
-      <c r="I18" s="41">
-        <v>4000</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="L18" s="44"/>
-    </row>
-    <row r="19" spans="1:12" s="37" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <v>19</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="31">
-        <v>42020</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="29">
-        <v>3000</v>
-      </c>
-      <c r="I19" s="29">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:12" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-    </row>
-    <row r="21" spans="1:12" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7262,1647 +7282,1493 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="77" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="54"/>
+      <c r="D2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="77" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
+      <c r="A3" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D3" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="77" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="56" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="D2" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="D4" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="54" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="C5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="13" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="D6" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="13" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="54" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="C7" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="13" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="54" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="C8" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="13" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="54" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="C9" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="13" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="56" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="C10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="C11" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="54" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="C21" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+      <c r="C22" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C23" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C24" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A25" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A27" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A28" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A29" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A30" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A31" s="57" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+    <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A32" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="13" t="s">
+    </row>
+    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A33" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A35" s="57" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A36" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="54" t="s">
+        <v>456</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A42" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
-        <v>428</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
-        <v>431</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="71" t="s">
+    </row>
+    <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A43" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A44" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="54" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
-        <v>449</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="C45" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A46" s="57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="58"/>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="54"/>
+    </row>
+    <row r="50" spans="1:1" ht="16.5">
+      <c r="A50" s="55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
-        <v>456</v>
-      </c>
-      <c r="C37" s="13" t="s">
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="54"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.5">
+      <c r="A75" s="55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A84" s="57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A86" s="57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
-        <v>458</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
-        <v>463</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="71" t="s">
-        <v>475</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="71" t="s">
-        <v>477</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
-        <v>467</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
-    </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-    </row>
-    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="51" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A94" s="57" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15">
+      <c r="A95" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A98" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15">
+      <c r="A99" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A101" s="57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15">
+      <c r="A102" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103" s="54" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="52" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="51" t="s">
-        <v>487</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="51" t="s">
-        <v>488</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="51" t="s">
-        <v>491</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="51" t="s">
-        <v>494</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="51" t="s">
-        <v>497</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="51" t="s">
-        <v>498</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="51" t="s">
-        <v>499</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="51" t="s">
-        <v>502</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="54" t="s">
+    <row r="104" spans="1:3" ht="15">
+      <c r="A104" s="54"/>
+    </row>
+    <row r="105" spans="1:3" ht="16.5">
+      <c r="A105" s="55" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="51" t="s">
-        <v>503</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="54" t="s">
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107" s="54" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="51" t="s">
+      <c r="C107" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15">
+      <c r="A108" s="54" t="s">
+        <v>517</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15">
+      <c r="A110" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
+      <c r="A111" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
+      <c r="A112" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="51" t="s">
-        <v>509</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
+    </row>
+    <row r="113" spans="1:1" ht="15">
+      <c r="A113" s="54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="52" t="s">
+    <row r="114" spans="1:1" ht="15">
+      <c r="A114" s="54" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="51" t="s">
-        <v>520</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="51" t="s">
+    <row r="115" spans="1:1" ht="15">
+      <c r="A115" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="51" t="s">
-        <v>522</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="51" t="s">
+    </row>
+    <row r="116" spans="1:1" ht="15">
+      <c r="A116" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="C112" s="8"/>
-    </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="51" t="s">
+    </row>
+    <row r="117" spans="1:1" ht="15">
+      <c r="A117" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="51" t="s">
+    </row>
+    <row r="118" spans="1:1" ht="15">
+      <c r="A118" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="51" t="s">
+    </row>
+    <row r="119" spans="1:1" ht="15">
+      <c r="A119" s="54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15">
+      <c r="A120" s="54"/>
+    </row>
+    <row r="121" spans="1:1" ht="16.5">
+      <c r="A121" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="C115" s="8"/>
-    </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="51" t="s">
+    </row>
+    <row r="122" spans="1:1" ht="15">
+      <c r="A122" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="C116" s="8"/>
-    </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="51" t="s">
+    </row>
+    <row r="123" spans="1:1" ht="15">
+      <c r="A123" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C117" s="8"/>
-    </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="51" t="s">
+    </row>
+    <row r="124" spans="1:1" ht="15">
+      <c r="A124" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C118" s="8"/>
-    </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="C119" s="8"/>
-    </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="51"/>
-      <c r="C120" s="8"/>
-    </row>
-    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="52" t="s">
+    </row>
+    <row r="125" spans="1:1" ht="15">
+      <c r="A125" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C121" s="8"/>
-    </row>
-    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="51" t="s">
+    </row>
+    <row r="126" spans="1:1" ht="15">
+      <c r="A126" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="C122" s="8"/>
-    </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="51" t="s">
+    </row>
+    <row r="127" spans="1:1" ht="15">
+      <c r="A127" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C123" s="8"/>
-    </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="51" t="s">
+    </row>
+    <row r="128" spans="1:1" ht="15">
+      <c r="A128" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="C124" s="8"/>
-    </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="51" t="s">
+    </row>
+    <row r="129" spans="1:1" ht="15">
+      <c r="A129" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C125" s="8"/>
-    </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="51" t="s">
+    </row>
+    <row r="130" spans="1:1" ht="15">
+      <c r="A130" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="C126" s="8"/>
-    </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="51" t="s">
+    </row>
+    <row r="131" spans="1:1" ht="15">
+      <c r="A131" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C127" s="8"/>
-    </row>
-    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="51" t="s">
+    </row>
+    <row r="132" spans="1:1" ht="15">
+      <c r="A132" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="8"/>
-    </row>
-    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="51" t="s">
+    </row>
+    <row r="133" spans="1:1" ht="15">
+      <c r="A133" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C129" s="8"/>
-    </row>
-    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="51" t="s">
+    </row>
+    <row r="134" spans="1:1" ht="15">
+      <c r="A134" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C130" s="8"/>
-    </row>
-    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="51" t="s">
+    </row>
+    <row r="135" spans="1:1" ht="15">
+      <c r="A135" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="51" t="s">
+    </row>
+    <row r="136" spans="1:1" ht="15">
+      <c r="A136" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="C132" s="8"/>
-    </row>
-    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="51" t="s">
+    </row>
+    <row r="137" spans="1:1" ht="15">
+      <c r="A137" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="C133" s="8"/>
-    </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="51" t="s">
+    </row>
+    <row r="138" spans="1:1" ht="15">
+      <c r="A138" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="C134" s="8"/>
-    </row>
-    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="51" t="s">
+    </row>
+    <row r="139" spans="1:1" ht="15">
+      <c r="A139" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C135" s="8"/>
-    </row>
-    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="51" t="s">
+    </row>
+    <row r="140" spans="1:1" ht="15">
+      <c r="A140" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="C136" s="8"/>
-    </row>
-    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="51" t="s">
+    </row>
+    <row r="141" spans="1:1" ht="15">
+      <c r="A141" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="C137" s="8"/>
-    </row>
-    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="51" t="s">
+    </row>
+    <row r="142" spans="1:1" ht="15">
+      <c r="A142" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="C138" s="8"/>
-    </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="51" t="s">
+    </row>
+    <row r="143" spans="1:1" ht="15">
+      <c r="A143" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="C139" s="8"/>
-    </row>
-    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="51" t="s">
+    </row>
+    <row r="144" spans="1:1" ht="15">
+      <c r="A144" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="C140" s="8"/>
-    </row>
-    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="51" t="s">
+    </row>
+    <row r="145" spans="1:1" ht="15">
+      <c r="A145" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C141" s="8"/>
-    </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="51" t="s">
+    </row>
+    <row r="146" spans="1:1" ht="15">
+      <c r="A146" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="C142" s="8"/>
-    </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="51" t="s">
+    </row>
+    <row r="147" spans="1:1" ht="15">
+      <c r="A147" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="C143" s="8"/>
-    </row>
-    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="51" t="s">
+    </row>
+    <row r="148" spans="1:1" ht="15">
+      <c r="A148" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="C144" s="8"/>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="51" t="s">
+    </row>
+    <row r="149" spans="1:1" ht="15">
+      <c r="A149" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C145" s="8"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="51" t="s">
+    </row>
+    <row r="150" spans="1:1" ht="15">
+      <c r="A150" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C146" s="8"/>
-    </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="51" t="s">
+    </row>
+    <row r="151" spans="1:1" ht="15">
+      <c r="A151" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="C147" s="8"/>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="51" t="s">
+    </row>
+    <row r="152" spans="1:1" ht="15">
+      <c r="A152" s="54"/>
+    </row>
+    <row r="153" spans="1:1" ht="16.5">
+      <c r="A153" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="C148" s="8"/>
-    </row>
-    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="51" t="s">
+    </row>
+    <row r="154" spans="1:1" ht="15">
+      <c r="A154" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C149" s="8"/>
-    </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="51" t="s">
+    </row>
+    <row r="155" spans="1:1" ht="15">
+      <c r="A155" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="C150" s="8"/>
-    </row>
-    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="51" t="s">
+    </row>
+    <row r="156" spans="1:1" ht="15">
+      <c r="A156" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="C151" s="8"/>
-    </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="51"/>
-      <c r="C152" s="8"/>
-    </row>
-    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="52" t="s">
+    </row>
+    <row r="157" spans="1:1" ht="15">
+      <c r="A157" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="C153" s="8"/>
-    </row>
-    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="51" t="s">
+    </row>
+    <row r="158" spans="1:1" ht="15">
+      <c r="A158" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="8"/>
-    </row>
-    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="51" t="s">
+    </row>
+    <row r="159" spans="1:1" ht="15">
+      <c r="A159" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C155" s="8"/>
-    </row>
-    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="51" t="s">
+    </row>
+    <row r="160" spans="1:1" ht="15">
+      <c r="A160" s="54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16.5">
+      <c r="A161" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="C156" s="8"/>
-    </row>
-    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="51" t="s">
+    </row>
+    <row r="162" spans="1:1" ht="15">
+      <c r="A162" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C157" s="8"/>
-    </row>
-    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="51" t="s">
+    </row>
+    <row r="163" spans="1:1" ht="15">
+      <c r="A163" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="8"/>
-    </row>
-    <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="51" t="s">
+    </row>
+    <row r="164" spans="1:1" ht="15">
+      <c r="A164" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="8"/>
-    </row>
-    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="C160" s="8"/>
-    </row>
-    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="52" t="s">
+    </row>
+    <row r="165" spans="1:1" ht="15">
+      <c r="A165" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="C161" s="8"/>
-    </row>
-    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="51" t="s">
+    </row>
+    <row r="166" spans="1:1" ht="15">
+      <c r="A166" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="C162" s="8"/>
-    </row>
-    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="51" t="s">
+    </row>
+    <row r="167" spans="1:1" ht="15">
+      <c r="A167" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="C163" s="8"/>
-    </row>
-    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="51" t="s">
+    </row>
+    <row r="168" spans="1:1" ht="15">
+      <c r="A168" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C164" s="8"/>
-    </row>
-    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="51" t="s">
+    </row>
+    <row r="169" spans="1:1" ht="15">
+      <c r="A169" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="C165" s="8"/>
-    </row>
-    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="51" t="s">
+    </row>
+    <row r="170" spans="1:1" ht="15">
+      <c r="A170" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="C166" s="8"/>
-    </row>
-    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="51" t="s">
+    </row>
+    <row r="171" spans="1:1" ht="15">
+      <c r="A171" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="C167" s="8"/>
-    </row>
-    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="51" t="s">
+    </row>
+    <row r="172" spans="1:1" ht="15">
+      <c r="A172" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="C168" s="8"/>
-    </row>
-    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="51" t="s">
+    </row>
+    <row r="173" spans="1:1" ht="15">
+      <c r="A173" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="C169" s="8"/>
-    </row>
-    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="51" t="s">
+    </row>
+    <row r="174" spans="1:1" ht="15">
+      <c r="A174" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C170" s="8"/>
-    </row>
-    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="51" t="s">
+    </row>
+    <row r="175" spans="1:1" ht="15">
+      <c r="A175" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="C171" s="8"/>
-    </row>
-    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="51" t="s">
+    </row>
+    <row r="176" spans="1:1" ht="15">
+      <c r="A176" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="C172" s="8"/>
-    </row>
-    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="51" t="s">
+    </row>
+    <row r="177" spans="1:1" ht="15">
+      <c r="A177" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="C173" s="8"/>
-    </row>
-    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="51" t="s">
+    </row>
+    <row r="178" spans="1:1" ht="15">
+      <c r="A178" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="C174" s="8"/>
-    </row>
-    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="51" t="s">
+    </row>
+    <row r="179" spans="1:1" ht="15">
+      <c r="A179" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="C175" s="8"/>
-    </row>
-    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="51" t="s">
+    </row>
+    <row r="180" spans="1:1" ht="15">
+      <c r="A180" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="C176" s="8"/>
-    </row>
-    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="51" t="s">
+    </row>
+    <row r="181" spans="1:1" ht="15">
+      <c r="A181" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="C177" s="8"/>
-    </row>
-    <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="51" t="s">
+    </row>
+    <row r="182" spans="1:1" ht="15">
+      <c r="A182" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C178" s="8"/>
-    </row>
-    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="51" t="s">
+    </row>
+    <row r="183" spans="1:1" ht="15">
+      <c r="A183" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="C179" s="8"/>
-    </row>
-    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="51" t="s">
+    </row>
+    <row r="184" spans="1:1" ht="15">
+      <c r="A184" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="C180" s="8"/>
-    </row>
-    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="51" t="s">
+    </row>
+    <row r="185" spans="1:1" ht="15">
+      <c r="A185" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="C181" s="8"/>
-    </row>
-    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="51" t="s">
+    </row>
+    <row r="186" spans="1:1" ht="15">
+      <c r="A186" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="C182" s="8"/>
-    </row>
-    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="51" t="s">
+    </row>
+    <row r="187" spans="1:1" ht="15">
+      <c r="A187" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="C183" s="8"/>
-    </row>
-    <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="51" t="s">
+    </row>
+    <row r="188" spans="1:1" ht="15">
+      <c r="A188" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="C184" s="8"/>
-    </row>
-    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="51" t="s">
+    </row>
+    <row r="189" spans="1:1" ht="15">
+      <c r="A189" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="C185" s="8"/>
-    </row>
-    <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="51" t="s">
+    </row>
+    <row r="190" spans="1:1" ht="15">
+      <c r="A190" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="C186" s="8"/>
-    </row>
-    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="51" t="s">
+    </row>
+    <row r="191" spans="1:1" ht="15">
+      <c r="A191" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="C187" s="8"/>
-    </row>
-    <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="51" t="s">
+    </row>
+    <row r="192" spans="1:1" ht="15">
+      <c r="A192" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="C188" s="8"/>
-    </row>
-    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="51" t="s">
+    </row>
+    <row r="193" spans="1:1" ht="15">
+      <c r="A193" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="C189" s="8"/>
-    </row>
-    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="51" t="s">
+    </row>
+    <row r="194" spans="1:1" ht="15">
+      <c r="A194" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="C190" s="8"/>
-    </row>
-    <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="51" t="s">
+    </row>
+    <row r="195" spans="1:1" ht="15">
+      <c r="A195" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C191" s="8"/>
-    </row>
-    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="51" t="s">
+    </row>
+    <row r="196" spans="1:1" ht="15">
+      <c r="A196" s="54"/>
+    </row>
+    <row r="197" spans="1:1" ht="16.5">
+      <c r="A197" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="C192" s="8"/>
-    </row>
-    <row r="193" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="51" t="s">
+    </row>
+    <row r="198" spans="1:1" ht="15">
+      <c r="A198" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="C193" s="8"/>
-    </row>
-    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="51" t="s">
+    </row>
+    <row r="199" spans="1:1" ht="15">
+      <c r="A199" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C194" s="8"/>
-    </row>
-    <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="51" t="s">
+    </row>
+    <row r="200" spans="1:1" ht="15">
+      <c r="A200" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="C195" s="8"/>
-    </row>
-    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="51"/>
-      <c r="C196" s="8"/>
-    </row>
-    <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="52" t="s">
+    </row>
+    <row r="201" spans="1:1" ht="15">
+      <c r="A201" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="C197" s="8"/>
-    </row>
-    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="51" t="s">
+    </row>
+    <row r="202" spans="1:1" ht="15">
+      <c r="A202" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="C198" s="8"/>
-    </row>
-    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="51" t="s">
+    </row>
+    <row r="203" spans="1:1" ht="15">
+      <c r="A203" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="C199" s="8"/>
-    </row>
-    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="51" t="s">
+    </row>
+    <row r="204" spans="1:1" ht="15">
+      <c r="A204" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="C200" s="8"/>
-    </row>
-    <row r="201" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="51" t="s">
+    </row>
+    <row r="205" spans="1:1" ht="15">
+      <c r="A205" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="C201" s="8"/>
-    </row>
-    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="51" t="s">
+    </row>
+    <row r="206" spans="1:1" ht="15">
+      <c r="A206" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="C202" s="8"/>
-    </row>
-    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="51" t="s">
+    </row>
+    <row r="207" spans="1:1" ht="15">
+      <c r="A207" s="54"/>
+    </row>
+    <row r="208" spans="1:1" ht="16.5">
+      <c r="A208" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="C203" s="8"/>
-    </row>
-    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="51" t="s">
+    </row>
+    <row r="209" spans="1:1" ht="15">
+      <c r="A209" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="C204" s="8"/>
-    </row>
-    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="51" t="s">
+    </row>
+    <row r="210" spans="1:1" ht="15">
+      <c r="A210" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="C205" s="8"/>
-    </row>
-    <row r="206" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="51" t="s">
+    </row>
+    <row r="211" spans="1:1" ht="15">
+      <c r="A211" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="C206" s="8"/>
-    </row>
-    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="51"/>
-      <c r="C207" s="8"/>
-    </row>
-    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="52" t="s">
+    </row>
+    <row r="212" spans="1:1" ht="15">
+      <c r="A212" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="C208" s="8"/>
-    </row>
-    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="51" t="s">
+    </row>
+    <row r="213" spans="1:1" ht="15">
+      <c r="A213" s="54"/>
+    </row>
+    <row r="214" spans="1:1" ht="16.5">
+      <c r="A214" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="C209" s="8"/>
-    </row>
-    <row r="210" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="51" t="s">
+    </row>
+    <row r="215" spans="1:1" ht="15">
+      <c r="A215" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="C210" s="8"/>
-    </row>
-    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="51" t="s">
+    </row>
+    <row r="216" spans="1:1" ht="15">
+      <c r="A216" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="C211" s="8"/>
-    </row>
-    <row r="212" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A212" s="51" t="s">
+    </row>
+    <row r="217" spans="1:1" ht="15">
+      <c r="A217" s="54"/>
+    </row>
+    <row r="218" spans="1:1" ht="16.5">
+      <c r="A218" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="C212" s="8"/>
-    </row>
-    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="51"/>
-      <c r="C213" s="8"/>
-    </row>
-    <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="52" t="s">
+    </row>
+    <row r="219" spans="1:1" ht="15">
+      <c r="A219" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="C214" s="8"/>
-    </row>
-    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="51" t="s">
+    </row>
+    <row r="220" spans="1:1" ht="15">
+      <c r="A220" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="C215" s="8"/>
-    </row>
-    <row r="216" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="51" t="s">
+    </row>
+    <row r="221" spans="1:1" ht="15">
+      <c r="A221" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="C216" s="8"/>
-    </row>
-    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="51"/>
-      <c r="C217" s="8"/>
-    </row>
-    <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="52" t="s">
+    </row>
+    <row r="222" spans="1:1" ht="15">
+      <c r="A222" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="C218" s="8"/>
-    </row>
-    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="51" t="s">
+    </row>
+    <row r="223" spans="1:1" ht="15">
+      <c r="A223" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="C219" s="8"/>
-    </row>
-    <row r="220" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="51" t="s">
+    </row>
+    <row r="224" spans="1:1" ht="15">
+      <c r="A224" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="C220" s="8"/>
-    </row>
-    <row r="221" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="51" t="s">
+    </row>
+    <row r="225" spans="1:1" ht="15">
+      <c r="A225" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="C221" s="8"/>
-    </row>
-    <row r="222" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="51" t="s">
+    </row>
+    <row r="226" spans="1:1" ht="15">
+      <c r="A226" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="C222" s="8"/>
-    </row>
-    <row r="223" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="51" t="s">
+    </row>
+    <row r="227" spans="1:1" ht="15">
+      <c r="A227" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="C223" s="8"/>
-    </row>
-    <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="51" t="s">
+    </row>
+    <row r="228" spans="1:1" ht="15">
+      <c r="A228" s="54"/>
+    </row>
+    <row r="229" spans="1:1" ht="16.5">
+      <c r="A229" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="C224" s="8"/>
-    </row>
-    <row r="225" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="51" t="s">
+    </row>
+    <row r="230" spans="1:1" ht="15">
+      <c r="A230" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="C225" s="8"/>
-    </row>
-    <row r="226" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="51" t="s">
+    </row>
+    <row r="231" spans="1:1" ht="15">
+      <c r="A231" s="54"/>
+    </row>
+    <row r="232" spans="1:1" ht="16.5">
+      <c r="A232" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="C226" s="8"/>
-    </row>
-    <row r="227" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="51" t="s">
+    </row>
+    <row r="233" spans="1:1" ht="15">
+      <c r="A233" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="C227" s="8"/>
-    </row>
-    <row r="228" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="51"/>
-      <c r="C228" s="8"/>
-    </row>
-    <row r="229" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="52" t="s">
+    </row>
+    <row r="234" spans="1:1" ht="15">
+      <c r="A234" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="C229" s="8"/>
-    </row>
-    <row r="230" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="51" t="s">
+    </row>
+    <row r="236" spans="1:1" ht="16.5">
+      <c r="A236" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="C230" s="8"/>
-    </row>
-    <row r="231" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="51"/>
-      <c r="C231" s="8"/>
-    </row>
-    <row r="232" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="52" t="s">
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="C232" s="8"/>
-    </row>
-    <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A233" s="51" t="s">
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="C233" s="8"/>
-    </row>
-    <row r="234" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A234" s="51" t="s">
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="56" t="s">
         <v>378</v>
       </c>
-      <c r="C234" s="8"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C235" s="8"/>
-    </row>
-    <row r="236" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="52" t="s">
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="C236" s="8"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="53" t="s">
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="C237" s="8"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="53" t="s">
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="C238" s="8"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="53" t="s">
+    </row>
+    <row r="244" spans="1:1" ht="16.5">
+      <c r="A244" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="C239" s="8"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="53" t="s">
+    </row>
+    <row r="246" spans="1:1" ht="16.5">
+      <c r="A246" s="55" t="s">
         <v>383</v>
       </c>
-      <c r="C240" s="8"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="53" t="s">
+    </row>
+    <row r="248" spans="1:1" ht="16.5">
+      <c r="A248" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="C241" s="8"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="53" t="s">
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="C242" s="8"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="8"/>
-    </row>
-    <row r="244" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="52" t="s">
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="59" t="s">
         <v>386</v>
       </c>
-      <c r="C244" s="8"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C245" s="8"/>
-    </row>
-    <row r="246" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="52" t="s">
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="C246" s="8"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C247" s="8"/>
-    </row>
-    <row r="248" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="52" t="s">
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="C248" s="8"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="56" t="s">
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="C249" s="8"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="56" t="s">
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="60" t="s">
         <v>390</v>
       </c>
-      <c r="C250" s="8"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="56" t="s">
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="C251" s="8"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="56" t="s">
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="C252" s="8"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="56" t="s">
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="C253" s="8"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="C254" s="8"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="C255" s="8"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="56" t="s">
-        <v>396</v>
-      </c>
-      <c r="C256" s="8"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="C257" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="538">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -221,18 +221,12 @@
     <t>Glue Stick Gum *3</t>
   </si>
   <si>
-    <t>20*3=60/-</t>
-  </si>
-  <si>
     <t>24rd Jan 15</t>
   </si>
   <si>
     <t>Color Paper</t>
   </si>
   <si>
-    <t>35/-</t>
-  </si>
-  <si>
     <t>Aryan Sukla</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
   </si>
   <si>
     <t>Given to Sachin</t>
-  </si>
-  <si>
-    <t>2000/-</t>
   </si>
   <si>
     <t>Gautam Jha</t>
@@ -3041,15 +3032,9 @@
     <t>Balloon</t>
   </si>
   <si>
-    <t>10/-</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
-    <t>40/-</t>
-  </si>
-  <si>
     <t>Small Toy Car</t>
   </si>
   <si>
@@ -3488,15 +3473,9 @@
     <t>Fevistick</t>
   </si>
   <si>
-    <t>50/-</t>
-  </si>
-  <si>
     <t>Stator</t>
   </si>
   <si>
-    <t>30/-</t>
-  </si>
-  <si>
     <t>Arduino uno bord self Design</t>
   </si>
   <si>
@@ -4014,6 +3993,18 @@
   </si>
   <si>
     <t>SOLDERING</t>
+  </si>
+  <si>
+    <t>4th Feb</t>
+  </si>
+  <si>
+    <t>Given To Sachin</t>
+  </si>
+  <si>
+    <t>Nail Cuttor (3Piece)</t>
+  </si>
+  <si>
+    <t>Scrub</t>
   </si>
 </sst>
 </file>
@@ -4762,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>41</v>
@@ -4794,10 +4785,10 @@
         <v>42016</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4817,7 +4808,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G3">
         <v>5000</v>
@@ -4826,10 +4817,10 @@
         <v>42025</v>
       </c>
       <c r="I3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4844,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4925,7 +4916,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -4954,7 +4945,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
@@ -4980,7 +4971,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
@@ -5006,7 +4997,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -5029,15 +5020,15 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>9711307409</v>
@@ -5046,7 +5037,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -5060,19 +5051,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>9540364146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -5086,22 +5077,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
@@ -5112,25 +5103,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5138,48 +5129,48 @@
     </row>
     <row r="12" spans="1:9" s="72" customFormat="1">
       <c r="A12" s="72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B12" s="72">
         <v>9871310918</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
@@ -5187,19 +5178,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D14" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -5219,19 +5210,19 @@
         <v>9711022937</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H15" s="76" t="s">
         <v>42</v>
@@ -5239,54 +5230,54 @@
     </row>
     <row r="16" spans="1:9" s="78" customFormat="1">
       <c r="A16" s="78" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B16" s="78">
         <v>9990180164</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F16" s="78" t="s">
+        <v>515</v>
+      </c>
+      <c r="G16" s="78" t="s">
         <v>522</v>
       </c>
-      <c r="G16" s="78" t="s">
-        <v>529</v>
-      </c>
       <c r="H16" s="78" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B17">
         <v>9210036786</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D17" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E17" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="76" t="s">
         <v>42</v>
@@ -5294,19 +5285,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E18" s="80">
         <v>42038</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5469,62 +5460,62 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>9999407484</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5561,7 +5552,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -5571,10 +5562,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5594,10 +5585,10 @@
         <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5607,132 +5598,165 @@
       <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
+      <c r="C2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
+      <c r="C3">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" t="s">
         <v>404</v>
       </c>
-      <c r="B8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
+      <c r="C8">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
+        <v>405</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" t="s">
-        <v>475</v>
+        <v>469</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C11" t="s">
-        <v>477</v>
+        <v>470</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>522</v>
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
+        <v>525</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5755,7 +5779,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>63</v>
@@ -5763,7 +5787,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -5771,39 +5795,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -5811,31 +5835,31 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -5843,7 +5867,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -5851,39 +5875,39 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" t="s">
         <v>416</v>
-      </c>
-      <c r="B14" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -5891,7 +5915,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -5899,15 +5923,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -5915,34 +5939,34 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -6671,34 +6695,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>41</v>
@@ -6711,13 +6735,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="18">
         <v>41907</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="17"/>
@@ -6732,7 +6756,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L3" s="21"/>
     </row>
@@ -6741,17 +6765,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="66">
         <v>41924</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" s="69">
         <v>9999405538</v>
@@ -6764,7 +6788,7 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L4" s="70"/>
     </row>
@@ -6773,17 +6797,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="33">
         <v>41947</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G5" s="36">
         <v>9650182218</v>
@@ -6796,7 +6820,7 @@
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L5" s="38"/>
     </row>
@@ -6805,13 +6829,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="25">
         <v>41947</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="28" t="s">
@@ -6828,7 +6852,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -6837,17 +6861,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="33">
         <v>41907</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G7" s="36">
         <v>9891085793</v>
@@ -6860,7 +6884,7 @@
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L7" s="38"/>
     </row>
@@ -6869,17 +6893,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="33">
         <v>41947</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G8" s="36">
         <v>9350215064</v>
@@ -6892,7 +6916,7 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L8" s="38"/>
     </row>
@@ -6901,13 +6925,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" s="33">
         <v>41952</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="36"/>
@@ -6922,7 +6946,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -6931,13 +6955,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="33">
         <v>41964</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="36"/>
@@ -6952,7 +6976,7 @@
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L10" s="38"/>
     </row>
@@ -6961,17 +6985,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="33">
         <v>41964</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" s="36">
         <v>9958911395</v>
@@ -6986,7 +7010,7 @@
         <v>41971</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L11" s="38"/>
     </row>
@@ -6995,17 +7019,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C12" s="25">
         <v>41964</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G12" s="28">
         <v>8527336673</v>
@@ -7018,7 +7042,7 @@
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L12" s="29"/>
     </row>
@@ -7027,13 +7051,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="18">
         <v>41947</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="17" t="s">
@@ -7050,7 +7074,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -7059,17 +7083,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C14" s="18">
         <v>41947</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G14" s="17">
         <v>7042060502</v>
@@ -7082,7 +7106,7 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L14" s="21"/>
     </row>
@@ -7091,16 +7115,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="25">
         <v>41983</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28">
@@ -7114,7 +7138,7 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -7123,13 +7147,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="33">
         <v>41980</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -7142,7 +7166,7 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L16" s="38"/>
     </row>
@@ -7151,20 +7175,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C17" s="33">
         <v>41985</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H17" s="31">
         <v>5800</v>
@@ -7174,7 +7198,7 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L17" s="38"/>
     </row>
@@ -7183,22 +7207,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C18" s="45">
         <v>41987</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H18" s="43">
         <v>4000</v>
@@ -7208,7 +7232,7 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L18" s="46"/>
     </row>
@@ -7217,20 +7241,20 @@
         <v>19</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" s="33">
         <v>42020</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H19" s="31">
         <v>3000</v>
@@ -7240,7 +7264,7 @@
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L19" s="38"/>
     </row>
@@ -7299,385 +7323,385 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="54"/>
       <c r="D2" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="54" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="54" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="74" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="74" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="74" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="74" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="74" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A31" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A32" s="57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A35" s="57" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A36" s="57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="74" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A43" s="57" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="74" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" s="54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A46" s="57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="54" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
@@ -7688,122 +7712,122 @@
     </row>
     <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15">
       <c r="A51" s="54" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15">
       <c r="A52" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15">
       <c r="A53" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15">
       <c r="A54" s="54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15">
       <c r="A55" s="54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15">
       <c r="A56" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15">
       <c r="A57" s="54" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15">
       <c r="A58" s="54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15">
       <c r="A59" s="54" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15">
       <c r="A60" s="54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15">
       <c r="A61" s="54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15">
       <c r="A62" s="54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15">
       <c r="A63" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15">
       <c r="A64" s="54" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15">
       <c r="A65" s="54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" s="54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
       <c r="A67" s="54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" s="54" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" s="54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" s="54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" s="54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
       <c r="A72" s="54" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
@@ -7811,213 +7835,213 @@
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="55" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" s="54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" s="54" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" s="54" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" s="54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" s="54" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" s="54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" s="54" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" s="54" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A84" s="57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="54" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A86" s="57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" s="54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="54" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="54" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="54" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="54" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" s="54" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" s="54" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A94" s="57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="54" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="54" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="54" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A98" s="57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" s="54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="54" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A101" s="57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" s="54" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15">
@@ -8025,95 +8049,95 @@
     </row>
     <row r="105" spans="1:3" ht="16.5">
       <c r="A105" s="55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" s="54" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" s="54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" s="54" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" s="54" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" s="54" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" s="54" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" s="54" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15">
       <c r="A113" s="54" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15">
       <c r="A114" s="54" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15">
       <c r="A115" s="54" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15">
       <c r="A116" s="54" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15">
       <c r="A117" s="54" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15">
       <c r="A118" s="54" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15">
       <c r="A119" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15">
@@ -8121,157 +8145,157 @@
     </row>
     <row r="121" spans="1:1" ht="16.5">
       <c r="A121" s="55" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15">
       <c r="A122" s="54" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15">
       <c r="A123" s="54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15">
       <c r="A124" s="54" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15">
       <c r="A125" s="54" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15">
       <c r="A126" s="54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15">
       <c r="A127" s="54" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15">
       <c r="A128" s="54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15">
       <c r="A129" s="54" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15">
       <c r="A130" s="54" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15">
       <c r="A131" s="54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15">
       <c r="A132" s="54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15">
       <c r="A133" s="54" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15">
       <c r="A134" s="54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15">
       <c r="A135" s="54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15">
       <c r="A136" s="54" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15">
       <c r="A137" s="54" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15">
       <c r="A138" s="54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15">
       <c r="A139" s="54" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15">
       <c r="A140" s="54" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15">
       <c r="A141" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15">
       <c r="A142" s="54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15">
       <c r="A143" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15">
       <c r="A144" s="54" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15">
       <c r="A145" s="54" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15">
       <c r="A146" s="54" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15">
       <c r="A147" s="54" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15">
       <c r="A148" s="54" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15">
       <c r="A149" s="54" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15">
       <c r="A150" s="54" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15">
       <c r="A151" s="54" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15">
@@ -8279,217 +8303,217 @@
     </row>
     <row r="153" spans="1:1" ht="16.5">
       <c r="A153" s="55" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15">
       <c r="A154" s="54" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15">
       <c r="A155" s="54" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15">
       <c r="A156" s="54" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15">
       <c r="A157" s="54" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15">
       <c r="A158" s="54" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15">
       <c r="A159" s="54" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15">
       <c r="A160" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="16.5">
       <c r="A161" s="55" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15">
       <c r="A162" s="54" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15">
       <c r="A163" s="54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15">
       <c r="A164" s="54" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15">
       <c r="A165" s="54" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15">
       <c r="A166" s="54" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15">
       <c r="A167" s="54" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15">
       <c r="A168" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15">
       <c r="A169" s="54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15">
       <c r="A170" s="54" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15">
       <c r="A171" s="54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15">
       <c r="A172" s="54" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15">
       <c r="A173" s="54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15">
       <c r="A174" s="54" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15">
       <c r="A175" s="54" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15">
       <c r="A176" s="54" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15">
       <c r="A177" s="54" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15">
       <c r="A178" s="54" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15">
       <c r="A179" s="54" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15">
       <c r="A180" s="54" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15">
       <c r="A181" s="54" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15">
       <c r="A182" s="54" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15">
       <c r="A183" s="54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15">
       <c r="A184" s="54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15">
       <c r="A185" s="54" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15">
       <c r="A186" s="54" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15">
       <c r="A187" s="54" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15">
       <c r="A188" s="54" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15">
       <c r="A189" s="54" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15">
       <c r="A190" s="54" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15">
       <c r="A191" s="54" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15">
       <c r="A192" s="54" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15">
       <c r="A193" s="54" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15">
       <c r="A194" s="54" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15">
       <c r="A195" s="54" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15">
@@ -8497,52 +8521,52 @@
     </row>
     <row r="197" spans="1:1" ht="16.5">
       <c r="A197" s="55" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15">
       <c r="A198" s="54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15">
       <c r="A199" s="54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15">
       <c r="A200" s="54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15">
       <c r="A201" s="54" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15">
       <c r="A202" s="54" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15">
       <c r="A203" s="54" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15">
       <c r="A204" s="54" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15">
       <c r="A205" s="54" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15">
       <c r="A206" s="54" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15">
@@ -8550,27 +8574,27 @@
     </row>
     <row r="208" spans="1:1" ht="16.5">
       <c r="A208" s="55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15">
       <c r="A209" s="54" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15">
       <c r="A210" s="54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15">
       <c r="A211" s="54" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15">
       <c r="A212" s="54" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15">
@@ -8578,17 +8602,17 @@
     </row>
     <row r="214" spans="1:1" ht="16.5">
       <c r="A214" s="55" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15">
       <c r="A215" s="54" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15">
       <c r="A216" s="54" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15">
@@ -8596,52 +8620,52 @@
     </row>
     <row r="218" spans="1:1" ht="16.5">
       <c r="A218" s="55" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15">
       <c r="A219" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15">
       <c r="A220" s="54" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15">
       <c r="A221" s="54" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15">
       <c r="A222" s="54" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15">
       <c r="A223" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15">
       <c r="A224" s="54" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15">
       <c r="A225" s="54" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15">
       <c r="A226" s="54" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15">
       <c r="A227" s="54" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15">
@@ -8649,12 +8673,12 @@
     </row>
     <row r="229" spans="1:1" ht="16.5">
       <c r="A229" s="55" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15">
       <c r="A230" s="54" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15">
@@ -8662,112 +8686,112 @@
     </row>
     <row r="232" spans="1:1" ht="16.5">
       <c r="A232" s="55" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15">
       <c r="A233" s="54" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15">
       <c r="A234" s="54" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="16.5">
       <c r="A236" s="55" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="56" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="56" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="56" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="56" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="56" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="56" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="55" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16.5">
       <c r="A248" s="55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="59" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="59" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="59" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="59" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="59" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="60" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="59" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="59" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="59" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="815" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" tabRatio="815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="546">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4005,6 +4005,30 @@
   </si>
   <si>
     <t>Scrub</t>
+  </si>
+  <si>
+    <t>Pravesh Sukla</t>
+  </si>
+  <si>
+    <t>praveshshukla25@gmail.com</t>
+  </si>
+  <si>
+    <t>s.i.e.t</t>
+  </si>
+  <si>
+    <t>quardcopter</t>
+  </si>
+  <si>
+    <t>Neeru</t>
+  </si>
+  <si>
+    <t>neeruy45@gmail.com</t>
+  </si>
+  <si>
+    <t>S.ITM</t>
+  </si>
+  <si>
+    <t>Final Year Project</t>
   </si>
 </sst>
 </file>
@@ -5323,10 +5347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5518,6 +5542,40 @@
         <v>505</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10">
+        <v>9555433468</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D10" t="s">
+        <v>540</v>
+      </c>
+      <c r="E10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11">
+        <v>9654818693</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E11" t="s">
+        <v>545</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -5528,6 +5586,8 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5564,7 +5624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5979,7 +6039,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -7309,8 +7369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" tabRatio="815" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" tabRatio="815" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="533">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -538,12 +538,6 @@
   </si>
   <si>
     <t>Less</t>
-  </si>
-  <si>
-    <t>1200/-</t>
-  </si>
-  <si>
-    <t>1800/-</t>
   </si>
   <si>
     <r>
@@ -571,18 +565,12 @@
     </r>
   </si>
   <si>
-    <t>2200/-</t>
-  </si>
-  <si>
     <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1200/-)</t>
   </si>
   <si>
     <t>650/-</t>
   </si>
   <si>
-    <t>2800/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -601,9 +589,6 @@
     </r>
   </si>
   <si>
-    <t>3200/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -625,9 +610,6 @@
     <t>800/-</t>
   </si>
   <si>
-    <t>3800/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -649,9 +631,6 @@
     <t>975/-</t>
   </si>
   <si>
-    <t>4200/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -670,12 +649,6 @@
     </r>
   </si>
   <si>
-    <t>468/-</t>
-  </si>
-  <si>
-    <t>4800/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -697,15 +670,9 @@
     <t>910/-</t>
   </si>
   <si>
-    <t>5200/-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Speed Control of DC Motor Using Pulse Width Modulation (1200/-)</t>
   </si>
   <si>
-    <t>5800/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -724,9 +691,6 @@
     </r>
   </si>
   <si>
-    <t>6200/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -743,9 +707,6 @@
       </rPr>
       <t>AT89S52 Microcontroller based Bi-directional Visitor Counter (1200/-)</t>
     </r>
-  </si>
-  <si>
-    <t>6800/-</t>
   </si>
   <si>
     <r>
@@ -4812,7 +4773,7 @@
         <v>166</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4832,7 +4793,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G3">
         <v>5000</v>
@@ -4841,7 +4802,7 @@
         <v>42025</v>
       </c>
       <c r="I3" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="J3" t="s">
         <v>167</v>
@@ -5101,22 +5062,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
@@ -5127,25 +5088,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="E11" t="s">
         <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5153,48 +5114,48 @@
     </row>
     <row r="12" spans="1:9" s="72" customFormat="1">
       <c r="A12" s="72" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B12" s="72">
         <v>9871310918</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
@@ -5202,19 +5163,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D14" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -5234,19 +5195,19 @@
         <v>9711022937</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F15" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="G15" s="76" t="s">
         <v>508</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>521</v>
       </c>
       <c r="H15" s="76" t="s">
         <v>42</v>
@@ -5254,48 +5215,48 @@
     </row>
     <row r="16" spans="1:9" s="78" customFormat="1">
       <c r="A16" s="78" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B16" s="78">
         <v>9990180164</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B17">
         <v>9210036786</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
@@ -5309,10 +5270,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D18" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E18" s="80">
         <v>42038</v>
@@ -5349,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5504,76 +5465,76 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="E8" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="F8" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E9" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="F9" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B10">
         <v>9555433468</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D10" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="E10" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B11">
         <v>9654818693</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="D11" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E11" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5612,7 +5573,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5648,7 +5609,7 @@
         <v>168</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5697,10 +5658,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -5708,10 +5669,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -5719,10 +5680,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -5730,24 +5691,24 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -5755,10 +5716,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -5766,7 +5727,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -5777,10 +5738,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -5788,10 +5749,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -5799,10 +5760,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C15">
         <v>105</v>
@@ -5810,10 +5771,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B16" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -5938,36 +5899,36 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -5975,7 +5936,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -5983,15 +5944,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -5999,7 +5960,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -6007,18 +5968,18 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6026,7 +5987,7 @@
         <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +6777,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L3" s="21"/>
     </row>
@@ -6848,7 +6809,7 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L4" s="70"/>
     </row>
@@ -6912,7 +6873,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -7006,7 +6967,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -7134,7 +7095,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -7166,7 +7127,7 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="L14" s="21"/>
     </row>
@@ -7198,7 +7159,7 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -7226,7 +7187,7 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L16" s="38"/>
     </row>
@@ -7258,7 +7219,7 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="L17" s="38"/>
     </row>
@@ -7292,7 +7253,7 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="L18" s="46"/>
     </row>
@@ -7369,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7391,168 +7352,168 @@
       <c r="C1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>172</v>
+      <c r="D1" s="15">
+        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="54"/>
-      <c r="D2" s="15" t="s">
-        <v>173</v>
+      <c r="D2" s="15">
+        <v>1800</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2200</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="C4" s="15">
+        <v>650</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2800</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="C6" s="15">
+        <v>800</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3800</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="C7" s="15">
+        <v>975</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>189</v>
+        <v>180</v>
+      </c>
+      <c r="C8" s="15">
+        <v>468</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4800</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>192</v>
+        <v>181</v>
+      </c>
+      <c r="C9" s="15">
+        <v>910</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>194</v>
+        <v>183</v>
+      </c>
+      <c r="C10" s="15">
+        <v>500</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5800</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>196</v>
+        <v>184</v>
+      </c>
+      <c r="C11" s="15">
+        <v>800</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6200</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>198</v>
+        <v>185</v>
+      </c>
+      <c r="C12" s="15">
+        <v>500</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6800</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="57" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="C14" s="15">
+        <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="54" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="54" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="57" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="56" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="54" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>87</v>
@@ -7560,7 +7521,7 @@
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="54" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>91</v>
@@ -7568,71 +7529,71 @@
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="54" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="54" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="54" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="54" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="74" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="74" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="74" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="74" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>89</v>
@@ -7640,75 +7601,75 @@
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="74" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A31" s="57" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A32" s="57" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A35" s="57" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A36" s="57" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>87</v>
@@ -7716,52 +7677,52 @@
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="74" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A43" s="57" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="74" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" s="54" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A46" s="57" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="54" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
@@ -7772,122 +7733,122 @@
     </row>
     <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="55" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15">
       <c r="A51" s="54" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15">
       <c r="A52" s="54" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15">
       <c r="A53" s="54" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15">
       <c r="A54" s="54" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15">
       <c r="A55" s="54" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15">
       <c r="A56" s="54" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15">
       <c r="A57" s="54" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15">
       <c r="A58" s="54" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15">
       <c r="A59" s="54" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15">
       <c r="A60" s="54" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15">
       <c r="A61" s="54" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15">
       <c r="A62" s="54" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15">
       <c r="A63" s="54" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15">
       <c r="A64" s="54" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15">
       <c r="A65" s="54" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" s="54" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
       <c r="A67" s="54" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" s="54" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" s="54" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" s="54" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" s="54" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
       <c r="A72" s="54" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" s="54" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
@@ -7895,155 +7856,155 @@
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="55" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" s="54" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" s="54" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" s="54" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" s="54" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" s="54" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" s="54" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" s="54" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" s="54" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A84" s="57" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="54" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A86" s="57" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" s="54" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="54" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="54" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="54" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="54" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" s="54" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" s="54" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A94" s="57" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="54" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>89</v>
@@ -8051,57 +8012,57 @@
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="54" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="54" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A98" s="57" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" s="54" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="54" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A101" s="57" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" s="54" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" s="54" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15">
@@ -8109,95 +8070,95 @@
     </row>
     <row r="105" spans="1:3" ht="16.5">
       <c r="A105" s="55" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" s="54" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" s="54" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" s="54" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" s="54" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" s="54" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" s="54" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" s="54" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15">
       <c r="A113" s="54" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15">
       <c r="A114" s="54" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15">
       <c r="A115" s="54" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15">
       <c r="A116" s="54" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15">
       <c r="A117" s="54" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15">
       <c r="A118" s="54" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15">
       <c r="A119" s="54" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15">
@@ -8205,157 +8166,157 @@
     </row>
     <row r="121" spans="1:1" ht="16.5">
       <c r="A121" s="55" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15">
       <c r="A122" s="54" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15">
       <c r="A123" s="54" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15">
       <c r="A124" s="54" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15">
       <c r="A125" s="54" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15">
       <c r="A126" s="54" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15">
       <c r="A127" s="54" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15">
       <c r="A128" s="54" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15">
       <c r="A129" s="54" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15">
       <c r="A130" s="54" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15">
       <c r="A131" s="54" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15">
       <c r="A132" s="54" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15">
       <c r="A133" s="54" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15">
       <c r="A134" s="54" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15">
       <c r="A135" s="54" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15">
       <c r="A136" s="54" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15">
       <c r="A137" s="54" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15">
       <c r="A138" s="54" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15">
       <c r="A139" s="54" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15">
       <c r="A140" s="54" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15">
       <c r="A141" s="54" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15">
       <c r="A142" s="54" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15">
       <c r="A143" s="54" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15">
       <c r="A144" s="54" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15">
       <c r="A145" s="54" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15">
       <c r="A146" s="54" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15">
       <c r="A147" s="54" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15">
       <c r="A148" s="54" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15">
       <c r="A149" s="54" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15">
       <c r="A150" s="54" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15">
       <c r="A151" s="54" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15">
@@ -8363,217 +8324,217 @@
     </row>
     <row r="153" spans="1:1" ht="16.5">
       <c r="A153" s="55" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15">
       <c r="A154" s="54" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15">
       <c r="A155" s="54" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15">
       <c r="A156" s="54" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15">
       <c r="A157" s="54" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15">
       <c r="A158" s="54" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15">
       <c r="A159" s="54" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15">
       <c r="A160" s="54" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="16.5">
       <c r="A161" s="55" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15">
       <c r="A162" s="54" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15">
       <c r="A163" s="54" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15">
       <c r="A164" s="54" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15">
       <c r="A165" s="54" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15">
       <c r="A166" s="54" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15">
       <c r="A167" s="54" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15">
       <c r="A168" s="54" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15">
       <c r="A169" s="54" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15">
       <c r="A170" s="54" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15">
       <c r="A171" s="54" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15">
       <c r="A172" s="54" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15">
       <c r="A173" s="54" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15">
       <c r="A174" s="54" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15">
       <c r="A175" s="54" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15">
       <c r="A176" s="54" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15">
       <c r="A177" s="54" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15">
       <c r="A178" s="54" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15">
       <c r="A179" s="54" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15">
       <c r="A180" s="54" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15">
       <c r="A181" s="54" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15">
       <c r="A182" s="54" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15">
       <c r="A183" s="54" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15">
       <c r="A184" s="54" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15">
       <c r="A185" s="54" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15">
       <c r="A186" s="54" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15">
       <c r="A187" s="54" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15">
       <c r="A188" s="54" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15">
       <c r="A189" s="54" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15">
       <c r="A190" s="54" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15">
       <c r="A191" s="54" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15">
       <c r="A192" s="54" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15">
       <c r="A193" s="54" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15">
       <c r="A194" s="54" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15">
       <c r="A195" s="54" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15">
@@ -8581,52 +8542,52 @@
     </row>
     <row r="197" spans="1:1" ht="16.5">
       <c r="A197" s="55" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15">
       <c r="A198" s="54" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15">
       <c r="A199" s="54" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15">
       <c r="A200" s="54" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15">
       <c r="A201" s="54" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15">
       <c r="A202" s="54" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15">
       <c r="A203" s="54" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15">
       <c r="A204" s="54" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15">
       <c r="A205" s="54" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15">
       <c r="A206" s="54" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15">
@@ -8634,27 +8595,27 @@
     </row>
     <row r="208" spans="1:1" ht="16.5">
       <c r="A208" s="55" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15">
       <c r="A209" s="54" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15">
       <c r="A210" s="54" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15">
       <c r="A211" s="54" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15">
       <c r="A212" s="54" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15">
@@ -8662,17 +8623,17 @@
     </row>
     <row r="214" spans="1:1" ht="16.5">
       <c r="A214" s="55" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15">
       <c r="A215" s="54" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15">
       <c r="A216" s="54" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15">
@@ -8680,52 +8641,52 @@
     </row>
     <row r="218" spans="1:1" ht="16.5">
       <c r="A218" s="55" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15">
       <c r="A219" s="54" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15">
       <c r="A220" s="54" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15">
       <c r="A221" s="54" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15">
       <c r="A222" s="54" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15">
       <c r="A223" s="54" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15">
       <c r="A224" s="54" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15">
       <c r="A225" s="54" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15">
       <c r="A226" s="54" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15">
       <c r="A227" s="54" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15">
@@ -8733,12 +8694,12 @@
     </row>
     <row r="229" spans="1:1" ht="16.5">
       <c r="A229" s="55" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15">
       <c r="A230" s="54" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15">
@@ -8746,112 +8707,112 @@
     </row>
     <row r="232" spans="1:1" ht="16.5">
       <c r="A232" s="55" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15">
       <c r="A233" s="54" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15">
       <c r="A234" s="54" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="16.5">
       <c r="A236" s="55" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="56" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="56" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="56" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="56" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="56" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="56" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="55" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="55" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16.5">
       <c r="A248" s="55" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="59" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="59" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="59" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="59" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="59" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="60" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="59" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="59" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="59" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" tabRatio="815" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="484">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -65,18 +65,12 @@
     <t>Amit Kumar</t>
   </si>
   <si>
-    <t>200/-</t>
-  </si>
-  <si>
     <t>amitkumar.rsm@gmail.com</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
     <t>Name Of Project Taken</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>22nd Jan 15</t>
   </si>
   <si>
-    <t>300/-</t>
-  </si>
-  <si>
     <t>Manisha Srivastava</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>23rd jan</t>
   </si>
   <si>
-    <t>100/-</t>
-  </si>
-  <si>
     <t>Aman Pandey</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>Himanshu Rawat</t>
   </si>
   <si>
-    <t>150/-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water Lebel  (Soldering) </t>
   </si>
   <si>
@@ -236,9 +221,6 @@
     <t>Bar Magnet</t>
   </si>
   <si>
-    <t>20/-</t>
-  </si>
-  <si>
     <t>Payment Date</t>
   </si>
   <si>
@@ -257,18 +239,9 @@
     <t>24th Jan</t>
   </si>
   <si>
-    <t>100+100/-</t>
-  </si>
-  <si>
-    <t>50+100/-</t>
-  </si>
-  <si>
     <t>paid</t>
   </si>
   <si>
-    <t>350-50/-</t>
-  </si>
-  <si>
     <t>Name Of Module Or Board</t>
   </si>
   <si>
@@ -284,40 +257,19 @@
     <t>8051 With LCD ; Keypad And RS 232</t>
   </si>
   <si>
-    <t>500/-</t>
-  </si>
-  <si>
-    <t>700/-</t>
-  </si>
-  <si>
-    <t>1000/-</t>
-  </si>
-  <si>
     <t>RF Module Pcb</t>
   </si>
   <si>
-    <t>450/-</t>
-  </si>
-  <si>
     <t>DC Motor</t>
   </si>
   <si>
     <t>Gear Motor</t>
   </si>
   <si>
-    <t>180/-</t>
-  </si>
-  <si>
     <t>Motion Sensor</t>
   </si>
   <si>
-    <t>250/-</t>
-  </si>
-  <si>
     <t>IR Module</t>
-  </si>
-  <si>
-    <t>60/-</t>
   </si>
   <si>
     <t>Robot Chachis</t>
@@ -526,9 +478,6 @@
   </si>
   <si>
     <t>Basic Electronics</t>
-  </si>
-  <si>
-    <t>Buy</t>
   </si>
   <si>
     <t>Final Year / Major Projects</t>
@@ -568,9 +517,6 @@
     <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1200/-)</t>
   </si>
   <si>
-    <t>650/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -607,9 +553,6 @@
     </r>
   </si>
   <si>
-    <t>800/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -628,9 +571,6 @@
     </r>
   </si>
   <si>
-    <t>975/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -667,9 +607,6 @@
     </r>
   </si>
   <si>
-    <t>910/-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Speed Control of DC Motor Using Pulse Width Modulation (1200/-)</t>
   </si>
   <si>
@@ -763,9 +700,6 @@
     </r>
   </si>
   <si>
-    <t>400/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -859,9 +793,6 @@
     </r>
   </si>
   <si>
-    <t>670/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -880,9 +811,6 @@
     </r>
   </si>
   <si>
-    <t>680/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -899,9 +827,6 @@
       </rPr>
       <t>AT89S52 Microcontroller based Edge Avoiding Robot (1200/-)</t>
     </r>
-  </si>
-  <si>
-    <t>780/-</t>
   </si>
   <si>
     <r>
@@ -1767,24 +1692,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Light Sensing Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Obstacle Avoiding Robot using IR Module (1200/-)</t>
     </r>
   </si>
@@ -1822,42 +1729,6 @@
         <family val="2"/>
       </rPr>
       <t>Obstacle Avoiding Robot using Ultrasonic Module (1200/)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Controlled Robotic Arm (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hand Gesture Controlled Robot using Accelerometer (2800/-)</t>
     </r>
   </si>
   <si>
@@ -1990,24 +1861,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>RFID Based Automatic Vehicle Parking System (3200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>RFID Based Automatic Vehicle Parking System with SMS Alert (4200/-)</t>
     </r>
   </si>
@@ -2021,16 +1874,10 @@
     <t>RFID Based Local Vehicle Tracking System  (4200/-)</t>
   </si>
   <si>
-    <t>RFID Based Security System           (2800/-)</t>
-  </si>
-  <si>
     <t>RFID Based Attendance System  (2800/-)</t>
   </si>
   <si>
     <t>RFID Based Railway Reservation    (2800/-)</t>
-  </si>
-  <si>
-    <t>RFID Based Shopping Cart      (3200/-)</t>
   </si>
   <si>
     <t>Automatic Toll Tax  Deduction System      (2800/-)</t>
@@ -2174,43 +2021,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Remote Control Based Induction Motor Direction Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Remote based Multiple Device Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remote Control Based Robotic Arm Movement (3500/-)</t>
     </r>
   </si>
   <si>
@@ -2326,25 +2137,13 @@
     <t xml:space="preserve">GSM Based Voting Machine.     </t>
   </si>
   <si>
-    <t xml:space="preserve">GSM Based Motor Control </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Home Security System        </t>
-  </si>
-  <si>
     <t xml:space="preserve">GSM Based Energy Meter Monitoring    </t>
   </si>
   <si>
-    <t xml:space="preserve">GSM Based Controlled Wireless Robot     </t>
-  </si>
-  <si>
     <t xml:space="preserve">GSM Based Stepper Motor Control   </t>
   </si>
   <si>
     <t xml:space="preserve">GSM Based Vehicle Ignition System for Safety </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM Based Generator Start/Stop </t>
   </si>
   <si>
     <t xml:space="preserve">GSM Based Vending Machine    </t>
@@ -2410,77 +2209,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Zig Bee based Data transmission (4600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Zig Bee based Device Control using PC (4800/-)</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zig Bee based DC Motor Speed Control (4900/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> ZigBee based GAS leak detection and data monitoring system</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Zigbee based health monitoring system heart beat/ blood pressure </t>
-  </si>
-  <si>
     <t>Wireless Meter Reading System based on Zigbee Technology</t>
-  </si>
-  <si>
-    <t>zigbee based water level monitor and pump control</t>
-  </si>
-  <si>
-    <t>ZigBee-Based Power Monitoring System with Direct Load Control Capabilities</t>
-  </si>
-  <si>
-    <t>Home security and appliance control using zigbee</t>
   </si>
   <si>
     <r>
@@ -2522,60 +2255,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Visual Basic Based IC Tester (74XX Series) (4500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual basic based Device Control through PC (6500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Visual Basic Based DC Motor Speed Control (8000/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Visual Basic based Equipment Control through PC using Remote Control (8000/-)</t>
     </r>
   </si>
@@ -2666,28 +2345,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Electricity Generator using Water Turbine (5500/-)</t>
-    </r>
-  </si>
-  <si>
     <t>Remote Controlled Drilling Machine</t>
-  </si>
-  <si>
-    <t>Robotic Arm</t>
   </si>
   <si>
     <t>Air Defense Gun</t>
@@ -2966,9 +2624,6 @@
     <t>Spring Constant</t>
   </si>
   <si>
-    <t>150/</t>
-  </si>
-  <si>
     <t>Salini Singh</t>
   </si>
   <si>
@@ -3008,12 +2663,6 @@
     <t>Pending Payment</t>
   </si>
   <si>
-    <t>546/-</t>
-  </si>
-  <si>
-    <t>1820/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3044,18 +2693,6 @@
     <t>27th jan</t>
   </si>
   <si>
-    <t>Power Supply was cut down automaticaly and inverter was not working</t>
-  </si>
-  <si>
-    <t>750/-</t>
-  </si>
-  <si>
-    <t>220/-</t>
-  </si>
-  <si>
-    <t>2041/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3074,9 +2711,6 @@
     </r>
   </si>
   <si>
-    <t>1040/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3155,9 +2789,6 @@
     <t>Eddy Current Project</t>
   </si>
   <si>
-    <t>200+100/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3176,9 +2807,6 @@
     </r>
   </si>
   <si>
-    <t>682/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3200,21 +2828,12 @@
     <t>Relay Driver(one Relay)</t>
   </si>
   <si>
-    <t>75/-</t>
-  </si>
-  <si>
     <t>Gas Sensor</t>
   </si>
   <si>
-    <t>380/-</t>
-  </si>
-  <si>
     <t>Motor Driver</t>
   </si>
   <si>
-    <t>1079/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3254,9 +2873,6 @@
     </r>
   </si>
   <si>
-    <t>1235/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3293,9 +2909,6 @@
     </r>
   </si>
   <si>
-    <t>1365/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3317,12 +2930,6 @@
     <t>Arduino Board (atmega328)</t>
   </si>
   <si>
-    <t>936/-</t>
-  </si>
-  <si>
-    <t>575/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3365,9 +2972,6 @@
     </r>
   </si>
   <si>
-    <t>1950/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3389,9 +2993,6 @@
     <t>Stepper motor</t>
   </si>
   <si>
-    <t>2365/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3410,9 +3011,6 @@
     </r>
   </si>
   <si>
-    <t>665/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3443,15 +3041,9 @@
     <t>Arduino uno with lcd</t>
   </si>
   <si>
-    <t>600/-</t>
-  </si>
-  <si>
     <t>Arduino uno with ,lcd and Keypad</t>
   </si>
   <si>
-    <t>1274/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3488,12 +3080,6 @@
     </r>
   </si>
   <si>
-    <t>230/-</t>
-  </si>
-  <si>
-    <t>1066/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3512,9 +3098,6 @@
     </r>
   </si>
   <si>
-    <t>1196/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3569,9 +3152,6 @@
     </r>
   </si>
   <si>
-    <t>1430/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3716,9 +3296,6 @@
     </r>
   </si>
   <si>
-    <t>1065/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3737,12 +3314,6 @@
     </r>
   </si>
   <si>
-    <t>1700/-</t>
-  </si>
-  <si>
-    <t>3475/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3761,9 +3332,6 @@
     </r>
   </si>
   <si>
-    <t>3035/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3803,9 +3371,6 @@
     <t>Water Level indicator</t>
   </si>
   <si>
-    <t>350/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3860,9 +3425,6 @@
     </r>
   </si>
   <si>
-    <t>675/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3884,9 +3446,6 @@
     <t>29th jan</t>
   </si>
   <si>
-    <t>1500/-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3917,9 +3476,6 @@
     <t>29th Jan</t>
   </si>
   <si>
-    <t>100+250/-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -3986,10 +3542,307 @@
     <t>neeruy45@gmail.com</t>
   </si>
   <si>
-    <t>S.ITM</t>
-  </si>
-  <si>
     <t>Final Year Project</t>
+  </si>
+  <si>
+    <t>6th Feb</t>
+  </si>
+  <si>
+    <t>5th Feb</t>
+  </si>
+  <si>
+    <t>Given to Sweeper</t>
+  </si>
+  <si>
+    <t>Total Cost Rs/-</t>
+  </si>
+  <si>
+    <t>Advance in Rs/-</t>
+  </si>
+  <si>
+    <t>S.I.T.M</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Light Sensing Robot without Microcontroller (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Controlled Robotic Arm (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hand Gesture Controlled Robot using Accelerometer (2200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID Based Automatic Vehicle Parking System (2800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based Induction Motor Direction Control (3800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remote Control Based Robotic Arm Movement (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>GSM Module</t>
+  </si>
+  <si>
+    <t>GPS Module</t>
+  </si>
+  <si>
+    <t>Xbee</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based Data transmission (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zig Bee based DC Motor Speed Control (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Anand Sharma</t>
+  </si>
+  <si>
+    <t>Anandsharma0591@gmail.com</t>
+  </si>
+  <si>
+    <t>Accurate</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>GSM Based Motor Control (2200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM Based Home Security System      (2800)  </t>
+  </si>
+  <si>
+    <t>GSM Based Controlled Wireless Robot     (3200)</t>
+  </si>
+  <si>
+    <t>GSM Based Generator Start/Stop (2200)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> ZigBee based GAS leak detection and data monitoring system(3800)</t>
+    </r>
+  </si>
+  <si>
+    <t>Zigbee based health monitoring system heart beat/ blood pressure (4800)</t>
+  </si>
+  <si>
+    <t>zigbee based water level monitor and pump control(4200)</t>
+  </si>
+  <si>
+    <t>ZigBee-Based Power Monitoring System with Direct Load Control Capabilities(4200)</t>
+  </si>
+  <si>
+    <t>Home security and appliance control using zigbee(4800)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic Based IC Tester (74XX Series) (4200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual basic based Device Control through PC (5200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visual Basic Based DC Motor Speed Control (4800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Electricity Generator using Water Turbine (3200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>Robotic Arm(1800)</t>
   </si>
 </sst>
 </file>
@@ -4694,8 +4547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4738,10 +4591,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="61" customFormat="1">
@@ -4770,10 +4623,10 @@
         <v>42016</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4784,7 +4637,7 @@
         <v>8287842670</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4793,7 +4646,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>517</v>
+        <v>434</v>
       </c>
       <c r="G3">
         <v>5000</v>
@@ -4802,10 +4655,10 @@
         <v>42025</v>
       </c>
       <c r="I3" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4820,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4832,6 +4685,8 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4840,449 +4695,449 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>452</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>453</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>9675253719</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>8377051116</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>9958268426</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>9958268426</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>9810791696</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>9711022937</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>9711307409</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>9540364146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>381</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" t="s">
-        <v>381</v>
-      </c>
-      <c r="G11" t="s">
-        <v>381</v>
+        <v>86</v>
+      </c>
+      <c r="F11">
+        <v>150</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="72" customFormat="1">
       <c r="A12" s="72" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="B12" s="72">
         <v>9871310918</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="72" t="s">
-        <v>381</v>
+        <v>86</v>
+      </c>
+      <c r="F12" s="72">
+        <v>150</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>424</v>
+        <v>349</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
+        <v>349</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="76" customFormat="1">
       <c r="A15" s="76" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="76">
         <v>9711022937</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>492</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>508</v>
+        <v>413</v>
+      </c>
+      <c r="F15" s="76">
+        <v>350</v>
+      </c>
+      <c r="G15" s="76">
+        <v>350</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="78" customFormat="1">
       <c r="A16" s="78" t="s">
-        <v>504</v>
+        <v>422</v>
       </c>
       <c r="B16" s="78">
         <v>9990180164</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>505</v>
+        <v>423</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>507</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>502</v>
+        <v>425</v>
+      </c>
+      <c r="F16" s="78">
+        <v>1500</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>509</v>
+        <v>426</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>509</v>
+        <v>426</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>510</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>430</v>
       </c>
       <c r="B17">
         <v>9210036786</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="E17" t="s">
-        <v>515</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
+        <v>432</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17">
+        <v>250</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
       <c r="D18" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="E18" s="80">
         <v>42038</v>
       </c>
-      <c r="F18" t="s">
-        <v>71</v>
+      <c r="F18">
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5308,10 +5163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5325,216 +5180,233 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>8826948120</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>7532986428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>8471015910</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>8010669503</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>9716414833</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>9999407484</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>409</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>489</v>
+        <v>410</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="F9" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>525</v>
+        <v>442</v>
       </c>
       <c r="B10">
         <v>9555433468</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="E10" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>446</v>
       </c>
       <c r="B11">
         <v>9654818693</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
-        <v>531</v>
+        <v>454</v>
       </c>
       <c r="E11" t="s">
-        <v>532</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12">
+        <v>9891358561</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E12" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5549,6 +5421,7 @@
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5558,7 +5431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -5570,10 +5443,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5583,10 +5456,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5600,24 +5473,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -5625,10 +5495,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -5636,10 +5506,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -5647,10 +5517,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -5658,10 +5528,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -5669,10 +5539,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -5680,10 +5550,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -5691,24 +5561,21 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>402</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -5716,10 +5583,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -5727,10 +5594,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>1500</v>
@@ -5738,10 +5605,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -5749,10 +5616,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>521</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>522</v>
+        <v>439</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -5760,10 +5627,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>521</v>
+        <v>438</v>
       </c>
       <c r="B15" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="C15">
         <v>105</v>
@@ -5771,13 +5638,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>441</v>
       </c>
       <c r="C16">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5787,10 +5676,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5800,194 +5689,218 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>404</v>
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B14" t="s">
-        <v>403</v>
+        <v>346</v>
+      </c>
+      <c r="B14">
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B15" t="s">
-        <v>429</v>
+        <v>369</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>430</v>
-      </c>
-      <c r="B16" t="s">
-        <v>431</v>
+        <v>370</v>
+      </c>
+      <c r="B16">
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>432</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
+        <v>371</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>435</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
+        <v>373</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B19" t="s">
-        <v>189</v>
+        <v>378</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>451</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
+        <v>384</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>458</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
+        <v>389</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>459</v>
-      </c>
-      <c r="B22" t="s">
-        <v>460</v>
+        <v>390</v>
+      </c>
+      <c r="B22">
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>461</v>
-      </c>
-      <c r="B23" t="s">
-        <v>177</v>
+        <v>391</v>
+      </c>
+      <c r="B23">
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s">
-        <v>465</v>
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>462</v>
+      </c>
+      <c r="B26">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B27">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -5999,9 +5912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6716,37 +6629,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L1" s="9"/>
     </row>
@@ -6756,13 +6669,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C3" s="18">
         <v>41907</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="17"/>
@@ -6777,7 +6690,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="20" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="L3" s="21"/>
     </row>
@@ -6786,17 +6699,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C4" s="66">
         <v>41924</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="69" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G4" s="69">
         <v>9999405538</v>
@@ -6809,7 +6722,7 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="L4" s="70"/>
     </row>
@@ -6818,17 +6731,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C5" s="33">
         <v>41947</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G5" s="36">
         <v>9650182218</v>
@@ -6841,7 +6754,7 @@
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="37" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L5" s="38"/>
     </row>
@@ -6850,13 +6763,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C6" s="25">
         <v>41947</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="28" t="s">
@@ -6873,7 +6786,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -6882,17 +6795,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C7" s="33">
         <v>41907</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G7" s="36">
         <v>9891085793</v>
@@ -6905,7 +6818,7 @@
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="35" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L7" s="38"/>
     </row>
@@ -6914,17 +6827,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C8" s="33">
         <v>41947</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G8" s="36">
         <v>9350215064</v>
@@ -6937,7 +6850,7 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="35" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="L8" s="38"/>
     </row>
@@ -6946,13 +6859,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C9" s="33">
         <v>41952</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="36"/>
@@ -6967,7 +6880,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -6976,13 +6889,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C10" s="33">
         <v>41964</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="36"/>
@@ -6997,7 +6910,7 @@
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="35" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L10" s="38"/>
     </row>
@@ -7006,17 +6919,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C11" s="33">
         <v>41964</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G11" s="36">
         <v>9958911395</v>
@@ -7031,7 +6944,7 @@
         <v>41971</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L11" s="38"/>
     </row>
@@ -7040,17 +6953,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C12" s="25">
         <v>41964</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G12" s="28">
         <v>8527336673</v>
@@ -7063,7 +6976,7 @@
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="41" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="L12" s="29"/>
     </row>
@@ -7072,13 +6985,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C13" s="18">
         <v>41947</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="17" t="s">
@@ -7095,7 +7008,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -7104,17 +7017,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C14" s="18">
         <v>41947</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="17" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G14" s="17">
         <v>7042060502</v>
@@ -7127,7 +7040,7 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="L14" s="21"/>
     </row>
@@ -7136,16 +7049,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C15" s="25">
         <v>41983</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28">
@@ -7159,7 +7072,7 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -7168,13 +7081,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C16" s="33">
         <v>41980</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -7187,7 +7100,7 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="L16" s="38"/>
     </row>
@@ -7196,20 +7109,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C17" s="33">
         <v>41985</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H17" s="31">
         <v>5800</v>
@@ -7219,7 +7132,7 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="L17" s="38"/>
     </row>
@@ -7228,22 +7141,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C18" s="45">
         <v>41987</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="H18" s="43">
         <v>4000</v>
@@ -7253,7 +7166,7 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="L18" s="46"/>
     </row>
@@ -7262,20 +7175,20 @@
         <v>19</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C19" s="33">
         <v>42020</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H19" s="31">
         <v>3000</v>
@@ -7285,7 +7198,7 @@
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="37" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L19" s="38"/>
     </row>
@@ -7328,10 +7241,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7344,13 +7257,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="53" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D1" s="15">
         <v>1200</v>
@@ -7364,7 +7277,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="55" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D3" s="15">
         <v>2200</v>
@@ -7372,7 +7285,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C4" s="15">
         <v>650</v>
@@ -7383,7 +7296,7 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="54" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C5" s="15">
         <v>1000</v>
@@ -7394,7 +7307,7 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="54" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C6" s="15">
         <v>800</v>
@@ -7405,7 +7318,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="54" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C7" s="15">
         <v>975</v>
@@ -7416,7 +7329,7 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="54" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C8" s="15">
         <v>468</v>
@@ -7427,7 +7340,7 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="54" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C9" s="15">
         <v>910</v>
@@ -7438,7 +7351,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C10" s="15">
         <v>500</v>
@@ -7449,7 +7362,7 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="54" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C11" s="15">
         <v>800</v>
@@ -7460,7 +7373,7 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="54" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C12" s="15">
         <v>500</v>
@@ -7471,12 +7384,12 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="57" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="54" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C14" s="15">
         <v>975</v>
@@ -7484,245 +7397,245 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="C15" s="15">
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="C16" s="15">
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="57" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="C18" s="15">
+        <v>910</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>87</v>
+        <v>171</v>
+      </c>
+      <c r="C19" s="15">
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>91</v>
+        <v>172</v>
+      </c>
+      <c r="C20" s="15">
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>196</v>
+        <v>173</v>
+      </c>
+      <c r="C21" s="15">
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>198</v>
+        <v>174</v>
+      </c>
+      <c r="C22" s="15">
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="C23" s="15">
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="C24" s="15">
+        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>395</v>
+        <v>382</v>
+      </c>
+      <c r="C25" s="10">
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>396</v>
+        <v>345</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1820</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>405</v>
+        <v>350</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2041</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="74" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>407</v>
+        <v>351</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1040</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>89</v>
+        <v>352</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>449</v>
+        <v>383</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1950</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A31" s="57" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A32" s="57" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
-        <v>425</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>174</v>
+        <v>367</v>
+      </c>
+      <c r="C33" s="63">
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
-        <v>427</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>426</v>
+        <v>368</v>
+      </c>
+      <c r="C34" s="15">
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A35" s="57" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A36" s="57" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
-        <v>434</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>433</v>
+        <v>372</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1079</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
-        <v>436</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>200</v>
+        <v>374</v>
+      </c>
+      <c r="C38" s="15">
+        <v>780</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
-        <v>438</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>437</v>
+        <v>375</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1235</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
-        <v>439</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>87</v>
+        <v>376</v>
+      </c>
+      <c r="C40" s="15">
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>440</v>
+        <v>377</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1365</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>452</v>
+        <v>385</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2365</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A43" s="57" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="74" t="s">
-        <v>455</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>454</v>
+        <v>386</v>
+      </c>
+      <c r="C44" s="10">
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>443</v>
+        <v>182</v>
+      </c>
+      <c r="C45" s="15">
+        <v>936</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A46" s="57" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>444</v>
+        <v>379</v>
+      </c>
+      <c r="C47" s="15">
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
@@ -7733,122 +7646,122 @@
     </row>
     <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="55" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15">
       <c r="A51" s="54" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15">
       <c r="A52" s="54" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15">
       <c r="A53" s="54" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15">
       <c r="A54" s="54" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15">
       <c r="A55" s="54" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15">
       <c r="A56" s="54" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15">
       <c r="A57" s="54" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15">
       <c r="A58" s="54" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15">
       <c r="A59" s="54" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15">
       <c r="A60" s="54" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15">
       <c r="A61" s="54" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15">
       <c r="A62" s="54" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15">
       <c r="A63" s="54" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15">
       <c r="A64" s="54" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15">
       <c r="A65" s="54" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" s="54" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
       <c r="A67" s="54" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" s="54" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" s="54" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" s="54" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" s="54" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
       <c r="A72" s="54" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" s="54" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
@@ -7856,213 +7769,213 @@
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="55" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>462</v>
+        <v>209</v>
+      </c>
+      <c r="C76" s="15">
+        <v>1274</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>200</v>
+        <v>392</v>
+      </c>
+      <c r="C77" s="15">
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" s="54" t="s">
-        <v>464</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>182</v>
+        <v>393</v>
+      </c>
+      <c r="C78" s="15">
+        <v>910</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>462</v>
+        <v>210</v>
+      </c>
+      <c r="C79" s="15">
+        <v>1274</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" s="54" t="s">
-        <v>467</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>466</v>
+        <v>394</v>
+      </c>
+      <c r="C80" s="15">
+        <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>468</v>
+        <v>211</v>
+      </c>
+      <c r="C81" s="15">
+        <v>1196</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>468</v>
+        <v>395</v>
+      </c>
+      <c r="C82" s="15">
+        <v>1196</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" s="54" t="s">
-        <v>470</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>443</v>
+        <v>396</v>
+      </c>
+      <c r="C83" s="15">
+        <v>936</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A84" s="57" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="54" t="s">
-        <v>471</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>179</v>
+        <v>397</v>
+      </c>
+      <c r="C85" s="15">
+        <v>975</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A86" s="57" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>472</v>
+        <v>214</v>
+      </c>
+      <c r="C87" s="15">
+        <v>1430</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="54" t="s">
-        <v>473</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>407</v>
+        <v>398</v>
+      </c>
+      <c r="C88" s="15">
+        <v>1040</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>179</v>
+        <v>399</v>
+      </c>
+      <c r="C89" s="15">
+        <v>975</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>437</v>
+        <v>400</v>
+      </c>
+      <c r="C90" s="15">
+        <v>1235</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="54" t="s">
-        <v>476</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>472</v>
+        <v>401</v>
+      </c>
+      <c r="C91" s="15">
+        <v>1430</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" s="54" t="s">
-        <v>477</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>466</v>
+        <v>402</v>
+      </c>
+      <c r="C92" s="15">
+        <v>1066</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" s="54" t="s">
-        <v>478</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>182</v>
+        <v>403</v>
+      </c>
+      <c r="C93" s="15">
+        <v>910</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A94" s="57" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="54" t="s">
-        <v>479</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>89</v>
+        <v>404</v>
+      </c>
+      <c r="C95" s="15">
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="54" t="s">
-        <v>480</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>472</v>
+        <v>405</v>
+      </c>
+      <c r="C96" s="15">
+        <v>1430</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>481</v>
+        <v>406</v>
+      </c>
+      <c r="C97" s="15">
+        <v>1065</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A98" s="57" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>483</v>
+        <v>217</v>
+      </c>
+      <c r="C99" s="15">
+        <v>1700</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="54" t="s">
-        <v>485</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>484</v>
+        <v>407</v>
+      </c>
+      <c r="C100" s="15">
+        <v>3475</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A101" s="57" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" s="54" t="s">
-        <v>487</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>486</v>
+        <v>408</v>
+      </c>
+      <c r="C102" s="15">
+        <v>3035</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" s="54" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15">
@@ -8070,749 +7983,865 @@
     </row>
     <row r="105" spans="1:3" ht="16.5">
       <c r="A105" s="55" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>179</v>
+        <v>416</v>
+      </c>
+      <c r="C106" s="15">
+        <v>975</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>454</v>
+        <v>220</v>
+      </c>
+      <c r="C107" s="15">
+        <v>665</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>179</v>
+        <v>417</v>
+      </c>
+      <c r="C108" s="15">
+        <v>975</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" s="54" t="s">
-        <v>498</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>499</v>
+        <v>418</v>
+      </c>
+      <c r="C109" s="15">
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>179</v>
+        <v>419</v>
+      </c>
+      <c r="C110" s="15">
+        <v>975</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" s="54" t="s">
-        <v>503</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>403</v>
+        <v>421</v>
+      </c>
+      <c r="C111" s="15">
+        <v>750</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15">
+      <c r="A113" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15">
+      <c r="A114" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="15">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A115" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15">
+      <c r="A116" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="15">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15">
+      <c r="A117" s="54" t="s">
+        <v>456</v>
+      </c>
+      <c r="C117" s="15">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15">
+      <c r="A118" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="C118" s="15">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15">
+      <c r="A119" s="54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15">
+      <c r="A120" s="54"/>
+    </row>
+    <row r="121" spans="1:3" ht="16.5">
+      <c r="A121" s="55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A122" s="57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15">
+      <c r="A123" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123" s="15">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15">
+      <c r="A124" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="15">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15">
+      <c r="A125" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125" s="15">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15">
+      <c r="A126" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="15">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15">
+      <c r="A127" s="54" t="s">
+        <v>458</v>
+      </c>
+      <c r="C127" s="15">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A128" s="57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A129" s="57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A130" s="57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A131" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A132" s="57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A133" s="57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15">
+      <c r="A134" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" s="15">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A135" s="57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A136" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A137" s="57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A138" s="57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15">
+      <c r="A139" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A140" s="57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A141" s="57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15">
+      <c r="A142" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C142" s="15">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15">
+      <c r="A143" s="54" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="15">
-      <c r="A113" s="54" t="s">
+      <c r="C143" s="15">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A144" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15">
-      <c r="A114" s="54" t="s">
+    <row r="145" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A145" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15">
-      <c r="A115" s="54" t="s">
+    <row r="146" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A146" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15">
-      <c r="A116" s="54" t="s">
+    <row r="147" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A147" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15">
-      <c r="A117" s="54" t="s">
+    <row r="148" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A148" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15">
-      <c r="A118" s="54" t="s">
+    <row r="149" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A149" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15">
-      <c r="A119" s="54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="15">
-      <c r="A120" s="54"/>
-    </row>
-    <row r="121" spans="1:1" ht="16.5">
-      <c r="A121" s="55" t="s">
+    <row r="150" spans="1:3" ht="15">
+      <c r="A150" s="54"/>
+    </row>
+    <row r="151" spans="1:3" ht="16.5">
+      <c r="A151" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15">
-      <c r="A122" s="54" t="s">
+    <row r="152" spans="1:3" ht="15">
+      <c r="A152" s="54" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="15">
-      <c r="A123" s="54" t="s">
+      <c r="C152" s="15">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15">
+      <c r="A153" s="54" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="15">
-      <c r="A124" s="54" t="s">
+      <c r="C153" s="15">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15">
+      <c r="A154" s="54" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="15">
-      <c r="A125" s="54" t="s">
+      <c r="C154" s="15">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15">
+      <c r="A155" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" s="15">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15">
+      <c r="A156" s="54" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="15">
-      <c r="A126" s="54" t="s">
+      <c r="C156" s="15">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15">
+      <c r="A157" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="C157" s="15">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15">
+      <c r="A158" s="54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5">
+      <c r="A159" s="55" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15">
-      <c r="A127" s="54" t="s">
+    <row r="160" spans="1:3" ht="15">
+      <c r="A160" s="54" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="15">
-      <c r="A128" s="54" t="s">
+      <c r="C160" s="15">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15">
+      <c r="A161" s="54" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="15">
-      <c r="A129" s="54" t="s">
+      <c r="C161" s="15">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A162" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15">
-      <c r="A130" s="54" t="s">
+    <row r="163" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A163" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15">
-      <c r="A131" s="54" t="s">
+    <row r="164" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A164" s="57" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="15">
-      <c r="A132" s="54" t="s">
+      <c r="C164" s="63">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15">
+      <c r="A165" s="54" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="15">
-      <c r="A133" s="54" t="s">
+      <c r="C165" s="15">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A166" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15">
-      <c r="A134" s="54" t="s">
+    <row r="167" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A167" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15">
-      <c r="A135" s="54" t="s">
+    <row r="168" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A168" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15">
-      <c r="A136" s="54" t="s">
+    <row r="169" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A169" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15">
-      <c r="A137" s="54" t="s">
+    <row r="170" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A170" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15">
-      <c r="A138" s="54" t="s">
+    <row r="171" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A171" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15">
-      <c r="A139" s="54" t="s">
+    <row r="172" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A172" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15">
-      <c r="A140" s="54" t="s">
+    <row r="173" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A173" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15">
-      <c r="A141" s="54" t="s">
+    <row r="174" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A174" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15">
-      <c r="A142" s="54" t="s">
+    <row r="175" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A175" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15">
-      <c r="A143" s="54" t="s">
+    <row r="176" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A176" s="57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15">
-      <c r="A144" s="54" t="s">
+    <row r="177" spans="1:3" ht="15">
+      <c r="A177" s="54" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="15">
-      <c r="A145" s="54" t="s">
+      <c r="C177" s="15">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A178" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15">
-      <c r="A146" s="54" t="s">
+    <row r="179" spans="1:3" ht="15">
+      <c r="A179" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="C179" s="15">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15">
+      <c r="A180" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="C180" s="15">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A181" s="57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15">
-      <c r="A147" s="54" t="s">
+    <row r="182" spans="1:3" ht="15">
+      <c r="A182" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="C182" s="15">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A183" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15">
-      <c r="A148" s="54" t="s">
+    <row r="184" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A184" s="57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15">
-      <c r="A149" s="54" t="s">
+    <row r="185" spans="1:3" ht="15">
+      <c r="A185" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="C185" s="15">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A186" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15">
-      <c r="A150" s="54" t="s">
+    <row r="187" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A187" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15">
-      <c r="A151" s="54" t="s">
+    <row r="188" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A188" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15">
-      <c r="A152" s="54"/>
-    </row>
-    <row r="153" spans="1:1" ht="16.5">
-      <c r="A153" s="55" t="s">
+    <row r="189" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A189" s="57" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15">
-      <c r="A154" s="54" t="s">
+    <row r="190" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A190" s="57" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15">
-      <c r="A155" s="54" t="s">
+    <row r="191" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A191" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15">
-      <c r="A156" s="54" t="s">
+    <row r="192" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A192" s="57" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15">
-      <c r="A157" s="54" t="s">
+    <row r="193" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A193" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15">
-      <c r="A158" s="54" t="s">
+    <row r="194" spans="1:3" ht="15">
+      <c r="A194" s="54"/>
+    </row>
+    <row r="195" spans="1:3" ht="16.5">
+      <c r="A195" s="55" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15">
-      <c r="A159" s="54" t="s">
+    <row r="196" spans="1:3" ht="15">
+      <c r="A196" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="C196" s="15">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15">
+      <c r="A197" s="54" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="15">
-      <c r="A160" s="54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="16.5">
-      <c r="A161" s="55" t="s">
+      <c r="C197" s="15">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15">
+      <c r="A198" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="C198" s="15">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15">
+      <c r="A199" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="C199" s="15">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15">
+      <c r="A200" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="C200" s="15">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A201" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15">
-      <c r="A162" s="54" t="s">
+    <row r="202" spans="1:3" ht="15">
+      <c r="A202" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="C202" s="15">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15">
+      <c r="A203" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="C203" s="15">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15">
+      <c r="A204" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="C204" s="15">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15">
+      <c r="A205" s="54"/>
+    </row>
+    <row r="206" spans="1:3" ht="16.5">
+      <c r="A206" s="55" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15">
-      <c r="A163" s="54" t="s">
+    <row r="207" spans="1:3" ht="15">
+      <c r="A207" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="C207" s="15">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15">
+      <c r="A208" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="C208" s="15">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15">
+      <c r="A209" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C209" s="15">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A210" s="57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15">
-      <c r="A164" s="54" t="s">
+    <row r="211" spans="1:3" ht="15">
+      <c r="A211" s="54"/>
+    </row>
+    <row r="212" spans="1:3" ht="16.5">
+      <c r="A212" s="55" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15">
-      <c r="A165" s="54" t="s">
+    <row r="213" spans="1:3" ht="15">
+      <c r="A213" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15">
-      <c r="A166" s="54" t="s">
+    <row r="214" spans="1:3" ht="15">
+      <c r="A214" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15">
-      <c r="A167" s="54" t="s">
+    <row r="215" spans="1:3" ht="15">
+      <c r="A215" s="54"/>
+    </row>
+    <row r="216" spans="1:3" ht="16.5">
+      <c r="A216" s="55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15">
-      <c r="A168" s="54" t="s">
+    <row r="217" spans="1:3" ht="15">
+      <c r="A217" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="C217" s="15">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A218" s="57" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15">
-      <c r="A169" s="54" t="s">
+    <row r="219" spans="1:3" ht="15">
+      <c r="A219" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="C219" s="15">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A220" s="57" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15">
-      <c r="A170" s="54" t="s">
+    <row r="221" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A221" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15">
-      <c r="A171" s="54" t="s">
+    <row r="222" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A222" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15">
-      <c r="A172" s="54" t="s">
+    <row r="223" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A223" s="57" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15">
-      <c r="A173" s="54" t="s">
+    <row r="224" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A224" s="57" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15">
-      <c r="A174" s="54" t="s">
+    <row r="225" spans="1:1" s="63" customFormat="1" ht="15">
+      <c r="A225" s="57" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15">
-      <c r="A175" s="54" t="s">
+    <row r="226" spans="1:1" ht="15">
+      <c r="A226" s="54"/>
+    </row>
+    <row r="227" spans="1:1" ht="16.5">
+      <c r="A227" s="55" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15">
-      <c r="A176" s="54" t="s">
+    <row r="228" spans="1:1" ht="15">
+      <c r="A228" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15">
-      <c r="A177" s="54" t="s">
+    <row r="229" spans="1:1" ht="15">
+      <c r="A229" s="54"/>
+    </row>
+    <row r="230" spans="1:1" ht="16.5">
+      <c r="A230" s="55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15">
-      <c r="A178" s="54" t="s">
+    <row r="231" spans="1:1" ht="15">
+      <c r="A231" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15">
-      <c r="A179" s="54" t="s">
+    <row r="232" spans="1:1" ht="15">
+      <c r="A232" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15">
-      <c r="A180" s="54" t="s">
+    <row r="234" spans="1:1" ht="16.5">
+      <c r="A234" s="55" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15">
-      <c r="A181" s="54" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15">
-      <c r="A182" s="54" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" s="56" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="15">
-      <c r="A183" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="15">
-      <c r="A184" s="54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="15">
-      <c r="A185" s="54" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="15">
-      <c r="A186" s="54" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="15">
-      <c r="A187" s="54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="15">
-      <c r="A188" s="54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="15">
-      <c r="A189" s="54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="15">
-      <c r="A190" s="54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="15">
-      <c r="A191" s="54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="15">
-      <c r="A192" s="54" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="15">
-      <c r="A193" s="54" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="15">
-      <c r="A194" s="54" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="15">
-      <c r="A195" s="54" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="15">
-      <c r="A196" s="54"/>
-    </row>
-    <row r="197" spans="1:1" ht="16.5">
-      <c r="A197" s="55" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="15">
-      <c r="A198" s="54" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="15">
-      <c r="A199" s="54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="15">
-      <c r="A200" s="54" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="15">
-      <c r="A201" s="54" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="15">
-      <c r="A202" s="54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="15">
-      <c r="A203" s="54" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="15">
-      <c r="A204" s="54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="15">
-      <c r="A205" s="54" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="15">
-      <c r="A206" s="54" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="15">
-      <c r="A207" s="54"/>
-    </row>
-    <row r="208" spans="1:1" ht="16.5">
-      <c r="A208" s="55" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="15">
-      <c r="A209" s="54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="15">
-      <c r="A210" s="54" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="15">
-      <c r="A211" s="54" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="15">
-      <c r="A212" s="54" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" ht="15">
-      <c r="A213" s="54"/>
-    </row>
-    <row r="214" spans="1:1" ht="16.5">
-      <c r="A214" s="55" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="15">
-      <c r="A215" s="54" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="15">
-      <c r="A216" s="54" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="15">
-      <c r="A217" s="54"/>
-    </row>
-    <row r="218" spans="1:1" ht="16.5">
-      <c r="A218" s="55" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" ht="15">
-      <c r="A219" s="54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" ht="15">
-      <c r="A220" s="54" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="15">
-      <c r="A221" s="54" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="15">
-      <c r="A222" s="54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="15">
-      <c r="A223" s="54" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="15">
-      <c r="A224" s="54" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="15">
-      <c r="A225" s="54" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="15">
-      <c r="A226" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" ht="15">
-      <c r="A227" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="15">
-      <c r="A228" s="54"/>
-    </row>
-    <row r="229" spans="1:1" ht="16.5">
-      <c r="A229" s="55" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="15">
-      <c r="A230" s="54" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="15">
-      <c r="A231" s="54"/>
-    </row>
-    <row r="232" spans="1:1" ht="16.5">
-      <c r="A232" s="55" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="15">
-      <c r="A233" s="54" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" ht="15">
-      <c r="A234" s="54" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" ht="16.5">
-      <c r="A236" s="55" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="56" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="56" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="56" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="56" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="56" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="56" t="s">
-        <v>365</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="16.5">
+      <c r="A242" s="55" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="55" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="55" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" ht="16.5">
-      <c r="A248" s="55" t="s">
-        <v>368</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="59" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="59" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="59" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="59" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="59" t="s">
-        <v>372</v>
+      <c r="A252" s="60" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="59" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="60" t="s">
-        <v>374</v>
+      <c r="A254" s="59" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="59" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="59" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="487">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3843,6 +3843,15 @@
   </si>
   <si>
     <t>Robotic Arm(1800)</t>
+  </si>
+  <si>
+    <t>Saurabh</t>
+  </si>
+  <si>
+    <t>saurabhyadav531@gmail.com</t>
+  </si>
+  <si>
+    <t>RF Tx Rx query</t>
   </si>
 </sst>
 </file>
@@ -5163,10 +5172,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5409,6 +5418,23 @@
         <v>469</v>
       </c>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13">
+        <v>8765633150</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -5422,6 +5448,7 @@
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7243,8 +7270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Documents/Daily Status.xlsx
+++ b/Documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="489">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3852,6 +3852,12 @@
   </si>
   <si>
     <t>RF Tx Rx query</t>
+  </si>
+  <si>
+    <t>1300+1500</t>
+  </si>
+  <si>
+    <t>8th Feb</t>
   </si>
 </sst>
 </file>
@@ -4556,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4622,8 +4628,8 @@
       <c r="E2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="61">
-        <v>1300</v>
+      <c r="F2" s="61" t="s">
+        <v>487</v>
       </c>
       <c r="G2" s="61">
         <v>5000</v>
@@ -4680,10 +4686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5146,6 +5152,23 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19">
+        <v>9711307405</v>
+      </c>
+      <c r="D19" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="H19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5174,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
